--- a/altri_doc/Analisi Dati + Modello.xlsx
+++ b/altri_doc/Analisi Dati + Modello.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6180" windowWidth="20550" windowHeight="1170" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="6180" windowWidth="20535" windowHeight="1170" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Bluetooth" sheetId="9" r:id="rId1"/>
@@ -4192,6 +4192,246 @@
     <xf numFmtId="0" fontId="7" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4289,192 +4529,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4484,19 +4538,25 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4550,6 +4610,12 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4574,6 +4640,57 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4603,76 +4720,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4722,6 +4769,94 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4731,30 +4866,9 @@
     <xf numFmtId="0" fontId="5" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4767,41 +4881,74 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4812,22 +4959,55 @@
     <xf numFmtId="0" fontId="7" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4842,15 +5022,6 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4878,7 +5049,67 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4890,158 +5121,8 @@
     <xf numFmtId="0" fontId="7" fillId="29" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5071,87 +5152,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5159,35 +5159,7 @@
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -5233,6 +5205,156 @@
     </mruColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>s1</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>hp.2.0!$F$13:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>819200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>hp.2.0!$AS$13:$AS$18</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000000_ ;[Red]\-#,##0.000000\ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.2629999999999987E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5209999999999982E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4827000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.970495</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.551638999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="85492480"/>
+        <c:axId val="85486592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="85492480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Grandezza</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> messaggio [B]</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85486592"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="85486592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Consumo energia [mW]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85492480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5334,6 +5456,36 @@
         <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5693,27 +5845,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="23.25">
-      <c r="D1" s="403" t="s">
+      <c r="D1" s="424" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="403"/>
+      <c r="E1" s="424"/>
       <c r="F1" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="404" t="s">
+      <c r="I1" s="425" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="405"/>
-      <c r="K1" s="405"/>
-      <c r="L1" s="406"/>
-      <c r="M1" s="407" t="s">
+      <c r="J1" s="426"/>
+      <c r="K1" s="426"/>
+      <c r="L1" s="427"/>
+      <c r="M1" s="428" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="408"/>
-      <c r="O1" s="408"/>
-      <c r="P1" s="408"/>
-      <c r="Q1" s="408"/>
-      <c r="R1" s="408"/>
+      <c r="N1" s="429"/>
+      <c r="O1" s="429"/>
+      <c r="P1" s="429"/>
+      <c r="Q1" s="429"/>
+      <c r="R1" s="429"/>
     </row>
     <row r="2" spans="2:18" ht="15.75">
       <c r="D2" s="21" t="s">
@@ -5722,7 +5874,7 @@
       <c r="E2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="409" t="s">
+      <c r="F2" s="430" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="25"/>
@@ -5738,27 +5890,27 @@
       <c r="L2" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="412" t="s">
+      <c r="M2" s="433" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="413"/>
-      <c r="O2" s="413"/>
-      <c r="P2" s="413"/>
-      <c r="Q2" s="413"/>
-      <c r="R2" s="414"/>
+      <c r="N2" s="434"/>
+      <c r="O2" s="434"/>
+      <c r="P2" s="434"/>
+      <c r="Q2" s="434"/>
+      <c r="R2" s="435"/>
     </row>
     <row r="3" spans="2:18">
-      <c r="B3" s="429" t="s">
+      <c r="B3" s="408" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="430"/>
+      <c r="C3" s="409"/>
       <c r="D3" s="42">
         <v>100</v>
       </c>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="410"/>
+      <c r="F3" s="431"/>
       <c r="H3" s="25"/>
       <c r="I3" s="46" t="s">
         <v>48</v>
@@ -5772,25 +5924,25 @@
       <c r="L3" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="415"/>
-      <c r="N3" s="416"/>
-      <c r="O3" s="416"/>
-      <c r="P3" s="416"/>
-      <c r="Q3" s="416"/>
-      <c r="R3" s="417"/>
+      <c r="M3" s="436"/>
+      <c r="N3" s="437"/>
+      <c r="O3" s="437"/>
+      <c r="P3" s="437"/>
+      <c r="Q3" s="437"/>
+      <c r="R3" s="438"/>
     </row>
     <row r="4" spans="2:18">
-      <c r="B4" s="431" t="s">
+      <c r="B4" s="410" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="432"/>
-      <c r="D4" s="444" t="s">
+      <c r="C4" s="411"/>
+      <c r="D4" s="422" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="435">
+      <c r="E4" s="414">
         <v>1</v>
       </c>
-      <c r="F4" s="410"/>
+      <c r="F4" s="431"/>
       <c r="H4" s="25"/>
       <c r="I4" s="44" t="s">
         <v>49</v>
@@ -5812,11 +5964,11 @@
       <c r="R4" s="54"/>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="433"/>
-      <c r="C5" s="434"/>
-      <c r="D5" s="445"/>
-      <c r="E5" s="436"/>
-      <c r="F5" s="410"/>
+      <c r="B5" s="412"/>
+      <c r="C5" s="413"/>
+      <c r="D5" s="423"/>
+      <c r="E5" s="415"/>
+      <c r="F5" s="431"/>
       <c r="H5" s="25"/>
       <c r="I5" s="46" t="s">
         <v>50</v>
@@ -5831,26 +5983,26 @@
       <c r="M5" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N5" s="437" t="s">
+      <c r="N5" s="398" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="438"/>
-      <c r="P5" s="438"/>
-      <c r="Q5" s="438"/>
-      <c r="R5" s="439"/>
+      <c r="O5" s="416"/>
+      <c r="P5" s="416"/>
+      <c r="Q5" s="416"/>
+      <c r="R5" s="417"/>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="440" t="s">
+      <c r="B6" s="418" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="441"/>
-      <c r="D6" s="418" t="s">
+      <c r="C6" s="419"/>
+      <c r="D6" s="394" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="454" t="s">
+      <c r="E6" s="396" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="410"/>
+      <c r="F6" s="431"/>
       <c r="H6" s="25"/>
       <c r="I6" s="45" t="s">
         <v>52</v>
@@ -5867,20 +6019,20 @@
       <c r="M6" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="437" t="s">
+      <c r="N6" s="398" t="s">
         <v>69</v>
       </c>
-      <c r="O6" s="437"/>
-      <c r="P6" s="437"/>
-      <c r="Q6" s="437"/>
-      <c r="R6" s="456"/>
+      <c r="O6" s="398"/>
+      <c r="P6" s="398"/>
+      <c r="Q6" s="398"/>
+      <c r="R6" s="399"/>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="442"/>
-      <c r="C7" s="443"/>
-      <c r="D7" s="420"/>
-      <c r="E7" s="455"/>
-      <c r="F7" s="410"/>
+      <c r="B7" s="420"/>
+      <c r="C7" s="421"/>
+      <c r="D7" s="395"/>
+      <c r="E7" s="397"/>
+      <c r="F7" s="431"/>
       <c r="H7" s="25"/>
       <c r="I7" s="46" t="s">
         <v>51</v>
@@ -5897,26 +6049,26 @@
       <c r="M7" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="457" t="s">
+      <c r="N7" s="400" t="s">
         <v>66</v>
       </c>
-      <c r="O7" s="457"/>
-      <c r="P7" s="457"/>
-      <c r="Q7" s="457"/>
-      <c r="R7" s="458"/>
+      <c r="O7" s="400"/>
+      <c r="P7" s="400"/>
+      <c r="Q7" s="400"/>
+      <c r="R7" s="401"/>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="446" t="s">
+      <c r="B8" s="386" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="447"/>
+      <c r="C8" s="387"/>
       <c r="D8" s="68">
         <v>100</v>
       </c>
       <c r="E8" s="68">
         <v>6</v>
       </c>
-      <c r="F8" s="410"/>
+      <c r="F8" s="431"/>
       <c r="H8" s="25"/>
       <c r="I8" s="55" t="s">
         <v>111</v>
@@ -5932,120 +6084,120 @@
       </c>
     </row>
     <row r="9" spans="2:18">
-      <c r="B9" s="448" t="s">
+      <c r="B9" s="388" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="449"/>
-      <c r="D9" s="418">
+      <c r="C9" s="389"/>
+      <c r="D9" s="394">
         <v>100</v>
       </c>
-      <c r="E9" s="418">
+      <c r="E9" s="394">
         <v>3</v>
       </c>
-      <c r="F9" s="410"/>
+      <c r="F9" s="431"/>
       <c r="H9" s="25"/>
       <c r="J9" s="132"/>
       <c r="K9" s="320"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="450"/>
-      <c r="C10" s="451"/>
-      <c r="D10" s="419"/>
-      <c r="E10" s="419"/>
-      <c r="F10" s="410"/>
+      <c r="B10" s="390"/>
+      <c r="C10" s="391"/>
+      <c r="D10" s="439"/>
+      <c r="E10" s="439"/>
+      <c r="F10" s="431"/>
       <c r="H10" s="25"/>
       <c r="J10" s="132"/>
       <c r="K10" s="320"/>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="452"/>
-      <c r="C11" s="453"/>
-      <c r="D11" s="420"/>
-      <c r="E11" s="420"/>
-      <c r="F11" s="410"/>
+      <c r="B11" s="392"/>
+      <c r="C11" s="393"/>
+      <c r="D11" s="395"/>
+      <c r="E11" s="395"/>
+      <c r="F11" s="431"/>
       <c r="H11" s="25"/>
       <c r="J11" s="132"/>
       <c r="K11" s="320"/>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="459" t="s">
+      <c r="B12" s="402" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="460"/>
+      <c r="C12" s="403"/>
       <c r="D12" s="68">
         <v>1</v>
       </c>
       <c r="E12" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="410"/>
+      <c r="F12" s="431"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="421" t="s">
+      <c r="I12" s="440" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="423" t="s">
+      <c r="J12" s="442" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="425">
+      <c r="K12" s="444">
         <v>15</v>
       </c>
-      <c r="L12" s="427" t="s">
+      <c r="L12" s="446" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="461" t="s">
+      <c r="B13" s="404" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="462"/>
-      <c r="D13" s="418" t="s">
+      <c r="C13" s="405"/>
+      <c r="D13" s="394" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="418" t="s">
+      <c r="E13" s="394" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="410"/>
+      <c r="F13" s="431"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="422"/>
-      <c r="J13" s="424"/>
-      <c r="K13" s="426"/>
-      <c r="L13" s="428"/>
+      <c r="I13" s="441"/>
+      <c r="J13" s="443"/>
+      <c r="K13" s="445"/>
+      <c r="L13" s="447"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="463"/>
-      <c r="C14" s="464"/>
-      <c r="D14" s="420"/>
-      <c r="E14" s="420"/>
-      <c r="F14" s="410"/>
+      <c r="B14" s="406"/>
+      <c r="C14" s="407"/>
+      <c r="D14" s="395"/>
+      <c r="E14" s="395"/>
+      <c r="F14" s="431"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="371" t="s">
+      <c r="B15" s="451" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="372"/>
+      <c r="C15" s="452"/>
       <c r="D15" s="69" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="70"/>
-      <c r="F15" s="410"/>
+      <c r="F15" s="431"/>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="373"/>
-      <c r="C16" s="374"/>
+      <c r="B16" s="453"/>
+      <c r="C16" s="454"/>
       <c r="D16" s="71" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="72"/>
-      <c r="F16" s="410"/>
+      <c r="F16" s="431"/>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="373"/>
-      <c r="C17" s="374"/>
+      <c r="B17" s="453"/>
+      <c r="C17" s="454"/>
       <c r="D17" s="71" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="72"/>
-      <c r="F17" s="410"/>
+      <c r="F17" s="431"/>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
@@ -6054,13 +6206,13 @@
       <c r="O17" s="27"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="373"/>
-      <c r="C18" s="374"/>
+      <c r="B18" s="453"/>
+      <c r="C18" s="454"/>
       <c r="D18" s="71" t="s">
         <v>36</v>
       </c>
       <c r="E18" s="72"/>
-      <c r="F18" s="410"/>
+      <c r="F18" s="431"/>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
@@ -6069,177 +6221,177 @@
       <c r="O18" s="27"/>
     </row>
     <row r="19" spans="2:21">
-      <c r="B19" s="375"/>
-      <c r="C19" s="376"/>
+      <c r="B19" s="455"/>
+      <c r="C19" s="456"/>
       <c r="D19" s="73" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="74"/>
-      <c r="F19" s="411"/>
+      <c r="F19" s="432"/>
     </row>
     <row r="22" spans="2:21" ht="18.75">
-      <c r="F22" s="381" t="s">
+      <c r="F22" s="461" t="s">
         <v>351</v>
       </c>
-      <c r="G22" s="382"/>
-      <c r="H22" s="382"/>
-      <c r="I22" s="382"/>
-      <c r="J22" s="382"/>
-      <c r="K22" s="382"/>
-      <c r="L22" s="382"/>
-      <c r="M22" s="382"/>
-      <c r="N22" s="383"/>
+      <c r="G22" s="462"/>
+      <c r="H22" s="462"/>
+      <c r="I22" s="462"/>
+      <c r="J22" s="462"/>
+      <c r="K22" s="462"/>
+      <c r="L22" s="462"/>
+      <c r="M22" s="462"/>
+      <c r="N22" s="463"/>
     </row>
     <row r="24" spans="2:21">
-      <c r="B24" s="387" t="s">
+      <c r="B24" s="467" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="388"/>
-      <c r="D24" s="388"/>
-      <c r="E24" s="388"/>
-      <c r="F24" s="388"/>
-      <c r="G24" s="388"/>
-      <c r="H24" s="388"/>
-      <c r="I24" s="388"/>
-      <c r="J24" s="389"/>
-      <c r="L24" s="387" t="s">
+      <c r="C24" s="468"/>
+      <c r="D24" s="468"/>
+      <c r="E24" s="468"/>
+      <c r="F24" s="468"/>
+      <c r="G24" s="468"/>
+      <c r="H24" s="468"/>
+      <c r="I24" s="468"/>
+      <c r="J24" s="469"/>
+      <c r="L24" s="467" t="s">
         <v>45</v>
       </c>
-      <c r="M24" s="388"/>
-      <c r="N24" s="388"/>
-      <c r="O24" s="388"/>
-      <c r="P24" s="388"/>
-      <c r="Q24" s="388"/>
-      <c r="R24" s="388"/>
-      <c r="S24" s="388"/>
-      <c r="T24" s="388"/>
-      <c r="U24" s="389"/>
+      <c r="M24" s="468"/>
+      <c r="N24" s="468"/>
+      <c r="O24" s="468"/>
+      <c r="P24" s="468"/>
+      <c r="Q24" s="468"/>
+      <c r="R24" s="468"/>
+      <c r="S24" s="468"/>
+      <c r="T24" s="468"/>
+      <c r="U24" s="469"/>
     </row>
     <row r="25" spans="2:21">
-      <c r="B25" s="390"/>
-      <c r="C25" s="391"/>
-      <c r="D25" s="391"/>
-      <c r="E25" s="391"/>
-      <c r="F25" s="391"/>
-      <c r="G25" s="391"/>
-      <c r="H25" s="391"/>
-      <c r="I25" s="391"/>
-      <c r="J25" s="392"/>
-      <c r="L25" s="390"/>
-      <c r="M25" s="391"/>
-      <c r="N25" s="391"/>
-      <c r="O25" s="391"/>
-      <c r="P25" s="391"/>
-      <c r="Q25" s="391"/>
-      <c r="R25" s="391"/>
-      <c r="S25" s="391"/>
-      <c r="T25" s="391"/>
-      <c r="U25" s="392"/>
+      <c r="B25" s="470"/>
+      <c r="C25" s="471"/>
+      <c r="D25" s="471"/>
+      <c r="E25" s="471"/>
+      <c r="F25" s="471"/>
+      <c r="G25" s="471"/>
+      <c r="H25" s="471"/>
+      <c r="I25" s="471"/>
+      <c r="J25" s="472"/>
+      <c r="L25" s="470"/>
+      <c r="M25" s="471"/>
+      <c r="N25" s="471"/>
+      <c r="O25" s="471"/>
+      <c r="P25" s="471"/>
+      <c r="Q25" s="471"/>
+      <c r="R25" s="471"/>
+      <c r="S25" s="471"/>
+      <c r="T25" s="471"/>
+      <c r="U25" s="472"/>
     </row>
     <row r="26" spans="2:21">
-      <c r="B26" s="390"/>
-      <c r="C26" s="391"/>
-      <c r="D26" s="391"/>
-      <c r="E26" s="391"/>
-      <c r="F26" s="391"/>
-      <c r="G26" s="391"/>
-      <c r="H26" s="391"/>
-      <c r="I26" s="391"/>
-      <c r="J26" s="392"/>
-      <c r="L26" s="390"/>
-      <c r="M26" s="391"/>
-      <c r="N26" s="391"/>
-      <c r="O26" s="391"/>
-      <c r="P26" s="391"/>
-      <c r="Q26" s="391"/>
-      <c r="R26" s="391"/>
-      <c r="S26" s="391"/>
-      <c r="T26" s="391"/>
-      <c r="U26" s="392"/>
+      <c r="B26" s="470"/>
+      <c r="C26" s="471"/>
+      <c r="D26" s="471"/>
+      <c r="E26" s="471"/>
+      <c r="F26" s="471"/>
+      <c r="G26" s="471"/>
+      <c r="H26" s="471"/>
+      <c r="I26" s="471"/>
+      <c r="J26" s="472"/>
+      <c r="L26" s="470"/>
+      <c r="M26" s="471"/>
+      <c r="N26" s="471"/>
+      <c r="O26" s="471"/>
+      <c r="P26" s="471"/>
+      <c r="Q26" s="471"/>
+      <c r="R26" s="471"/>
+      <c r="S26" s="471"/>
+      <c r="T26" s="471"/>
+      <c r="U26" s="472"/>
     </row>
     <row r="27" spans="2:21">
-      <c r="B27" s="390"/>
-      <c r="C27" s="391"/>
-      <c r="D27" s="391"/>
-      <c r="E27" s="391"/>
-      <c r="F27" s="391"/>
-      <c r="G27" s="391"/>
-      <c r="H27" s="391"/>
-      <c r="I27" s="391"/>
-      <c r="J27" s="392"/>
-      <c r="L27" s="390"/>
-      <c r="M27" s="391"/>
-      <c r="N27" s="391"/>
-      <c r="O27" s="391"/>
-      <c r="P27" s="391"/>
-      <c r="Q27" s="391"/>
-      <c r="R27" s="391"/>
-      <c r="S27" s="391"/>
-      <c r="T27" s="391"/>
-      <c r="U27" s="392"/>
+      <c r="B27" s="470"/>
+      <c r="C27" s="471"/>
+      <c r="D27" s="471"/>
+      <c r="E27" s="471"/>
+      <c r="F27" s="471"/>
+      <c r="G27" s="471"/>
+      <c r="H27" s="471"/>
+      <c r="I27" s="471"/>
+      <c r="J27" s="472"/>
+      <c r="L27" s="470"/>
+      <c r="M27" s="471"/>
+      <c r="N27" s="471"/>
+      <c r="O27" s="471"/>
+      <c r="P27" s="471"/>
+      <c r="Q27" s="471"/>
+      <c r="R27" s="471"/>
+      <c r="S27" s="471"/>
+      <c r="T27" s="471"/>
+      <c r="U27" s="472"/>
     </row>
     <row r="28" spans="2:21">
-      <c r="B28" s="390"/>
-      <c r="C28" s="391"/>
-      <c r="D28" s="391"/>
-      <c r="E28" s="391"/>
-      <c r="F28" s="391"/>
-      <c r="G28" s="391"/>
-      <c r="H28" s="391"/>
-      <c r="I28" s="391"/>
-      <c r="J28" s="392"/>
-      <c r="L28" s="390"/>
-      <c r="M28" s="391"/>
-      <c r="N28" s="391"/>
-      <c r="O28" s="391"/>
-      <c r="P28" s="391"/>
-      <c r="Q28" s="391"/>
-      <c r="R28" s="391"/>
-      <c r="S28" s="391"/>
-      <c r="T28" s="391"/>
-      <c r="U28" s="392"/>
+      <c r="B28" s="470"/>
+      <c r="C28" s="471"/>
+      <c r="D28" s="471"/>
+      <c r="E28" s="471"/>
+      <c r="F28" s="471"/>
+      <c r="G28" s="471"/>
+      <c r="H28" s="471"/>
+      <c r="I28" s="471"/>
+      <c r="J28" s="472"/>
+      <c r="L28" s="470"/>
+      <c r="M28" s="471"/>
+      <c r="N28" s="471"/>
+      <c r="O28" s="471"/>
+      <c r="P28" s="471"/>
+      <c r="Q28" s="471"/>
+      <c r="R28" s="471"/>
+      <c r="S28" s="471"/>
+      <c r="T28" s="471"/>
+      <c r="U28" s="472"/>
     </row>
     <row r="29" spans="2:21">
-      <c r="B29" s="390"/>
-      <c r="C29" s="391"/>
-      <c r="D29" s="391"/>
-      <c r="E29" s="391"/>
-      <c r="F29" s="391"/>
-      <c r="G29" s="391"/>
-      <c r="H29" s="391"/>
-      <c r="I29" s="391"/>
-      <c r="J29" s="392"/>
-      <c r="L29" s="390"/>
-      <c r="M29" s="391"/>
-      <c r="N29" s="391"/>
-      <c r="O29" s="391"/>
-      <c r="P29" s="391"/>
-      <c r="Q29" s="391"/>
-      <c r="R29" s="391"/>
-      <c r="S29" s="391"/>
-      <c r="T29" s="391"/>
-      <c r="U29" s="392"/>
+      <c r="B29" s="470"/>
+      <c r="C29" s="471"/>
+      <c r="D29" s="471"/>
+      <c r="E29" s="471"/>
+      <c r="F29" s="471"/>
+      <c r="G29" s="471"/>
+      <c r="H29" s="471"/>
+      <c r="I29" s="471"/>
+      <c r="J29" s="472"/>
+      <c r="L29" s="470"/>
+      <c r="M29" s="471"/>
+      <c r="N29" s="471"/>
+      <c r="O29" s="471"/>
+      <c r="P29" s="471"/>
+      <c r="Q29" s="471"/>
+      <c r="R29" s="471"/>
+      <c r="S29" s="471"/>
+      <c r="T29" s="471"/>
+      <c r="U29" s="472"/>
     </row>
     <row r="30" spans="2:21">
-      <c r="B30" s="390"/>
-      <c r="C30" s="391"/>
-      <c r="D30" s="391"/>
-      <c r="E30" s="391"/>
-      <c r="F30" s="391"/>
-      <c r="G30" s="391"/>
-      <c r="H30" s="391"/>
-      <c r="I30" s="391"/>
-      <c r="J30" s="392"/>
-      <c r="L30" s="390"/>
-      <c r="M30" s="391"/>
-      <c r="N30" s="391"/>
-      <c r="O30" s="391"/>
-      <c r="P30" s="391"/>
-      <c r="Q30" s="391"/>
-      <c r="R30" s="391"/>
-      <c r="S30" s="391"/>
-      <c r="T30" s="391"/>
-      <c r="U30" s="392"/>
+      <c r="B30" s="470"/>
+      <c r="C30" s="471"/>
+      <c r="D30" s="471"/>
+      <c r="E30" s="471"/>
+      <c r="F30" s="471"/>
+      <c r="G30" s="471"/>
+      <c r="H30" s="471"/>
+      <c r="I30" s="471"/>
+      <c r="J30" s="472"/>
+      <c r="L30" s="470"/>
+      <c r="M30" s="471"/>
+      <c r="N30" s="471"/>
+      <c r="O30" s="471"/>
+      <c r="P30" s="471"/>
+      <c r="Q30" s="471"/>
+      <c r="R30" s="471"/>
+      <c r="S30" s="471"/>
+      <c r="T30" s="471"/>
+      <c r="U30" s="472"/>
     </row>
     <row r="31" spans="2:21">
       <c r="B31" s="29"/>
@@ -6255,108 +6407,108 @@
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
       <c r="J31" s="33"/>
-      <c r="L31" s="390"/>
-      <c r="M31" s="391"/>
-      <c r="N31" s="391"/>
-      <c r="O31" s="391"/>
-      <c r="P31" s="391"/>
-      <c r="Q31" s="391"/>
-      <c r="R31" s="391"/>
-      <c r="S31" s="391"/>
-      <c r="T31" s="391"/>
-      <c r="U31" s="392"/>
+      <c r="L31" s="470"/>
+      <c r="M31" s="471"/>
+      <c r="N31" s="471"/>
+      <c r="O31" s="471"/>
+      <c r="P31" s="471"/>
+      <c r="Q31" s="471"/>
+      <c r="R31" s="471"/>
+      <c r="S31" s="471"/>
+      <c r="T31" s="471"/>
+      <c r="U31" s="472"/>
     </row>
     <row r="32" spans="2:21">
       <c r="B32" s="34"/>
       <c r="C32" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="396" t="s">
+      <c r="D32" s="476" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="396"/>
-      <c r="F32" s="396"/>
-      <c r="G32" s="396"/>
-      <c r="H32" s="396"/>
-      <c r="I32" s="396"/>
-      <c r="J32" s="397"/>
-      <c r="L32" s="390"/>
-      <c r="M32" s="391"/>
-      <c r="N32" s="391"/>
-      <c r="O32" s="391"/>
-      <c r="P32" s="391"/>
-      <c r="Q32" s="391"/>
-      <c r="R32" s="391"/>
-      <c r="S32" s="391"/>
-      <c r="T32" s="391"/>
-      <c r="U32" s="392"/>
+      <c r="E32" s="476"/>
+      <c r="F32" s="476"/>
+      <c r="G32" s="476"/>
+      <c r="H32" s="476"/>
+      <c r="I32" s="476"/>
+      <c r="J32" s="477"/>
+      <c r="L32" s="470"/>
+      <c r="M32" s="471"/>
+      <c r="N32" s="471"/>
+      <c r="O32" s="471"/>
+      <c r="P32" s="471"/>
+      <c r="Q32" s="471"/>
+      <c r="R32" s="471"/>
+      <c r="S32" s="471"/>
+      <c r="T32" s="471"/>
+      <c r="U32" s="472"/>
     </row>
     <row r="33" spans="2:21">
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
-      <c r="D33" s="396"/>
-      <c r="E33" s="396"/>
-      <c r="F33" s="396"/>
-      <c r="G33" s="396"/>
-      <c r="H33" s="396"/>
-      <c r="I33" s="396"/>
-      <c r="J33" s="397"/>
-      <c r="L33" s="390"/>
-      <c r="M33" s="391"/>
-      <c r="N33" s="391"/>
-      <c r="O33" s="391"/>
-      <c r="P33" s="391"/>
-      <c r="Q33" s="391"/>
-      <c r="R33" s="391"/>
-      <c r="S33" s="391"/>
-      <c r="T33" s="391"/>
-      <c r="U33" s="392"/>
+      <c r="D33" s="476"/>
+      <c r="E33" s="476"/>
+      <c r="F33" s="476"/>
+      <c r="G33" s="476"/>
+      <c r="H33" s="476"/>
+      <c r="I33" s="476"/>
+      <c r="J33" s="477"/>
+      <c r="L33" s="470"/>
+      <c r="M33" s="471"/>
+      <c r="N33" s="471"/>
+      <c r="O33" s="471"/>
+      <c r="P33" s="471"/>
+      <c r="Q33" s="471"/>
+      <c r="R33" s="471"/>
+      <c r="S33" s="471"/>
+      <c r="T33" s="471"/>
+      <c r="U33" s="472"/>
     </row>
     <row r="34" spans="2:21">
       <c r="B34" s="37"/>
       <c r="C34" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="398" t="s">
+      <c r="D34" s="478" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="399"/>
-      <c r="F34" s="399"/>
-      <c r="G34" s="399"/>
-      <c r="H34" s="399"/>
-      <c r="I34" s="399"/>
-      <c r="J34" s="400"/>
-      <c r="L34" s="390"/>
-      <c r="M34" s="391"/>
-      <c r="N34" s="391"/>
-      <c r="O34" s="391"/>
-      <c r="P34" s="391"/>
-      <c r="Q34" s="391"/>
-      <c r="R34" s="391"/>
-      <c r="S34" s="391"/>
-      <c r="T34" s="391"/>
-      <c r="U34" s="392"/>
+      <c r="E34" s="479"/>
+      <c r="F34" s="479"/>
+      <c r="G34" s="479"/>
+      <c r="H34" s="479"/>
+      <c r="I34" s="479"/>
+      <c r="J34" s="480"/>
+      <c r="L34" s="470"/>
+      <c r="M34" s="471"/>
+      <c r="N34" s="471"/>
+      <c r="O34" s="471"/>
+      <c r="P34" s="471"/>
+      <c r="Q34" s="471"/>
+      <c r="R34" s="471"/>
+      <c r="S34" s="471"/>
+      <c r="T34" s="471"/>
+      <c r="U34" s="472"/>
     </row>
     <row r="35" spans="2:21">
       <c r="B35" s="39"/>
       <c r="C35" s="40"/>
-      <c r="D35" s="401"/>
-      <c r="E35" s="401"/>
-      <c r="F35" s="401"/>
-      <c r="G35" s="401"/>
-      <c r="H35" s="401"/>
-      <c r="I35" s="401"/>
-      <c r="J35" s="402"/>
-      <c r="L35" s="393"/>
-      <c r="M35" s="394"/>
-      <c r="N35" s="394"/>
-      <c r="O35" s="394"/>
-      <c r="P35" s="394"/>
-      <c r="Q35" s="394"/>
-      <c r="R35" s="394"/>
-      <c r="S35" s="394"/>
-      <c r="T35" s="394"/>
-      <c r="U35" s="395"/>
+      <c r="D35" s="481"/>
+      <c r="E35" s="481"/>
+      <c r="F35" s="481"/>
+      <c r="G35" s="481"/>
+      <c r="H35" s="481"/>
+      <c r="I35" s="481"/>
+      <c r="J35" s="482"/>
+      <c r="L35" s="473"/>
+      <c r="M35" s="474"/>
+      <c r="N35" s="474"/>
+      <c r="O35" s="474"/>
+      <c r="P35" s="474"/>
+      <c r="Q35" s="474"/>
+      <c r="R35" s="474"/>
+      <c r="S35" s="474"/>
+      <c r="T35" s="474"/>
+      <c r="U35" s="475"/>
     </row>
     <row r="36" spans="2:21">
       <c r="B36" s="28"/>
@@ -6372,13 +6524,13 @@
       <c r="C37" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="377" t="s">
+      <c r="D37" s="457" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="377"/>
-      <c r="F37" s="377"/>
-      <c r="G37" s="377"/>
-      <c r="H37" s="378"/>
+      <c r="E37" s="457"/>
+      <c r="F37" s="457"/>
+      <c r="G37" s="457"/>
+      <c r="H37" s="458"/>
       <c r="M37" s="27"/>
       <c r="N37" s="27"/>
       <c r="O37" s="27"/>
@@ -6432,16 +6584,16 @@
       <c r="F41" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="L41" s="368" t="s">
+      <c r="L41" s="448" t="s">
         <v>104</v>
       </c>
-      <c r="M41" s="369"/>
-      <c r="N41" s="370"/>
-      <c r="O41" s="368" t="s">
+      <c r="M41" s="449"/>
+      <c r="N41" s="450"/>
+      <c r="O41" s="448" t="s">
         <v>105</v>
       </c>
-      <c r="P41" s="369"/>
-      <c r="Q41" s="370"/>
+      <c r="P41" s="449"/>
+      <c r="Q41" s="450"/>
       <c r="R41" s="76" t="s">
         <v>92</v>
       </c>
@@ -6459,16 +6611,16 @@
       <c r="F42" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="L42" s="384" t="s">
+      <c r="L42" s="464" t="s">
         <v>107</v>
       </c>
-      <c r="M42" s="385"/>
-      <c r="N42" s="386"/>
-      <c r="O42" s="384" t="s">
+      <c r="M42" s="465"/>
+      <c r="N42" s="466"/>
+      <c r="O42" s="464" t="s">
         <v>106</v>
       </c>
-      <c r="P42" s="385"/>
-      <c r="Q42" s="386"/>
+      <c r="P42" s="465"/>
+      <c r="Q42" s="466"/>
       <c r="R42" s="26" t="s">
         <v>108</v>
       </c>
@@ -6493,13 +6645,13 @@
       <c r="M44" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="N44" s="379" t="s">
+      <c r="N44" s="459" t="s">
         <v>109</v>
       </c>
-      <c r="O44" s="379"/>
-      <c r="P44" s="379"/>
-      <c r="Q44" s="379"/>
-      <c r="R44" s="380"/>
+      <c r="O44" s="459"/>
+      <c r="P44" s="459"/>
+      <c r="Q44" s="459"/>
+      <c r="R44" s="460"/>
       <c r="S44" s="330"/>
       <c r="T44" s="330"/>
     </row>
@@ -6507,45 +6659,18 @@
       <c r="C45" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="377" t="s">
+      <c r="D45" s="457" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="377"/>
-      <c r="F45" s="377"/>
-      <c r="G45" s="378"/>
+      <c r="E45" s="457"/>
+      <c r="F45" s="457"/>
+      <c r="G45" s="458"/>
     </row>
     <row r="47" spans="2:21">
       <c r="G47" s="328"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="F2:F19"/>
-    <mergeCell ref="M2:R3"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
     <mergeCell ref="O41:Q41"/>
     <mergeCell ref="B15:C19"/>
     <mergeCell ref="D45:G45"/>
@@ -6559,6 +6684,33 @@
     <mergeCell ref="L24:U35"/>
     <mergeCell ref="D32:J33"/>
     <mergeCell ref="D34:J35"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="F2:F19"/>
+    <mergeCell ref="M2:R3"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N5" r:id="rId1"/>
@@ -6606,164 +6758,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="21">
-      <c r="A1" s="473" t="s">
+      <c r="A1" s="493" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="476" t="s">
+      <c r="B1" s="496" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="479" t="s">
+      <c r="C1" s="499" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="480"/>
-      <c r="E1" s="480"/>
-      <c r="F1" s="480"/>
-      <c r="G1" s="480"/>
-      <c r="H1" s="481"/>
-      <c r="I1" s="487" t="s">
+      <c r="D1" s="500"/>
+      <c r="E1" s="500"/>
+      <c r="F1" s="500"/>
+      <c r="G1" s="500"/>
+      <c r="H1" s="501"/>
+      <c r="I1" s="507" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="488"/>
-      <c r="K1" s="488"/>
-      <c r="L1" s="488"/>
-      <c r="M1" s="488"/>
-      <c r="N1" s="489"/>
-      <c r="P1" s="687" t="s">
+      <c r="J1" s="508"/>
+      <c r="K1" s="508"/>
+      <c r="L1" s="508"/>
+      <c r="M1" s="508"/>
+      <c r="N1" s="509"/>
+      <c r="P1" s="524" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="688"/>
-      <c r="R1" s="688"/>
-      <c r="S1" s="688"/>
-      <c r="T1" s="688"/>
-      <c r="U1" s="688"/>
-      <c r="V1" s="688"/>
-      <c r="W1" s="688"/>
-      <c r="X1" s="688"/>
-      <c r="Y1" s="688"/>
-      <c r="Z1" s="688"/>
-      <c r="AA1" s="689"/>
+      <c r="Q1" s="525"/>
+      <c r="R1" s="525"/>
+      <c r="S1" s="525"/>
+      <c r="T1" s="525"/>
+      <c r="U1" s="525"/>
+      <c r="V1" s="525"/>
+      <c r="W1" s="525"/>
+      <c r="X1" s="525"/>
+      <c r="Y1" s="525"/>
+      <c r="Z1" s="525"/>
+      <c r="AA1" s="526"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A2" s="474"/>
-      <c r="B2" s="477"/>
-      <c r="C2" s="468" t="s">
+      <c r="A2" s="494"/>
+      <c r="B2" s="497"/>
+      <c r="C2" s="510" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="468" t="s">
+      <c r="D2" s="510" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="468" t="s">
+      <c r="E2" s="510" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="495" t="s">
+      <c r="F2" s="517" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="496"/>
-      <c r="H2" s="497"/>
-      <c r="I2" s="490" t="s">
+      <c r="G2" s="518"/>
+      <c r="H2" s="519"/>
+      <c r="I2" s="512" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="482" t="s">
+      <c r="J2" s="502" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="483"/>
-      <c r="L2" s="484"/>
-      <c r="M2" s="485" t="s">
+      <c r="K2" s="503"/>
+      <c r="L2" s="504"/>
+      <c r="M2" s="505" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="486"/>
-      <c r="P2" s="557" t="str">
+      <c r="N2" s="506"/>
+      <c r="P2" s="521" t="str">
         <f>'hp. 1.0'!A6</f>
         <v>Hp. 1.1) 1tx/min</v>
       </c>
-      <c r="Q2" s="558"/>
-      <c r="R2" s="559"/>
-      <c r="S2" s="465" t="s">
+      <c r="Q2" s="522"/>
+      <c r="R2" s="523"/>
+      <c r="S2" s="483" t="s">
         <v>352</v>
       </c>
-      <c r="T2" s="466"/>
-      <c r="U2" s="466"/>
-      <c r="V2" s="466"/>
-      <c r="W2" s="466"/>
-      <c r="X2" s="466"/>
-      <c r="Y2" s="466"/>
-      <c r="Z2" s="466"/>
-      <c r="AA2" s="467"/>
+      <c r="T2" s="484"/>
+      <c r="U2" s="484"/>
+      <c r="V2" s="484"/>
+      <c r="W2" s="484"/>
+      <c r="X2" s="484"/>
+      <c r="Y2" s="484"/>
+      <c r="Z2" s="484"/>
+      <c r="AA2" s="485"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A3" s="474"/>
-      <c r="B3" s="477"/>
-      <c r="C3" s="469"/>
-      <c r="D3" s="469"/>
-      <c r="E3" s="469"/>
-      <c r="F3" s="468" t="s">
+      <c r="A3" s="494"/>
+      <c r="B3" s="497"/>
+      <c r="C3" s="520"/>
+      <c r="D3" s="520"/>
+      <c r="E3" s="520"/>
+      <c r="F3" s="510" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="468" t="s">
+      <c r="G3" s="510" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="468" t="s">
+      <c r="H3" s="510" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="491"/>
-      <c r="J3" s="493" t="s">
+      <c r="I3" s="513"/>
+      <c r="J3" s="515" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="493" t="s">
+      <c r="K3" s="515" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="493" t="s">
+      <c r="L3" s="515" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="471" t="s">
+      <c r="M3" s="489" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="471" t="s">
+      <c r="N3" s="489" t="s">
         <v>76</v>
       </c>
-      <c r="P3" s="690" t="s">
+      <c r="P3" s="491" t="s">
         <v>87</v>
       </c>
-      <c r="Q3" s="690" t="s">
+      <c r="Q3" s="491" t="s">
         <v>84</v>
       </c>
-      <c r="R3" s="690" t="s">
+      <c r="R3" s="491" t="s">
         <v>85</v>
       </c>
-      <c r="S3" s="465" t="s">
+      <c r="S3" s="483" t="s">
         <v>360</v>
       </c>
-      <c r="T3" s="466"/>
-      <c r="U3" s="467"/>
-      <c r="V3" s="465" t="s">
+      <c r="T3" s="484"/>
+      <c r="U3" s="485"/>
+      <c r="V3" s="483" t="s">
         <v>377</v>
       </c>
-      <c r="W3" s="466"/>
-      <c r="X3" s="467"/>
-      <c r="Y3" s="465" t="s">
+      <c r="W3" s="484"/>
+      <c r="X3" s="485"/>
+      <c r="Y3" s="483" t="s">
         <v>381</v>
       </c>
-      <c r="Z3" s="466"/>
-      <c r="AA3" s="467"/>
+      <c r="Z3" s="484"/>
+      <c r="AA3" s="485"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="475"/>
-      <c r="B4" s="478"/>
-      <c r="C4" s="470"/>
-      <c r="D4" s="470"/>
-      <c r="E4" s="470"/>
-      <c r="F4" s="470"/>
-      <c r="G4" s="470"/>
-      <c r="H4" s="470"/>
-      <c r="I4" s="492"/>
-      <c r="J4" s="494"/>
-      <c r="K4" s="494"/>
-      <c r="L4" s="494"/>
-      <c r="M4" s="472"/>
-      <c r="N4" s="472"/>
-      <c r="P4" s="691"/>
-      <c r="Q4" s="691"/>
-      <c r="R4" s="691"/>
+      <c r="A4" s="495"/>
+      <c r="B4" s="498"/>
+      <c r="C4" s="511"/>
+      <c r="D4" s="511"/>
+      <c r="E4" s="511"/>
+      <c r="F4" s="511"/>
+      <c r="G4" s="511"/>
+      <c r="H4" s="511"/>
+      <c r="I4" s="514"/>
+      <c r="J4" s="516"/>
+      <c r="K4" s="516"/>
+      <c r="L4" s="516"/>
+      <c r="M4" s="490"/>
+      <c r="N4" s="490"/>
+      <c r="P4" s="492"/>
+      <c r="Q4" s="492"/>
+      <c r="R4" s="492"/>
       <c r="S4" s="331" t="s">
         <v>87</v>
       </c>
@@ -6835,15 +6987,15 @@
       <c r="N5" s="12">
         <v>6.2</v>
       </c>
-      <c r="P5" s="692">
+      <c r="P5" s="380">
         <f>$M5+'hp. 1.0'!$M$10*10^-3</f>
         <v>3.10000075</v>
       </c>
-      <c r="Q5" s="692">
+      <c r="Q5" s="380">
         <f>TRUNC(E5/P5,2)</f>
         <v>3.47</v>
       </c>
-      <c r="R5" s="693">
+      <c r="R5" s="381">
         <f>TRUNC(Q5*'hp. 1.0'!$D$3)</f>
         <v>208</v>
       </c>
@@ -6852,7 +7004,7 @@
         <v>3.1000548270000001</v>
       </c>
       <c r="T5" s="333">
-        <f>TRUNC($E5/S5,2)</f>
+        <f t="shared" ref="T5:T16" si="0">TRUNC($E5/S5,2)</f>
         <v>3.47</v>
       </c>
       <c r="U5" s="336">
@@ -6864,7 +7016,7 @@
         <v>3.1189704950000001</v>
       </c>
       <c r="W5" s="333">
-        <f>TRUNC($E5/V5,2)</f>
+        <f t="shared" ref="W5:W16" si="1">TRUNC($E5/V5,2)</f>
         <v>3.45</v>
       </c>
       <c r="X5" s="341">
@@ -6876,7 +7028,7 @@
         <v>3.1485516389999999</v>
       </c>
       <c r="Z5" s="333">
-        <f>TRUNC($E5/Y5,2)</f>
+        <f t="shared" ref="Z5:Z16" si="2">TRUNC($E5/Y5,2)</f>
         <v>3.42</v>
       </c>
       <c r="AA5" s="336">
@@ -6925,15 +7077,15 @@
       <c r="N6" s="15">
         <v>5.0999999999999996</v>
       </c>
-      <c r="P6" s="694">
+      <c r="P6" s="382">
         <f>$M6+'hp. 1.0'!$M$10*10^-3</f>
         <v>3.2000007500000001</v>
       </c>
-      <c r="Q6" s="694">
-        <f t="shared" ref="Q6:Q16" si="0">TRUNC(E6/P6,2)</f>
+      <c r="Q6" s="382">
+        <f t="shared" ref="Q6:Q16" si="3">TRUNC(E6/P6,2)</f>
         <v>3.08</v>
       </c>
-      <c r="R6" s="695">
+      <c r="R6" s="383">
         <f>TRUNC(Q6*'hp. 1.0'!$D$3)</f>
         <v>184</v>
       </c>
@@ -6942,7 +7094,7 @@
         <v>3.2000548270000002</v>
       </c>
       <c r="T6" s="334">
-        <f>TRUNC($E6/S6,2)</f>
+        <f t="shared" si="0"/>
         <v>3.08</v>
       </c>
       <c r="U6" s="337">
@@ -6954,7 +7106,7 @@
         <v>3.2189704950000002</v>
       </c>
       <c r="W6" s="334">
-        <f>TRUNC($E6/V6,2)</f>
+        <f t="shared" si="1"/>
         <v>3.06</v>
       </c>
       <c r="X6" s="340">
@@ -6966,7 +7118,7 @@
         <v>3.248551639</v>
       </c>
       <c r="Z6" s="334">
-        <f>TRUNC($E6/Y6,2)</f>
+        <f t="shared" si="2"/>
         <v>3.04</v>
       </c>
       <c r="AA6" s="337">
@@ -7015,15 +7167,15 @@
       <c r="N7" s="18">
         <v>3.4</v>
       </c>
-      <c r="P7" s="696">
+      <c r="P7" s="384">
         <f>$M7+'hp. 1.0'!$M$10*10^-3</f>
         <v>3.3000007499999997</v>
       </c>
-      <c r="Q7" s="696">
-        <f t="shared" si="0"/>
+      <c r="Q7" s="384">
+        <f t="shared" si="3"/>
         <v>2.41</v>
       </c>
-      <c r="R7" s="697">
+      <c r="R7" s="385">
         <f>TRUNC(Q7*'hp. 1.0'!$D$3)</f>
         <v>144</v>
       </c>
@@ -7032,7 +7184,7 @@
         <v>3.3000548269999999</v>
       </c>
       <c r="T7" s="335">
-        <f>TRUNC($E7/S7,2)</f>
+        <f t="shared" si="0"/>
         <v>2.41</v>
       </c>
       <c r="U7" s="338">
@@ -7044,7 +7196,7 @@
         <v>3.3189704949999999</v>
       </c>
       <c r="W7" s="335">
-        <f>TRUNC($E7/V7,2)</f>
+        <f t="shared" si="1"/>
         <v>2.4</v>
       </c>
       <c r="X7" s="342">
@@ -7056,7 +7208,7 @@
         <v>3.3485516389999996</v>
       </c>
       <c r="Z7" s="335">
-        <f>TRUNC($E7/Y7,2)</f>
+        <f t="shared" si="2"/>
         <v>2.38</v>
       </c>
       <c r="AA7" s="338">
@@ -7101,15 +7253,15 @@
       <c r="N8" s="6">
         <v>9.1</v>
       </c>
-      <c r="P8" s="692">
+      <c r="P8" s="380">
         <f>$M8+'hp. 1.0'!$M$10*10^-3</f>
         <v>4.4000007500000002</v>
       </c>
-      <c r="Q8" s="692">
-        <f t="shared" si="0"/>
+      <c r="Q8" s="380">
+        <f t="shared" si="3"/>
         <v>2.59</v>
       </c>
-      <c r="R8" s="693">
+      <c r="R8" s="381">
         <f>TRUNC(Q8*'hp. 1.0'!$D$3)</f>
         <v>155</v>
       </c>
@@ -7118,7 +7270,7 @@
         <v>4.4000548269999999</v>
       </c>
       <c r="T8" s="333">
-        <f>TRUNC($E8/S8,2)</f>
+        <f t="shared" si="0"/>
         <v>2.59</v>
       </c>
       <c r="U8" s="336">
@@ -7130,7 +7282,7 @@
         <v>4.4189704949999999</v>
       </c>
       <c r="W8" s="333">
-        <f>TRUNC($E8/V8,2)</f>
+        <f t="shared" si="1"/>
         <v>2.57</v>
       </c>
       <c r="X8" s="341">
@@ -7142,7 +7294,7 @@
         <v>4.4485516390000006</v>
       </c>
       <c r="Z8" s="333">
-        <f>TRUNC($E8/Y8,2)</f>
+        <f t="shared" si="2"/>
         <v>2.56</v>
       </c>
       <c r="AA8" s="336">
@@ -7187,15 +7339,15 @@
       <c r="N9" s="8">
         <v>4.8</v>
       </c>
-      <c r="P9" s="696">
+      <c r="P9" s="384">
         <f>$M9+'hp. 1.0'!$M$10*10^-3</f>
         <v>3.8000007499999997</v>
       </c>
-      <c r="Q9" s="696">
-        <f t="shared" si="0"/>
+      <c r="Q9" s="384">
+        <f t="shared" si="3"/>
         <v>2.99</v>
       </c>
-      <c r="R9" s="697">
+      <c r="R9" s="385">
         <f>TRUNC(Q9*'hp. 1.0'!$D$3)</f>
         <v>179</v>
       </c>
@@ -7204,7 +7356,7 @@
         <v>3.8000548269999999</v>
       </c>
       <c r="T9" s="335">
-        <f>TRUNC($E9/S9,2)</f>
+        <f t="shared" si="0"/>
         <v>2.99</v>
       </c>
       <c r="U9" s="338">
@@ -7216,7 +7368,7 @@
         <v>3.8189704949999999</v>
       </c>
       <c r="W9" s="335">
-        <f>TRUNC($E9/V9,2)</f>
+        <f t="shared" si="1"/>
         <v>2.98</v>
       </c>
       <c r="X9" s="342">
@@ -7228,7 +7380,7 @@
         <v>3.8485516389999996</v>
       </c>
       <c r="Z9" s="335">
-        <f>TRUNC($E9/Y9,2)</f>
+        <f t="shared" si="2"/>
         <v>2.96</v>
       </c>
       <c r="AA9" s="338">
@@ -7275,15 +7427,15 @@
       <c r="N10" s="12">
         <v>3.8</v>
       </c>
-      <c r="P10" s="692">
+      <c r="P10" s="380">
         <f>$M10+'hp. 1.0'!$M$10*10^-3</f>
         <v>3.5000007499999999</v>
       </c>
-      <c r="Q10" s="692">
-        <f t="shared" si="0"/>
+      <c r="Q10" s="380">
+        <f t="shared" si="3"/>
         <v>3.17</v>
       </c>
-      <c r="R10" s="693">
+      <c r="R10" s="381">
         <f>TRUNC(Q10*'hp. 1.0'!$D$3)</f>
         <v>190</v>
       </c>
@@ -7292,7 +7444,7 @@
         <v>3.500054827</v>
       </c>
       <c r="T10" s="333">
-        <f>TRUNC($E10/S10,2)</f>
+        <f t="shared" si="0"/>
         <v>3.17</v>
       </c>
       <c r="U10" s="336">
@@ -7304,7 +7456,7 @@
         <v>3.518970495</v>
       </c>
       <c r="W10" s="333">
-        <f>TRUNC($E10/V10,2)</f>
+        <f t="shared" si="1"/>
         <v>3.15</v>
       </c>
       <c r="X10" s="341">
@@ -7316,7 +7468,7 @@
         <v>3.5485516389999998</v>
       </c>
       <c r="Z10" s="333">
-        <f>TRUNC($E10/Y10,2)</f>
+        <f t="shared" si="2"/>
         <v>3.12</v>
       </c>
       <c r="AA10" s="336">
@@ -7363,15 +7515,15 @@
       <c r="N11" s="15">
         <v>5.2</v>
       </c>
-      <c r="P11" s="694">
+      <c r="P11" s="382">
         <f>$M11+'hp. 1.0'!$M$10*10^-3</f>
         <v>3.10000075</v>
       </c>
-      <c r="Q11" s="694">
-        <f t="shared" si="0"/>
+      <c r="Q11" s="382">
+        <f t="shared" si="3"/>
         <v>2.2200000000000002</v>
       </c>
-      <c r="R11" s="695">
+      <c r="R11" s="383">
         <f>TRUNC(Q11*'hp. 1.0'!$D$3)</f>
         <v>133</v>
       </c>
@@ -7380,7 +7532,7 @@
         <v>3.1000548270000001</v>
       </c>
       <c r="T11" s="334">
-        <f>TRUNC($E11/S11,2)</f>
+        <f t="shared" si="0"/>
         <v>2.2200000000000002</v>
       </c>
       <c r="U11" s="337">
@@ -7392,7 +7544,7 @@
         <v>3.1189704950000001</v>
       </c>
       <c r="W11" s="334">
-        <f>TRUNC($E11/V11,2)</f>
+        <f t="shared" si="1"/>
         <v>2.21</v>
       </c>
       <c r="X11" s="340">
@@ -7404,7 +7556,7 @@
         <v>3.1485516389999999</v>
       </c>
       <c r="Z11" s="334">
-        <f>TRUNC($E11/Y11,2)</f>
+        <f t="shared" si="2"/>
         <v>2.19</v>
       </c>
       <c r="AA11" s="337">
@@ -7449,15 +7601,15 @@
       <c r="N12" s="15">
         <v>2.9</v>
       </c>
-      <c r="P12" s="696">
+      <c r="P12" s="384">
         <f>$M12+'hp. 1.0'!$M$10*10^-3</f>
         <v>2.2000007500000001</v>
       </c>
-      <c r="Q12" s="696">
-        <f t="shared" si="0"/>
+      <c r="Q12" s="384">
+        <f t="shared" si="3"/>
         <v>2.4700000000000002</v>
       </c>
-      <c r="R12" s="697">
+      <c r="R12" s="385">
         <f>TRUNC(Q12*'hp. 1.0'!$D$3)</f>
         <v>148</v>
       </c>
@@ -7466,7 +7618,7 @@
         <v>2.2000548270000002</v>
       </c>
       <c r="T12" s="335">
-        <f>TRUNC($E12/S12,2)</f>
+        <f t="shared" si="0"/>
         <v>2.4700000000000002</v>
       </c>
       <c r="U12" s="338">
@@ -7478,7 +7630,7 @@
         <v>2.2189704950000002</v>
       </c>
       <c r="W12" s="335">
-        <f>TRUNC($E12/V12,2)</f>
+        <f t="shared" si="1"/>
         <v>2.4500000000000002</v>
       </c>
       <c r="X12" s="342">
@@ -7490,7 +7642,7 @@
         <v>2.248551639</v>
       </c>
       <c r="Z12" s="335">
-        <f>TRUNC($E12/Y12,2)</f>
+        <f t="shared" si="2"/>
         <v>2.42</v>
       </c>
       <c r="AA12" s="338">
@@ -7535,15 +7687,15 @@
       <c r="N13" s="6">
         <v>8.4</v>
       </c>
-      <c r="P13" s="692">
+      <c r="P13" s="380">
         <f>$M13+'hp. 1.0'!$M$10*10^-3</f>
         <v>4.3000007499999997</v>
       </c>
-      <c r="Q13" s="692">
-        <f t="shared" si="0"/>
+      <c r="Q13" s="380">
+        <f t="shared" si="3"/>
         <v>1.86</v>
       </c>
-      <c r="R13" s="693">
+      <c r="R13" s="381">
         <f>TRUNC(Q13*'hp. 1.0'!$D$3)</f>
         <v>111</v>
       </c>
@@ -7552,7 +7704,7 @@
         <v>4.3000548269999994</v>
       </c>
       <c r="T13" s="333">
-        <f>TRUNC($E13/S13,2)</f>
+        <f t="shared" si="0"/>
         <v>1.86</v>
       </c>
       <c r="U13" s="336">
@@ -7564,7 +7716,7 @@
         <v>4.3189704949999994</v>
       </c>
       <c r="W13" s="333">
-        <f>TRUNC($E13/V13,2)</f>
+        <f t="shared" si="1"/>
         <v>1.85</v>
       </c>
       <c r="X13" s="341">
@@ -7576,7 +7728,7 @@
         <v>4.3485516390000001</v>
       </c>
       <c r="Z13" s="333">
-        <f>TRUNC($E13/Y13,2)</f>
+        <f t="shared" si="2"/>
         <v>1.83</v>
       </c>
       <c r="AA13" s="336">
@@ -7623,15 +7775,15 @@
       <c r="N14" s="3">
         <v>10.9</v>
       </c>
-      <c r="P14" s="696">
+      <c r="P14" s="384">
         <f>$M14+'hp. 1.0'!$M$10*10^-3</f>
         <v>4.8000007499999997</v>
       </c>
-      <c r="Q14" s="696">
-        <f t="shared" si="0"/>
+      <c r="Q14" s="384">
+        <f t="shared" si="3"/>
         <v>2.54</v>
       </c>
-      <c r="R14" s="697">
+      <c r="R14" s="385">
         <f>TRUNC(Q14*'hp. 1.0'!$D$3)</f>
         <v>152</v>
       </c>
@@ -7640,7 +7792,7 @@
         <v>4.8000548269999994</v>
       </c>
       <c r="T14" s="335">
-        <f>TRUNC($E14/S14,2)</f>
+        <f t="shared" si="0"/>
         <v>2.54</v>
       </c>
       <c r="U14" s="338">
@@ -7652,7 +7804,7 @@
         <v>4.8189704949999994</v>
       </c>
       <c r="W14" s="335">
-        <f>TRUNC($E14/V14,2)</f>
+        <f t="shared" si="1"/>
         <v>2.5299999999999998</v>
       </c>
       <c r="X14" s="342">
@@ -7664,7 +7816,7 @@
         <v>4.8485516390000001</v>
       </c>
       <c r="Z14" s="335">
-        <f>TRUNC($E14/Y14,2)</f>
+        <f t="shared" si="2"/>
         <v>2.5099999999999998</v>
       </c>
       <c r="AA14" s="338">
@@ -7711,15 +7863,15 @@
       <c r="N15" s="12">
         <v>6.5</v>
       </c>
-      <c r="P15" s="694">
+      <c r="P15" s="382">
         <f>$M15+'hp. 1.0'!$M$10*10^-3</f>
         <v>3.8000007499999997</v>
       </c>
-      <c r="Q15" s="694">
-        <f t="shared" si="0"/>
+      <c r="Q15" s="382">
+        <f t="shared" si="3"/>
         <v>2.42</v>
       </c>
-      <c r="R15" s="695">
+      <c r="R15" s="383">
         <f>TRUNC(Q15*'hp. 1.0'!$D$3)</f>
         <v>145</v>
       </c>
@@ -7728,7 +7880,7 @@
         <v>3.8000548269999999</v>
       </c>
       <c r="T15" s="334">
-        <f>TRUNC($E15/S15,2)</f>
+        <f t="shared" si="0"/>
         <v>2.42</v>
       </c>
       <c r="U15" s="337">
@@ -7740,7 +7892,7 @@
         <v>3.8189704949999999</v>
       </c>
       <c r="W15" s="334">
-        <f>TRUNC($E15/V15,2)</f>
+        <f t="shared" si="1"/>
         <v>2.4</v>
       </c>
       <c r="X15" s="340">
@@ -7752,7 +7904,7 @@
         <v>3.8485516389999996</v>
       </c>
       <c r="Z15" s="334">
-        <f>TRUNC($E15/Y15,2)</f>
+        <f t="shared" si="2"/>
         <v>2.39</v>
       </c>
       <c r="AA15" s="337">
@@ -7797,15 +7949,15 @@
       <c r="N16" s="17">
         <v>4.7</v>
       </c>
-      <c r="P16" s="696">
+      <c r="P16" s="384">
         <f>$M16+'hp. 1.0'!$M$10*10^-3</f>
         <v>3.4000007499999998</v>
       </c>
-      <c r="Q16" s="696">
-        <f t="shared" si="0"/>
+      <c r="Q16" s="384">
+        <f t="shared" si="3"/>
         <v>2.23</v>
       </c>
-      <c r="R16" s="697">
+      <c r="R16" s="385">
         <f>TRUNC(Q16*'hp. 1.0'!$D$3)</f>
         <v>133</v>
       </c>
@@ -7814,7 +7966,7 @@
         <v>3.4000548269999999</v>
       </c>
       <c r="T16" s="335">
-        <f>TRUNC($E16/S16,2)</f>
+        <f t="shared" si="0"/>
         <v>2.23</v>
       </c>
       <c r="U16" s="338">
@@ -7826,7 +7978,7 @@
         <v>3.4189704949999999</v>
       </c>
       <c r="W16" s="335">
-        <f>TRUNC($E16/V16,2)</f>
+        <f t="shared" si="1"/>
         <v>2.2200000000000002</v>
       </c>
       <c r="X16" s="342">
@@ -7838,7 +7990,7 @@
         <v>3.4485516389999997</v>
       </c>
       <c r="Z16" s="335">
-        <f>TRUNC($E16/Y16,2)</f>
+        <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="AA16" s="338">
@@ -7847,299 +7999,301 @@
       </c>
     </row>
     <row r="17" spans="10:27">
-      <c r="S17" s="672" t="s">
+      <c r="S17" s="486" t="s">
         <v>384</v>
       </c>
-      <c r="T17" s="673"/>
-      <c r="U17" s="673"/>
-      <c r="V17" s="673"/>
-      <c r="W17" s="673"/>
-      <c r="X17" s="673"/>
-      <c r="Y17" s="673"/>
-      <c r="Z17" s="673"/>
-      <c r="AA17" s="674"/>
+      <c r="T17" s="487"/>
+      <c r="U17" s="487"/>
+      <c r="V17" s="487"/>
+      <c r="W17" s="487"/>
+      <c r="X17" s="487"/>
+      <c r="Y17" s="487"/>
+      <c r="Z17" s="487"/>
+      <c r="AA17" s="488"/>
     </row>
     <row r="18" spans="10:27">
-      <c r="S18" s="672" t="s">
+      <c r="S18" s="486" t="s">
         <v>381</v>
       </c>
-      <c r="T18" s="673"/>
-      <c r="U18" s="674"/>
-      <c r="V18" s="672"/>
-      <c r="W18" s="673"/>
-      <c r="X18" s="674"/>
-      <c r="Y18" s="672"/>
-      <c r="Z18" s="673"/>
-      <c r="AA18" s="674"/>
+      <c r="T18" s="487"/>
+      <c r="U18" s="488"/>
+      <c r="V18" s="486"/>
+      <c r="W18" s="487"/>
+      <c r="X18" s="488"/>
+      <c r="Y18" s="486"/>
+      <c r="Z18" s="487"/>
+      <c r="AA18" s="488"/>
     </row>
     <row r="19" spans="10:27">
       <c r="J19" s="27"/>
-      <c r="S19" s="675" t="s">
+      <c r="S19" s="368" t="s">
         <v>87</v>
       </c>
-      <c r="T19" s="676" t="s">
+      <c r="T19" s="369" t="s">
         <v>84</v>
       </c>
-      <c r="U19" s="676" t="s">
+      <c r="U19" s="369" t="s">
         <v>85</v>
       </c>
-      <c r="V19" s="677"/>
-      <c r="W19" s="676"/>
-      <c r="X19" s="676"/>
-      <c r="Y19" s="677"/>
-      <c r="Z19" s="676"/>
-      <c r="AA19" s="676"/>
+      <c r="V19" s="370"/>
+      <c r="W19" s="369"/>
+      <c r="X19" s="369"/>
+      <c r="Y19" s="370"/>
+      <c r="Z19" s="369"/>
+      <c r="AA19" s="369"/>
     </row>
     <row r="20" spans="10:27">
       <c r="J20" s="27"/>
-      <c r="S20" s="678">
+      <c r="S20" s="371">
         <f>$M5+hp.3.0!$AS$12*10^-3</f>
         <v>3.4665648744500004</v>
       </c>
-      <c r="T20" s="678">
+      <c r="T20" s="371">
         <f>TRUNC($E5/S20,2)</f>
         <v>3.1</v>
       </c>
-      <c r="U20" s="679">
+      <c r="U20" s="372">
         <f>FLOOR(TRUNC(CONVERT(T20,"hr","mn")/15)*hp.3.0!$D$12,1)</f>
         <v>1800</v>
       </c>
-      <c r="V20" s="678"/>
-      <c r="W20" s="678"/>
-      <c r="X20" s="680"/>
-      <c r="Y20" s="678"/>
-      <c r="Z20" s="678"/>
-      <c r="AA20" s="679"/>
+      <c r="V20" s="371"/>
+      <c r="W20" s="371"/>
+      <c r="X20" s="373"/>
+      <c r="Y20" s="371"/>
+      <c r="Z20" s="371"/>
+      <c r="AA20" s="372"/>
     </row>
     <row r="21" spans="10:27">
-      <c r="S21" s="681">
+      <c r="S21" s="374">
         <f>$M6+hp.3.0!$AS$12*10^-3</f>
         <v>3.56656487445</v>
       </c>
-      <c r="T21" s="681">
-        <f t="shared" ref="T21:T31" si="1">TRUNC($E6/S21,2)</f>
+      <c r="T21" s="374">
+        <f t="shared" ref="T21:T31" si="4">TRUNC($E6/S21,2)</f>
         <v>2.77</v>
       </c>
-      <c r="U21" s="682">
+      <c r="U21" s="375">
         <f>FLOOR(TRUNC(CONVERT(T21,"hr","mn")/15)*hp.3.0!$D$12,1)</f>
         <v>1650</v>
       </c>
-      <c r="V21" s="681"/>
-      <c r="W21" s="681"/>
-      <c r="X21" s="683"/>
-      <c r="Y21" s="681"/>
-      <c r="Z21" s="681"/>
-      <c r="AA21" s="682"/>
+      <c r="V21" s="374"/>
+      <c r="W21" s="374"/>
+      <c r="X21" s="376"/>
+      <c r="Y21" s="374"/>
+      <c r="Z21" s="374"/>
+      <c r="AA21" s="375"/>
     </row>
     <row r="22" spans="10:27">
-      <c r="S22" s="684">
+      <c r="S22" s="377">
         <f>$M7+hp.3.0!$AS$12*10^-3</f>
         <v>3.6665648744499997</v>
       </c>
-      <c r="T22" s="684">
-        <f t="shared" si="1"/>
+      <c r="T22" s="377">
+        <f t="shared" si="4"/>
         <v>2.17</v>
       </c>
-      <c r="U22" s="685">
+      <c r="U22" s="378">
         <f>FLOOR(TRUNC(CONVERT(T22,"hr","mn")/15)*hp.3.0!$D$12,1)</f>
         <v>1200</v>
       </c>
-      <c r="V22" s="684"/>
-      <c r="W22" s="684"/>
-      <c r="X22" s="686"/>
-      <c r="Y22" s="684"/>
-      <c r="Z22" s="684"/>
-      <c r="AA22" s="685"/>
+      <c r="V22" s="377"/>
+      <c r="W22" s="377"/>
+      <c r="X22" s="379"/>
+      <c r="Y22" s="377"/>
+      <c r="Z22" s="377"/>
+      <c r="AA22" s="378"/>
     </row>
     <row r="23" spans="10:27">
-      <c r="S23" s="678">
+      <c r="S23" s="371">
         <f>$M8+hp.3.0!$AS$12*10^-3</f>
         <v>4.7665648744500002</v>
       </c>
-      <c r="T23" s="678">
-        <f t="shared" si="1"/>
+      <c r="T23" s="371">
+        <f t="shared" si="4"/>
         <v>2.39</v>
       </c>
-      <c r="U23" s="679">
+      <c r="U23" s="372">
         <f>FLOOR(TRUNC(CONVERT(T23,"hr","mn")/15)*hp.3.0!$D$12,1)</f>
         <v>1350</v>
       </c>
-      <c r="V23" s="678"/>
-      <c r="W23" s="678"/>
-      <c r="X23" s="680"/>
-      <c r="Y23" s="678"/>
-      <c r="Z23" s="678"/>
-      <c r="AA23" s="679"/>
+      <c r="V23" s="371"/>
+      <c r="W23" s="371"/>
+      <c r="X23" s="373"/>
+      <c r="Y23" s="371"/>
+      <c r="Z23" s="371"/>
+      <c r="AA23" s="372"/>
     </row>
     <row r="24" spans="10:27">
-      <c r="S24" s="684">
+      <c r="S24" s="377">
         <f>$M9+hp.3.0!$AS$12*10^-3</f>
         <v>4.1665648744499997</v>
       </c>
-      <c r="T24" s="684">
-        <f t="shared" si="1"/>
+      <c r="T24" s="377">
+        <f t="shared" si="4"/>
         <v>2.73</v>
       </c>
-      <c r="U24" s="685">
+      <c r="U24" s="378">
         <f>FLOOR(TRUNC(CONVERT(T24,"hr","mn")/15)*hp.3.0!$D$12,1)</f>
         <v>1500</v>
       </c>
-      <c r="V24" s="684"/>
-      <c r="W24" s="684"/>
-      <c r="X24" s="686"/>
-      <c r="Y24" s="684"/>
-      <c r="Z24" s="684"/>
-      <c r="AA24" s="685"/>
+      <c r="V24" s="377"/>
+      <c r="W24" s="377"/>
+      <c r="X24" s="379"/>
+      <c r="Y24" s="377"/>
+      <c r="Z24" s="377"/>
+      <c r="AA24" s="378"/>
     </row>
     <row r="25" spans="10:27">
-      <c r="S25" s="678">
+      <c r="S25" s="371">
         <f>$M10+hp.3.0!$AS$12*10^-3</f>
         <v>3.8665648744499999</v>
       </c>
-      <c r="T25" s="678">
-        <f t="shared" si="1"/>
+      <c r="T25" s="371">
+        <f t="shared" si="4"/>
         <v>2.87</v>
       </c>
-      <c r="U25" s="679">
+      <c r="U25" s="372">
         <f>FLOOR(TRUNC(CONVERT(T25,"hr","mn")/15)*hp.3.0!$D$12,1)</f>
         <v>1650</v>
       </c>
-      <c r="V25" s="678"/>
-      <c r="W25" s="678"/>
-      <c r="X25" s="680"/>
-      <c r="Y25" s="678"/>
-      <c r="Z25" s="678"/>
-      <c r="AA25" s="679"/>
+      <c r="V25" s="371"/>
+      <c r="W25" s="371"/>
+      <c r="X25" s="373"/>
+      <c r="Y25" s="371"/>
+      <c r="Z25" s="371"/>
+      <c r="AA25" s="372"/>
     </row>
     <row r="26" spans="10:27">
-      <c r="S26" s="681">
+      <c r="S26" s="374">
         <f>$M11+hp.3.0!$AS$12*10^-3</f>
         <v>3.4665648744500004</v>
       </c>
-      <c r="T26" s="681">
-        <f t="shared" si="1"/>
+      <c r="T26" s="374">
+        <f t="shared" si="4"/>
         <v>1.99</v>
       </c>
-      <c r="U26" s="682">
+      <c r="U26" s="375">
         <f>FLOOR(TRUNC(CONVERT(T26,"hr","mn")/15)*hp.3.0!$D$12,1)</f>
         <v>1050</v>
       </c>
-      <c r="V26" s="681"/>
-      <c r="W26" s="681"/>
-      <c r="X26" s="683"/>
-      <c r="Y26" s="681"/>
-      <c r="Z26" s="681"/>
-      <c r="AA26" s="682"/>
+      <c r="V26" s="374"/>
+      <c r="W26" s="374"/>
+      <c r="X26" s="376"/>
+      <c r="Y26" s="374"/>
+      <c r="Z26" s="374"/>
+      <c r="AA26" s="375"/>
     </row>
     <row r="27" spans="10:27">
-      <c r="S27" s="684">
+      <c r="S27" s="377">
         <f>$M12+hp.3.0!$AS$12*10^-3</f>
         <v>2.56656487445</v>
       </c>
-      <c r="T27" s="684">
-        <f t="shared" si="1"/>
+      <c r="T27" s="377">
+        <f t="shared" si="4"/>
         <v>2.12</v>
       </c>
-      <c r="U27" s="685">
+      <c r="U27" s="378">
         <f>FLOOR(TRUNC(CONVERT(T27,"hr","mn")/15)*hp.3.0!$D$12,1)</f>
         <v>1200</v>
       </c>
-      <c r="V27" s="684"/>
-      <c r="W27" s="684"/>
-      <c r="X27" s="686"/>
-      <c r="Y27" s="684"/>
-      <c r="Z27" s="684"/>
-      <c r="AA27" s="685"/>
+      <c r="V27" s="377"/>
+      <c r="W27" s="377"/>
+      <c r="X27" s="379"/>
+      <c r="Y27" s="377"/>
+      <c r="Z27" s="377"/>
+      <c r="AA27" s="378"/>
     </row>
     <row r="28" spans="10:27">
-      <c r="S28" s="678">
+      <c r="S28" s="371">
         <f>$M13+hp.3.0!$AS$12*10^-3</f>
         <v>4.6665648744499997</v>
       </c>
-      <c r="T28" s="678">
-        <f t="shared" si="1"/>
+      <c r="T28" s="371">
+        <f t="shared" si="4"/>
         <v>1.71</v>
       </c>
-      <c r="U28" s="679">
+      <c r="U28" s="372">
         <f>FLOOR(TRUNC(CONVERT(T28,"hr","mn")/15)*hp.3.0!$D$12,1)</f>
         <v>900</v>
       </c>
-      <c r="V28" s="678"/>
-      <c r="W28" s="678"/>
-      <c r="X28" s="680"/>
-      <c r="Y28" s="678"/>
-      <c r="Z28" s="678"/>
-      <c r="AA28" s="679"/>
+      <c r="V28" s="371"/>
+      <c r="W28" s="371"/>
+      <c r="X28" s="373"/>
+      <c r="Y28" s="371"/>
+      <c r="Z28" s="371"/>
+      <c r="AA28" s="372"/>
     </row>
     <row r="29" spans="10:27">
-      <c r="S29" s="684">
+      <c r="S29" s="377">
         <f>$M14+hp.3.0!$AS$12*10^-3</f>
         <v>5.1665648744499997</v>
       </c>
-      <c r="T29" s="684">
-        <f t="shared" si="1"/>
+      <c r="T29" s="377">
+        <f t="shared" si="4"/>
         <v>2.36</v>
       </c>
-      <c r="U29" s="685">
+      <c r="U29" s="378">
         <f>FLOOR(TRUNC(CONVERT(T29,"hr","mn")/15)*hp.3.0!$D$12,1)</f>
         <v>1350</v>
       </c>
-      <c r="V29" s="684"/>
-      <c r="W29" s="684"/>
-      <c r="X29" s="686"/>
-      <c r="Y29" s="684"/>
-      <c r="Z29" s="684"/>
-      <c r="AA29" s="685"/>
+      <c r="V29" s="377"/>
+      <c r="W29" s="377"/>
+      <c r="X29" s="379"/>
+      <c r="Y29" s="377"/>
+      <c r="Z29" s="377"/>
+      <c r="AA29" s="378"/>
     </row>
     <row r="30" spans="10:27">
-      <c r="S30" s="681">
+      <c r="S30" s="374">
         <f>$M15+hp.3.0!$AS$12*10^-3</f>
         <v>4.1665648744499997</v>
       </c>
-      <c r="T30" s="681">
-        <f t="shared" si="1"/>
+      <c r="T30" s="374">
+        <f t="shared" si="4"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="U30" s="682">
+      <c r="U30" s="375">
         <f>FLOOR(TRUNC(CONVERT(T30,"hr","mn")/15)*hp.3.0!$D$12,1)</f>
         <v>1200</v>
       </c>
-      <c r="V30" s="681"/>
-      <c r="W30" s="681"/>
-      <c r="X30" s="683"/>
-      <c r="Y30" s="681"/>
-      <c r="Z30" s="681"/>
-      <c r="AA30" s="682"/>
+      <c r="V30" s="374"/>
+      <c r="W30" s="374"/>
+      <c r="X30" s="376"/>
+      <c r="Y30" s="374"/>
+      <c r="Z30" s="374"/>
+      <c r="AA30" s="375"/>
     </row>
     <row r="31" spans="10:27">
-      <c r="S31" s="684">
+      <c r="S31" s="377">
         <f>$M16+hp.3.0!$AS$12*10^-3</f>
         <v>3.7665648744500002</v>
       </c>
-      <c r="T31" s="684">
-        <f t="shared" si="1"/>
+      <c r="T31" s="377">
+        <f t="shared" si="4"/>
         <v>2.0099999999999998</v>
       </c>
-      <c r="U31" s="685">
+      <c r="U31" s="378">
         <f>FLOOR(TRUNC(CONVERT(T31,"hr","mn")/15)*hp.3.0!$D$12,1)</f>
         <v>1200</v>
       </c>
-      <c r="V31" s="684"/>
-      <c r="W31" s="684"/>
-      <c r="X31" s="686"/>
-      <c r="Y31" s="684"/>
-      <c r="Z31" s="684"/>
-      <c r="AA31" s="685"/>
+      <c r="V31" s="377"/>
+      <c r="W31" s="377"/>
+      <c r="X31" s="379"/>
+      <c r="Y31" s="377"/>
+      <c r="Z31" s="377"/>
+      <c r="AA31" s="378"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="S2:AA2"/>
-    <mergeCell ref="S17:AA17"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P1:AA1"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="P3:P4"/>
@@ -8156,15 +8310,13 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P1:AA1"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="S2:AA2"/>
+    <mergeCell ref="S17:AA17"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8176,8 +8328,8 @@
   <sheetPr codeName="Foglio4"/>
   <dimension ref="B1:Z30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8196,54 +8348,54 @@
       <c r="E1" s="106" t="s">
         <v>269</v>
       </c>
-      <c r="S1" s="503" t="s">
+      <c r="S1" s="542" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="504"/>
-      <c r="U1" s="504"/>
-      <c r="V1" s="504"/>
-      <c r="W1" s="505"/>
+      <c r="T1" s="543"/>
+      <c r="U1" s="543"/>
+      <c r="V1" s="543"/>
+      <c r="W1" s="544"/>
     </row>
     <row r="3" spans="2:26">
       <c r="D3" s="219" t="s">
         <v>244</v>
       </c>
-      <c r="E3" s="219" t="s">
+      <c r="E3" s="505" t="s">
         <v>245</v>
       </c>
-      <c r="F3" s="219"/>
-      <c r="G3" s="485" t="s">
+      <c r="F3" s="506"/>
+      <c r="G3" s="505" t="s">
         <v>246</v>
       </c>
-      <c r="H3" s="514"/>
-      <c r="I3" s="486"/>
+      <c r="H3" s="533"/>
+      <c r="I3" s="506"/>
       <c r="J3" s="219" t="s">
         <v>247</v>
       </c>
-      <c r="S3" s="498" t="s">
+      <c r="S3" s="537" t="s">
         <v>145</v>
       </c>
-      <c r="T3" s="499"/>
-      <c r="U3" s="499"/>
-      <c r="V3" s="500"/>
-      <c r="W3" s="498" t="s">
+      <c r="T3" s="538"/>
+      <c r="U3" s="538"/>
+      <c r="V3" s="539"/>
+      <c r="W3" s="537" t="s">
         <v>146</v>
       </c>
-      <c r="X3" s="500"/>
+      <c r="X3" s="539"/>
     </row>
     <row r="4" spans="2:26">
       <c r="D4" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="530" t="s">
         <v>249</v>
       </c>
-      <c r="F4" s="64"/>
-      <c r="G4" s="511" t="s">
+      <c r="F4" s="532"/>
+      <c r="G4" s="530" t="s">
         <v>251</v>
       </c>
-      <c r="H4" s="512"/>
-      <c r="I4" s="513"/>
+      <c r="H4" s="531"/>
+      <c r="I4" s="532"/>
       <c r="J4" s="64" t="s">
         <v>250</v>
       </c>
@@ -8371,49 +8523,49 @@
       <c r="B13" s="224" t="s">
         <v>254</v>
       </c>
-      <c r="C13" s="517" t="s">
+      <c r="C13" s="536" t="s">
         <v>256</v>
       </c>
-      <c r="D13" s="517"/>
-      <c r="E13" s="517"/>
-      <c r="F13" s="517"/>
-      <c r="G13" s="517"/>
+      <c r="D13" s="536"/>
+      <c r="E13" s="536"/>
+      <c r="F13" s="536"/>
+      <c r="G13" s="536"/>
       <c r="I13" s="242" t="s">
         <v>254</v>
       </c>
-      <c r="J13" s="508" t="s">
+      <c r="J13" s="527" t="s">
         <v>256</v>
       </c>
-      <c r="K13" s="508"/>
-      <c r="L13" s="508"/>
-      <c r="M13" s="509"/>
-      <c r="N13" s="515" t="s">
+      <c r="K13" s="527"/>
+      <c r="L13" s="527"/>
+      <c r="M13" s="528"/>
+      <c r="N13" s="534" t="s">
         <v>275</v>
       </c>
-      <c r="O13" s="516"/>
+      <c r="O13" s="535"/>
     </row>
     <row r="14" spans="2:26">
       <c r="B14" s="64" t="s">
         <v>255</v>
       </c>
-      <c r="C14" s="510" t="s">
+      <c r="C14" s="529" t="s">
         <v>257</v>
       </c>
-      <c r="D14" s="510"/>
-      <c r="E14" s="510"/>
-      <c r="F14" s="510"/>
-      <c r="G14" s="510"/>
+      <c r="D14" s="529"/>
+      <c r="E14" s="529"/>
+      <c r="F14" s="529"/>
+      <c r="G14" s="529"/>
       <c r="I14" s="64" t="s">
         <v>255</v>
       </c>
-      <c r="J14" s="510"/>
-      <c r="K14" s="510"/>
-      <c r="L14" s="510"/>
-      <c r="M14" s="511"/>
-      <c r="N14" s="506" t="s">
+      <c r="J14" s="529"/>
+      <c r="K14" s="529"/>
+      <c r="L14" s="529"/>
+      <c r="M14" s="530"/>
+      <c r="N14" s="545" t="s">
         <v>249</v>
       </c>
-      <c r="O14" s="507"/>
+      <c r="O14" s="546"/>
     </row>
     <row r="16" spans="2:26" ht="15.75">
       <c r="B16" s="237" t="s">
@@ -8512,7 +8664,7 @@
       <c r="I20" t="s">
         <v>283</v>
       </c>
-      <c r="Q20" s="501" t="s">
+      <c r="Q20" s="540" t="s">
         <v>312</v>
       </c>
     </row>
@@ -8523,7 +8675,7 @@
       <c r="I21" t="s">
         <v>284</v>
       </c>
-      <c r="Q21" s="502"/>
+      <c r="Q21" s="541"/>
     </row>
     <row r="22" spans="2:17" ht="15.75">
       <c r="B22" t="s">
@@ -8668,7 +8820,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="N14:O14"/>
     <mergeCell ref="J13:M13"/>
     <mergeCell ref="J14:M14"/>
     <mergeCell ref="G4:I4"/>
@@ -8676,11 +8833,8 @@
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8742,64 +8896,64 @@
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:18" ht="18.75">
-      <c r="A3" s="534" t="s">
+      <c r="A3" s="549" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="534" t="s">
+      <c r="B3" s="549" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="534" t="s">
+      <c r="C3" s="549" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="536" t="s">
+      <c r="D3" s="551" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="551" t="s">
+      <c r="E3" s="566" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="552"/>
-      <c r="G3" s="552"/>
-      <c r="H3" s="552"/>
-      <c r="I3" s="552"/>
-      <c r="J3" s="552"/>
-      <c r="K3" s="552"/>
-      <c r="L3" s="552"/>
-      <c r="M3" s="552"/>
-      <c r="N3" s="552"/>
-      <c r="O3" s="552"/>
-      <c r="P3" s="553"/>
-      <c r="Q3" s="534" t="s">
+      <c r="F3" s="567"/>
+      <c r="G3" s="567"/>
+      <c r="H3" s="567"/>
+      <c r="I3" s="567"/>
+      <c r="J3" s="567"/>
+      <c r="K3" s="567"/>
+      <c r="L3" s="567"/>
+      <c r="M3" s="567"/>
+      <c r="N3" s="567"/>
+      <c r="O3" s="567"/>
+      <c r="P3" s="568"/>
+      <c r="Q3" s="549" t="s">
         <v>150</v>
       </c>
-      <c r="R3" s="537" t="s">
+      <c r="R3" s="552" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="19.5" thickBot="1">
-      <c r="A4" s="535"/>
-      <c r="B4" s="535"/>
-      <c r="C4" s="535"/>
-      <c r="D4" s="535"/>
-      <c r="E4" s="540" t="s">
+      <c r="A4" s="550"/>
+      <c r="B4" s="550"/>
+      <c r="C4" s="550"/>
+      <c r="D4" s="550"/>
+      <c r="E4" s="555" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="541"/>
+      <c r="F4" s="556"/>
       <c r="G4" s="215"/>
-      <c r="H4" s="539" t="s">
+      <c r="H4" s="554" t="s">
         <v>164</v>
       </c>
-      <c r="I4" s="539"/>
-      <c r="J4" s="539"/>
-      <c r="K4" s="539"/>
-      <c r="L4" s="539"/>
+      <c r="I4" s="554"/>
+      <c r="J4" s="554"/>
+      <c r="K4" s="554"/>
+      <c r="L4" s="554"/>
       <c r="M4" s="216"/>
-      <c r="N4" s="548" t="s">
+      <c r="N4" s="563" t="s">
         <v>151</v>
       </c>
-      <c r="O4" s="549"/>
-      <c r="P4" s="550"/>
-      <c r="Q4" s="535"/>
-      <c r="R4" s="538"/>
+      <c r="O4" s="564"/>
+      <c r="P4" s="565"/>
+      <c r="Q4" s="550"/>
+      <c r="R4" s="553"/>
     </row>
     <row r="5" spans="1:18" ht="30.75" thickBot="1">
       <c r="A5" s="157" t="s">
@@ -8834,13 +8988,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="30">
-      <c r="A6" s="532" t="s">
+      <c r="A6" s="547" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="560" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="545" t="s">
+      <c r="C6" s="560" t="s">
         <v>162</v>
       </c>
       <c r="D6" s="179" t="s">
@@ -8861,14 +9015,14 @@
       <c r="Q6" s="188" t="s">
         <v>159</v>
       </c>
-      <c r="R6" s="542">
+      <c r="R6" s="557">
         <v>2223</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1">
-      <c r="A7" s="533"/>
-      <c r="B7" s="546"/>
-      <c r="C7" s="546"/>
+      <c r="A7" s="548"/>
+      <c r="B7" s="561"/>
+      <c r="C7" s="561"/>
       <c r="D7" s="189" t="s">
         <v>160</v>
       </c>
@@ -8905,12 +9059,12 @@
       <c r="Q7" s="197" t="s">
         <v>167</v>
       </c>
-      <c r="R7" s="543"/>
+      <c r="R7" s="558"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1">
-      <c r="A8" s="533"/>
-      <c r="B8" s="547"/>
-      <c r="C8" s="547"/>
+      <c r="A8" s="548"/>
+      <c r="B8" s="562"/>
+      <c r="C8" s="562"/>
       <c r="D8" s="189" t="s">
         <v>297</v>
       </c>
@@ -8943,10 +9097,10 @@
       <c r="Q8" s="197" t="s">
         <v>168</v>
       </c>
-      <c r="R8" s="544"/>
+      <c r="R8" s="559"/>
     </row>
     <row r="9" spans="1:18" ht="27.75" customHeight="1">
-      <c r="A9" s="533"/>
+      <c r="A9" s="548"/>
       <c r="B9" s="199"/>
       <c r="C9" s="200"/>
       <c r="D9" s="200"/>
@@ -8966,7 +9120,7 @@
       <c r="R9" s="206"/>
     </row>
     <row r="10" spans="1:18" ht="45">
-      <c r="A10" s="533"/>
+      <c r="A10" s="548"/>
       <c r="B10" s="207" t="s">
         <v>171</v>
       </c>
@@ -9002,7 +9156,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="60.75" thickBot="1">
-      <c r="A11" s="533"/>
+      <c r="A11" s="548"/>
       <c r="B11" s="253" t="s">
         <v>173</v>
       </c>
@@ -9036,7 +9190,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="45">
-      <c r="A12" s="521" t="s">
+      <c r="A12" s="572" t="s">
         <v>179</v>
       </c>
       <c r="B12" s="248" t="s">
@@ -9059,12 +9213,12 @@
       <c r="Q12" s="178" t="s">
         <v>181</v>
       </c>
-      <c r="R12" s="527">
+      <c r="R12" s="578">
         <v>2232</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="60">
-      <c r="A13" s="522"/>
+      <c r="A13" s="573"/>
       <c r="B13" s="249" t="s">
         <v>182</v>
       </c>
@@ -9105,10 +9259,10 @@
       <c r="Q13" s="139" t="s">
         <v>185</v>
       </c>
-      <c r="R13" s="519"/>
+      <c r="R13" s="570"/>
     </row>
     <row r="14" spans="1:18" ht="75">
-      <c r="A14" s="522"/>
+      <c r="A14" s="573"/>
       <c r="B14" s="250" t="s">
         <v>183</v>
       </c>
@@ -9147,10 +9301,10 @@
       <c r="Q14" s="138" t="s">
         <v>186</v>
       </c>
-      <c r="R14" s="528"/>
+      <c r="R14" s="579"/>
     </row>
     <row r="15" spans="1:18" ht="60">
-      <c r="A15" s="522"/>
+      <c r="A15" s="573"/>
       <c r="B15" s="249" t="s">
         <v>187</v>
       </c>
@@ -9163,17 +9317,17 @@
       <c r="G15" s="146" t="s">
         <v>165</v>
       </c>
-      <c r="H15" s="529" t="s">
+      <c r="H15" s="580" t="s">
         <v>189</v>
       </c>
-      <c r="I15" s="529"/>
+      <c r="I15" s="580"/>
       <c r="J15" s="233" t="s">
         <v>130</v>
       </c>
-      <c r="K15" s="529" t="s">
+      <c r="K15" s="580" t="s">
         <v>190</v>
       </c>
-      <c r="L15" s="529"/>
+      <c r="L15" s="580"/>
       <c r="M15" s="150" t="s">
         <v>166</v>
       </c>
@@ -9183,12 +9337,12 @@
       <c r="Q15" s="140" t="s">
         <v>191</v>
       </c>
-      <c r="R15" s="518">
+      <c r="R15" s="569">
         <v>2233</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="45">
-      <c r="A16" s="522"/>
+      <c r="A16" s="573"/>
       <c r="B16" s="249" t="s">
         <v>194</v>
       </c>
@@ -9208,17 +9362,17 @@
       <c r="N16" s="153" t="s">
         <v>172</v>
       </c>
-      <c r="O16" s="531" t="s">
+      <c r="O16" s="582" t="s">
         <v>195</v>
       </c>
-      <c r="P16" s="530"/>
+      <c r="P16" s="581"/>
       <c r="Q16" s="139" t="s">
         <v>196</v>
       </c>
-      <c r="R16" s="519"/>
+      <c r="R16" s="570"/>
     </row>
     <row r="17" spans="1:18" ht="75">
-      <c r="A17" s="522"/>
+      <c r="A17" s="573"/>
       <c r="B17" s="250" t="s">
         <v>192</v>
       </c>
@@ -9258,17 +9412,17 @@
       <c r="N17" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="O17" s="529" t="s">
+      <c r="O17" s="580" t="s">
         <v>197</v>
       </c>
-      <c r="P17" s="530"/>
+      <c r="P17" s="581"/>
       <c r="Q17" s="154" t="s">
         <v>198</v>
       </c>
-      <c r="R17" s="528"/>
+      <c r="R17" s="579"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="522"/>
+      <c r="A18" s="573"/>
       <c r="B18" s="155"/>
       <c r="C18" s="155"/>
       <c r="D18" s="155"/>
@@ -9288,8 +9442,8 @@
       <c r="R18" s="277"/>
     </row>
     <row r="19" spans="1:18" ht="45">
-      <c r="A19" s="522"/>
-      <c r="B19" s="524" t="s">
+      <c r="A19" s="573"/>
+      <c r="B19" s="575" t="s">
         <v>206</v>
       </c>
       <c r="C19" s="251"/>
@@ -9314,10 +9468,10 @@
       <c r="J19" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="K19" s="529" t="s">
+      <c r="K19" s="580" t="s">
         <v>180</v>
       </c>
-      <c r="L19" s="529"/>
+      <c r="L19" s="580"/>
       <c r="M19" s="150" t="s">
         <v>166</v>
       </c>
@@ -9327,13 +9481,13 @@
       <c r="Q19" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="R19" s="518">
+      <c r="R19" s="569">
         <v>2234</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="45">
-      <c r="A20" s="522"/>
-      <c r="B20" s="525"/>
+      <c r="A20" s="573"/>
+      <c r="B20" s="576"/>
       <c r="C20" s="252"/>
       <c r="D20" s="142" t="s">
         <v>306</v>
@@ -9356,10 +9510,10 @@
       <c r="J20" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="K20" s="529" t="s">
+      <c r="K20" s="580" t="s">
         <v>290</v>
       </c>
-      <c r="L20" s="529"/>
+      <c r="L20" s="580"/>
       <c r="M20" s="150" t="s">
         <v>166</v>
       </c>
@@ -9369,11 +9523,11 @@
       <c r="Q20" s="139" t="s">
         <v>205</v>
       </c>
-      <c r="R20" s="519"/>
+      <c r="R20" s="570"/>
     </row>
     <row r="21" spans="1:18" ht="60">
-      <c r="A21" s="522"/>
-      <c r="B21" s="525"/>
+      <c r="A21" s="573"/>
+      <c r="B21" s="576"/>
       <c r="C21" s="173"/>
       <c r="D21" s="173"/>
       <c r="E21" s="173"/>
@@ -9391,11 +9545,11 @@
       <c r="Q21" s="172" t="s">
         <v>207</v>
       </c>
-      <c r="R21" s="519"/>
+      <c r="R21" s="570"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="522"/>
-      <c r="B22" s="525"/>
+      <c r="A22" s="573"/>
+      <c r="B22" s="576"/>
       <c r="C22" s="173"/>
       <c r="D22" s="173"/>
       <c r="E22" s="173"/>
@@ -9411,11 +9565,11 @@
       <c r="O22" s="173"/>
       <c r="P22" s="173"/>
       <c r="Q22" s="174"/>
-      <c r="R22" s="519"/>
+      <c r="R22" s="570"/>
     </row>
     <row r="23" spans="1:18" ht="90">
-      <c r="A23" s="522"/>
-      <c r="B23" s="525"/>
+      <c r="A23" s="573"/>
+      <c r="B23" s="576"/>
       <c r="C23" s="173"/>
       <c r="D23" s="173"/>
       <c r="E23" s="173"/>
@@ -9433,11 +9587,11 @@
       <c r="Q23" s="247" t="s">
         <v>209</v>
       </c>
-      <c r="R23" s="519"/>
+      <c r="R23" s="570"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A24" s="523"/>
-      <c r="B24" s="526"/>
+      <c r="A24" s="574"/>
+      <c r="B24" s="577"/>
       <c r="C24" s="266"/>
       <c r="D24" s="267" t="s">
         <v>305</v>
@@ -9461,7 +9615,7 @@
       <c r="Q24" s="275" t="s">
         <v>307</v>
       </c>
-      <c r="R24" s="520"/>
+      <c r="R24" s="571"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="130"/>
@@ -9469,6 +9623,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R19:R24"/>
+    <mergeCell ref="A12:A24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R15:R17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="O16:P16"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
@@ -9483,17 +9648,6 @@
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="E3:P3"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="R19:R24"/>
-    <mergeCell ref="A12:A24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R15:R17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="O16:P16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9527,20 +9681,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24" thickBot="1">
-      <c r="A1" s="569" t="s">
+      <c r="A1" s="583" t="s">
         <v>303</v>
       </c>
-      <c r="B1" s="570"/>
-      <c r="C1" s="570"/>
-      <c r="D1" s="570"/>
-      <c r="E1" s="570"/>
-      <c r="F1" s="570"/>
-      <c r="G1" s="570"/>
-      <c r="H1" s="570"/>
-      <c r="I1" s="570"/>
-      <c r="J1" s="570"/>
-      <c r="K1" s="570"/>
-      <c r="L1" s="571"/>
+      <c r="B1" s="584"/>
+      <c r="C1" s="584"/>
+      <c r="D1" s="584"/>
+      <c r="E1" s="584"/>
+      <c r="F1" s="584"/>
+      <c r="G1" s="584"/>
+      <c r="H1" s="584"/>
+      <c r="I1" s="584"/>
+      <c r="J1" s="584"/>
+      <c r="K1" s="584"/>
+      <c r="L1" s="585"/>
     </row>
     <row r="2" spans="1:18">
       <c r="D2" s="98">
@@ -9598,82 +9752,82 @@
         <v>354</v>
       </c>
       <c r="B6" s="96"/>
-      <c r="C6" s="567" t="s">
+      <c r="C6" s="605" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="567"/>
-      <c r="E6" s="567"/>
-      <c r="F6" s="567"/>
-      <c r="G6" s="567"/>
-      <c r="H6" s="567"/>
-      <c r="I6" s="567"/>
-      <c r="J6" s="567"/>
-      <c r="K6" s="567"/>
-      <c r="L6" s="568"/>
-      <c r="M6" s="554" t="s">
+      <c r="D6" s="605"/>
+      <c r="E6" s="605"/>
+      <c r="F6" s="605"/>
+      <c r="G6" s="605"/>
+      <c r="H6" s="605"/>
+      <c r="I6" s="605"/>
+      <c r="J6" s="605"/>
+      <c r="K6" s="605"/>
+      <c r="L6" s="606"/>
+      <c r="M6" s="599" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A7" s="575" t="s">
+      <c r="A7" s="593" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="576"/>
-      <c r="C7" s="560" t="s">
+      <c r="B7" s="594"/>
+      <c r="C7" s="589" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="560" t="s">
+      <c r="D7" s="589" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="560" t="s">
+      <c r="E7" s="589" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="560" t="s">
+      <c r="F7" s="589" t="s">
         <v>210</v>
       </c>
-      <c r="G7" s="557" t="s">
+      <c r="G7" s="521" t="s">
         <v>137</v>
       </c>
-      <c r="H7" s="558"/>
-      <c r="I7" s="558"/>
-      <c r="J7" s="558"/>
-      <c r="K7" s="559"/>
-      <c r="L7" s="560" t="s">
+      <c r="H7" s="522"/>
+      <c r="I7" s="522"/>
+      <c r="J7" s="522"/>
+      <c r="K7" s="523"/>
+      <c r="L7" s="589" t="s">
         <v>117</v>
       </c>
-      <c r="M7" s="555"/>
+      <c r="M7" s="600"/>
       <c r="Q7" s="95"/>
       <c r="R7" s="95"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="577"/>
-      <c r="B8" s="578"/>
-      <c r="C8" s="561"/>
-      <c r="D8" s="561"/>
-      <c r="E8" s="561"/>
-      <c r="F8" s="561"/>
-      <c r="G8" s="563" t="s">
+      <c r="A8" s="595"/>
+      <c r="B8" s="596"/>
+      <c r="C8" s="590"/>
+      <c r="D8" s="590"/>
+      <c r="E8" s="590"/>
+      <c r="F8" s="590"/>
+      <c r="G8" s="586" t="s">
         <v>140</v>
       </c>
-      <c r="H8" s="565" t="s">
+      <c r="H8" s="603" t="s">
         <v>135</v>
       </c>
-      <c r="I8" s="565"/>
-      <c r="J8" s="566"/>
-      <c r="K8" s="563" t="s">
+      <c r="I8" s="603"/>
+      <c r="J8" s="604"/>
+      <c r="K8" s="586" t="s">
         <v>120</v>
       </c>
-      <c r="L8" s="561"/>
-      <c r="M8" s="555"/>
+      <c r="L8" s="590"/>
+      <c r="M8" s="600"/>
     </row>
     <row r="9" spans="1:18" ht="30.75" thickBot="1">
-      <c r="A9" s="577"/>
-      <c r="B9" s="578"/>
-      <c r="C9" s="562"/>
-      <c r="D9" s="562"/>
-      <c r="E9" s="562"/>
-      <c r="F9" s="562"/>
-      <c r="G9" s="564"/>
+      <c r="A9" s="595"/>
+      <c r="B9" s="596"/>
+      <c r="C9" s="602"/>
+      <c r="D9" s="602"/>
+      <c r="E9" s="602"/>
+      <c r="F9" s="602"/>
+      <c r="G9" s="587"/>
       <c r="H9" s="126" t="s">
         <v>139</v>
       </c>
@@ -9683,13 +9837,13 @@
       <c r="J9" s="126" t="s">
         <v>136</v>
       </c>
-      <c r="K9" s="564"/>
-      <c r="L9" s="573"/>
-      <c r="M9" s="556"/>
+      <c r="K9" s="587"/>
+      <c r="L9" s="591"/>
+      <c r="M9" s="601"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="577"/>
-      <c r="B10" s="578"/>
+      <c r="A10" s="595"/>
+      <c r="B10" s="596"/>
       <c r="C10" s="123">
         <v>60</v>
       </c>
@@ -9732,8 +9886,8 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="579"/>
-      <c r="B11" s="580"/>
+      <c r="A11" s="597"/>
+      <c r="B11" s="598"/>
       <c r="C11" s="108">
         <v>60</v>
       </c>
@@ -9776,8 +9930,8 @@
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="C12" s="572"/>
-      <c r="D12" s="572"/>
+      <c r="C12" s="588"/>
+      <c r="D12" s="588"/>
       <c r="F12" s="94"/>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1"/>
@@ -9785,137 +9939,131 @@
       <c r="A17" t="s">
         <v>313</v>
       </c>
-      <c r="B17" s="574" t="s">
+      <c r="B17" s="592" t="s">
         <v>337</v>
       </c>
-      <c r="C17" s="574"/>
-      <c r="D17" s="574"/>
-      <c r="E17" s="574"/>
+      <c r="C17" s="592"/>
+      <c r="D17" s="592"/>
+      <c r="E17" s="592"/>
       <c r="G17" t="s">
         <v>322</v>
       </c>
       <c r="R17" s="303"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="B18" s="574"/>
-      <c r="C18" s="574"/>
-      <c r="D18" s="574"/>
-      <c r="E18" s="574"/>
+      <c r="B18" s="592"/>
+      <c r="C18" s="592"/>
+      <c r="D18" s="592"/>
+      <c r="E18" s="592"/>
       <c r="G18" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="B19" s="574"/>
-      <c r="C19" s="574"/>
-      <c r="D19" s="574"/>
-      <c r="E19" s="574"/>
+      <c r="B19" s="592"/>
+      <c r="C19" s="592"/>
+      <c r="D19" s="592"/>
+      <c r="E19" s="592"/>
       <c r="G19" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="B20" s="574"/>
-      <c r="C20" s="574"/>
-      <c r="D20" s="574"/>
-      <c r="E20" s="574"/>
+      <c r="B20" s="592"/>
+      <c r="C20" s="592"/>
+      <c r="D20" s="592"/>
+      <c r="E20" s="592"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="B21" s="574"/>
-      <c r="C21" s="574"/>
-      <c r="D21" s="574"/>
-      <c r="E21" s="574"/>
+      <c r="B21" s="592"/>
+      <c r="C21" s="592"/>
+      <c r="D21" s="592"/>
+      <c r="E21" s="592"/>
       <c r="G21" t="s">
         <v>325</v>
       </c>
       <c r="J21" s="239"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="B22" s="574"/>
-      <c r="C22" s="574"/>
-      <c r="D22" s="574"/>
-      <c r="E22" s="574"/>
+      <c r="B22" s="592"/>
+      <c r="C22" s="592"/>
+      <c r="D22" s="592"/>
+      <c r="E22" s="592"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="B23" s="574"/>
-      <c r="C23" s="574"/>
-      <c r="D23" s="574"/>
-      <c r="E23" s="574"/>
+      <c r="B23" s="592"/>
+      <c r="C23" s="592"/>
+      <c r="D23" s="592"/>
+      <c r="E23" s="592"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="B24" s="574"/>
-      <c r="C24" s="574"/>
-      <c r="D24" s="574"/>
-      <c r="E24" s="574"/>
+      <c r="B24" s="592"/>
+      <c r="C24" s="592"/>
+      <c r="D24" s="592"/>
+      <c r="E24" s="592"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="B25" s="574"/>
-      <c r="C25" s="574"/>
-      <c r="D25" s="574"/>
-      <c r="E25" s="574"/>
+      <c r="B25" s="592"/>
+      <c r="C25" s="592"/>
+      <c r="D25" s="592"/>
+      <c r="E25" s="592"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="B26" s="574"/>
-      <c r="C26" s="574"/>
-      <c r="D26" s="574"/>
-      <c r="E26" s="574"/>
+      <c r="B26" s="592"/>
+      <c r="C26" s="592"/>
+      <c r="D26" s="592"/>
+      <c r="E26" s="592"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="B27" s="574"/>
-      <c r="C27" s="574"/>
-      <c r="D27" s="574"/>
-      <c r="E27" s="574"/>
+      <c r="B27" s="592"/>
+      <c r="C27" s="592"/>
+      <c r="D27" s="592"/>
+      <c r="E27" s="592"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="B28" s="574"/>
-      <c r="C28" s="574"/>
-      <c r="D28" s="574"/>
-      <c r="E28" s="574"/>
+      <c r="B28" s="592"/>
+      <c r="C28" s="592"/>
+      <c r="D28" s="592"/>
+      <c r="E28" s="592"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="B29" s="574"/>
-      <c r="C29" s="574"/>
-      <c r="D29" s="574"/>
-      <c r="E29" s="574"/>
+      <c r="B29" s="592"/>
+      <c r="C29" s="592"/>
+      <c r="D29" s="592"/>
+      <c r="E29" s="592"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="B30" s="574"/>
-      <c r="C30" s="574"/>
-      <c r="D30" s="574"/>
-      <c r="E30" s="574"/>
+      <c r="B30" s="592"/>
+      <c r="C30" s="592"/>
+      <c r="D30" s="592"/>
+      <c r="E30" s="592"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="B31" s="574"/>
-      <c r="C31" s="574"/>
-      <c r="D31" s="574"/>
-      <c r="E31" s="574"/>
+      <c r="B31" s="592"/>
+      <c r="C31" s="592"/>
+      <c r="D31" s="592"/>
+      <c r="E31" s="592"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="B32" s="574"/>
-      <c r="C32" s="574"/>
-      <c r="D32" s="574"/>
-      <c r="E32" s="574"/>
+      <c r="B32" s="592"/>
+      <c r="C32" s="592"/>
+      <c r="D32" s="592"/>
+      <c r="E32" s="592"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="574"/>
-      <c r="C33" s="574"/>
-      <c r="D33" s="574"/>
-      <c r="E33" s="574"/>
+      <c r="B33" s="592"/>
+      <c r="C33" s="592"/>
+      <c r="D33" s="592"/>
+      <c r="E33" s="592"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="574"/>
-      <c r="C34" s="574"/>
-      <c r="D34" s="574"/>
-      <c r="E34" s="574"/>
+      <c r="B34" s="592"/>
+      <c r="C34" s="592"/>
+      <c r="D34" s="592"/>
+      <c r="E34" s="592"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="B17:E34"/>
-    <mergeCell ref="A7:B11"/>
     <mergeCell ref="M6:M9"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="C7:C9"/>
@@ -9925,6 +10073,12 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="C6:L6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="B17:E34"/>
+    <mergeCell ref="A7:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -9936,8 +10090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AY43"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AZ24" sqref="AZ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -9981,34 +10135,34 @@
     <col min="42" max="43" width="9.5703125" customWidth="1"/>
     <col min="44" max="45" width="13.7109375" customWidth="1"/>
     <col min="46" max="46" width="12" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="103.7109375" customWidth="1"/>
+    <col min="47" max="47" width="73.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="24" thickBot="1">
-      <c r="A1" s="569" t="s">
+      <c r="A1" s="583" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="570"/>
-      <c r="C1" s="570"/>
-      <c r="D1" s="570"/>
-      <c r="E1" s="570"/>
-      <c r="F1" s="570"/>
-      <c r="G1" s="570"/>
-      <c r="H1" s="570"/>
-      <c r="I1" s="570"/>
-      <c r="J1" s="570"/>
-      <c r="K1" s="570"/>
-      <c r="L1" s="570"/>
-      <c r="M1" s="570"/>
-      <c r="N1" s="570"/>
-      <c r="O1" s="570"/>
-      <c r="P1" s="570"/>
-      <c r="Q1" s="570"/>
-      <c r="R1" s="570"/>
-      <c r="S1" s="570"/>
-      <c r="T1" s="570"/>
-      <c r="U1" s="570"/>
-      <c r="V1" s="571"/>
+      <c r="B1" s="584"/>
+      <c r="C1" s="584"/>
+      <c r="D1" s="584"/>
+      <c r="E1" s="584"/>
+      <c r="F1" s="584"/>
+      <c r="G1" s="584"/>
+      <c r="H1" s="584"/>
+      <c r="I1" s="584"/>
+      <c r="J1" s="584"/>
+      <c r="K1" s="584"/>
+      <c r="L1" s="584"/>
+      <c r="M1" s="584"/>
+      <c r="N1" s="584"/>
+      <c r="O1" s="584"/>
+      <c r="P1" s="584"/>
+      <c r="Q1" s="584"/>
+      <c r="R1" s="584"/>
+      <c r="S1" s="584"/>
+      <c r="T1" s="584"/>
+      <c r="U1" s="584"/>
+      <c r="V1" s="585"/>
     </row>
     <row r="2" spans="1:51">
       <c r="N2" t="s">
@@ -10088,343 +10242,343 @@
     </row>
     <row r="6" spans="1:51" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="7" spans="1:51" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="650" t="s">
+      <c r="A7" s="636" t="s">
         <v>355</v>
       </c>
-      <c r="B7" s="651"/>
-      <c r="C7" s="652" t="s">
+      <c r="B7" s="637"/>
+      <c r="C7" s="607" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="652"/>
-      <c r="E7" s="652"/>
-      <c r="F7" s="652"/>
-      <c r="G7" s="652"/>
-      <c r="H7" s="652"/>
-      <c r="I7" s="652"/>
-      <c r="J7" s="652"/>
-      <c r="K7" s="652"/>
-      <c r="L7" s="652"/>
-      <c r="M7" s="652"/>
-      <c r="N7" s="652"/>
-      <c r="O7" s="652"/>
-      <c r="P7" s="652"/>
-      <c r="Q7" s="652"/>
-      <c r="R7" s="652"/>
-      <c r="S7" s="652"/>
-      <c r="T7" s="652"/>
-      <c r="U7" s="652"/>
-      <c r="V7" s="652"/>
-      <c r="W7" s="652"/>
-      <c r="X7" s="652"/>
-      <c r="Y7" s="652"/>
-      <c r="Z7" s="652"/>
-      <c r="AA7" s="652"/>
-      <c r="AB7" s="652"/>
-      <c r="AC7" s="652"/>
-      <c r="AD7" s="652"/>
-      <c r="AE7" s="652"/>
-      <c r="AF7" s="652"/>
-      <c r="AG7" s="652"/>
-      <c r="AH7" s="652"/>
-      <c r="AI7" s="652"/>
-      <c r="AJ7" s="652"/>
-      <c r="AK7" s="652"/>
-      <c r="AL7" s="652"/>
-      <c r="AM7" s="652"/>
-      <c r="AN7" s="652"/>
-      <c r="AO7" s="652"/>
-      <c r="AP7" s="652"/>
-      <c r="AQ7" s="653"/>
-      <c r="AR7" s="623" t="s">
+      <c r="D7" s="607"/>
+      <c r="E7" s="607"/>
+      <c r="F7" s="607"/>
+      <c r="G7" s="607"/>
+      <c r="H7" s="607"/>
+      <c r="I7" s="607"/>
+      <c r="J7" s="607"/>
+      <c r="K7" s="607"/>
+      <c r="L7" s="607"/>
+      <c r="M7" s="607"/>
+      <c r="N7" s="607"/>
+      <c r="O7" s="607"/>
+      <c r="P7" s="607"/>
+      <c r="Q7" s="607"/>
+      <c r="R7" s="607"/>
+      <c r="S7" s="607"/>
+      <c r="T7" s="607"/>
+      <c r="U7" s="607"/>
+      <c r="V7" s="607"/>
+      <c r="W7" s="607"/>
+      <c r="X7" s="607"/>
+      <c r="Y7" s="607"/>
+      <c r="Z7" s="607"/>
+      <c r="AA7" s="607"/>
+      <c r="AB7" s="607"/>
+      <c r="AC7" s="607"/>
+      <c r="AD7" s="607"/>
+      <c r="AE7" s="607"/>
+      <c r="AF7" s="607"/>
+      <c r="AG7" s="607"/>
+      <c r="AH7" s="607"/>
+      <c r="AI7" s="607"/>
+      <c r="AJ7" s="607"/>
+      <c r="AK7" s="607"/>
+      <c r="AL7" s="607"/>
+      <c r="AM7" s="607"/>
+      <c r="AN7" s="607"/>
+      <c r="AO7" s="607"/>
+      <c r="AP7" s="607"/>
+      <c r="AQ7" s="608"/>
+      <c r="AR7" s="663" t="s">
         <v>371</v>
       </c>
-      <c r="AS7" s="624"/>
-      <c r="AT7" s="625"/>
-      <c r="AU7" s="594" t="s">
+      <c r="AS7" s="664"/>
+      <c r="AT7" s="665"/>
+      <c r="AU7" s="678" t="s">
         <v>333</v>
       </c>
       <c r="AX7" s="95"/>
       <c r="AY7" s="95"/>
     </row>
     <row r="8" spans="1:51" ht="15" customHeight="1">
-      <c r="A8" s="590" t="s">
+      <c r="A8" s="650" t="s">
         <v>287</v>
       </c>
-      <c r="B8" s="591"/>
-      <c r="C8" s="597" t="s">
+      <c r="B8" s="651"/>
+      <c r="C8" s="654" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="600" t="s">
+      <c r="D8" s="657" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="603" t="s">
+      <c r="E8" s="660" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="606" t="s">
+      <c r="F8" s="618" t="s">
         <v>288</v>
       </c>
-      <c r="G8" s="656" t="s">
+      <c r="G8" s="621" t="s">
         <v>292</v>
       </c>
-      <c r="H8" s="657"/>
-      <c r="I8" s="657"/>
-      <c r="J8" s="657"/>
-      <c r="K8" s="610"/>
-      <c r="L8" s="610"/>
-      <c r="M8" s="610"/>
-      <c r="N8" s="610"/>
-      <c r="O8" s="610"/>
-      <c r="P8" s="611"/>
-      <c r="Q8" s="635" t="s">
+      <c r="H8" s="622"/>
+      <c r="I8" s="622"/>
+      <c r="J8" s="622"/>
+      <c r="K8" s="623"/>
+      <c r="L8" s="623"/>
+      <c r="M8" s="623"/>
+      <c r="N8" s="623"/>
+      <c r="O8" s="623"/>
+      <c r="P8" s="624"/>
+      <c r="Q8" s="644" t="s">
         <v>291</v>
       </c>
-      <c r="R8" s="636"/>
-      <c r="S8" s="636"/>
-      <c r="T8" s="636"/>
-      <c r="U8" s="636"/>
-      <c r="V8" s="636"/>
-      <c r="W8" s="636"/>
-      <c r="X8" s="636"/>
-      <c r="Y8" s="636"/>
-      <c r="Z8" s="636"/>
-      <c r="AA8" s="636"/>
-      <c r="AB8" s="636"/>
-      <c r="AC8" s="636"/>
-      <c r="AD8" s="636"/>
-      <c r="AE8" s="636"/>
-      <c r="AF8" s="636"/>
-      <c r="AG8" s="636"/>
-      <c r="AH8" s="636"/>
-      <c r="AI8" s="636"/>
-      <c r="AJ8" s="636"/>
-      <c r="AK8" s="636"/>
-      <c r="AL8" s="636"/>
-      <c r="AM8" s="636"/>
-      <c r="AN8" s="636"/>
-      <c r="AO8" s="637"/>
-      <c r="AP8" s="612" t="s">
+      <c r="R8" s="645"/>
+      <c r="S8" s="645"/>
+      <c r="T8" s="645"/>
+      <c r="U8" s="645"/>
+      <c r="V8" s="645"/>
+      <c r="W8" s="645"/>
+      <c r="X8" s="645"/>
+      <c r="Y8" s="645"/>
+      <c r="Z8" s="645"/>
+      <c r="AA8" s="645"/>
+      <c r="AB8" s="645"/>
+      <c r="AC8" s="645"/>
+      <c r="AD8" s="645"/>
+      <c r="AE8" s="645"/>
+      <c r="AF8" s="645"/>
+      <c r="AG8" s="645"/>
+      <c r="AH8" s="645"/>
+      <c r="AI8" s="645"/>
+      <c r="AJ8" s="645"/>
+      <c r="AK8" s="645"/>
+      <c r="AL8" s="645"/>
+      <c r="AM8" s="645"/>
+      <c r="AN8" s="645"/>
+      <c r="AO8" s="646"/>
+      <c r="AP8" s="681" t="s">
         <v>331</v>
       </c>
-      <c r="AQ8" s="615" t="s">
+      <c r="AQ8" s="675" t="s">
         <v>332</v>
       </c>
-      <c r="AR8" s="626"/>
-      <c r="AS8" s="627"/>
-      <c r="AT8" s="628"/>
-      <c r="AU8" s="595"/>
+      <c r="AR8" s="666"/>
+      <c r="AS8" s="667"/>
+      <c r="AT8" s="668"/>
+      <c r="AU8" s="679"/>
     </row>
     <row r="9" spans="1:51" ht="15" customHeight="1">
-      <c r="A9" s="577"/>
-      <c r="B9" s="592"/>
-      <c r="C9" s="598"/>
-      <c r="D9" s="601"/>
-      <c r="E9" s="604"/>
-      <c r="F9" s="654"/>
-      <c r="G9" s="618" t="s">
+      <c r="A9" s="595"/>
+      <c r="B9" s="652"/>
+      <c r="C9" s="655"/>
+      <c r="D9" s="658"/>
+      <c r="E9" s="661"/>
+      <c r="F9" s="619"/>
+      <c r="G9" s="625" t="s">
         <v>298</v>
       </c>
       <c r="H9" s="354"/>
-      <c r="I9" s="618" t="s">
+      <c r="I9" s="625" t="s">
         <v>299</v>
       </c>
       <c r="J9" s="354"/>
-      <c r="K9" s="658" t="s">
+      <c r="K9" s="627" t="s">
         <v>300</v>
       </c>
-      <c r="L9" s="581" t="s">
+      <c r="L9" s="630" t="s">
         <v>338</v>
       </c>
-      <c r="M9" s="581" t="s">
+      <c r="M9" s="630" t="s">
         <v>318</v>
       </c>
-      <c r="N9" s="584" t="s">
+      <c r="N9" s="612" t="s">
         <v>339</v>
       </c>
-      <c r="O9" s="620" t="s">
+      <c r="O9" s="633" t="s">
         <v>317</v>
       </c>
-      <c r="P9" s="641" t="s">
+      <c r="P9" s="638" t="s">
         <v>319</v>
       </c>
-      <c r="Q9" s="644" t="s">
+      <c r="Q9" s="641" t="s">
         <v>289</v>
       </c>
-      <c r="R9" s="647" t="s">
+      <c r="R9" s="609" t="s">
         <v>296</v>
       </c>
       <c r="S9" s="244"/>
-      <c r="T9" s="647" t="s">
+      <c r="T9" s="609" t="s">
         <v>302</v>
       </c>
       <c r="U9" s="245"/>
-      <c r="V9" s="647" t="s">
+      <c r="V9" s="609" t="s">
         <v>293</v>
       </c>
       <c r="W9" s="244"/>
-      <c r="X9" s="647" t="s">
+      <c r="X9" s="609" t="s">
         <v>294</v>
       </c>
       <c r="Y9" s="244"/>
-      <c r="Z9" s="647" t="s">
+      <c r="Z9" s="609" t="s">
         <v>295</v>
       </c>
       <c r="AA9" s="245"/>
-      <c r="AB9" s="584" t="s">
+      <c r="AB9" s="612" t="s">
         <v>366</v>
       </c>
       <c r="AC9" s="296"/>
-      <c r="AD9" s="587" t="s">
+      <c r="AD9" s="615" t="s">
         <v>365</v>
       </c>
-      <c r="AE9" s="584" t="s">
+      <c r="AE9" s="612" t="s">
         <v>367</v>
       </c>
       <c r="AF9" s="296"/>
-      <c r="AG9" s="587" t="s">
+      <c r="AG9" s="615" t="s">
         <v>364</v>
       </c>
-      <c r="AH9" s="581" t="s">
+      <c r="AH9" s="630" t="s">
         <v>368</v>
       </c>
-      <c r="AI9" s="581" t="s">
+      <c r="AI9" s="630" t="s">
         <v>320</v>
       </c>
-      <c r="AJ9" s="581" t="s">
+      <c r="AJ9" s="630" t="s">
         <v>321</v>
       </c>
-      <c r="AK9" s="638" t="s">
+      <c r="AK9" s="647" t="s">
         <v>369</v>
       </c>
-      <c r="AL9" s="581" t="s">
+      <c r="AL9" s="630" t="s">
         <v>370</v>
       </c>
-      <c r="AM9" s="581" t="s">
+      <c r="AM9" s="630" t="s">
         <v>342</v>
       </c>
-      <c r="AN9" s="581" t="s">
+      <c r="AN9" s="630" t="s">
         <v>343</v>
       </c>
-      <c r="AO9" s="632" t="s">
+      <c r="AO9" s="672" t="s">
         <v>330</v>
       </c>
-      <c r="AP9" s="613"/>
-      <c r="AQ9" s="616"/>
-      <c r="AR9" s="626"/>
-      <c r="AS9" s="627"/>
-      <c r="AT9" s="628"/>
-      <c r="AU9" s="595"/>
+      <c r="AP9" s="682"/>
+      <c r="AQ9" s="676"/>
+      <c r="AR9" s="666"/>
+      <c r="AS9" s="667"/>
+      <c r="AT9" s="668"/>
+      <c r="AU9" s="679"/>
     </row>
     <row r="10" spans="1:51" ht="15" customHeight="1">
-      <c r="A10" s="577"/>
-      <c r="B10" s="592"/>
-      <c r="C10" s="598"/>
-      <c r="D10" s="601"/>
-      <c r="E10" s="604"/>
-      <c r="F10" s="654"/>
-      <c r="G10" s="619"/>
+      <c r="A10" s="595"/>
+      <c r="B10" s="652"/>
+      <c r="C10" s="655"/>
+      <c r="D10" s="658"/>
+      <c r="E10" s="661"/>
+      <c r="F10" s="619"/>
+      <c r="G10" s="626"/>
       <c r="H10" s="355"/>
-      <c r="I10" s="619"/>
+      <c r="I10" s="626"/>
       <c r="J10" s="355"/>
-      <c r="K10" s="659"/>
-      <c r="L10" s="582"/>
-      <c r="M10" s="582"/>
-      <c r="N10" s="585"/>
-      <c r="O10" s="621"/>
-      <c r="P10" s="642"/>
-      <c r="Q10" s="645"/>
-      <c r="R10" s="648"/>
+      <c r="K10" s="628"/>
+      <c r="L10" s="631"/>
+      <c r="M10" s="631"/>
+      <c r="N10" s="613"/>
+      <c r="O10" s="634"/>
+      <c r="P10" s="639"/>
+      <c r="Q10" s="642"/>
+      <c r="R10" s="610"/>
       <c r="S10" s="287"/>
-      <c r="T10" s="648"/>
+      <c r="T10" s="610"/>
       <c r="U10" s="289"/>
-      <c r="V10" s="648"/>
+      <c r="V10" s="610"/>
       <c r="W10" s="287"/>
-      <c r="X10" s="648"/>
+      <c r="X10" s="610"/>
       <c r="Y10" s="287"/>
-      <c r="Z10" s="648"/>
+      <c r="Z10" s="610"/>
       <c r="AA10" s="289"/>
-      <c r="AB10" s="585"/>
+      <c r="AB10" s="613"/>
       <c r="AC10" s="343"/>
-      <c r="AD10" s="588"/>
-      <c r="AE10" s="585"/>
+      <c r="AD10" s="616"/>
+      <c r="AE10" s="613"/>
       <c r="AF10" s="343"/>
-      <c r="AG10" s="588"/>
-      <c r="AH10" s="582"/>
-      <c r="AI10" s="582"/>
-      <c r="AJ10" s="582"/>
-      <c r="AK10" s="639"/>
-      <c r="AL10" s="582"/>
-      <c r="AM10" s="582"/>
-      <c r="AN10" s="582"/>
-      <c r="AO10" s="633"/>
-      <c r="AP10" s="613"/>
-      <c r="AQ10" s="616"/>
-      <c r="AR10" s="629"/>
-      <c r="AS10" s="630"/>
-      <c r="AT10" s="631"/>
-      <c r="AU10" s="595"/>
+      <c r="AG10" s="616"/>
+      <c r="AH10" s="631"/>
+      <c r="AI10" s="631"/>
+      <c r="AJ10" s="631"/>
+      <c r="AK10" s="648"/>
+      <c r="AL10" s="631"/>
+      <c r="AM10" s="631"/>
+      <c r="AN10" s="631"/>
+      <c r="AO10" s="673"/>
+      <c r="AP10" s="682"/>
+      <c r="AQ10" s="676"/>
+      <c r="AR10" s="669"/>
+      <c r="AS10" s="670"/>
+      <c r="AT10" s="671"/>
+      <c r="AU10" s="679"/>
     </row>
     <row r="11" spans="1:51" ht="15.75" customHeight="1">
-      <c r="A11" s="577"/>
-      <c r="B11" s="592"/>
-      <c r="C11" s="599"/>
-      <c r="D11" s="602"/>
-      <c r="E11" s="605"/>
-      <c r="F11" s="655"/>
-      <c r="G11" s="619"/>
+      <c r="A11" s="595"/>
+      <c r="B11" s="652"/>
+      <c r="C11" s="656"/>
+      <c r="D11" s="659"/>
+      <c r="E11" s="662"/>
+      <c r="F11" s="620"/>
+      <c r="G11" s="626"/>
       <c r="H11" s="355" t="s">
         <v>301</v>
       </c>
-      <c r="I11" s="619"/>
+      <c r="I11" s="626"/>
       <c r="J11" s="355" t="s">
         <v>301</v>
       </c>
-      <c r="K11" s="660"/>
-      <c r="L11" s="583"/>
-      <c r="M11" s="583"/>
-      <c r="N11" s="586"/>
-      <c r="O11" s="622"/>
-      <c r="P11" s="643"/>
-      <c r="Q11" s="646"/>
-      <c r="R11" s="649"/>
+      <c r="K11" s="629"/>
+      <c r="L11" s="632"/>
+      <c r="M11" s="632"/>
+      <c r="N11" s="614"/>
+      <c r="O11" s="635"/>
+      <c r="P11" s="640"/>
+      <c r="Q11" s="643"/>
+      <c r="R11" s="611"/>
       <c r="S11" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="T11" s="649"/>
+      <c r="T11" s="611"/>
       <c r="U11" s="289" t="s">
         <v>301</v>
       </c>
-      <c r="V11" s="649"/>
+      <c r="V11" s="611"/>
       <c r="W11" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="X11" s="649"/>
+      <c r="X11" s="611"/>
       <c r="Y11" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="Z11" s="649"/>
+      <c r="Z11" s="611"/>
       <c r="AA11" s="289" t="s">
         <v>301</v>
       </c>
-      <c r="AB11" s="586"/>
+      <c r="AB11" s="614"/>
       <c r="AC11" s="297" t="s">
         <v>301</v>
       </c>
-      <c r="AD11" s="589"/>
-      <c r="AE11" s="586"/>
+      <c r="AD11" s="617"/>
+      <c r="AE11" s="614"/>
       <c r="AF11" s="297" t="s">
         <v>301</v>
       </c>
-      <c r="AG11" s="589"/>
-      <c r="AH11" s="583"/>
-      <c r="AI11" s="583"/>
-      <c r="AJ11" s="583"/>
-      <c r="AK11" s="640"/>
-      <c r="AL11" s="583"/>
-      <c r="AM11" s="583"/>
-      <c r="AN11" s="583"/>
-      <c r="AO11" s="634"/>
-      <c r="AP11" s="614"/>
-      <c r="AQ11" s="617"/>
+      <c r="AG11" s="617"/>
+      <c r="AH11" s="632"/>
+      <c r="AI11" s="632"/>
+      <c r="AJ11" s="632"/>
+      <c r="AK11" s="649"/>
+      <c r="AL11" s="632"/>
+      <c r="AM11" s="632"/>
+      <c r="AN11" s="632"/>
+      <c r="AO11" s="674"/>
+      <c r="AP11" s="683"/>
+      <c r="AQ11" s="677"/>
       <c r="AR11" s="307" t="s">
         <v>334</v>
       </c>
@@ -10434,11 +10588,11 @@
       <c r="AT11" s="308" t="s">
         <v>336</v>
       </c>
-      <c r="AU11" s="596"/>
+      <c r="AU11" s="680"/>
     </row>
     <row r="12" spans="1:51">
-      <c r="A12" s="577"/>
-      <c r="B12" s="592"/>
+      <c r="A12" s="595"/>
+      <c r="B12" s="652"/>
       <c r="C12" s="295">
         <v>60</v>
       </c>
@@ -10608,8 +10762,8 @@
       </c>
     </row>
     <row r="13" spans="1:51">
-      <c r="A13" s="577"/>
-      <c r="B13" s="592"/>
+      <c r="A13" s="595"/>
+      <c r="B13" s="652"/>
       <c r="C13" s="295">
         <v>60</v>
       </c>
@@ -10620,7 +10774,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="312">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G13" s="344">
         <v>20</v>
@@ -10740,7 +10894,7 @@
       </c>
       <c r="AL13" s="3">
         <f>(F13-(AK13-1)*AJ13*'Packets Structures'!$Q$22)</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AM13" s="3">
         <f>TRUNC(AL13/'Packets Structures'!$Q$22,0)</f>
@@ -10748,15 +10902,15 @@
       </c>
       <c r="AN13" s="3">
         <f>MOD(AL13,'Packets Structures'!$Q$22)</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AO13" s="309">
         <f>R13*(AK13-1)+AD13+(AM13*((('Packets Structures'!$Q$22*8)/($B$4*10^6))*10^3+'Packets Structures'!$M$28*10^3+2*'Tab. Intervals'!$O$5*10^-3)+((AN13*8)/($B$4*10^6))*10^3+'Packets Structures'!$M$28*10^3+2*'Tab. Intervals'!$O$5*10^-3)</f>
-        <v>1.08</v>
+        <v>1.016</v>
       </c>
       <c r="AP13" s="314">
         <f>P13+'Tab. Intervals'!$O$24+X13+AO13</f>
-        <v>2.96</v>
+        <v>2.8959999999999999</v>
       </c>
       <c r="AQ13" s="315">
         <f>P13+'Tab. Intervals'!$O$24+X13+Z13+R13*AK13</f>
@@ -10764,11 +10918,11 @@
       </c>
       <c r="AR13" s="317">
         <f t="shared" si="0"/>
-        <v>2.9599999999999995E-3</v>
+        <v>2.8959999999999997E-3</v>
       </c>
       <c r="AS13" s="316">
         <f t="shared" ref="AS13:AS16" si="4">AVERAGE(AR13,AT13)</f>
-        <v>9.2949999999999994E-3</v>
+        <v>9.2629999999999987E-3</v>
       </c>
       <c r="AT13" s="318">
         <f t="shared" si="1"/>
@@ -10779,8 +10933,8 @@
       </c>
     </row>
     <row r="14" spans="1:51">
-      <c r="A14" s="579"/>
-      <c r="B14" s="593"/>
+      <c r="A14" s="597"/>
+      <c r="B14" s="653"/>
       <c r="C14" s="294">
         <v>60</v>
       </c>
@@ -11649,341 +11803,341 @@
       <c r="E32" s="319"/>
     </row>
     <row r="33" spans="1:47" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A33" s="650" t="s">
+      <c r="A33" s="636" t="s">
         <v>375</v>
       </c>
-      <c r="B33" s="651"/>
-      <c r="C33" s="652" t="s">
+      <c r="B33" s="637"/>
+      <c r="C33" s="607" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="652"/>
-      <c r="E33" s="652"/>
-      <c r="F33" s="652"/>
-      <c r="G33" s="652"/>
-      <c r="H33" s="652"/>
-      <c r="I33" s="652"/>
-      <c r="J33" s="652"/>
-      <c r="K33" s="652"/>
-      <c r="L33" s="652"/>
-      <c r="M33" s="652"/>
-      <c r="N33" s="652"/>
-      <c r="O33" s="652"/>
-      <c r="P33" s="652"/>
-      <c r="Q33" s="652"/>
-      <c r="R33" s="652"/>
-      <c r="S33" s="652"/>
-      <c r="T33" s="652"/>
-      <c r="U33" s="652"/>
-      <c r="V33" s="652"/>
-      <c r="W33" s="652"/>
-      <c r="X33" s="652"/>
-      <c r="Y33" s="652"/>
-      <c r="Z33" s="652"/>
-      <c r="AA33" s="652"/>
-      <c r="AB33" s="652"/>
-      <c r="AC33" s="652"/>
-      <c r="AD33" s="652"/>
-      <c r="AE33" s="652"/>
-      <c r="AF33" s="652"/>
-      <c r="AG33" s="652"/>
-      <c r="AH33" s="652"/>
-      <c r="AI33" s="652"/>
-      <c r="AJ33" s="652"/>
-      <c r="AK33" s="652"/>
-      <c r="AL33" s="652"/>
-      <c r="AM33" s="652"/>
-      <c r="AN33" s="652"/>
-      <c r="AO33" s="652"/>
-      <c r="AP33" s="652"/>
-      <c r="AQ33" s="653"/>
-      <c r="AR33" s="623" t="s">
+      <c r="D33" s="607"/>
+      <c r="E33" s="607"/>
+      <c r="F33" s="607"/>
+      <c r="G33" s="607"/>
+      <c r="H33" s="607"/>
+      <c r="I33" s="607"/>
+      <c r="J33" s="607"/>
+      <c r="K33" s="607"/>
+      <c r="L33" s="607"/>
+      <c r="M33" s="607"/>
+      <c r="N33" s="607"/>
+      <c r="O33" s="607"/>
+      <c r="P33" s="607"/>
+      <c r="Q33" s="607"/>
+      <c r="R33" s="607"/>
+      <c r="S33" s="607"/>
+      <c r="T33" s="607"/>
+      <c r="U33" s="607"/>
+      <c r="V33" s="607"/>
+      <c r="W33" s="607"/>
+      <c r="X33" s="607"/>
+      <c r="Y33" s="607"/>
+      <c r="Z33" s="607"/>
+      <c r="AA33" s="607"/>
+      <c r="AB33" s="607"/>
+      <c r="AC33" s="607"/>
+      <c r="AD33" s="607"/>
+      <c r="AE33" s="607"/>
+      <c r="AF33" s="607"/>
+      <c r="AG33" s="607"/>
+      <c r="AH33" s="607"/>
+      <c r="AI33" s="607"/>
+      <c r="AJ33" s="607"/>
+      <c r="AK33" s="607"/>
+      <c r="AL33" s="607"/>
+      <c r="AM33" s="607"/>
+      <c r="AN33" s="607"/>
+      <c r="AO33" s="607"/>
+      <c r="AP33" s="607"/>
+      <c r="AQ33" s="608"/>
+      <c r="AR33" s="663" t="s">
         <v>371</v>
       </c>
-      <c r="AS33" s="624"/>
-      <c r="AT33" s="625"/>
-      <c r="AU33" s="594" t="s">
+      <c r="AS33" s="664"/>
+      <c r="AT33" s="665"/>
+      <c r="AU33" s="678" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:47" ht="15" customHeight="1">
-      <c r="A34" s="590" t="s">
+      <c r="A34" s="650" t="s">
         <v>374</v>
       </c>
-      <c r="B34" s="591"/>
-      <c r="C34" s="597" t="s">
+      <c r="B34" s="651"/>
+      <c r="C34" s="654" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="600" t="s">
+      <c r="D34" s="657" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="603" t="s">
+      <c r="E34" s="660" t="s">
         <v>122</v>
       </c>
-      <c r="F34" s="606" t="s">
+      <c r="F34" s="618" t="s">
         <v>288</v>
       </c>
-      <c r="G34" s="609" t="s">
+      <c r="G34" s="686" t="s">
         <v>292</v>
       </c>
-      <c r="H34" s="610"/>
-      <c r="I34" s="610"/>
-      <c r="J34" s="610"/>
-      <c r="K34" s="610"/>
-      <c r="L34" s="610"/>
-      <c r="M34" s="610"/>
-      <c r="N34" s="610"/>
-      <c r="O34" s="610"/>
-      <c r="P34" s="611"/>
-      <c r="Q34" s="635" t="s">
+      <c r="H34" s="623"/>
+      <c r="I34" s="623"/>
+      <c r="J34" s="623"/>
+      <c r="K34" s="623"/>
+      <c r="L34" s="623"/>
+      <c r="M34" s="623"/>
+      <c r="N34" s="623"/>
+      <c r="O34" s="623"/>
+      <c r="P34" s="624"/>
+      <c r="Q34" s="644" t="s">
         <v>291</v>
       </c>
-      <c r="R34" s="636"/>
-      <c r="S34" s="636"/>
-      <c r="T34" s="636"/>
-      <c r="U34" s="636"/>
-      <c r="V34" s="636"/>
-      <c r="W34" s="636"/>
-      <c r="X34" s="636"/>
-      <c r="Y34" s="636"/>
-      <c r="Z34" s="636"/>
-      <c r="AA34" s="636"/>
-      <c r="AB34" s="636"/>
-      <c r="AC34" s="636"/>
-      <c r="AD34" s="636"/>
-      <c r="AE34" s="636"/>
-      <c r="AF34" s="636"/>
-      <c r="AG34" s="636"/>
-      <c r="AH34" s="636"/>
-      <c r="AI34" s="636"/>
-      <c r="AJ34" s="636"/>
-      <c r="AK34" s="636"/>
-      <c r="AL34" s="636"/>
-      <c r="AM34" s="636"/>
-      <c r="AN34" s="636"/>
-      <c r="AO34" s="637"/>
-      <c r="AP34" s="612" t="s">
+      <c r="R34" s="645"/>
+      <c r="S34" s="645"/>
+      <c r="T34" s="645"/>
+      <c r="U34" s="645"/>
+      <c r="V34" s="645"/>
+      <c r="W34" s="645"/>
+      <c r="X34" s="645"/>
+      <c r="Y34" s="645"/>
+      <c r="Z34" s="645"/>
+      <c r="AA34" s="645"/>
+      <c r="AB34" s="645"/>
+      <c r="AC34" s="645"/>
+      <c r="AD34" s="645"/>
+      <c r="AE34" s="645"/>
+      <c r="AF34" s="645"/>
+      <c r="AG34" s="645"/>
+      <c r="AH34" s="645"/>
+      <c r="AI34" s="645"/>
+      <c r="AJ34" s="645"/>
+      <c r="AK34" s="645"/>
+      <c r="AL34" s="645"/>
+      <c r="AM34" s="645"/>
+      <c r="AN34" s="645"/>
+      <c r="AO34" s="646"/>
+      <c r="AP34" s="681" t="s">
         <v>331</v>
       </c>
-      <c r="AQ34" s="615" t="s">
+      <c r="AQ34" s="675" t="s">
         <v>332</v>
       </c>
-      <c r="AR34" s="626"/>
-      <c r="AS34" s="627"/>
-      <c r="AT34" s="628"/>
-      <c r="AU34" s="595"/>
+      <c r="AR34" s="666"/>
+      <c r="AS34" s="667"/>
+      <c r="AT34" s="668"/>
+      <c r="AU34" s="679"/>
     </row>
     <row r="35" spans="1:47" ht="15" customHeight="1">
-      <c r="A35" s="577"/>
-      <c r="B35" s="592"/>
-      <c r="C35" s="598"/>
-      <c r="D35" s="601"/>
-      <c r="E35" s="604"/>
-      <c r="F35" s="607"/>
-      <c r="G35" s="618" t="s">
+      <c r="A35" s="595"/>
+      <c r="B35" s="652"/>
+      <c r="C35" s="655"/>
+      <c r="D35" s="658"/>
+      <c r="E35" s="661"/>
+      <c r="F35" s="684"/>
+      <c r="G35" s="625" t="s">
         <v>298</v>
       </c>
       <c r="H35" s="354"/>
-      <c r="I35" s="618" t="s">
+      <c r="I35" s="625" t="s">
         <v>299</v>
       </c>
       <c r="J35" s="354"/>
-      <c r="K35" s="620" t="s">
+      <c r="K35" s="633" t="s">
         <v>300</v>
       </c>
-      <c r="L35" s="581" t="s">
+      <c r="L35" s="630" t="s">
         <v>338</v>
       </c>
-      <c r="M35" s="581" t="s">
+      <c r="M35" s="630" t="s">
         <v>318</v>
       </c>
-      <c r="N35" s="584" t="s">
+      <c r="N35" s="612" t="s">
         <v>339</v>
       </c>
-      <c r="O35" s="620" t="s">
+      <c r="O35" s="633" t="s">
         <v>317</v>
       </c>
-      <c r="P35" s="641" t="s">
+      <c r="P35" s="638" t="s">
         <v>319</v>
       </c>
-      <c r="Q35" s="644" t="s">
+      <c r="Q35" s="641" t="s">
         <v>289</v>
       </c>
-      <c r="R35" s="647" t="s">
+      <c r="R35" s="609" t="s">
         <v>296</v>
       </c>
       <c r="S35" s="244"/>
-      <c r="T35" s="647" t="s">
+      <c r="T35" s="609" t="s">
         <v>302</v>
       </c>
       <c r="U35" s="245"/>
-      <c r="V35" s="647" t="s">
+      <c r="V35" s="609" t="s">
         <v>293</v>
       </c>
       <c r="W35" s="244"/>
-      <c r="X35" s="647" t="s">
+      <c r="X35" s="609" t="s">
         <v>294</v>
       </c>
       <c r="Y35" s="244"/>
-      <c r="Z35" s="647" t="s">
+      <c r="Z35" s="609" t="s">
         <v>295</v>
       </c>
       <c r="AA35" s="245"/>
-      <c r="AB35" s="584" t="s">
+      <c r="AB35" s="612" t="s">
         <v>366</v>
       </c>
       <c r="AC35" s="296"/>
-      <c r="AD35" s="587" t="s">
+      <c r="AD35" s="615" t="s">
         <v>365</v>
       </c>
-      <c r="AE35" s="584" t="s">
+      <c r="AE35" s="612" t="s">
         <v>367</v>
       </c>
       <c r="AF35" s="296"/>
-      <c r="AG35" s="587" t="s">
+      <c r="AG35" s="615" t="s">
         <v>364</v>
       </c>
-      <c r="AH35" s="581" t="s">
+      <c r="AH35" s="630" t="s">
         <v>368</v>
       </c>
-      <c r="AI35" s="581" t="s">
+      <c r="AI35" s="630" t="s">
         <v>320</v>
       </c>
-      <c r="AJ35" s="581" t="s">
+      <c r="AJ35" s="630" t="s">
         <v>321</v>
       </c>
-      <c r="AK35" s="638" t="s">
+      <c r="AK35" s="647" t="s">
         <v>369</v>
       </c>
-      <c r="AL35" s="581" t="s">
+      <c r="AL35" s="630" t="s">
         <v>370</v>
       </c>
-      <c r="AM35" s="581" t="s">
+      <c r="AM35" s="630" t="s">
         <v>342</v>
       </c>
-      <c r="AN35" s="581" t="s">
+      <c r="AN35" s="630" t="s">
         <v>343</v>
       </c>
-      <c r="AO35" s="632" t="s">
+      <c r="AO35" s="672" t="s">
         <v>330</v>
       </c>
-      <c r="AP35" s="613"/>
-      <c r="AQ35" s="616"/>
-      <c r="AR35" s="626"/>
-      <c r="AS35" s="627"/>
-      <c r="AT35" s="628"/>
-      <c r="AU35" s="595"/>
+      <c r="AP35" s="682"/>
+      <c r="AQ35" s="676"/>
+      <c r="AR35" s="666"/>
+      <c r="AS35" s="667"/>
+      <c r="AT35" s="668"/>
+      <c r="AU35" s="679"/>
     </row>
     <row r="36" spans="1:47" ht="15" customHeight="1">
-      <c r="A36" s="577"/>
-      <c r="B36" s="592"/>
-      <c r="C36" s="598"/>
-      <c r="D36" s="601"/>
-      <c r="E36" s="604"/>
-      <c r="F36" s="607"/>
-      <c r="G36" s="619"/>
+      <c r="A36" s="595"/>
+      <c r="B36" s="652"/>
+      <c r="C36" s="655"/>
+      <c r="D36" s="658"/>
+      <c r="E36" s="661"/>
+      <c r="F36" s="684"/>
+      <c r="G36" s="626"/>
       <c r="H36" s="355"/>
-      <c r="I36" s="619"/>
+      <c r="I36" s="626"/>
       <c r="J36" s="355"/>
-      <c r="K36" s="621"/>
-      <c r="L36" s="582"/>
-      <c r="M36" s="582"/>
-      <c r="N36" s="585"/>
-      <c r="O36" s="621"/>
-      <c r="P36" s="642"/>
-      <c r="Q36" s="645"/>
-      <c r="R36" s="648"/>
+      <c r="K36" s="634"/>
+      <c r="L36" s="631"/>
+      <c r="M36" s="631"/>
+      <c r="N36" s="613"/>
+      <c r="O36" s="634"/>
+      <c r="P36" s="639"/>
+      <c r="Q36" s="642"/>
+      <c r="R36" s="610"/>
       <c r="S36" s="287"/>
-      <c r="T36" s="648"/>
+      <c r="T36" s="610"/>
       <c r="U36" s="289"/>
-      <c r="V36" s="648"/>
+      <c r="V36" s="610"/>
       <c r="W36" s="287"/>
-      <c r="X36" s="648"/>
+      <c r="X36" s="610"/>
       <c r="Y36" s="287"/>
-      <c r="Z36" s="648"/>
+      <c r="Z36" s="610"/>
       <c r="AA36" s="289"/>
-      <c r="AB36" s="585"/>
+      <c r="AB36" s="613"/>
       <c r="AC36" s="343"/>
-      <c r="AD36" s="588"/>
-      <c r="AE36" s="585"/>
+      <c r="AD36" s="616"/>
+      <c r="AE36" s="613"/>
       <c r="AF36" s="343"/>
-      <c r="AG36" s="588"/>
-      <c r="AH36" s="582"/>
-      <c r="AI36" s="582"/>
-      <c r="AJ36" s="582"/>
-      <c r="AK36" s="639"/>
-      <c r="AL36" s="582"/>
-      <c r="AM36" s="582"/>
-      <c r="AN36" s="582"/>
-      <c r="AO36" s="633"/>
-      <c r="AP36" s="613"/>
-      <c r="AQ36" s="616"/>
-      <c r="AR36" s="629"/>
-      <c r="AS36" s="630"/>
-      <c r="AT36" s="631"/>
-      <c r="AU36" s="595"/>
+      <c r="AG36" s="616"/>
+      <c r="AH36" s="631"/>
+      <c r="AI36" s="631"/>
+      <c r="AJ36" s="631"/>
+      <c r="AK36" s="648"/>
+      <c r="AL36" s="631"/>
+      <c r="AM36" s="631"/>
+      <c r="AN36" s="631"/>
+      <c r="AO36" s="673"/>
+      <c r="AP36" s="682"/>
+      <c r="AQ36" s="676"/>
+      <c r="AR36" s="669"/>
+      <c r="AS36" s="670"/>
+      <c r="AT36" s="671"/>
+      <c r="AU36" s="679"/>
     </row>
     <row r="37" spans="1:47" ht="15.75">
-      <c r="A37" s="577"/>
-      <c r="B37" s="592"/>
-      <c r="C37" s="599"/>
-      <c r="D37" s="602"/>
-      <c r="E37" s="605"/>
-      <c r="F37" s="608"/>
-      <c r="G37" s="619"/>
+      <c r="A37" s="595"/>
+      <c r="B37" s="652"/>
+      <c r="C37" s="656"/>
+      <c r="D37" s="659"/>
+      <c r="E37" s="662"/>
+      <c r="F37" s="685"/>
+      <c r="G37" s="626"/>
       <c r="H37" s="355" t="s">
         <v>301</v>
       </c>
-      <c r="I37" s="619"/>
+      <c r="I37" s="626"/>
       <c r="J37" s="355" t="s">
         <v>301</v>
       </c>
-      <c r="K37" s="622"/>
-      <c r="L37" s="583"/>
-      <c r="M37" s="583"/>
-      <c r="N37" s="586"/>
-      <c r="O37" s="622"/>
-      <c r="P37" s="643"/>
-      <c r="Q37" s="646"/>
-      <c r="R37" s="649"/>
+      <c r="K37" s="635"/>
+      <c r="L37" s="632"/>
+      <c r="M37" s="632"/>
+      <c r="N37" s="614"/>
+      <c r="O37" s="635"/>
+      <c r="P37" s="640"/>
+      <c r="Q37" s="643"/>
+      <c r="R37" s="611"/>
       <c r="S37" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="T37" s="649"/>
+      <c r="T37" s="611"/>
       <c r="U37" s="289" t="s">
         <v>301</v>
       </c>
-      <c r="V37" s="649"/>
+      <c r="V37" s="611"/>
       <c r="W37" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="X37" s="649"/>
+      <c r="X37" s="611"/>
       <c r="Y37" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="Z37" s="649"/>
+      <c r="Z37" s="611"/>
       <c r="AA37" s="289" t="s">
         <v>301</v>
       </c>
-      <c r="AB37" s="586"/>
+      <c r="AB37" s="614"/>
       <c r="AC37" s="297" t="s">
         <v>301</v>
       </c>
-      <c r="AD37" s="589"/>
-      <c r="AE37" s="586"/>
+      <c r="AD37" s="617"/>
+      <c r="AE37" s="614"/>
       <c r="AF37" s="297" t="s">
         <v>301</v>
       </c>
-      <c r="AG37" s="589"/>
-      <c r="AH37" s="583"/>
-      <c r="AI37" s="583"/>
-      <c r="AJ37" s="583"/>
-      <c r="AK37" s="640"/>
-      <c r="AL37" s="583"/>
-      <c r="AM37" s="583"/>
-      <c r="AN37" s="583"/>
-      <c r="AO37" s="634"/>
-      <c r="AP37" s="614"/>
-      <c r="AQ37" s="617"/>
+      <c r="AG37" s="617"/>
+      <c r="AH37" s="632"/>
+      <c r="AI37" s="632"/>
+      <c r="AJ37" s="632"/>
+      <c r="AK37" s="649"/>
+      <c r="AL37" s="632"/>
+      <c r="AM37" s="632"/>
+      <c r="AN37" s="632"/>
+      <c r="AO37" s="674"/>
+      <c r="AP37" s="683"/>
+      <c r="AQ37" s="677"/>
       <c r="AR37" s="307" t="s">
         <v>334</v>
       </c>
@@ -11993,11 +12147,11 @@
       <c r="AT37" s="308" t="s">
         <v>336</v>
       </c>
-      <c r="AU37" s="596"/>
+      <c r="AU37" s="680"/>
     </row>
     <row r="38" spans="1:47">
-      <c r="A38" s="577"/>
-      <c r="B38" s="592"/>
+      <c r="A38" s="595"/>
+      <c r="B38" s="652"/>
       <c r="C38" s="295">
         <v>60</v>
       </c>
@@ -12167,8 +12321,8 @@
       </c>
     </row>
     <row r="39" spans="1:47">
-      <c r="A39" s="577"/>
-      <c r="B39" s="592"/>
+      <c r="A39" s="595"/>
+      <c r="B39" s="652"/>
       <c r="C39" s="345">
         <v>60</v>
       </c>
@@ -12257,8 +12411,8 @@
       <c r="AU39" s="306"/>
     </row>
     <row r="40" spans="1:47">
-      <c r="A40" s="579"/>
-      <c r="B40" s="593"/>
+      <c r="A40" s="597"/>
+      <c r="B40" s="653"/>
       <c r="C40" s="345">
         <v>60</v>
       </c>
@@ -12528,6 +12682,69 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="79">
+    <mergeCell ref="AM35:AM37"/>
+    <mergeCell ref="AN35:AN37"/>
+    <mergeCell ref="AB35:AB37"/>
+    <mergeCell ref="AD35:AD37"/>
+    <mergeCell ref="AE35:AE37"/>
+    <mergeCell ref="N35:N37"/>
+    <mergeCell ref="AU33:AU37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="G34:P34"/>
+    <mergeCell ref="AP34:AP37"/>
+    <mergeCell ref="AQ34:AQ37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="M35:M37"/>
+    <mergeCell ref="O35:O37"/>
+    <mergeCell ref="AL35:AL37"/>
+    <mergeCell ref="AR33:AT36"/>
+    <mergeCell ref="AO35:AO37"/>
+    <mergeCell ref="AQ8:AQ11"/>
+    <mergeCell ref="AU7:AU11"/>
+    <mergeCell ref="Q8:AO8"/>
+    <mergeCell ref="AL9:AL11"/>
+    <mergeCell ref="AM9:AM11"/>
+    <mergeCell ref="AN9:AN11"/>
+    <mergeCell ref="AO9:AO11"/>
+    <mergeCell ref="AP8:AP11"/>
+    <mergeCell ref="AG9:AG11"/>
+    <mergeCell ref="AH9:AH11"/>
+    <mergeCell ref="AI9:AI11"/>
+    <mergeCell ref="AJ9:AJ11"/>
+    <mergeCell ref="AK9:AK11"/>
+    <mergeCell ref="AR7:AT10"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="Q9:Q11"/>
+    <mergeCell ref="R9:R11"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B14"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:AQ33"/>
+    <mergeCell ref="P35:P37"/>
+    <mergeCell ref="Q35:Q37"/>
+    <mergeCell ref="R35:R37"/>
+    <mergeCell ref="T35:T37"/>
+    <mergeCell ref="V35:V37"/>
+    <mergeCell ref="Q34:AO34"/>
+    <mergeCell ref="AG35:AG37"/>
+    <mergeCell ref="AH35:AH37"/>
+    <mergeCell ref="AI35:AI37"/>
+    <mergeCell ref="AJ35:AJ37"/>
+    <mergeCell ref="AK35:AK37"/>
+    <mergeCell ref="X35:X37"/>
+    <mergeCell ref="Z35:Z37"/>
+    <mergeCell ref="A34:B40"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="C7:AQ7"/>
     <mergeCell ref="V9:V11"/>
@@ -12544,77 +12761,14 @@
     <mergeCell ref="L9:L11"/>
     <mergeCell ref="M9:M11"/>
     <mergeCell ref="O9:O11"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:AQ33"/>
-    <mergeCell ref="P35:P37"/>
-    <mergeCell ref="Q35:Q37"/>
-    <mergeCell ref="R35:R37"/>
-    <mergeCell ref="T35:T37"/>
-    <mergeCell ref="V35:V37"/>
-    <mergeCell ref="Q34:AO34"/>
-    <mergeCell ref="AG35:AG37"/>
-    <mergeCell ref="AH35:AH37"/>
-    <mergeCell ref="AI35:AI37"/>
-    <mergeCell ref="AJ35:AJ37"/>
-    <mergeCell ref="AK35:AK37"/>
-    <mergeCell ref="X35:X37"/>
-    <mergeCell ref="Z35:Z37"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B14"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="N9:N11"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="Q9:Q11"/>
-    <mergeCell ref="R9:R11"/>
-    <mergeCell ref="T9:T11"/>
-    <mergeCell ref="AR33:AT36"/>
-    <mergeCell ref="AO35:AO37"/>
-    <mergeCell ref="AQ8:AQ11"/>
-    <mergeCell ref="AU7:AU11"/>
-    <mergeCell ref="Q8:AO8"/>
-    <mergeCell ref="AL9:AL11"/>
-    <mergeCell ref="AM9:AM11"/>
-    <mergeCell ref="AN9:AN11"/>
-    <mergeCell ref="AO9:AO11"/>
-    <mergeCell ref="AP8:AP11"/>
-    <mergeCell ref="AG9:AG11"/>
-    <mergeCell ref="AH9:AH11"/>
-    <mergeCell ref="AI9:AI11"/>
-    <mergeCell ref="AJ9:AJ11"/>
-    <mergeCell ref="AK9:AK11"/>
-    <mergeCell ref="AR7:AT10"/>
-    <mergeCell ref="A34:B40"/>
-    <mergeCell ref="N35:N37"/>
-    <mergeCell ref="AU33:AU37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="G34:P34"/>
-    <mergeCell ref="AP34:AP37"/>
-    <mergeCell ref="AQ34:AQ37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="K35:K37"/>
-    <mergeCell ref="L35:L37"/>
-    <mergeCell ref="M35:M37"/>
-    <mergeCell ref="O35:O37"/>
-    <mergeCell ref="AL35:AL37"/>
-    <mergeCell ref="AM35:AM37"/>
-    <mergeCell ref="AN35:AN37"/>
-    <mergeCell ref="AB35:AB37"/>
-    <mergeCell ref="AD35:AD37"/>
-    <mergeCell ref="AE35:AE37"/>
   </mergeCells>
   <conditionalFormatting sqref="M38:M42 M12:M18">
-    <cfRule type="expression" dxfId="7" priority="15">
+    <cfRule type="expression" dxfId="1" priority="15">
       <formula>N12="01"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38:L42 L12:L18">
-    <cfRule type="expression" dxfId="6" priority="14">
+    <cfRule type="expression" dxfId="0" priority="14">
       <formula>N12="10"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12670,7 +12824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AY18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
@@ -12719,30 +12873,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="24" thickBot="1">
-      <c r="A1" s="569" t="s">
+      <c r="A1" s="583" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="570"/>
-      <c r="C1" s="570"/>
-      <c r="D1" s="570"/>
-      <c r="E1" s="570"/>
-      <c r="F1" s="570"/>
-      <c r="G1" s="570"/>
-      <c r="H1" s="570"/>
-      <c r="I1" s="570"/>
-      <c r="J1" s="570"/>
-      <c r="K1" s="570"/>
-      <c r="L1" s="570"/>
-      <c r="M1" s="570"/>
-      <c r="N1" s="570"/>
-      <c r="O1" s="570"/>
-      <c r="P1" s="570"/>
-      <c r="Q1" s="570"/>
-      <c r="R1" s="570"/>
-      <c r="S1" s="570"/>
-      <c r="T1" s="570"/>
-      <c r="U1" s="570"/>
-      <c r="V1" s="571"/>
+      <c r="B1" s="584"/>
+      <c r="C1" s="584"/>
+      <c r="D1" s="584"/>
+      <c r="E1" s="584"/>
+      <c r="F1" s="584"/>
+      <c r="G1" s="584"/>
+      <c r="H1" s="584"/>
+      <c r="I1" s="584"/>
+      <c r="J1" s="584"/>
+      <c r="K1" s="584"/>
+      <c r="L1" s="584"/>
+      <c r="M1" s="584"/>
+      <c r="N1" s="584"/>
+      <c r="O1" s="584"/>
+      <c r="P1" s="584"/>
+      <c r="Q1" s="584"/>
+      <c r="R1" s="584"/>
+      <c r="S1" s="584"/>
+      <c r="T1" s="584"/>
+      <c r="U1" s="584"/>
+      <c r="V1" s="585"/>
     </row>
     <row r="2" spans="1:51">
       <c r="N2" t="s">
@@ -12804,343 +12958,343 @@
     </row>
     <row r="6" spans="1:51" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:51" ht="19.5" thickBot="1">
-      <c r="A7" s="650" t="s">
+      <c r="A7" s="636" t="s">
         <v>386</v>
       </c>
-      <c r="B7" s="651"/>
-      <c r="C7" s="652" t="s">
+      <c r="B7" s="637"/>
+      <c r="C7" s="607" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="652"/>
-      <c r="E7" s="652"/>
-      <c r="F7" s="652"/>
-      <c r="G7" s="652"/>
-      <c r="H7" s="652"/>
-      <c r="I7" s="652"/>
-      <c r="J7" s="652"/>
-      <c r="K7" s="652"/>
-      <c r="L7" s="652"/>
-      <c r="M7" s="652"/>
-      <c r="N7" s="652"/>
-      <c r="O7" s="652"/>
-      <c r="P7" s="652"/>
-      <c r="Q7" s="652"/>
-      <c r="R7" s="652"/>
-      <c r="S7" s="652"/>
-      <c r="T7" s="652"/>
-      <c r="U7" s="652"/>
-      <c r="V7" s="652"/>
-      <c r="W7" s="652"/>
-      <c r="X7" s="652"/>
-      <c r="Y7" s="652"/>
-      <c r="Z7" s="652"/>
-      <c r="AA7" s="652"/>
-      <c r="AB7" s="652"/>
-      <c r="AC7" s="652"/>
-      <c r="AD7" s="652"/>
-      <c r="AE7" s="652"/>
-      <c r="AF7" s="652"/>
-      <c r="AG7" s="652"/>
-      <c r="AH7" s="652"/>
-      <c r="AI7" s="652"/>
-      <c r="AJ7" s="652"/>
-      <c r="AK7" s="652"/>
-      <c r="AL7" s="652"/>
-      <c r="AM7" s="652"/>
-      <c r="AN7" s="652"/>
-      <c r="AO7" s="652"/>
-      <c r="AP7" s="652"/>
-      <c r="AQ7" s="653"/>
-      <c r="AR7" s="623" t="s">
+      <c r="D7" s="607"/>
+      <c r="E7" s="607"/>
+      <c r="F7" s="607"/>
+      <c r="G7" s="607"/>
+      <c r="H7" s="607"/>
+      <c r="I7" s="607"/>
+      <c r="J7" s="607"/>
+      <c r="K7" s="607"/>
+      <c r="L7" s="607"/>
+      <c r="M7" s="607"/>
+      <c r="N7" s="607"/>
+      <c r="O7" s="607"/>
+      <c r="P7" s="607"/>
+      <c r="Q7" s="607"/>
+      <c r="R7" s="607"/>
+      <c r="S7" s="607"/>
+      <c r="T7" s="607"/>
+      <c r="U7" s="607"/>
+      <c r="V7" s="607"/>
+      <c r="W7" s="607"/>
+      <c r="X7" s="607"/>
+      <c r="Y7" s="607"/>
+      <c r="Z7" s="607"/>
+      <c r="AA7" s="607"/>
+      <c r="AB7" s="607"/>
+      <c r="AC7" s="607"/>
+      <c r="AD7" s="607"/>
+      <c r="AE7" s="607"/>
+      <c r="AF7" s="607"/>
+      <c r="AG7" s="607"/>
+      <c r="AH7" s="607"/>
+      <c r="AI7" s="607"/>
+      <c r="AJ7" s="607"/>
+      <c r="AK7" s="607"/>
+      <c r="AL7" s="607"/>
+      <c r="AM7" s="607"/>
+      <c r="AN7" s="607"/>
+      <c r="AO7" s="607"/>
+      <c r="AP7" s="607"/>
+      <c r="AQ7" s="608"/>
+      <c r="AR7" s="663" t="s">
         <v>371</v>
       </c>
-      <c r="AS7" s="624"/>
-      <c r="AT7" s="625"/>
-      <c r="AU7" s="594" t="s">
+      <c r="AS7" s="664"/>
+      <c r="AT7" s="665"/>
+      <c r="AU7" s="678" t="s">
         <v>333</v>
       </c>
       <c r="AX7" s="95"/>
       <c r="AY7" s="95"/>
     </row>
     <row r="8" spans="1:51" ht="15" customHeight="1">
-      <c r="A8" s="590" t="s">
+      <c r="A8" s="650" t="s">
         <v>382</v>
       </c>
-      <c r="B8" s="671"/>
-      <c r="C8" s="597" t="s">
+      <c r="B8" s="687"/>
+      <c r="C8" s="654" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="600" t="s">
+      <c r="D8" s="657" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="603" t="s">
+      <c r="E8" s="660" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="606" t="s">
+      <c r="F8" s="618" t="s">
         <v>288</v>
       </c>
-      <c r="G8" s="656" t="s">
+      <c r="G8" s="621" t="s">
         <v>292</v>
       </c>
-      <c r="H8" s="657"/>
-      <c r="I8" s="657"/>
-      <c r="J8" s="657"/>
-      <c r="K8" s="610"/>
-      <c r="L8" s="610"/>
-      <c r="M8" s="610"/>
-      <c r="N8" s="610"/>
-      <c r="O8" s="610"/>
-      <c r="P8" s="611"/>
-      <c r="Q8" s="635" t="s">
+      <c r="H8" s="622"/>
+      <c r="I8" s="622"/>
+      <c r="J8" s="622"/>
+      <c r="K8" s="623"/>
+      <c r="L8" s="623"/>
+      <c r="M8" s="623"/>
+      <c r="N8" s="623"/>
+      <c r="O8" s="623"/>
+      <c r="P8" s="624"/>
+      <c r="Q8" s="644" t="s">
         <v>291</v>
       </c>
-      <c r="R8" s="636"/>
-      <c r="S8" s="636"/>
-      <c r="T8" s="636"/>
-      <c r="U8" s="636"/>
-      <c r="V8" s="636"/>
-      <c r="W8" s="636"/>
-      <c r="X8" s="636"/>
-      <c r="Y8" s="636"/>
-      <c r="Z8" s="636"/>
-      <c r="AA8" s="636"/>
-      <c r="AB8" s="636"/>
-      <c r="AC8" s="636"/>
-      <c r="AD8" s="636"/>
-      <c r="AE8" s="636"/>
-      <c r="AF8" s="636"/>
-      <c r="AG8" s="636"/>
-      <c r="AH8" s="636"/>
-      <c r="AI8" s="636"/>
-      <c r="AJ8" s="636"/>
-      <c r="AK8" s="636"/>
-      <c r="AL8" s="636"/>
-      <c r="AM8" s="636"/>
-      <c r="AN8" s="636"/>
-      <c r="AO8" s="637"/>
-      <c r="AP8" s="612" t="s">
+      <c r="R8" s="645"/>
+      <c r="S8" s="645"/>
+      <c r="T8" s="645"/>
+      <c r="U8" s="645"/>
+      <c r="V8" s="645"/>
+      <c r="W8" s="645"/>
+      <c r="X8" s="645"/>
+      <c r="Y8" s="645"/>
+      <c r="Z8" s="645"/>
+      <c r="AA8" s="645"/>
+      <c r="AB8" s="645"/>
+      <c r="AC8" s="645"/>
+      <c r="AD8" s="645"/>
+      <c r="AE8" s="645"/>
+      <c r="AF8" s="645"/>
+      <c r="AG8" s="645"/>
+      <c r="AH8" s="645"/>
+      <c r="AI8" s="645"/>
+      <c r="AJ8" s="645"/>
+      <c r="AK8" s="645"/>
+      <c r="AL8" s="645"/>
+      <c r="AM8" s="645"/>
+      <c r="AN8" s="645"/>
+      <c r="AO8" s="646"/>
+      <c r="AP8" s="681" t="s">
         <v>331</v>
       </c>
-      <c r="AQ8" s="615" t="s">
+      <c r="AQ8" s="675" t="s">
         <v>332</v>
       </c>
-      <c r="AR8" s="626"/>
-      <c r="AS8" s="627"/>
-      <c r="AT8" s="628"/>
-      <c r="AU8" s="595"/>
+      <c r="AR8" s="666"/>
+      <c r="AS8" s="667"/>
+      <c r="AT8" s="668"/>
+      <c r="AU8" s="679"/>
     </row>
     <row r="9" spans="1:51">
-      <c r="A9" s="577"/>
-      <c r="B9" s="578"/>
-      <c r="C9" s="598"/>
-      <c r="D9" s="601"/>
-      <c r="E9" s="604"/>
-      <c r="F9" s="654"/>
-      <c r="G9" s="618" t="s">
+      <c r="A9" s="595"/>
+      <c r="B9" s="596"/>
+      <c r="C9" s="655"/>
+      <c r="D9" s="658"/>
+      <c r="E9" s="661"/>
+      <c r="F9" s="619"/>
+      <c r="G9" s="625" t="s">
         <v>298</v>
       </c>
       <c r="H9" s="366"/>
-      <c r="I9" s="618" t="s">
+      <c r="I9" s="625" t="s">
         <v>299</v>
       </c>
       <c r="J9" s="366"/>
-      <c r="K9" s="658" t="s">
+      <c r="K9" s="627" t="s">
         <v>300</v>
       </c>
-      <c r="L9" s="581" t="s">
+      <c r="L9" s="630" t="s">
         <v>338</v>
       </c>
-      <c r="M9" s="581" t="s">
+      <c r="M9" s="630" t="s">
         <v>318</v>
       </c>
-      <c r="N9" s="584" t="s">
+      <c r="N9" s="612" t="s">
         <v>339</v>
       </c>
-      <c r="O9" s="620" t="s">
+      <c r="O9" s="633" t="s">
         <v>317</v>
       </c>
-      <c r="P9" s="641" t="s">
+      <c r="P9" s="638" t="s">
         <v>319</v>
       </c>
-      <c r="Q9" s="644" t="s">
+      <c r="Q9" s="641" t="s">
         <v>289</v>
       </c>
-      <c r="R9" s="647" t="s">
+      <c r="R9" s="609" t="s">
         <v>296</v>
       </c>
       <c r="S9" s="244"/>
-      <c r="T9" s="647" t="s">
+      <c r="T9" s="609" t="s">
         <v>302</v>
       </c>
       <c r="U9" s="245"/>
-      <c r="V9" s="647" t="s">
+      <c r="V9" s="609" t="s">
         <v>293</v>
       </c>
       <c r="W9" s="244"/>
-      <c r="X9" s="647" t="s">
+      <c r="X9" s="609" t="s">
         <v>294</v>
       </c>
       <c r="Y9" s="244"/>
-      <c r="Z9" s="647" t="s">
+      <c r="Z9" s="609" t="s">
         <v>295</v>
       </c>
       <c r="AA9" s="245"/>
-      <c r="AB9" s="584" t="s">
+      <c r="AB9" s="612" t="s">
         <v>366</v>
       </c>
       <c r="AC9" s="296"/>
-      <c r="AD9" s="587" t="s">
+      <c r="AD9" s="615" t="s">
         <v>365</v>
       </c>
-      <c r="AE9" s="584" t="s">
+      <c r="AE9" s="612" t="s">
         <v>367</v>
       </c>
       <c r="AF9" s="296"/>
-      <c r="AG9" s="587" t="s">
+      <c r="AG9" s="615" t="s">
         <v>364</v>
       </c>
-      <c r="AH9" s="581" t="s">
+      <c r="AH9" s="630" t="s">
         <v>368</v>
       </c>
-      <c r="AI9" s="581" t="s">
+      <c r="AI9" s="630" t="s">
         <v>320</v>
       </c>
-      <c r="AJ9" s="581" t="s">
+      <c r="AJ9" s="630" t="s">
         <v>321</v>
       </c>
-      <c r="AK9" s="638" t="s">
+      <c r="AK9" s="647" t="s">
         <v>369</v>
       </c>
-      <c r="AL9" s="581" t="s">
+      <c r="AL9" s="630" t="s">
         <v>370</v>
       </c>
-      <c r="AM9" s="581" t="s">
+      <c r="AM9" s="630" t="s">
         <v>342</v>
       </c>
-      <c r="AN9" s="581" t="s">
+      <c r="AN9" s="630" t="s">
         <v>343</v>
       </c>
-      <c r="AO9" s="632" t="s">
+      <c r="AO9" s="672" t="s">
         <v>330</v>
       </c>
-      <c r="AP9" s="613"/>
-      <c r="AQ9" s="616"/>
-      <c r="AR9" s="626"/>
-      <c r="AS9" s="627"/>
-      <c r="AT9" s="628"/>
-      <c r="AU9" s="595"/>
+      <c r="AP9" s="682"/>
+      <c r="AQ9" s="676"/>
+      <c r="AR9" s="666"/>
+      <c r="AS9" s="667"/>
+      <c r="AT9" s="668"/>
+      <c r="AU9" s="679"/>
     </row>
     <row r="10" spans="1:51">
-      <c r="A10" s="577"/>
-      <c r="B10" s="578"/>
-      <c r="C10" s="598"/>
-      <c r="D10" s="601"/>
-      <c r="E10" s="604"/>
-      <c r="F10" s="654"/>
-      <c r="G10" s="619"/>
+      <c r="A10" s="595"/>
+      <c r="B10" s="596"/>
+      <c r="C10" s="655"/>
+      <c r="D10" s="658"/>
+      <c r="E10" s="661"/>
+      <c r="F10" s="619"/>
+      <c r="G10" s="626"/>
       <c r="H10" s="367"/>
-      <c r="I10" s="619"/>
+      <c r="I10" s="626"/>
       <c r="J10" s="367"/>
-      <c r="K10" s="659"/>
-      <c r="L10" s="582"/>
-      <c r="M10" s="582"/>
-      <c r="N10" s="585"/>
-      <c r="O10" s="621"/>
-      <c r="P10" s="642"/>
-      <c r="Q10" s="645"/>
-      <c r="R10" s="648"/>
+      <c r="K10" s="628"/>
+      <c r="L10" s="631"/>
+      <c r="M10" s="631"/>
+      <c r="N10" s="613"/>
+      <c r="O10" s="634"/>
+      <c r="P10" s="639"/>
+      <c r="Q10" s="642"/>
+      <c r="R10" s="610"/>
       <c r="S10" s="287"/>
-      <c r="T10" s="648"/>
+      <c r="T10" s="610"/>
       <c r="U10" s="289"/>
-      <c r="V10" s="648"/>
+      <c r="V10" s="610"/>
       <c r="W10" s="287"/>
-      <c r="X10" s="648"/>
+      <c r="X10" s="610"/>
       <c r="Y10" s="287"/>
-      <c r="Z10" s="648"/>
+      <c r="Z10" s="610"/>
       <c r="AA10" s="289"/>
-      <c r="AB10" s="585"/>
+      <c r="AB10" s="613"/>
       <c r="AC10" s="343"/>
-      <c r="AD10" s="588"/>
-      <c r="AE10" s="585"/>
+      <c r="AD10" s="616"/>
+      <c r="AE10" s="613"/>
       <c r="AF10" s="343"/>
-      <c r="AG10" s="588"/>
-      <c r="AH10" s="582"/>
-      <c r="AI10" s="582"/>
-      <c r="AJ10" s="582"/>
-      <c r="AK10" s="639"/>
-      <c r="AL10" s="582"/>
-      <c r="AM10" s="582"/>
-      <c r="AN10" s="582"/>
-      <c r="AO10" s="633"/>
-      <c r="AP10" s="613"/>
-      <c r="AQ10" s="616"/>
-      <c r="AR10" s="629"/>
-      <c r="AS10" s="630"/>
-      <c r="AT10" s="631"/>
-      <c r="AU10" s="595"/>
+      <c r="AG10" s="616"/>
+      <c r="AH10" s="631"/>
+      <c r="AI10" s="631"/>
+      <c r="AJ10" s="631"/>
+      <c r="AK10" s="648"/>
+      <c r="AL10" s="631"/>
+      <c r="AM10" s="631"/>
+      <c r="AN10" s="631"/>
+      <c r="AO10" s="673"/>
+      <c r="AP10" s="682"/>
+      <c r="AQ10" s="676"/>
+      <c r="AR10" s="669"/>
+      <c r="AS10" s="670"/>
+      <c r="AT10" s="671"/>
+      <c r="AU10" s="679"/>
     </row>
     <row r="11" spans="1:51" ht="15.75">
-      <c r="A11" s="577"/>
-      <c r="B11" s="578"/>
-      <c r="C11" s="599"/>
-      <c r="D11" s="602"/>
-      <c r="E11" s="605"/>
-      <c r="F11" s="655"/>
-      <c r="G11" s="619"/>
+      <c r="A11" s="595"/>
+      <c r="B11" s="596"/>
+      <c r="C11" s="656"/>
+      <c r="D11" s="659"/>
+      <c r="E11" s="662"/>
+      <c r="F11" s="620"/>
+      <c r="G11" s="626"/>
       <c r="H11" s="367" t="s">
         <v>301</v>
       </c>
-      <c r="I11" s="619"/>
+      <c r="I11" s="626"/>
       <c r="J11" s="367" t="s">
         <v>301</v>
       </c>
-      <c r="K11" s="660"/>
-      <c r="L11" s="583"/>
-      <c r="M11" s="583"/>
-      <c r="N11" s="586"/>
-      <c r="O11" s="622"/>
-      <c r="P11" s="643"/>
-      <c r="Q11" s="646"/>
-      <c r="R11" s="649"/>
+      <c r="K11" s="629"/>
+      <c r="L11" s="632"/>
+      <c r="M11" s="632"/>
+      <c r="N11" s="614"/>
+      <c r="O11" s="635"/>
+      <c r="P11" s="640"/>
+      <c r="Q11" s="643"/>
+      <c r="R11" s="611"/>
       <c r="S11" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="T11" s="649"/>
+      <c r="T11" s="611"/>
       <c r="U11" s="289" t="s">
         <v>301</v>
       </c>
-      <c r="V11" s="649"/>
+      <c r="V11" s="611"/>
       <c r="W11" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="X11" s="649"/>
+      <c r="X11" s="611"/>
       <c r="Y11" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="Z11" s="649"/>
+      <c r="Z11" s="611"/>
       <c r="AA11" s="289" t="s">
         <v>301</v>
       </c>
-      <c r="AB11" s="586"/>
+      <c r="AB11" s="614"/>
       <c r="AC11" s="297" t="s">
         <v>301</v>
       </c>
-      <c r="AD11" s="589"/>
-      <c r="AE11" s="586"/>
+      <c r="AD11" s="617"/>
+      <c r="AE11" s="614"/>
       <c r="AF11" s="297" t="s">
         <v>301</v>
       </c>
-      <c r="AG11" s="589"/>
-      <c r="AH11" s="583"/>
-      <c r="AI11" s="583"/>
-      <c r="AJ11" s="583"/>
-      <c r="AK11" s="640"/>
-      <c r="AL11" s="583"/>
-      <c r="AM11" s="583"/>
-      <c r="AN11" s="583"/>
-      <c r="AO11" s="634"/>
-      <c r="AP11" s="614"/>
-      <c r="AQ11" s="617"/>
+      <c r="AG11" s="617"/>
+      <c r="AH11" s="632"/>
+      <c r="AI11" s="632"/>
+      <c r="AJ11" s="632"/>
+      <c r="AK11" s="649"/>
+      <c r="AL11" s="632"/>
+      <c r="AM11" s="632"/>
+      <c r="AN11" s="632"/>
+      <c r="AO11" s="674"/>
+      <c r="AP11" s="683"/>
+      <c r="AQ11" s="677"/>
       <c r="AR11" s="307" t="s">
         <v>334</v>
       </c>
@@ -13150,11 +13304,11 @@
       <c r="AT11" s="308" t="s">
         <v>336</v>
       </c>
-      <c r="AU11" s="596"/>
+      <c r="AU11" s="680"/>
     </row>
     <row r="12" spans="1:51">
-      <c r="A12" s="577"/>
-      <c r="B12" s="578"/>
+      <c r="A12" s="595"/>
+      <c r="B12" s="596"/>
       <c r="C12" s="360">
         <v>300</v>
       </c>
@@ -13309,7 +13463,7 @@
         <v>48555.63</v>
       </c>
       <c r="AR12" s="317">
-        <f t="shared" ref="AR12:AR18" si="0">(((D12+E12)*$B$3*AP12*10^-3)/C12)*10^3</f>
+        <f t="shared" ref="AR12" si="0">(((D12+E12)*$B$3*AP12*10^-3)/C12)*10^3</f>
         <v>366.53474240000003</v>
       </c>
       <c r="AS12" s="316">
@@ -13317,7 +13471,7 @@
         <v>366.56487445000005</v>
       </c>
       <c r="AT12" s="318">
-        <f t="shared" ref="AT12:AT18" si="1">(((D12+E12)*$B$3*AQ12*10^-3)/C12)*10^3</f>
+        <f t="shared" ref="AT12" si="1">(((D12+E12)*$B$3*AQ12*10^-3)/C12)*10^3</f>
         <v>366.59500650000007</v>
       </c>
       <c r="AU12" s="306" t="s">
@@ -13325,8 +13479,8 @@
       </c>
     </row>
     <row r="13" spans="1:51">
-      <c r="A13" s="577"/>
-      <c r="B13" s="578"/>
+      <c r="A13" s="595"/>
+      <c r="B13" s="596"/>
       <c r="C13" s="360"/>
       <c r="D13" s="121"/>
       <c r="E13" s="309"/>
@@ -13374,8 +13528,8 @@
       <c r="AU13" s="306"/>
     </row>
     <row r="14" spans="1:51">
-      <c r="A14" s="577"/>
-      <c r="B14" s="578"/>
+      <c r="A14" s="595"/>
+      <c r="B14" s="596"/>
       <c r="C14" s="360"/>
       <c r="D14" s="121"/>
       <c r="E14" s="309"/>
@@ -13423,8 +13577,8 @@
       <c r="AU14" s="306"/>
     </row>
     <row r="15" spans="1:51">
-      <c r="A15" s="579"/>
-      <c r="B15" s="580"/>
+      <c r="A15" s="597"/>
+      <c r="B15" s="598"/>
       <c r="C15" s="360"/>
       <c r="D15" s="121"/>
       <c r="E15" s="309"/>
@@ -13614,6 +13768,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:AQ7"/>
+    <mergeCell ref="AR7:AT10"/>
+    <mergeCell ref="AU7:AU11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G8:P8"/>
+    <mergeCell ref="Q8:AO8"/>
+    <mergeCell ref="AP8:AP11"/>
+    <mergeCell ref="AQ8:AQ11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="Q9:Q11"/>
+    <mergeCell ref="R9:R11"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="V9:V11"/>
     <mergeCell ref="A8:B15"/>
     <mergeCell ref="AN9:AN11"/>
     <mergeCell ref="AO9:AO11"/>
@@ -13630,30 +13808,6 @@
     <mergeCell ref="AE9:AE11"/>
     <mergeCell ref="AG9:AG11"/>
     <mergeCell ref="O9:O11"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="Q9:Q11"/>
-    <mergeCell ref="R9:R11"/>
-    <mergeCell ref="T9:T11"/>
-    <mergeCell ref="V9:V11"/>
-    <mergeCell ref="G8:P8"/>
-    <mergeCell ref="Q8:AO8"/>
-    <mergeCell ref="AP8:AP11"/>
-    <mergeCell ref="AQ8:AQ11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="N9:N11"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:AQ7"/>
-    <mergeCell ref="AR7:AT10"/>
-    <mergeCell ref="AU7:AU11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="F8:F11"/>
   </mergeCells>
   <conditionalFormatting sqref="M12:M18">
     <cfRule type="expression" dxfId="3" priority="6">
@@ -13732,17 +13886,17 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="M2" s="669" t="s">
+      <c r="M2" s="696" t="s">
         <v>212</v>
       </c>
-      <c r="N2" s="670"/>
-      <c r="P2" s="668" t="s">
+      <c r="N2" s="697"/>
+      <c r="P2" s="695" t="s">
         <v>226</v>
       </c>
-      <c r="Q2" s="668"/>
-      <c r="R2" s="668"/>
-      <c r="S2" s="668"/>
-      <c r="T2" s="668"/>
+      <c r="Q2" s="695"/>
+      <c r="R2" s="695"/>
+      <c r="S2" s="695"/>
+      <c r="T2" s="695"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
       <c r="A3" s="222" t="s">
@@ -13763,16 +13917,16 @@
       <c r="G3" s="228" t="s">
         <v>231</v>
       </c>
-      <c r="I3" s="661" t="s">
+      <c r="I3" s="688" t="s">
         <v>124</v>
       </c>
-      <c r="J3" s="661"/>
-      <c r="K3" s="661"/>
-      <c r="P3" s="668"/>
-      <c r="Q3" s="668"/>
-      <c r="R3" s="668"/>
-      <c r="S3" s="668"/>
-      <c r="T3" s="668"/>
+      <c r="J3" s="688"/>
+      <c r="K3" s="688"/>
+      <c r="P3" s="695"/>
+      <c r="Q3" s="695"/>
+      <c r="R3" s="695"/>
+      <c r="S3" s="695"/>
+      <c r="T3" s="695"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1">
       <c r="A4" s="20" t="s">
@@ -13811,11 +13965,11 @@
         <f t="array" ref="N4">IFERROR(INDEX($K$5:$K$14,MATCH(TRUE,EXACT($I$5:$I$14,MID(M4,1,1)),0)),1)</f>
         <v>1000000000</v>
       </c>
-      <c r="P4" s="668"/>
-      <c r="Q4" s="668"/>
-      <c r="R4" s="668"/>
-      <c r="S4" s="668"/>
-      <c r="T4" s="668"/>
+      <c r="P4" s="695"/>
+      <c r="Q4" s="695"/>
+      <c r="R4" s="695"/>
+      <c r="S4" s="695"/>
+      <c r="T4" s="695"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="20" t="s">
@@ -13894,12 +14048,12 @@
         <f t="array" ref="N6">IFERROR(INDEX($K$5:$K$14,MATCH(TRUE,EXACT($I$5:$I$14,MID(M6,1,1)),0)),1)</f>
         <v>1000</v>
       </c>
-      <c r="P6" s="662" t="s">
+      <c r="P6" s="689" t="s">
         <v>123</v>
       </c>
-      <c r="Q6" s="663"/>
-      <c r="R6" s="663"/>
-      <c r="S6" s="664"/>
+      <c r="Q6" s="690"/>
+      <c r="R6" s="690"/>
+      <c r="S6" s="691"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="227" t="s">
@@ -14627,14 +14781,14 @@
         <f t="array" ref="G24">INDEX($K$16:$K$21,MATCH(TRUE,EXACT($I$16:$I$21,E24),0))/INDEX($K$16:$K$21,MATCH(TRUE,EXACT($I$16:$I$21,F24),0))</f>
         <v>9.3132257461547852E-10</v>
       </c>
-      <c r="N24" s="665" t="s">
+      <c r="N24" s="692" t="s">
         <v>241</v>
       </c>
-      <c r="O24" s="666"/>
-      <c r="P24" s="667" t="s">
+      <c r="O24" s="693"/>
+      <c r="P24" s="694" t="s">
         <v>240</v>
       </c>
-      <c r="Q24" s="667"/>
+      <c r="Q24" s="694"/>
       <c r="S24" t="s">
         <v>233</v>
       </c>

--- a/altri_doc/Analisi Dati + Modello.xlsx
+++ b/altri_doc/Analisi Dati + Modello.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6180" windowWidth="20535" windowHeight="1170" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="6180" windowWidth="20535" windowHeight="1170" tabRatio="582" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Bluetooth" sheetId="9" r:id="rId1"/>
@@ -403,7 +403,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="389">
   <si>
     <t>Samsung Galaxy S5</t>
   </si>
@@ -1810,6 +1810,12 @@
   </si>
   <si>
     <t>Hp. 3.1) 150tx/15min</t>
+  </si>
+  <si>
+    <t>Trasmission of a 50MB Multiple Contents Page - INDIRECT mode - no controls</t>
+  </si>
+  <si>
+    <t>Trasmission of a 200MB Multiple Contents Page - INDIRECT mode - no controls</t>
   </si>
 </sst>
 </file>
@@ -3219,7 +3225,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="698">
+  <cellXfs count="704">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4247,190 +4253,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4529,6 +4367,198 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4538,6 +4568,114 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4547,118 +4685,34 @@
     <xf numFmtId="0" fontId="7" fillId="35" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4691,35 +4745,45 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4769,44 +4833,40 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4818,21 +4878,9 @@
     <xf numFmtId="0" fontId="16" fillId="21" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4857,35 +4905,191 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4896,26 +5100,29 @@
     <xf numFmtId="0" fontId="7" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4929,18 +5136,6 @@
     <xf numFmtId="0" fontId="7" fillId="29" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4948,177 +5143,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5159,7 +5183,49 @@
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5211,7 +5277,29 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="it-IT"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Consumo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> energetico</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -5220,14 +5308,14 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>s1</c:v>
+            <c:v>Consumo energia</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>hp.2.0!$F$13:$F$18</c:f>
+              <c:f>hp.2.0!$F$13:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5246,15 +5334,21 @@
                 <c:pt idx="5">
                   <c:v>2097152</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>52428800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>209715200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>hp.2.0!$AS$13:$AS$18</c:f>
+              <c:f>hp.2.0!$AS$13:$AS$20</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000000_ ;[Red]\-#,##0.000000\ </c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>9.2629999999999987E-3</c:v>
                 </c:pt>
@@ -5273,16 +5367,23 @@
                 <c:pt idx="5">
                   <c:v>48.551638999999994</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>1213.637661</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4854.5270889999993</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="85492480"/>
-        <c:axId val="85486592"/>
+        <c:axId val="73962624"/>
+        <c:axId val="73964928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85492480"/>
+        <c:axId val="73962624"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
@@ -5311,13 +5412,14 @@
         </c:title>
         <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85486592"/>
-        <c:crossesAt val="1"/>
+        <c:crossAx val="73964928"/>
+        <c:crossesAt val="1.0000000000000002E-3"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85486592"/>
+        <c:axId val="73964928"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -5342,7 +5444,7 @@
         </c:title>
         <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85492480"/>
+        <c:crossAx val="73962624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5351,7 +5453,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5462,14 +5564,14 @@
     <xdr:from>
       <xdr:col>47</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>307800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>37425</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5845,27 +5947,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="23.25">
-      <c r="D1" s="424" t="s">
+      <c r="D1" s="427" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="424"/>
+      <c r="E1" s="427"/>
       <c r="F1" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="425" t="s">
+      <c r="I1" s="428" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="426"/>
-      <c r="K1" s="426"/>
-      <c r="L1" s="427"/>
-      <c r="M1" s="428" t="s">
+      <c r="J1" s="429"/>
+      <c r="K1" s="429"/>
+      <c r="L1" s="430"/>
+      <c r="M1" s="431" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="429"/>
-      <c r="O1" s="429"/>
-      <c r="P1" s="429"/>
-      <c r="Q1" s="429"/>
-      <c r="R1" s="429"/>
+      <c r="N1" s="432"/>
+      <c r="O1" s="432"/>
+      <c r="P1" s="432"/>
+      <c r="Q1" s="432"/>
+      <c r="R1" s="432"/>
     </row>
     <row r="2" spans="2:18" ht="15.75">
       <c r="D2" s="21" t="s">
@@ -5874,7 +5976,7 @@
       <c r="E2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="430" t="s">
+      <c r="F2" s="433" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="25"/>
@@ -5890,27 +5992,27 @@
       <c r="L2" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="433" t="s">
+      <c r="M2" s="436" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="434"/>
-      <c r="O2" s="434"/>
-      <c r="P2" s="434"/>
-      <c r="Q2" s="434"/>
-      <c r="R2" s="435"/>
+      <c r="N2" s="437"/>
+      <c r="O2" s="437"/>
+      <c r="P2" s="437"/>
+      <c r="Q2" s="437"/>
+      <c r="R2" s="438"/>
     </row>
     <row r="3" spans="2:18">
-      <c r="B3" s="408" t="s">
+      <c r="B3" s="453" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="409"/>
+      <c r="C3" s="454"/>
       <c r="D3" s="42">
         <v>100</v>
       </c>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="431"/>
+      <c r="F3" s="434"/>
       <c r="H3" s="25"/>
       <c r="I3" s="46" t="s">
         <v>48</v>
@@ -5924,25 +6026,25 @@
       <c r="L3" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="436"/>
-      <c r="N3" s="437"/>
-      <c r="O3" s="437"/>
-      <c r="P3" s="437"/>
-      <c r="Q3" s="437"/>
-      <c r="R3" s="438"/>
+      <c r="M3" s="439"/>
+      <c r="N3" s="440"/>
+      <c r="O3" s="440"/>
+      <c r="P3" s="440"/>
+      <c r="Q3" s="440"/>
+      <c r="R3" s="441"/>
     </row>
     <row r="4" spans="2:18">
-      <c r="B4" s="410" t="s">
+      <c r="B4" s="455" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="411"/>
-      <c r="D4" s="422" t="s">
+      <c r="C4" s="456"/>
+      <c r="D4" s="468" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="414">
+      <c r="E4" s="459">
         <v>1</v>
       </c>
-      <c r="F4" s="431"/>
+      <c r="F4" s="434"/>
       <c r="H4" s="25"/>
       <c r="I4" s="44" t="s">
         <v>49</v>
@@ -5964,11 +6066,11 @@
       <c r="R4" s="54"/>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="412"/>
-      <c r="C5" s="413"/>
-      <c r="D5" s="423"/>
-      <c r="E5" s="415"/>
-      <c r="F5" s="431"/>
+      <c r="B5" s="457"/>
+      <c r="C5" s="458"/>
+      <c r="D5" s="469"/>
+      <c r="E5" s="460"/>
+      <c r="F5" s="434"/>
       <c r="H5" s="25"/>
       <c r="I5" s="46" t="s">
         <v>50</v>
@@ -5983,26 +6085,26 @@
       <c r="M5" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N5" s="398" t="s">
+      <c r="N5" s="461" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="416"/>
-      <c r="P5" s="416"/>
-      <c r="Q5" s="416"/>
-      <c r="R5" s="417"/>
+      <c r="O5" s="462"/>
+      <c r="P5" s="462"/>
+      <c r="Q5" s="462"/>
+      <c r="R5" s="463"/>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="418" t="s">
+      <c r="B6" s="464" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="419"/>
-      <c r="D6" s="394" t="s">
+      <c r="C6" s="465"/>
+      <c r="D6" s="442" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="396" t="s">
+      <c r="E6" s="478" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="431"/>
+      <c r="F6" s="434"/>
       <c r="H6" s="25"/>
       <c r="I6" s="45" t="s">
         <v>52</v>
@@ -6019,20 +6121,20 @@
       <c r="M6" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="398" t="s">
+      <c r="N6" s="461" t="s">
         <v>69</v>
       </c>
-      <c r="O6" s="398"/>
-      <c r="P6" s="398"/>
-      <c r="Q6" s="398"/>
-      <c r="R6" s="399"/>
+      <c r="O6" s="461"/>
+      <c r="P6" s="461"/>
+      <c r="Q6" s="461"/>
+      <c r="R6" s="480"/>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="420"/>
-      <c r="C7" s="421"/>
-      <c r="D7" s="395"/>
-      <c r="E7" s="397"/>
-      <c r="F7" s="431"/>
+      <c r="B7" s="466"/>
+      <c r="C7" s="467"/>
+      <c r="D7" s="444"/>
+      <c r="E7" s="479"/>
+      <c r="F7" s="434"/>
       <c r="H7" s="25"/>
       <c r="I7" s="46" t="s">
         <v>51</v>
@@ -6049,26 +6151,26 @@
       <c r="M7" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="400" t="s">
+      <c r="N7" s="481" t="s">
         <v>66</v>
       </c>
-      <c r="O7" s="400"/>
-      <c r="P7" s="400"/>
-      <c r="Q7" s="400"/>
-      <c r="R7" s="401"/>
+      <c r="O7" s="481"/>
+      <c r="P7" s="481"/>
+      <c r="Q7" s="481"/>
+      <c r="R7" s="482"/>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="386" t="s">
+      <c r="B8" s="470" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="387"/>
+      <c r="C8" s="471"/>
       <c r="D8" s="68">
         <v>100</v>
       </c>
       <c r="E8" s="68">
         <v>6</v>
       </c>
-      <c r="F8" s="431"/>
+      <c r="F8" s="434"/>
       <c r="H8" s="25"/>
       <c r="I8" s="55" t="s">
         <v>111</v>
@@ -6084,120 +6186,120 @@
       </c>
     </row>
     <row r="9" spans="2:18">
-      <c r="B9" s="388" t="s">
+      <c r="B9" s="472" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="389"/>
-      <c r="D9" s="394">
+      <c r="C9" s="473"/>
+      <c r="D9" s="442">
         <v>100</v>
       </c>
-      <c r="E9" s="394">
+      <c r="E9" s="442">
         <v>3</v>
       </c>
-      <c r="F9" s="431"/>
+      <c r="F9" s="434"/>
       <c r="H9" s="25"/>
       <c r="J9" s="132"/>
       <c r="K9" s="320"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="390"/>
-      <c r="C10" s="391"/>
-      <c r="D10" s="439"/>
-      <c r="E10" s="439"/>
-      <c r="F10" s="431"/>
+      <c r="B10" s="474"/>
+      <c r="C10" s="475"/>
+      <c r="D10" s="443"/>
+      <c r="E10" s="443"/>
+      <c r="F10" s="434"/>
       <c r="H10" s="25"/>
       <c r="J10" s="132"/>
       <c r="K10" s="320"/>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="392"/>
-      <c r="C11" s="393"/>
-      <c r="D11" s="395"/>
-      <c r="E11" s="395"/>
-      <c r="F11" s="431"/>
+      <c r="B11" s="476"/>
+      <c r="C11" s="477"/>
+      <c r="D11" s="444"/>
+      <c r="E11" s="444"/>
+      <c r="F11" s="434"/>
       <c r="H11" s="25"/>
       <c r="J11" s="132"/>
       <c r="K11" s="320"/>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="402" t="s">
+      <c r="B12" s="483" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="403"/>
+      <c r="C12" s="484"/>
       <c r="D12" s="68">
         <v>1</v>
       </c>
       <c r="E12" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="431"/>
+      <c r="F12" s="434"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="440" t="s">
+      <c r="I12" s="445" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="442" t="s">
+      <c r="J12" s="447" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="444">
+      <c r="K12" s="449">
         <v>15</v>
       </c>
-      <c r="L12" s="446" t="s">
+      <c r="L12" s="451" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="404" t="s">
+      <c r="B13" s="485" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="405"/>
-      <c r="D13" s="394" t="s">
+      <c r="C13" s="486"/>
+      <c r="D13" s="442" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="394" t="s">
+      <c r="E13" s="442" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="431"/>
+      <c r="F13" s="434"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="441"/>
-      <c r="J13" s="443"/>
-      <c r="K13" s="445"/>
-      <c r="L13" s="447"/>
+      <c r="I13" s="446"/>
+      <c r="J13" s="448"/>
+      <c r="K13" s="450"/>
+      <c r="L13" s="452"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="406"/>
-      <c r="C14" s="407"/>
-      <c r="D14" s="395"/>
-      <c r="E14" s="395"/>
-      <c r="F14" s="431"/>
+      <c r="B14" s="487"/>
+      <c r="C14" s="488"/>
+      <c r="D14" s="444"/>
+      <c r="E14" s="444"/>
+      <c r="F14" s="434"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="451" t="s">
+      <c r="B15" s="395" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="452"/>
+      <c r="C15" s="396"/>
       <c r="D15" s="69" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="70"/>
-      <c r="F15" s="431"/>
+      <c r="F15" s="434"/>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="453"/>
-      <c r="C16" s="454"/>
+      <c r="B16" s="397"/>
+      <c r="C16" s="398"/>
       <c r="D16" s="71" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="72"/>
-      <c r="F16" s="431"/>
+      <c r="F16" s="434"/>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="453"/>
-      <c r="C17" s="454"/>
+      <c r="B17" s="397"/>
+      <c r="C17" s="398"/>
       <c r="D17" s="71" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="72"/>
-      <c r="F17" s="431"/>
+      <c r="F17" s="434"/>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
@@ -6206,13 +6308,13 @@
       <c r="O17" s="27"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="453"/>
-      <c r="C18" s="454"/>
+      <c r="B18" s="397"/>
+      <c r="C18" s="398"/>
       <c r="D18" s="71" t="s">
         <v>36</v>
       </c>
       <c r="E18" s="72"/>
-      <c r="F18" s="431"/>
+      <c r="F18" s="434"/>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
@@ -6221,177 +6323,177 @@
       <c r="O18" s="27"/>
     </row>
     <row r="19" spans="2:21">
-      <c r="B19" s="455"/>
-      <c r="C19" s="456"/>
+      <c r="B19" s="399"/>
+      <c r="C19" s="400"/>
       <c r="D19" s="73" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="74"/>
-      <c r="F19" s="432"/>
+      <c r="F19" s="435"/>
     </row>
     <row r="22" spans="2:21" ht="18.75">
-      <c r="F22" s="461" t="s">
+      <c r="F22" s="405" t="s">
         <v>351</v>
       </c>
-      <c r="G22" s="462"/>
-      <c r="H22" s="462"/>
-      <c r="I22" s="462"/>
-      <c r="J22" s="462"/>
-      <c r="K22" s="462"/>
-      <c r="L22" s="462"/>
-      <c r="M22" s="462"/>
-      <c r="N22" s="463"/>
+      <c r="G22" s="406"/>
+      <c r="H22" s="406"/>
+      <c r="I22" s="406"/>
+      <c r="J22" s="406"/>
+      <c r="K22" s="406"/>
+      <c r="L22" s="406"/>
+      <c r="M22" s="406"/>
+      <c r="N22" s="407"/>
     </row>
     <row r="24" spans="2:21">
-      <c r="B24" s="467" t="s">
+      <c r="B24" s="411" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="468"/>
-      <c r="D24" s="468"/>
-      <c r="E24" s="468"/>
-      <c r="F24" s="468"/>
-      <c r="G24" s="468"/>
-      <c r="H24" s="468"/>
-      <c r="I24" s="468"/>
-      <c r="J24" s="469"/>
-      <c r="L24" s="467" t="s">
+      <c r="C24" s="412"/>
+      <c r="D24" s="412"/>
+      <c r="E24" s="412"/>
+      <c r="F24" s="412"/>
+      <c r="G24" s="412"/>
+      <c r="H24" s="412"/>
+      <c r="I24" s="412"/>
+      <c r="J24" s="413"/>
+      <c r="L24" s="411" t="s">
         <v>45</v>
       </c>
-      <c r="M24" s="468"/>
-      <c r="N24" s="468"/>
-      <c r="O24" s="468"/>
-      <c r="P24" s="468"/>
-      <c r="Q24" s="468"/>
-      <c r="R24" s="468"/>
-      <c r="S24" s="468"/>
-      <c r="T24" s="468"/>
-      <c r="U24" s="469"/>
+      <c r="M24" s="412"/>
+      <c r="N24" s="412"/>
+      <c r="O24" s="412"/>
+      <c r="P24" s="412"/>
+      <c r="Q24" s="412"/>
+      <c r="R24" s="412"/>
+      <c r="S24" s="412"/>
+      <c r="T24" s="412"/>
+      <c r="U24" s="413"/>
     </row>
     <row r="25" spans="2:21">
-      <c r="B25" s="470"/>
-      <c r="C25" s="471"/>
-      <c r="D25" s="471"/>
-      <c r="E25" s="471"/>
-      <c r="F25" s="471"/>
-      <c r="G25" s="471"/>
-      <c r="H25" s="471"/>
-      <c r="I25" s="471"/>
-      <c r="J25" s="472"/>
-      <c r="L25" s="470"/>
-      <c r="M25" s="471"/>
-      <c r="N25" s="471"/>
-      <c r="O25" s="471"/>
-      <c r="P25" s="471"/>
-      <c r="Q25" s="471"/>
-      <c r="R25" s="471"/>
-      <c r="S25" s="471"/>
-      <c r="T25" s="471"/>
-      <c r="U25" s="472"/>
+      <c r="B25" s="414"/>
+      <c r="C25" s="415"/>
+      <c r="D25" s="415"/>
+      <c r="E25" s="415"/>
+      <c r="F25" s="415"/>
+      <c r="G25" s="415"/>
+      <c r="H25" s="415"/>
+      <c r="I25" s="415"/>
+      <c r="J25" s="416"/>
+      <c r="L25" s="414"/>
+      <c r="M25" s="415"/>
+      <c r="N25" s="415"/>
+      <c r="O25" s="415"/>
+      <c r="P25" s="415"/>
+      <c r="Q25" s="415"/>
+      <c r="R25" s="415"/>
+      <c r="S25" s="415"/>
+      <c r="T25" s="415"/>
+      <c r="U25" s="416"/>
     </row>
     <row r="26" spans="2:21">
-      <c r="B26" s="470"/>
-      <c r="C26" s="471"/>
-      <c r="D26" s="471"/>
-      <c r="E26" s="471"/>
-      <c r="F26" s="471"/>
-      <c r="G26" s="471"/>
-      <c r="H26" s="471"/>
-      <c r="I26" s="471"/>
-      <c r="J26" s="472"/>
-      <c r="L26" s="470"/>
-      <c r="M26" s="471"/>
-      <c r="N26" s="471"/>
-      <c r="O26" s="471"/>
-      <c r="P26" s="471"/>
-      <c r="Q26" s="471"/>
-      <c r="R26" s="471"/>
-      <c r="S26" s="471"/>
-      <c r="T26" s="471"/>
-      <c r="U26" s="472"/>
+      <c r="B26" s="414"/>
+      <c r="C26" s="415"/>
+      <c r="D26" s="415"/>
+      <c r="E26" s="415"/>
+      <c r="F26" s="415"/>
+      <c r="G26" s="415"/>
+      <c r="H26" s="415"/>
+      <c r="I26" s="415"/>
+      <c r="J26" s="416"/>
+      <c r="L26" s="414"/>
+      <c r="M26" s="415"/>
+      <c r="N26" s="415"/>
+      <c r="O26" s="415"/>
+      <c r="P26" s="415"/>
+      <c r="Q26" s="415"/>
+      <c r="R26" s="415"/>
+      <c r="S26" s="415"/>
+      <c r="T26" s="415"/>
+      <c r="U26" s="416"/>
     </row>
     <row r="27" spans="2:21">
-      <c r="B27" s="470"/>
-      <c r="C27" s="471"/>
-      <c r="D27" s="471"/>
-      <c r="E27" s="471"/>
-      <c r="F27" s="471"/>
-      <c r="G27" s="471"/>
-      <c r="H27" s="471"/>
-      <c r="I27" s="471"/>
-      <c r="J27" s="472"/>
-      <c r="L27" s="470"/>
-      <c r="M27" s="471"/>
-      <c r="N27" s="471"/>
-      <c r="O27" s="471"/>
-      <c r="P27" s="471"/>
-      <c r="Q27" s="471"/>
-      <c r="R27" s="471"/>
-      <c r="S27" s="471"/>
-      <c r="T27" s="471"/>
-      <c r="U27" s="472"/>
+      <c r="B27" s="414"/>
+      <c r="C27" s="415"/>
+      <c r="D27" s="415"/>
+      <c r="E27" s="415"/>
+      <c r="F27" s="415"/>
+      <c r="G27" s="415"/>
+      <c r="H27" s="415"/>
+      <c r="I27" s="415"/>
+      <c r="J27" s="416"/>
+      <c r="L27" s="414"/>
+      <c r="M27" s="415"/>
+      <c r="N27" s="415"/>
+      <c r="O27" s="415"/>
+      <c r="P27" s="415"/>
+      <c r="Q27" s="415"/>
+      <c r="R27" s="415"/>
+      <c r="S27" s="415"/>
+      <c r="T27" s="415"/>
+      <c r="U27" s="416"/>
     </row>
     <row r="28" spans="2:21">
-      <c r="B28" s="470"/>
-      <c r="C28" s="471"/>
-      <c r="D28" s="471"/>
-      <c r="E28" s="471"/>
-      <c r="F28" s="471"/>
-      <c r="G28" s="471"/>
-      <c r="H28" s="471"/>
-      <c r="I28" s="471"/>
-      <c r="J28" s="472"/>
-      <c r="L28" s="470"/>
-      <c r="M28" s="471"/>
-      <c r="N28" s="471"/>
-      <c r="O28" s="471"/>
-      <c r="P28" s="471"/>
-      <c r="Q28" s="471"/>
-      <c r="R28" s="471"/>
-      <c r="S28" s="471"/>
-      <c r="T28" s="471"/>
-      <c r="U28" s="472"/>
+      <c r="B28" s="414"/>
+      <c r="C28" s="415"/>
+      <c r="D28" s="415"/>
+      <c r="E28" s="415"/>
+      <c r="F28" s="415"/>
+      <c r="G28" s="415"/>
+      <c r="H28" s="415"/>
+      <c r="I28" s="415"/>
+      <c r="J28" s="416"/>
+      <c r="L28" s="414"/>
+      <c r="M28" s="415"/>
+      <c r="N28" s="415"/>
+      <c r="O28" s="415"/>
+      <c r="P28" s="415"/>
+      <c r="Q28" s="415"/>
+      <c r="R28" s="415"/>
+      <c r="S28" s="415"/>
+      <c r="T28" s="415"/>
+      <c r="U28" s="416"/>
     </row>
     <row r="29" spans="2:21">
-      <c r="B29" s="470"/>
-      <c r="C29" s="471"/>
-      <c r="D29" s="471"/>
-      <c r="E29" s="471"/>
-      <c r="F29" s="471"/>
-      <c r="G29" s="471"/>
-      <c r="H29" s="471"/>
-      <c r="I29" s="471"/>
-      <c r="J29" s="472"/>
-      <c r="L29" s="470"/>
-      <c r="M29" s="471"/>
-      <c r="N29" s="471"/>
-      <c r="O29" s="471"/>
-      <c r="P29" s="471"/>
-      <c r="Q29" s="471"/>
-      <c r="R29" s="471"/>
-      <c r="S29" s="471"/>
-      <c r="T29" s="471"/>
-      <c r="U29" s="472"/>
+      <c r="B29" s="414"/>
+      <c r="C29" s="415"/>
+      <c r="D29" s="415"/>
+      <c r="E29" s="415"/>
+      <c r="F29" s="415"/>
+      <c r="G29" s="415"/>
+      <c r="H29" s="415"/>
+      <c r="I29" s="415"/>
+      <c r="J29" s="416"/>
+      <c r="L29" s="414"/>
+      <c r="M29" s="415"/>
+      <c r="N29" s="415"/>
+      <c r="O29" s="415"/>
+      <c r="P29" s="415"/>
+      <c r="Q29" s="415"/>
+      <c r="R29" s="415"/>
+      <c r="S29" s="415"/>
+      <c r="T29" s="415"/>
+      <c r="U29" s="416"/>
     </row>
     <row r="30" spans="2:21">
-      <c r="B30" s="470"/>
-      <c r="C30" s="471"/>
-      <c r="D30" s="471"/>
-      <c r="E30" s="471"/>
-      <c r="F30" s="471"/>
-      <c r="G30" s="471"/>
-      <c r="H30" s="471"/>
-      <c r="I30" s="471"/>
-      <c r="J30" s="472"/>
-      <c r="L30" s="470"/>
-      <c r="M30" s="471"/>
-      <c r="N30" s="471"/>
-      <c r="O30" s="471"/>
-      <c r="P30" s="471"/>
-      <c r="Q30" s="471"/>
-      <c r="R30" s="471"/>
-      <c r="S30" s="471"/>
-      <c r="T30" s="471"/>
-      <c r="U30" s="472"/>
+      <c r="B30" s="414"/>
+      <c r="C30" s="415"/>
+      <c r="D30" s="415"/>
+      <c r="E30" s="415"/>
+      <c r="F30" s="415"/>
+      <c r="G30" s="415"/>
+      <c r="H30" s="415"/>
+      <c r="I30" s="415"/>
+      <c r="J30" s="416"/>
+      <c r="L30" s="414"/>
+      <c r="M30" s="415"/>
+      <c r="N30" s="415"/>
+      <c r="O30" s="415"/>
+      <c r="P30" s="415"/>
+      <c r="Q30" s="415"/>
+      <c r="R30" s="415"/>
+      <c r="S30" s="415"/>
+      <c r="T30" s="415"/>
+      <c r="U30" s="416"/>
     </row>
     <row r="31" spans="2:21">
       <c r="B31" s="29"/>
@@ -6407,108 +6509,108 @@
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
       <c r="J31" s="33"/>
-      <c r="L31" s="470"/>
-      <c r="M31" s="471"/>
-      <c r="N31" s="471"/>
-      <c r="O31" s="471"/>
-      <c r="P31" s="471"/>
-      <c r="Q31" s="471"/>
-      <c r="R31" s="471"/>
-      <c r="S31" s="471"/>
-      <c r="T31" s="471"/>
-      <c r="U31" s="472"/>
+      <c r="L31" s="414"/>
+      <c r="M31" s="415"/>
+      <c r="N31" s="415"/>
+      <c r="O31" s="415"/>
+      <c r="P31" s="415"/>
+      <c r="Q31" s="415"/>
+      <c r="R31" s="415"/>
+      <c r="S31" s="415"/>
+      <c r="T31" s="415"/>
+      <c r="U31" s="416"/>
     </row>
     <row r="32" spans="2:21">
       <c r="B32" s="34"/>
       <c r="C32" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="476" t="s">
+      <c r="D32" s="420" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="476"/>
-      <c r="F32" s="476"/>
-      <c r="G32" s="476"/>
-      <c r="H32" s="476"/>
-      <c r="I32" s="476"/>
-      <c r="J32" s="477"/>
-      <c r="L32" s="470"/>
-      <c r="M32" s="471"/>
-      <c r="N32" s="471"/>
-      <c r="O32" s="471"/>
-      <c r="P32" s="471"/>
-      <c r="Q32" s="471"/>
-      <c r="R32" s="471"/>
-      <c r="S32" s="471"/>
-      <c r="T32" s="471"/>
-      <c r="U32" s="472"/>
+      <c r="E32" s="420"/>
+      <c r="F32" s="420"/>
+      <c r="G32" s="420"/>
+      <c r="H32" s="420"/>
+      <c r="I32" s="420"/>
+      <c r="J32" s="421"/>
+      <c r="L32" s="414"/>
+      <c r="M32" s="415"/>
+      <c r="N32" s="415"/>
+      <c r="O32" s="415"/>
+      <c r="P32" s="415"/>
+      <c r="Q32" s="415"/>
+      <c r="R32" s="415"/>
+      <c r="S32" s="415"/>
+      <c r="T32" s="415"/>
+      <c r="U32" s="416"/>
     </row>
     <row r="33" spans="2:21">
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
-      <c r="D33" s="476"/>
-      <c r="E33" s="476"/>
-      <c r="F33" s="476"/>
-      <c r="G33" s="476"/>
-      <c r="H33" s="476"/>
-      <c r="I33" s="476"/>
-      <c r="J33" s="477"/>
-      <c r="L33" s="470"/>
-      <c r="M33" s="471"/>
-      <c r="N33" s="471"/>
-      <c r="O33" s="471"/>
-      <c r="P33" s="471"/>
-      <c r="Q33" s="471"/>
-      <c r="R33" s="471"/>
-      <c r="S33" s="471"/>
-      <c r="T33" s="471"/>
-      <c r="U33" s="472"/>
+      <c r="D33" s="420"/>
+      <c r="E33" s="420"/>
+      <c r="F33" s="420"/>
+      <c r="G33" s="420"/>
+      <c r="H33" s="420"/>
+      <c r="I33" s="420"/>
+      <c r="J33" s="421"/>
+      <c r="L33" s="414"/>
+      <c r="M33" s="415"/>
+      <c r="N33" s="415"/>
+      <c r="O33" s="415"/>
+      <c r="P33" s="415"/>
+      <c r="Q33" s="415"/>
+      <c r="R33" s="415"/>
+      <c r="S33" s="415"/>
+      <c r="T33" s="415"/>
+      <c r="U33" s="416"/>
     </row>
     <row r="34" spans="2:21">
       <c r="B34" s="37"/>
       <c r="C34" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="478" t="s">
+      <c r="D34" s="422" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="479"/>
-      <c r="F34" s="479"/>
-      <c r="G34" s="479"/>
-      <c r="H34" s="479"/>
-      <c r="I34" s="479"/>
-      <c r="J34" s="480"/>
-      <c r="L34" s="470"/>
-      <c r="M34" s="471"/>
-      <c r="N34" s="471"/>
-      <c r="O34" s="471"/>
-      <c r="P34" s="471"/>
-      <c r="Q34" s="471"/>
-      <c r="R34" s="471"/>
-      <c r="S34" s="471"/>
-      <c r="T34" s="471"/>
-      <c r="U34" s="472"/>
+      <c r="E34" s="423"/>
+      <c r="F34" s="423"/>
+      <c r="G34" s="423"/>
+      <c r="H34" s="423"/>
+      <c r="I34" s="423"/>
+      <c r="J34" s="424"/>
+      <c r="L34" s="414"/>
+      <c r="M34" s="415"/>
+      <c r="N34" s="415"/>
+      <c r="O34" s="415"/>
+      <c r="P34" s="415"/>
+      <c r="Q34" s="415"/>
+      <c r="R34" s="415"/>
+      <c r="S34" s="415"/>
+      <c r="T34" s="415"/>
+      <c r="U34" s="416"/>
     </row>
     <row r="35" spans="2:21">
       <c r="B35" s="39"/>
       <c r="C35" s="40"/>
-      <c r="D35" s="481"/>
-      <c r="E35" s="481"/>
-      <c r="F35" s="481"/>
-      <c r="G35" s="481"/>
-      <c r="H35" s="481"/>
-      <c r="I35" s="481"/>
-      <c r="J35" s="482"/>
-      <c r="L35" s="473"/>
-      <c r="M35" s="474"/>
-      <c r="N35" s="474"/>
-      <c r="O35" s="474"/>
-      <c r="P35" s="474"/>
-      <c r="Q35" s="474"/>
-      <c r="R35" s="474"/>
-      <c r="S35" s="474"/>
-      <c r="T35" s="474"/>
-      <c r="U35" s="475"/>
+      <c r="D35" s="425"/>
+      <c r="E35" s="425"/>
+      <c r="F35" s="425"/>
+      <c r="G35" s="425"/>
+      <c r="H35" s="425"/>
+      <c r="I35" s="425"/>
+      <c r="J35" s="426"/>
+      <c r="L35" s="417"/>
+      <c r="M35" s="418"/>
+      <c r="N35" s="418"/>
+      <c r="O35" s="418"/>
+      <c r="P35" s="418"/>
+      <c r="Q35" s="418"/>
+      <c r="R35" s="418"/>
+      <c r="S35" s="418"/>
+      <c r="T35" s="418"/>
+      <c r="U35" s="419"/>
     </row>
     <row r="36" spans="2:21">
       <c r="B36" s="28"/>
@@ -6524,13 +6626,13 @@
       <c r="C37" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="457" t="s">
+      <c r="D37" s="401" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="457"/>
-      <c r="F37" s="457"/>
-      <c r="G37" s="457"/>
-      <c r="H37" s="458"/>
+      <c r="E37" s="401"/>
+      <c r="F37" s="401"/>
+      <c r="G37" s="401"/>
+      <c r="H37" s="402"/>
       <c r="M37" s="27"/>
       <c r="N37" s="27"/>
       <c r="O37" s="27"/>
@@ -6584,16 +6686,16 @@
       <c r="F41" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="L41" s="448" t="s">
+      <c r="L41" s="392" t="s">
         <v>104</v>
       </c>
-      <c r="M41" s="449"/>
-      <c r="N41" s="450"/>
-      <c r="O41" s="448" t="s">
+      <c r="M41" s="393"/>
+      <c r="N41" s="394"/>
+      <c r="O41" s="392" t="s">
         <v>105</v>
       </c>
-      <c r="P41" s="449"/>
-      <c r="Q41" s="450"/>
+      <c r="P41" s="393"/>
+      <c r="Q41" s="394"/>
       <c r="R41" s="76" t="s">
         <v>92</v>
       </c>
@@ -6611,16 +6713,16 @@
       <c r="F42" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="L42" s="464" t="s">
+      <c r="L42" s="408" t="s">
         <v>107</v>
       </c>
-      <c r="M42" s="465"/>
-      <c r="N42" s="466"/>
-      <c r="O42" s="464" t="s">
+      <c r="M42" s="409"/>
+      <c r="N42" s="410"/>
+      <c r="O42" s="408" t="s">
         <v>106</v>
       </c>
-      <c r="P42" s="465"/>
-      <c r="Q42" s="466"/>
+      <c r="P42" s="409"/>
+      <c r="Q42" s="410"/>
       <c r="R42" s="26" t="s">
         <v>108</v>
       </c>
@@ -6645,13 +6747,13 @@
       <c r="M44" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="N44" s="459" t="s">
+      <c r="N44" s="403" t="s">
         <v>109</v>
       </c>
-      <c r="O44" s="459"/>
-      <c r="P44" s="459"/>
-      <c r="Q44" s="459"/>
-      <c r="R44" s="460"/>
+      <c r="O44" s="403"/>
+      <c r="P44" s="403"/>
+      <c r="Q44" s="403"/>
+      <c r="R44" s="404"/>
       <c r="S44" s="330"/>
       <c r="T44" s="330"/>
     </row>
@@ -6659,18 +6761,45 @@
       <c r="C45" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="457" t="s">
+      <c r="D45" s="401" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="457"/>
-      <c r="F45" s="457"/>
-      <c r="G45" s="458"/>
+      <c r="E45" s="401"/>
+      <c r="F45" s="401"/>
+      <c r="G45" s="402"/>
     </row>
     <row r="47" spans="2:21">
       <c r="G47" s="328"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="F2:F19"/>
+    <mergeCell ref="M2:R3"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
     <mergeCell ref="O41:Q41"/>
     <mergeCell ref="B15:C19"/>
     <mergeCell ref="D45:G45"/>
@@ -6684,33 +6813,6 @@
     <mergeCell ref="L24:U35"/>
     <mergeCell ref="D32:J33"/>
     <mergeCell ref="D34:J35"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="F2:F19"/>
-    <mergeCell ref="M2:R3"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N5" r:id="rId1"/>
@@ -6733,7 +6835,7 @@
   <sheetPr codeName="Foglio1"/>
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
@@ -6758,164 +6860,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="21">
-      <c r="A1" s="493" t="s">
+      <c r="A1" s="505" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="496" t="s">
+      <c r="B1" s="508" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="499" t="s">
+      <c r="C1" s="511" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="500"/>
-      <c r="E1" s="500"/>
-      <c r="F1" s="500"/>
-      <c r="G1" s="500"/>
-      <c r="H1" s="501"/>
-      <c r="I1" s="507" t="s">
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
+      <c r="F1" s="512"/>
+      <c r="G1" s="512"/>
+      <c r="H1" s="513"/>
+      <c r="I1" s="519" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="508"/>
-      <c r="K1" s="508"/>
-      <c r="L1" s="508"/>
-      <c r="M1" s="508"/>
-      <c r="N1" s="509"/>
-      <c r="P1" s="524" t="s">
+      <c r="J1" s="520"/>
+      <c r="K1" s="520"/>
+      <c r="L1" s="520"/>
+      <c r="M1" s="520"/>
+      <c r="N1" s="521"/>
+      <c r="P1" s="497" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="525"/>
-      <c r="R1" s="525"/>
-      <c r="S1" s="525"/>
-      <c r="T1" s="525"/>
-      <c r="U1" s="525"/>
-      <c r="V1" s="525"/>
-      <c r="W1" s="525"/>
-      <c r="X1" s="525"/>
-      <c r="Y1" s="525"/>
-      <c r="Z1" s="525"/>
-      <c r="AA1" s="526"/>
+      <c r="Q1" s="498"/>
+      <c r="R1" s="498"/>
+      <c r="S1" s="498"/>
+      <c r="T1" s="498"/>
+      <c r="U1" s="498"/>
+      <c r="V1" s="498"/>
+      <c r="W1" s="498"/>
+      <c r="X1" s="498"/>
+      <c r="Y1" s="498"/>
+      <c r="Z1" s="498"/>
+      <c r="AA1" s="499"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A2" s="494"/>
-      <c r="B2" s="497"/>
-      <c r="C2" s="510" t="s">
+      <c r="A2" s="506"/>
+      <c r="B2" s="509"/>
+      <c r="C2" s="500" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="510" t="s">
+      <c r="D2" s="500" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="510" t="s">
+      <c r="E2" s="500" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="517" t="s">
+      <c r="F2" s="527" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="518"/>
-      <c r="H2" s="519"/>
-      <c r="I2" s="512" t="s">
+      <c r="G2" s="528"/>
+      <c r="H2" s="529"/>
+      <c r="I2" s="522" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="502" t="s">
+      <c r="J2" s="514" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="503"/>
-      <c r="L2" s="504"/>
-      <c r="M2" s="505" t="s">
+      <c r="K2" s="515"/>
+      <c r="L2" s="516"/>
+      <c r="M2" s="517" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="506"/>
-      <c r="P2" s="521" t="str">
+      <c r="N2" s="518"/>
+      <c r="P2" s="494" t="str">
         <f>'hp. 1.0'!A6</f>
         <v>Hp. 1.1) 1tx/min</v>
       </c>
-      <c r="Q2" s="522"/>
-      <c r="R2" s="523"/>
-      <c r="S2" s="483" t="s">
+      <c r="Q2" s="495"/>
+      <c r="R2" s="496"/>
+      <c r="S2" s="491" t="s">
         <v>352</v>
       </c>
-      <c r="T2" s="484"/>
-      <c r="U2" s="484"/>
-      <c r="V2" s="484"/>
-      <c r="W2" s="484"/>
-      <c r="X2" s="484"/>
-      <c r="Y2" s="484"/>
-      <c r="Z2" s="484"/>
-      <c r="AA2" s="485"/>
+      <c r="T2" s="492"/>
+      <c r="U2" s="492"/>
+      <c r="V2" s="492"/>
+      <c r="W2" s="492"/>
+      <c r="X2" s="492"/>
+      <c r="Y2" s="492"/>
+      <c r="Z2" s="492"/>
+      <c r="AA2" s="493"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A3" s="494"/>
-      <c r="B3" s="497"/>
-      <c r="C3" s="520"/>
-      <c r="D3" s="520"/>
-      <c r="E3" s="520"/>
-      <c r="F3" s="510" t="s">
+      <c r="A3" s="506"/>
+      <c r="B3" s="509"/>
+      <c r="C3" s="501"/>
+      <c r="D3" s="501"/>
+      <c r="E3" s="501"/>
+      <c r="F3" s="500" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="510" t="s">
+      <c r="G3" s="500" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="510" t="s">
+      <c r="H3" s="500" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="513"/>
-      <c r="J3" s="515" t="s">
+      <c r="I3" s="523"/>
+      <c r="J3" s="525" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="515" t="s">
+      <c r="K3" s="525" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="515" t="s">
+      <c r="L3" s="525" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="489" t="s">
+      <c r="M3" s="503" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="489" t="s">
+      <c r="N3" s="503" t="s">
         <v>76</v>
       </c>
-      <c r="P3" s="491" t="s">
+      <c r="P3" s="489" t="s">
         <v>87</v>
       </c>
-      <c r="Q3" s="491" t="s">
+      <c r="Q3" s="489" t="s">
         <v>84</v>
       </c>
-      <c r="R3" s="491" t="s">
+      <c r="R3" s="489" t="s">
         <v>85</v>
       </c>
-      <c r="S3" s="483" t="s">
+      <c r="S3" s="491" t="s">
         <v>360</v>
       </c>
-      <c r="T3" s="484"/>
-      <c r="U3" s="485"/>
-      <c r="V3" s="483" t="s">
+      <c r="T3" s="492"/>
+      <c r="U3" s="493"/>
+      <c r="V3" s="491" t="s">
         <v>377</v>
       </c>
-      <c r="W3" s="484"/>
-      <c r="X3" s="485"/>
-      <c r="Y3" s="483" t="s">
+      <c r="W3" s="492"/>
+      <c r="X3" s="493"/>
+      <c r="Y3" s="491" t="s">
         <v>381</v>
       </c>
-      <c r="Z3" s="484"/>
-      <c r="AA3" s="485"/>
+      <c r="Z3" s="492"/>
+      <c r="AA3" s="493"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="495"/>
-      <c r="B4" s="498"/>
-      <c r="C4" s="511"/>
-      <c r="D4" s="511"/>
-      <c r="E4" s="511"/>
-      <c r="F4" s="511"/>
-      <c r="G4" s="511"/>
-      <c r="H4" s="511"/>
-      <c r="I4" s="514"/>
-      <c r="J4" s="516"/>
-      <c r="K4" s="516"/>
-      <c r="L4" s="516"/>
-      <c r="M4" s="490"/>
-      <c r="N4" s="490"/>
-      <c r="P4" s="492"/>
-      <c r="Q4" s="492"/>
-      <c r="R4" s="492"/>
+      <c r="A4" s="507"/>
+      <c r="B4" s="510"/>
+      <c r="C4" s="502"/>
+      <c r="D4" s="502"/>
+      <c r="E4" s="502"/>
+      <c r="F4" s="502"/>
+      <c r="G4" s="502"/>
+      <c r="H4" s="502"/>
+      <c r="I4" s="524"/>
+      <c r="J4" s="526"/>
+      <c r="K4" s="526"/>
+      <c r="L4" s="526"/>
+      <c r="M4" s="504"/>
+      <c r="N4" s="504"/>
+      <c r="P4" s="490"/>
+      <c r="Q4" s="490"/>
+      <c r="R4" s="490"/>
       <c r="S4" s="331" t="s">
         <v>87</v>
       </c>
@@ -7999,30 +8101,30 @@
       </c>
     </row>
     <row r="17" spans="10:27">
-      <c r="S17" s="486" t="s">
+      <c r="S17" s="530" t="s">
         <v>384</v>
       </c>
-      <c r="T17" s="487"/>
-      <c r="U17" s="487"/>
-      <c r="V17" s="487"/>
-      <c r="W17" s="487"/>
-      <c r="X17" s="487"/>
-      <c r="Y17" s="487"/>
-      <c r="Z17" s="487"/>
-      <c r="AA17" s="488"/>
+      <c r="T17" s="531"/>
+      <c r="U17" s="531"/>
+      <c r="V17" s="531"/>
+      <c r="W17" s="531"/>
+      <c r="X17" s="531"/>
+      <c r="Y17" s="531"/>
+      <c r="Z17" s="531"/>
+      <c r="AA17" s="532"/>
     </row>
     <row r="18" spans="10:27">
-      <c r="S18" s="486" t="s">
+      <c r="S18" s="530" t="s">
         <v>381</v>
       </c>
-      <c r="T18" s="487"/>
-      <c r="U18" s="488"/>
-      <c r="V18" s="486"/>
-      <c r="W18" s="487"/>
-      <c r="X18" s="488"/>
-      <c r="Y18" s="486"/>
-      <c r="Z18" s="487"/>
-      <c r="AA18" s="488"/>
+      <c r="T18" s="531"/>
+      <c r="U18" s="532"/>
+      <c r="V18" s="530"/>
+      <c r="W18" s="531"/>
+      <c r="X18" s="532"/>
+      <c r="Y18" s="530"/>
+      <c r="Z18" s="531"/>
+      <c r="AA18" s="532"/>
     </row>
     <row r="19" spans="10:27">
       <c r="J19" s="27"/>
@@ -8285,6 +8387,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="S17:AA17"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="F2:H2"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="P2:R2"/>
@@ -8298,25 +8416,9 @@
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="F2:H2"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="S2:AA2"/>
-    <mergeCell ref="S17:AA17"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8328,7 +8430,7 @@
   <sheetPr codeName="Foglio4"/>
   <dimension ref="B1:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -8348,54 +8450,54 @@
       <c r="E1" s="106" t="s">
         <v>269</v>
       </c>
-      <c r="S1" s="542" t="s">
+      <c r="S1" s="538" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="543"/>
-      <c r="U1" s="543"/>
-      <c r="V1" s="543"/>
-      <c r="W1" s="544"/>
+      <c r="T1" s="539"/>
+      <c r="U1" s="539"/>
+      <c r="V1" s="539"/>
+      <c r="W1" s="540"/>
     </row>
     <row r="3" spans="2:26">
       <c r="D3" s="219" t="s">
         <v>244</v>
       </c>
-      <c r="E3" s="505" t="s">
+      <c r="E3" s="517" t="s">
         <v>245</v>
       </c>
-      <c r="F3" s="506"/>
-      <c r="G3" s="505" t="s">
+      <c r="F3" s="518"/>
+      <c r="G3" s="517" t="s">
         <v>246</v>
       </c>
-      <c r="H3" s="533"/>
-      <c r="I3" s="506"/>
+      <c r="H3" s="549"/>
+      <c r="I3" s="518"/>
       <c r="J3" s="219" t="s">
         <v>247</v>
       </c>
-      <c r="S3" s="537" t="s">
+      <c r="S3" s="533" t="s">
         <v>145</v>
       </c>
-      <c r="T3" s="538"/>
-      <c r="U3" s="538"/>
-      <c r="V3" s="539"/>
-      <c r="W3" s="537" t="s">
+      <c r="T3" s="534"/>
+      <c r="U3" s="534"/>
+      <c r="V3" s="535"/>
+      <c r="W3" s="533" t="s">
         <v>146</v>
       </c>
-      <c r="X3" s="539"/>
+      <c r="X3" s="535"/>
     </row>
     <row r="4" spans="2:26">
       <c r="D4" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="E4" s="530" t="s">
+      <c r="E4" s="546" t="s">
         <v>249</v>
       </c>
-      <c r="F4" s="532"/>
-      <c r="G4" s="530" t="s">
+      <c r="F4" s="548"/>
+      <c r="G4" s="546" t="s">
         <v>251</v>
       </c>
-      <c r="H4" s="531"/>
-      <c r="I4" s="532"/>
+      <c r="H4" s="547"/>
+      <c r="I4" s="548"/>
       <c r="J4" s="64" t="s">
         <v>250</v>
       </c>
@@ -8523,49 +8625,49 @@
       <c r="B13" s="224" t="s">
         <v>254</v>
       </c>
-      <c r="C13" s="536" t="s">
+      <c r="C13" s="552" t="s">
         <v>256</v>
       </c>
-      <c r="D13" s="536"/>
-      <c r="E13" s="536"/>
-      <c r="F13" s="536"/>
-      <c r="G13" s="536"/>
+      <c r="D13" s="552"/>
+      <c r="E13" s="552"/>
+      <c r="F13" s="552"/>
+      <c r="G13" s="552"/>
       <c r="I13" s="242" t="s">
         <v>254</v>
       </c>
-      <c r="J13" s="527" t="s">
+      <c r="J13" s="543" t="s">
         <v>256</v>
       </c>
-      <c r="K13" s="527"/>
-      <c r="L13" s="527"/>
-      <c r="M13" s="528"/>
-      <c r="N13" s="534" t="s">
+      <c r="K13" s="543"/>
+      <c r="L13" s="543"/>
+      <c r="M13" s="544"/>
+      <c r="N13" s="550" t="s">
         <v>275</v>
       </c>
-      <c r="O13" s="535"/>
+      <c r="O13" s="551"/>
     </row>
     <row r="14" spans="2:26">
       <c r="B14" s="64" t="s">
         <v>255</v>
       </c>
-      <c r="C14" s="529" t="s">
+      <c r="C14" s="545" t="s">
         <v>257</v>
       </c>
-      <c r="D14" s="529"/>
-      <c r="E14" s="529"/>
-      <c r="F14" s="529"/>
-      <c r="G14" s="529"/>
+      <c r="D14" s="545"/>
+      <c r="E14" s="545"/>
+      <c r="F14" s="545"/>
+      <c r="G14" s="545"/>
       <c r="I14" s="64" t="s">
         <v>255</v>
       </c>
-      <c r="J14" s="529"/>
-      <c r="K14" s="529"/>
-      <c r="L14" s="529"/>
-      <c r="M14" s="530"/>
-      <c r="N14" s="545" t="s">
+      <c r="J14" s="545"/>
+      <c r="K14" s="545"/>
+      <c r="L14" s="545"/>
+      <c r="M14" s="546"/>
+      <c r="N14" s="541" t="s">
         <v>249</v>
       </c>
-      <c r="O14" s="546"/>
+      <c r="O14" s="542"/>
     </row>
     <row r="16" spans="2:26" ht="15.75">
       <c r="B16" s="237" t="s">
@@ -8664,7 +8766,7 @@
       <c r="I20" t="s">
         <v>283</v>
       </c>
-      <c r="Q20" s="540" t="s">
+      <c r="Q20" s="536" t="s">
         <v>312</v>
       </c>
     </row>
@@ -8675,7 +8777,7 @@
       <c r="I21" t="s">
         <v>284</v>
       </c>
-      <c r="Q21" s="541"/>
+      <c r="Q21" s="537"/>
     </row>
     <row r="22" spans="2:17" ht="15.75">
       <c r="B22" t="s">
@@ -8821,11 +8923,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="N14:O14"/>
     <mergeCell ref="J13:M13"/>
     <mergeCell ref="J14:M14"/>
     <mergeCell ref="G4:I4"/>
@@ -8835,6 +8932,11 @@
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="N14:O14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8896,64 +8998,64 @@
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:18" ht="18.75">
-      <c r="A3" s="549" t="s">
+      <c r="A3" s="569" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="549" t="s">
+      <c r="B3" s="569" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="549" t="s">
+      <c r="C3" s="569" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="551" t="s">
+      <c r="D3" s="571" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="566" t="s">
+      <c r="E3" s="586" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="567"/>
-      <c r="G3" s="567"/>
-      <c r="H3" s="567"/>
-      <c r="I3" s="567"/>
-      <c r="J3" s="567"/>
-      <c r="K3" s="567"/>
-      <c r="L3" s="567"/>
-      <c r="M3" s="567"/>
-      <c r="N3" s="567"/>
-      <c r="O3" s="567"/>
-      <c r="P3" s="568"/>
-      <c r="Q3" s="549" t="s">
+      <c r="F3" s="587"/>
+      <c r="G3" s="587"/>
+      <c r="H3" s="587"/>
+      <c r="I3" s="587"/>
+      <c r="J3" s="587"/>
+      <c r="K3" s="587"/>
+      <c r="L3" s="587"/>
+      <c r="M3" s="587"/>
+      <c r="N3" s="587"/>
+      <c r="O3" s="587"/>
+      <c r="P3" s="588"/>
+      <c r="Q3" s="569" t="s">
         <v>150</v>
       </c>
-      <c r="R3" s="552" t="s">
+      <c r="R3" s="572" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="19.5" thickBot="1">
-      <c r="A4" s="550"/>
-      <c r="B4" s="550"/>
-      <c r="C4" s="550"/>
-      <c r="D4" s="550"/>
-      <c r="E4" s="555" t="s">
+      <c r="A4" s="570"/>
+      <c r="B4" s="570"/>
+      <c r="C4" s="570"/>
+      <c r="D4" s="570"/>
+      <c r="E4" s="575" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="556"/>
+      <c r="F4" s="576"/>
       <c r="G4" s="215"/>
-      <c r="H4" s="554" t="s">
+      <c r="H4" s="574" t="s">
         <v>164</v>
       </c>
-      <c r="I4" s="554"/>
-      <c r="J4" s="554"/>
-      <c r="K4" s="554"/>
-      <c r="L4" s="554"/>
+      <c r="I4" s="574"/>
+      <c r="J4" s="574"/>
+      <c r="K4" s="574"/>
+      <c r="L4" s="574"/>
       <c r="M4" s="216"/>
-      <c r="N4" s="563" t="s">
+      <c r="N4" s="583" t="s">
         <v>151</v>
       </c>
-      <c r="O4" s="564"/>
-      <c r="P4" s="565"/>
-      <c r="Q4" s="550"/>
-      <c r="R4" s="553"/>
+      <c r="O4" s="584"/>
+      <c r="P4" s="585"/>
+      <c r="Q4" s="570"/>
+      <c r="R4" s="573"/>
     </row>
     <row r="5" spans="1:18" ht="30.75" thickBot="1">
       <c r="A5" s="157" t="s">
@@ -8988,13 +9090,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="30">
-      <c r="A6" s="547" t="s">
+      <c r="A6" s="567" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="560" t="s">
+      <c r="B6" s="580" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="560" t="s">
+      <c r="C6" s="580" t="s">
         <v>162</v>
       </c>
       <c r="D6" s="179" t="s">
@@ -9015,14 +9117,14 @@
       <c r="Q6" s="188" t="s">
         <v>159</v>
       </c>
-      <c r="R6" s="557">
+      <c r="R6" s="577">
         <v>2223</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1">
-      <c r="A7" s="548"/>
-      <c r="B7" s="561"/>
-      <c r="C7" s="561"/>
+      <c r="A7" s="568"/>
+      <c r="B7" s="581"/>
+      <c r="C7" s="581"/>
       <c r="D7" s="189" t="s">
         <v>160</v>
       </c>
@@ -9059,12 +9161,12 @@
       <c r="Q7" s="197" t="s">
         <v>167</v>
       </c>
-      <c r="R7" s="558"/>
+      <c r="R7" s="578"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1">
-      <c r="A8" s="548"/>
-      <c r="B8" s="562"/>
-      <c r="C8" s="562"/>
+      <c r="A8" s="568"/>
+      <c r="B8" s="582"/>
+      <c r="C8" s="582"/>
       <c r="D8" s="189" t="s">
         <v>297</v>
       </c>
@@ -9097,10 +9199,10 @@
       <c r="Q8" s="197" t="s">
         <v>168</v>
       </c>
-      <c r="R8" s="559"/>
+      <c r="R8" s="579"/>
     </row>
     <row r="9" spans="1:18" ht="27.75" customHeight="1">
-      <c r="A9" s="548"/>
+      <c r="A9" s="568"/>
       <c r="B9" s="199"/>
       <c r="C9" s="200"/>
       <c r="D9" s="200"/>
@@ -9120,7 +9222,7 @@
       <c r="R9" s="206"/>
     </row>
     <row r="10" spans="1:18" ht="45">
-      <c r="A10" s="548"/>
+      <c r="A10" s="568"/>
       <c r="B10" s="207" t="s">
         <v>171</v>
       </c>
@@ -9156,7 +9258,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="60.75" thickBot="1">
-      <c r="A11" s="548"/>
+      <c r="A11" s="568"/>
       <c r="B11" s="253" t="s">
         <v>173</v>
       </c>
@@ -9190,7 +9292,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="45">
-      <c r="A12" s="572" t="s">
+      <c r="A12" s="556" t="s">
         <v>179</v>
       </c>
       <c r="B12" s="248" t="s">
@@ -9213,12 +9315,12 @@
       <c r="Q12" s="178" t="s">
         <v>181</v>
       </c>
-      <c r="R12" s="578">
+      <c r="R12" s="562">
         <v>2232</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="60">
-      <c r="A13" s="573"/>
+      <c r="A13" s="557"/>
       <c r="B13" s="249" t="s">
         <v>182</v>
       </c>
@@ -9259,10 +9361,10 @@
       <c r="Q13" s="139" t="s">
         <v>185</v>
       </c>
-      <c r="R13" s="570"/>
+      <c r="R13" s="554"/>
     </row>
     <row r="14" spans="1:18" ht="75">
-      <c r="A14" s="573"/>
+      <c r="A14" s="557"/>
       <c r="B14" s="250" t="s">
         <v>183</v>
       </c>
@@ -9301,10 +9403,10 @@
       <c r="Q14" s="138" t="s">
         <v>186</v>
       </c>
-      <c r="R14" s="579"/>
+      <c r="R14" s="563"/>
     </row>
     <row r="15" spans="1:18" ht="60">
-      <c r="A15" s="573"/>
+      <c r="A15" s="557"/>
       <c r="B15" s="249" t="s">
         <v>187</v>
       </c>
@@ -9317,17 +9419,17 @@
       <c r="G15" s="146" t="s">
         <v>165</v>
       </c>
-      <c r="H15" s="580" t="s">
+      <c r="H15" s="564" t="s">
         <v>189</v>
       </c>
-      <c r="I15" s="580"/>
+      <c r="I15" s="564"/>
       <c r="J15" s="233" t="s">
         <v>130</v>
       </c>
-      <c r="K15" s="580" t="s">
+      <c r="K15" s="564" t="s">
         <v>190</v>
       </c>
-      <c r="L15" s="580"/>
+      <c r="L15" s="564"/>
       <c r="M15" s="150" t="s">
         <v>166</v>
       </c>
@@ -9337,12 +9439,12 @@
       <c r="Q15" s="140" t="s">
         <v>191</v>
       </c>
-      <c r="R15" s="569">
+      <c r="R15" s="553">
         <v>2233</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="45">
-      <c r="A16" s="573"/>
+      <c r="A16" s="557"/>
       <c r="B16" s="249" t="s">
         <v>194</v>
       </c>
@@ -9362,17 +9464,17 @@
       <c r="N16" s="153" t="s">
         <v>172</v>
       </c>
-      <c r="O16" s="582" t="s">
+      <c r="O16" s="566" t="s">
         <v>195</v>
       </c>
-      <c r="P16" s="581"/>
+      <c r="P16" s="565"/>
       <c r="Q16" s="139" t="s">
         <v>196</v>
       </c>
-      <c r="R16" s="570"/>
+      <c r="R16" s="554"/>
     </row>
     <row r="17" spans="1:18" ht="75">
-      <c r="A17" s="573"/>
+      <c r="A17" s="557"/>
       <c r="B17" s="250" t="s">
         <v>192</v>
       </c>
@@ -9412,17 +9514,17 @@
       <c r="N17" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="O17" s="580" t="s">
+      <c r="O17" s="564" t="s">
         <v>197</v>
       </c>
-      <c r="P17" s="581"/>
+      <c r="P17" s="565"/>
       <c r="Q17" s="154" t="s">
         <v>198</v>
       </c>
-      <c r="R17" s="579"/>
+      <c r="R17" s="563"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="573"/>
+      <c r="A18" s="557"/>
       <c r="B18" s="155"/>
       <c r="C18" s="155"/>
       <c r="D18" s="155"/>
@@ -9442,8 +9544,8 @@
       <c r="R18" s="277"/>
     </row>
     <row r="19" spans="1:18" ht="45">
-      <c r="A19" s="573"/>
-      <c r="B19" s="575" t="s">
+      <c r="A19" s="557"/>
+      <c r="B19" s="559" t="s">
         <v>206</v>
       </c>
       <c r="C19" s="251"/>
@@ -9468,10 +9570,10 @@
       <c r="J19" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="K19" s="580" t="s">
+      <c r="K19" s="564" t="s">
         <v>180</v>
       </c>
-      <c r="L19" s="580"/>
+      <c r="L19" s="564"/>
       <c r="M19" s="150" t="s">
         <v>166</v>
       </c>
@@ -9481,13 +9583,13 @@
       <c r="Q19" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="R19" s="569">
+      <c r="R19" s="553">
         <v>2234</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="45">
-      <c r="A20" s="573"/>
-      <c r="B20" s="576"/>
+      <c r="A20" s="557"/>
+      <c r="B20" s="560"/>
       <c r="C20" s="252"/>
       <c r="D20" s="142" t="s">
         <v>306</v>
@@ -9510,10 +9612,10 @@
       <c r="J20" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="K20" s="580" t="s">
+      <c r="K20" s="564" t="s">
         <v>290</v>
       </c>
-      <c r="L20" s="580"/>
+      <c r="L20" s="564"/>
       <c r="M20" s="150" t="s">
         <v>166</v>
       </c>
@@ -9523,11 +9625,11 @@
       <c r="Q20" s="139" t="s">
         <v>205</v>
       </c>
-      <c r="R20" s="570"/>
+      <c r="R20" s="554"/>
     </row>
     <row r="21" spans="1:18" ht="60">
-      <c r="A21" s="573"/>
-      <c r="B21" s="576"/>
+      <c r="A21" s="557"/>
+      <c r="B21" s="560"/>
       <c r="C21" s="173"/>
       <c r="D21" s="173"/>
       <c r="E21" s="173"/>
@@ -9545,11 +9647,11 @@
       <c r="Q21" s="172" t="s">
         <v>207</v>
       </c>
-      <c r="R21" s="570"/>
+      <c r="R21" s="554"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="573"/>
-      <c r="B22" s="576"/>
+      <c r="A22" s="557"/>
+      <c r="B22" s="560"/>
       <c r="C22" s="173"/>
       <c r="D22" s="173"/>
       <c r="E22" s="173"/>
@@ -9565,11 +9667,11 @@
       <c r="O22" s="173"/>
       <c r="P22" s="173"/>
       <c r="Q22" s="174"/>
-      <c r="R22" s="570"/>
+      <c r="R22" s="554"/>
     </row>
     <row r="23" spans="1:18" ht="90">
-      <c r="A23" s="573"/>
-      <c r="B23" s="576"/>
+      <c r="A23" s="557"/>
+      <c r="B23" s="560"/>
       <c r="C23" s="173"/>
       <c r="D23" s="173"/>
       <c r="E23" s="173"/>
@@ -9587,11 +9689,11 @@
       <c r="Q23" s="247" t="s">
         <v>209</v>
       </c>
-      <c r="R23" s="570"/>
+      <c r="R23" s="554"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A24" s="574"/>
-      <c r="B24" s="577"/>
+      <c r="A24" s="558"/>
+      <c r="B24" s="561"/>
       <c r="C24" s="266"/>
       <c r="D24" s="267" t="s">
         <v>305</v>
@@ -9615,7 +9717,7 @@
       <c r="Q24" s="275" t="s">
         <v>307</v>
       </c>
-      <c r="R24" s="571"/>
+      <c r="R24" s="555"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="130"/>
@@ -9623,17 +9725,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="R19:R24"/>
-    <mergeCell ref="A12:A24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R15:R17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="O16:P16"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
@@ -9648,6 +9739,17 @@
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="E3:P3"/>
     <mergeCell ref="B6:B8"/>
+    <mergeCell ref="R19:R24"/>
+    <mergeCell ref="A12:A24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R15:R17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="O16:P16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9681,20 +9783,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24" thickBot="1">
-      <c r="A1" s="583" t="s">
+      <c r="A1" s="601" t="s">
         <v>303</v>
       </c>
-      <c r="B1" s="584"/>
-      <c r="C1" s="584"/>
-      <c r="D1" s="584"/>
-      <c r="E1" s="584"/>
-      <c r="F1" s="584"/>
-      <c r="G1" s="584"/>
-      <c r="H1" s="584"/>
-      <c r="I1" s="584"/>
-      <c r="J1" s="584"/>
-      <c r="K1" s="584"/>
-      <c r="L1" s="585"/>
+      <c r="B1" s="602"/>
+      <c r="C1" s="602"/>
+      <c r="D1" s="602"/>
+      <c r="E1" s="602"/>
+      <c r="F1" s="602"/>
+      <c r="G1" s="602"/>
+      <c r="H1" s="602"/>
+      <c r="I1" s="602"/>
+      <c r="J1" s="602"/>
+      <c r="K1" s="602"/>
+      <c r="L1" s="603"/>
     </row>
     <row r="2" spans="1:18">
       <c r="D2" s="98">
@@ -9752,82 +9854,82 @@
         <v>354</v>
       </c>
       <c r="B6" s="96"/>
-      <c r="C6" s="605" t="s">
+      <c r="C6" s="599" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="605"/>
-      <c r="E6" s="605"/>
-      <c r="F6" s="605"/>
-      <c r="G6" s="605"/>
-      <c r="H6" s="605"/>
-      <c r="I6" s="605"/>
-      <c r="J6" s="605"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="606"/>
-      <c r="M6" s="599" t="s">
+      <c r="D6" s="599"/>
+      <c r="E6" s="599"/>
+      <c r="F6" s="599"/>
+      <c r="G6" s="599"/>
+      <c r="H6" s="599"/>
+      <c r="I6" s="599"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="599"/>
+      <c r="L6" s="600"/>
+      <c r="M6" s="589" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A7" s="593" t="s">
+      <c r="A7" s="607" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="594"/>
-      <c r="C7" s="589" t="s">
+      <c r="B7" s="608"/>
+      <c r="C7" s="592" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="589" t="s">
+      <c r="D7" s="592" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="589" t="s">
+      <c r="E7" s="592" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="589" t="s">
+      <c r="F7" s="592" t="s">
         <v>210</v>
       </c>
-      <c r="G7" s="521" t="s">
+      <c r="G7" s="494" t="s">
         <v>137</v>
       </c>
-      <c r="H7" s="522"/>
-      <c r="I7" s="522"/>
-      <c r="J7" s="522"/>
-      <c r="K7" s="523"/>
-      <c r="L7" s="589" t="s">
+      <c r="H7" s="495"/>
+      <c r="I7" s="495"/>
+      <c r="J7" s="495"/>
+      <c r="K7" s="496"/>
+      <c r="L7" s="592" t="s">
         <v>117</v>
       </c>
-      <c r="M7" s="600"/>
+      <c r="M7" s="590"/>
       <c r="Q7" s="95"/>
       <c r="R7" s="95"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="595"/>
-      <c r="B8" s="596"/>
-      <c r="C8" s="590"/>
-      <c r="D8" s="590"/>
-      <c r="E8" s="590"/>
-      <c r="F8" s="590"/>
-      <c r="G8" s="586" t="s">
+      <c r="A8" s="609"/>
+      <c r="B8" s="610"/>
+      <c r="C8" s="593"/>
+      <c r="D8" s="593"/>
+      <c r="E8" s="593"/>
+      <c r="F8" s="593"/>
+      <c r="G8" s="595" t="s">
         <v>140</v>
       </c>
-      <c r="H8" s="603" t="s">
+      <c r="H8" s="597" t="s">
         <v>135</v>
       </c>
-      <c r="I8" s="603"/>
-      <c r="J8" s="604"/>
-      <c r="K8" s="586" t="s">
+      <c r="I8" s="597"/>
+      <c r="J8" s="598"/>
+      <c r="K8" s="595" t="s">
         <v>120</v>
       </c>
-      <c r="L8" s="590"/>
-      <c r="M8" s="600"/>
+      <c r="L8" s="593"/>
+      <c r="M8" s="590"/>
     </row>
     <row r="9" spans="1:18" ht="30.75" thickBot="1">
-      <c r="A9" s="595"/>
-      <c r="B9" s="596"/>
-      <c r="C9" s="602"/>
-      <c r="D9" s="602"/>
-      <c r="E9" s="602"/>
-      <c r="F9" s="602"/>
-      <c r="G9" s="587"/>
+      <c r="A9" s="609"/>
+      <c r="B9" s="610"/>
+      <c r="C9" s="594"/>
+      <c r="D9" s="594"/>
+      <c r="E9" s="594"/>
+      <c r="F9" s="594"/>
+      <c r="G9" s="596"/>
       <c r="H9" s="126" t="s">
         <v>139</v>
       </c>
@@ -9837,13 +9939,13 @@
       <c r="J9" s="126" t="s">
         <v>136</v>
       </c>
-      <c r="K9" s="587"/>
-      <c r="L9" s="591"/>
-      <c r="M9" s="601"/>
+      <c r="K9" s="596"/>
+      <c r="L9" s="605"/>
+      <c r="M9" s="591"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="595"/>
-      <c r="B10" s="596"/>
+      <c r="A10" s="609"/>
+      <c r="B10" s="610"/>
       <c r="C10" s="123">
         <v>60</v>
       </c>
@@ -9886,8 +9988,8 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="597"/>
-      <c r="B11" s="598"/>
+      <c r="A11" s="611"/>
+      <c r="B11" s="612"/>
       <c r="C11" s="108">
         <v>60</v>
       </c>
@@ -9930,8 +10032,8 @@
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="C12" s="588"/>
-      <c r="D12" s="588"/>
+      <c r="C12" s="604"/>
+      <c r="D12" s="604"/>
       <c r="F12" s="94"/>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1"/>
@@ -9939,131 +10041,137 @@
       <c r="A17" t="s">
         <v>313</v>
       </c>
-      <c r="B17" s="592" t="s">
+      <c r="B17" s="606" t="s">
         <v>337</v>
       </c>
-      <c r="C17" s="592"/>
-      <c r="D17" s="592"/>
-      <c r="E17" s="592"/>
+      <c r="C17" s="606"/>
+      <c r="D17" s="606"/>
+      <c r="E17" s="606"/>
       <c r="G17" t="s">
         <v>322</v>
       </c>
       <c r="R17" s="303"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="B18" s="592"/>
-      <c r="C18" s="592"/>
-      <c r="D18" s="592"/>
-      <c r="E18" s="592"/>
+      <c r="B18" s="606"/>
+      <c r="C18" s="606"/>
+      <c r="D18" s="606"/>
+      <c r="E18" s="606"/>
       <c r="G18" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="B19" s="592"/>
-      <c r="C19" s="592"/>
-      <c r="D19" s="592"/>
-      <c r="E19" s="592"/>
+      <c r="B19" s="606"/>
+      <c r="C19" s="606"/>
+      <c r="D19" s="606"/>
+      <c r="E19" s="606"/>
       <c r="G19" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="B20" s="592"/>
-      <c r="C20" s="592"/>
-      <c r="D20" s="592"/>
-      <c r="E20" s="592"/>
+      <c r="B20" s="606"/>
+      <c r="C20" s="606"/>
+      <c r="D20" s="606"/>
+      <c r="E20" s="606"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="B21" s="592"/>
-      <c r="C21" s="592"/>
-      <c r="D21" s="592"/>
-      <c r="E21" s="592"/>
+      <c r="B21" s="606"/>
+      <c r="C21" s="606"/>
+      <c r="D21" s="606"/>
+      <c r="E21" s="606"/>
       <c r="G21" t="s">
         <v>325</v>
       </c>
       <c r="J21" s="239"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="B22" s="592"/>
-      <c r="C22" s="592"/>
-      <c r="D22" s="592"/>
-      <c r="E22" s="592"/>
+      <c r="B22" s="606"/>
+      <c r="C22" s="606"/>
+      <c r="D22" s="606"/>
+      <c r="E22" s="606"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="B23" s="592"/>
-      <c r="C23" s="592"/>
-      <c r="D23" s="592"/>
-      <c r="E23" s="592"/>
+      <c r="B23" s="606"/>
+      <c r="C23" s="606"/>
+      <c r="D23" s="606"/>
+      <c r="E23" s="606"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="B24" s="592"/>
-      <c r="C24" s="592"/>
-      <c r="D24" s="592"/>
-      <c r="E24" s="592"/>
+      <c r="B24" s="606"/>
+      <c r="C24" s="606"/>
+      <c r="D24" s="606"/>
+      <c r="E24" s="606"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="B25" s="592"/>
-      <c r="C25" s="592"/>
-      <c r="D25" s="592"/>
-      <c r="E25" s="592"/>
+      <c r="B25" s="606"/>
+      <c r="C25" s="606"/>
+      <c r="D25" s="606"/>
+      <c r="E25" s="606"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="B26" s="592"/>
-      <c r="C26" s="592"/>
-      <c r="D26" s="592"/>
-      <c r="E26" s="592"/>
+      <c r="B26" s="606"/>
+      <c r="C26" s="606"/>
+      <c r="D26" s="606"/>
+      <c r="E26" s="606"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="B27" s="592"/>
-      <c r="C27" s="592"/>
-      <c r="D27" s="592"/>
-      <c r="E27" s="592"/>
+      <c r="B27" s="606"/>
+      <c r="C27" s="606"/>
+      <c r="D27" s="606"/>
+      <c r="E27" s="606"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="B28" s="592"/>
-      <c r="C28" s="592"/>
-      <c r="D28" s="592"/>
-      <c r="E28" s="592"/>
+      <c r="B28" s="606"/>
+      <c r="C28" s="606"/>
+      <c r="D28" s="606"/>
+      <c r="E28" s="606"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="B29" s="592"/>
-      <c r="C29" s="592"/>
-      <c r="D29" s="592"/>
-      <c r="E29" s="592"/>
+      <c r="B29" s="606"/>
+      <c r="C29" s="606"/>
+      <c r="D29" s="606"/>
+      <c r="E29" s="606"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="B30" s="592"/>
-      <c r="C30" s="592"/>
-      <c r="D30" s="592"/>
-      <c r="E30" s="592"/>
+      <c r="B30" s="606"/>
+      <c r="C30" s="606"/>
+      <c r="D30" s="606"/>
+      <c r="E30" s="606"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="B31" s="592"/>
-      <c r="C31" s="592"/>
-      <c r="D31" s="592"/>
-      <c r="E31" s="592"/>
+      <c r="B31" s="606"/>
+      <c r="C31" s="606"/>
+      <c r="D31" s="606"/>
+      <c r="E31" s="606"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="B32" s="592"/>
-      <c r="C32" s="592"/>
-      <c r="D32" s="592"/>
-      <c r="E32" s="592"/>
+      <c r="B32" s="606"/>
+      <c r="C32" s="606"/>
+      <c r="D32" s="606"/>
+      <c r="E32" s="606"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="592"/>
-      <c r="C33" s="592"/>
-      <c r="D33" s="592"/>
-      <c r="E33" s="592"/>
+      <c r="B33" s="606"/>
+      <c r="C33" s="606"/>
+      <c r="D33" s="606"/>
+      <c r="E33" s="606"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="592"/>
-      <c r="C34" s="592"/>
-      <c r="D34" s="592"/>
-      <c r="E34" s="592"/>
+      <c r="B34" s="606"/>
+      <c r="C34" s="606"/>
+      <c r="D34" s="606"/>
+      <c r="E34" s="606"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="B17:E34"/>
+    <mergeCell ref="A7:B11"/>
     <mergeCell ref="M6:M9"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="C7:C9"/>
@@ -10073,12 +10181,6 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="C6:L6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="B17:E34"/>
-    <mergeCell ref="A7:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -10090,8 +10192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AY43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AZ24" sqref="AZ24"/>
+    <sheetView tabSelected="1" topLeftCell="AT4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AU20" sqref="AU20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -10134,35 +10236,35 @@
     <col min="41" max="41" width="9" customWidth="1" collapsed="1"/>
     <col min="42" max="43" width="9.5703125" customWidth="1"/>
     <col min="44" max="45" width="13.7109375" customWidth="1"/>
-    <col min="46" max="46" width="12" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.140625" customWidth="1"/>
     <col min="47" max="47" width="73.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="24" thickBot="1">
-      <c r="A1" s="583" t="s">
+      <c r="A1" s="601" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="584"/>
-      <c r="C1" s="584"/>
-      <c r="D1" s="584"/>
-      <c r="E1" s="584"/>
-      <c r="F1" s="584"/>
-      <c r="G1" s="584"/>
-      <c r="H1" s="584"/>
-      <c r="I1" s="584"/>
-      <c r="J1" s="584"/>
-      <c r="K1" s="584"/>
-      <c r="L1" s="584"/>
-      <c r="M1" s="584"/>
-      <c r="N1" s="584"/>
-      <c r="O1" s="584"/>
-      <c r="P1" s="584"/>
-      <c r="Q1" s="584"/>
-      <c r="R1" s="584"/>
-      <c r="S1" s="584"/>
-      <c r="T1" s="584"/>
-      <c r="U1" s="584"/>
-      <c r="V1" s="585"/>
+      <c r="B1" s="602"/>
+      <c r="C1" s="602"/>
+      <c r="D1" s="602"/>
+      <c r="E1" s="602"/>
+      <c r="F1" s="602"/>
+      <c r="G1" s="602"/>
+      <c r="H1" s="602"/>
+      <c r="I1" s="602"/>
+      <c r="J1" s="602"/>
+      <c r="K1" s="602"/>
+      <c r="L1" s="602"/>
+      <c r="M1" s="602"/>
+      <c r="N1" s="602"/>
+      <c r="O1" s="602"/>
+      <c r="P1" s="602"/>
+      <c r="Q1" s="602"/>
+      <c r="R1" s="602"/>
+      <c r="S1" s="602"/>
+      <c r="T1" s="602"/>
+      <c r="U1" s="602"/>
+      <c r="V1" s="603"/>
     </row>
     <row r="2" spans="1:51">
       <c r="N2" t="s">
@@ -10242,343 +10344,343 @@
     </row>
     <row r="6" spans="1:51" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="7" spans="1:51" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="636" t="s">
+      <c r="A7" s="678" t="s">
         <v>355</v>
       </c>
-      <c r="B7" s="637"/>
-      <c r="C7" s="607" t="s">
+      <c r="B7" s="679"/>
+      <c r="C7" s="684" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="607"/>
-      <c r="E7" s="607"/>
-      <c r="F7" s="607"/>
-      <c r="G7" s="607"/>
-      <c r="H7" s="607"/>
-      <c r="I7" s="607"/>
-      <c r="J7" s="607"/>
-      <c r="K7" s="607"/>
-      <c r="L7" s="607"/>
-      <c r="M7" s="607"/>
-      <c r="N7" s="607"/>
-      <c r="O7" s="607"/>
-      <c r="P7" s="607"/>
-      <c r="Q7" s="607"/>
-      <c r="R7" s="607"/>
-      <c r="S7" s="607"/>
-      <c r="T7" s="607"/>
-      <c r="U7" s="607"/>
-      <c r="V7" s="607"/>
-      <c r="W7" s="607"/>
-      <c r="X7" s="607"/>
-      <c r="Y7" s="607"/>
-      <c r="Z7" s="607"/>
-      <c r="AA7" s="607"/>
-      <c r="AB7" s="607"/>
-      <c r="AC7" s="607"/>
-      <c r="AD7" s="607"/>
-      <c r="AE7" s="607"/>
-      <c r="AF7" s="607"/>
-      <c r="AG7" s="607"/>
-      <c r="AH7" s="607"/>
-      <c r="AI7" s="607"/>
-      <c r="AJ7" s="607"/>
-      <c r="AK7" s="607"/>
-      <c r="AL7" s="607"/>
-      <c r="AM7" s="607"/>
-      <c r="AN7" s="607"/>
-      <c r="AO7" s="607"/>
-      <c r="AP7" s="607"/>
-      <c r="AQ7" s="608"/>
-      <c r="AR7" s="663" t="s">
+      <c r="D7" s="684"/>
+      <c r="E7" s="684"/>
+      <c r="F7" s="684"/>
+      <c r="G7" s="684"/>
+      <c r="H7" s="684"/>
+      <c r="I7" s="684"/>
+      <c r="J7" s="684"/>
+      <c r="K7" s="684"/>
+      <c r="L7" s="684"/>
+      <c r="M7" s="684"/>
+      <c r="N7" s="684"/>
+      <c r="O7" s="684"/>
+      <c r="P7" s="684"/>
+      <c r="Q7" s="684"/>
+      <c r="R7" s="684"/>
+      <c r="S7" s="684"/>
+      <c r="T7" s="684"/>
+      <c r="U7" s="684"/>
+      <c r="V7" s="684"/>
+      <c r="W7" s="684"/>
+      <c r="X7" s="684"/>
+      <c r="Y7" s="684"/>
+      <c r="Z7" s="684"/>
+      <c r="AA7" s="684"/>
+      <c r="AB7" s="684"/>
+      <c r="AC7" s="684"/>
+      <c r="AD7" s="684"/>
+      <c r="AE7" s="684"/>
+      <c r="AF7" s="684"/>
+      <c r="AG7" s="684"/>
+      <c r="AH7" s="684"/>
+      <c r="AI7" s="684"/>
+      <c r="AJ7" s="684"/>
+      <c r="AK7" s="684"/>
+      <c r="AL7" s="684"/>
+      <c r="AM7" s="684"/>
+      <c r="AN7" s="684"/>
+      <c r="AO7" s="684"/>
+      <c r="AP7" s="684"/>
+      <c r="AQ7" s="685"/>
+      <c r="AR7" s="651" t="s">
         <v>371</v>
       </c>
-      <c r="AS7" s="664"/>
-      <c r="AT7" s="665"/>
-      <c r="AU7" s="678" t="s">
+      <c r="AS7" s="652"/>
+      <c r="AT7" s="653"/>
+      <c r="AU7" s="622" t="s">
         <v>333</v>
       </c>
       <c r="AX7" s="95"/>
       <c r="AY7" s="95"/>
     </row>
     <row r="8" spans="1:51" ht="15" customHeight="1">
-      <c r="A8" s="650" t="s">
+      <c r="A8" s="680" t="s">
         <v>287</v>
       </c>
-      <c r="B8" s="651"/>
-      <c r="C8" s="654" t="s">
+      <c r="B8" s="681"/>
+      <c r="C8" s="625" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="657" t="s">
+      <c r="D8" s="628" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="660" t="s">
+      <c r="E8" s="631" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="618" t="s">
+      <c r="F8" s="634" t="s">
         <v>288</v>
       </c>
-      <c r="G8" s="621" t="s">
+      <c r="G8" s="688" t="s">
         <v>292</v>
       </c>
-      <c r="H8" s="622"/>
-      <c r="I8" s="622"/>
-      <c r="J8" s="622"/>
-      <c r="K8" s="623"/>
-      <c r="L8" s="623"/>
-      <c r="M8" s="623"/>
-      <c r="N8" s="623"/>
-      <c r="O8" s="623"/>
-      <c r="P8" s="624"/>
-      <c r="Q8" s="644" t="s">
+      <c r="H8" s="689"/>
+      <c r="I8" s="689"/>
+      <c r="J8" s="689"/>
+      <c r="K8" s="638"/>
+      <c r="L8" s="638"/>
+      <c r="M8" s="638"/>
+      <c r="N8" s="638"/>
+      <c r="O8" s="638"/>
+      <c r="P8" s="639"/>
+      <c r="Q8" s="663" t="s">
         <v>291</v>
       </c>
-      <c r="R8" s="645"/>
-      <c r="S8" s="645"/>
-      <c r="T8" s="645"/>
-      <c r="U8" s="645"/>
-      <c r="V8" s="645"/>
-      <c r="W8" s="645"/>
-      <c r="X8" s="645"/>
-      <c r="Y8" s="645"/>
-      <c r="Z8" s="645"/>
-      <c r="AA8" s="645"/>
-      <c r="AB8" s="645"/>
-      <c r="AC8" s="645"/>
-      <c r="AD8" s="645"/>
-      <c r="AE8" s="645"/>
-      <c r="AF8" s="645"/>
-      <c r="AG8" s="645"/>
-      <c r="AH8" s="645"/>
-      <c r="AI8" s="645"/>
-      <c r="AJ8" s="645"/>
-      <c r="AK8" s="645"/>
-      <c r="AL8" s="645"/>
-      <c r="AM8" s="645"/>
-      <c r="AN8" s="645"/>
-      <c r="AO8" s="646"/>
-      <c r="AP8" s="681" t="s">
+      <c r="R8" s="664"/>
+      <c r="S8" s="664"/>
+      <c r="T8" s="664"/>
+      <c r="U8" s="664"/>
+      <c r="V8" s="664"/>
+      <c r="W8" s="664"/>
+      <c r="X8" s="664"/>
+      <c r="Y8" s="664"/>
+      <c r="Z8" s="664"/>
+      <c r="AA8" s="664"/>
+      <c r="AB8" s="664"/>
+      <c r="AC8" s="664"/>
+      <c r="AD8" s="664"/>
+      <c r="AE8" s="664"/>
+      <c r="AF8" s="664"/>
+      <c r="AG8" s="664"/>
+      <c r="AH8" s="664"/>
+      <c r="AI8" s="664"/>
+      <c r="AJ8" s="664"/>
+      <c r="AK8" s="664"/>
+      <c r="AL8" s="664"/>
+      <c r="AM8" s="664"/>
+      <c r="AN8" s="664"/>
+      <c r="AO8" s="665"/>
+      <c r="AP8" s="640" t="s">
         <v>331</v>
       </c>
-      <c r="AQ8" s="675" t="s">
+      <c r="AQ8" s="643" t="s">
         <v>332</v>
       </c>
-      <c r="AR8" s="666"/>
-      <c r="AS8" s="667"/>
-      <c r="AT8" s="668"/>
-      <c r="AU8" s="679"/>
+      <c r="AR8" s="654"/>
+      <c r="AS8" s="655"/>
+      <c r="AT8" s="656"/>
+      <c r="AU8" s="623"/>
     </row>
     <row r="9" spans="1:51" ht="15" customHeight="1">
-      <c r="A9" s="595"/>
-      <c r="B9" s="652"/>
-      <c r="C9" s="655"/>
-      <c r="D9" s="658"/>
-      <c r="E9" s="661"/>
-      <c r="F9" s="619"/>
-      <c r="G9" s="625" t="s">
+      <c r="A9" s="609"/>
+      <c r="B9" s="682"/>
+      <c r="C9" s="626"/>
+      <c r="D9" s="629"/>
+      <c r="E9" s="632"/>
+      <c r="F9" s="686"/>
+      <c r="G9" s="646" t="s">
         <v>298</v>
       </c>
       <c r="H9" s="354"/>
-      <c r="I9" s="625" t="s">
+      <c r="I9" s="646" t="s">
         <v>299</v>
       </c>
       <c r="J9" s="354"/>
-      <c r="K9" s="627" t="s">
+      <c r="K9" s="690" t="s">
         <v>300</v>
       </c>
-      <c r="L9" s="630" t="s">
+      <c r="L9" s="613" t="s">
         <v>338</v>
       </c>
-      <c r="M9" s="630" t="s">
+      <c r="M9" s="613" t="s">
         <v>318</v>
       </c>
-      <c r="N9" s="612" t="s">
+      <c r="N9" s="616" t="s">
         <v>339</v>
       </c>
-      <c r="O9" s="633" t="s">
+      <c r="O9" s="648" t="s">
         <v>317</v>
       </c>
-      <c r="P9" s="638" t="s">
+      <c r="P9" s="669" t="s">
         <v>319</v>
       </c>
-      <c r="Q9" s="641" t="s">
+      <c r="Q9" s="672" t="s">
         <v>289</v>
       </c>
-      <c r="R9" s="609" t="s">
+      <c r="R9" s="675" t="s">
         <v>296</v>
       </c>
       <c r="S9" s="244"/>
-      <c r="T9" s="609" t="s">
+      <c r="T9" s="675" t="s">
         <v>302</v>
       </c>
       <c r="U9" s="245"/>
-      <c r="V9" s="609" t="s">
+      <c r="V9" s="675" t="s">
         <v>293</v>
       </c>
       <c r="W9" s="244"/>
-      <c r="X9" s="609" t="s">
+      <c r="X9" s="675" t="s">
         <v>294</v>
       </c>
       <c r="Y9" s="244"/>
-      <c r="Z9" s="609" t="s">
+      <c r="Z9" s="675" t="s">
         <v>295</v>
       </c>
       <c r="AA9" s="245"/>
-      <c r="AB9" s="612" t="s">
+      <c r="AB9" s="616" t="s">
         <v>366</v>
       </c>
       <c r="AC9" s="296"/>
-      <c r="AD9" s="615" t="s">
+      <c r="AD9" s="619" t="s">
         <v>365</v>
       </c>
-      <c r="AE9" s="612" t="s">
+      <c r="AE9" s="616" t="s">
         <v>367</v>
       </c>
       <c r="AF9" s="296"/>
-      <c r="AG9" s="615" t="s">
+      <c r="AG9" s="619" t="s">
         <v>364</v>
       </c>
-      <c r="AH9" s="630" t="s">
+      <c r="AH9" s="613" t="s">
         <v>368</v>
       </c>
-      <c r="AI9" s="630" t="s">
+      <c r="AI9" s="613" t="s">
         <v>320</v>
       </c>
-      <c r="AJ9" s="630" t="s">
+      <c r="AJ9" s="613" t="s">
         <v>321</v>
       </c>
-      <c r="AK9" s="647" t="s">
+      <c r="AK9" s="666" t="s">
         <v>369</v>
       </c>
-      <c r="AL9" s="630" t="s">
+      <c r="AL9" s="613" t="s">
         <v>370</v>
       </c>
-      <c r="AM9" s="630" t="s">
+      <c r="AM9" s="613" t="s">
         <v>342</v>
       </c>
-      <c r="AN9" s="630" t="s">
+      <c r="AN9" s="613" t="s">
         <v>343</v>
       </c>
-      <c r="AO9" s="672" t="s">
+      <c r="AO9" s="660" t="s">
         <v>330</v>
       </c>
-      <c r="AP9" s="682"/>
-      <c r="AQ9" s="676"/>
-      <c r="AR9" s="666"/>
-      <c r="AS9" s="667"/>
-      <c r="AT9" s="668"/>
-      <c r="AU9" s="679"/>
+      <c r="AP9" s="641"/>
+      <c r="AQ9" s="644"/>
+      <c r="AR9" s="654"/>
+      <c r="AS9" s="655"/>
+      <c r="AT9" s="656"/>
+      <c r="AU9" s="623"/>
     </row>
     <row r="10" spans="1:51" ht="15" customHeight="1">
-      <c r="A10" s="595"/>
-      <c r="B10" s="652"/>
-      <c r="C10" s="655"/>
-      <c r="D10" s="658"/>
-      <c r="E10" s="661"/>
-      <c r="F10" s="619"/>
-      <c r="G10" s="626"/>
+      <c r="A10" s="609"/>
+      <c r="B10" s="682"/>
+      <c r="C10" s="626"/>
+      <c r="D10" s="629"/>
+      <c r="E10" s="632"/>
+      <c r="F10" s="686"/>
+      <c r="G10" s="647"/>
       <c r="H10" s="355"/>
-      <c r="I10" s="626"/>
+      <c r="I10" s="647"/>
       <c r="J10" s="355"/>
-      <c r="K10" s="628"/>
-      <c r="L10" s="631"/>
-      <c r="M10" s="631"/>
-      <c r="N10" s="613"/>
-      <c r="O10" s="634"/>
-      <c r="P10" s="639"/>
-      <c r="Q10" s="642"/>
-      <c r="R10" s="610"/>
+      <c r="K10" s="691"/>
+      <c r="L10" s="614"/>
+      <c r="M10" s="614"/>
+      <c r="N10" s="617"/>
+      <c r="O10" s="649"/>
+      <c r="P10" s="670"/>
+      <c r="Q10" s="673"/>
+      <c r="R10" s="676"/>
       <c r="S10" s="287"/>
-      <c r="T10" s="610"/>
+      <c r="T10" s="676"/>
       <c r="U10" s="289"/>
-      <c r="V10" s="610"/>
+      <c r="V10" s="676"/>
       <c r="W10" s="287"/>
-      <c r="X10" s="610"/>
+      <c r="X10" s="676"/>
       <c r="Y10" s="287"/>
-      <c r="Z10" s="610"/>
+      <c r="Z10" s="676"/>
       <c r="AA10" s="289"/>
-      <c r="AB10" s="613"/>
+      <c r="AB10" s="617"/>
       <c r="AC10" s="343"/>
-      <c r="AD10" s="616"/>
-      <c r="AE10" s="613"/>
+      <c r="AD10" s="620"/>
+      <c r="AE10" s="617"/>
       <c r="AF10" s="343"/>
-      <c r="AG10" s="616"/>
-      <c r="AH10" s="631"/>
-      <c r="AI10" s="631"/>
-      <c r="AJ10" s="631"/>
-      <c r="AK10" s="648"/>
-      <c r="AL10" s="631"/>
-      <c r="AM10" s="631"/>
-      <c r="AN10" s="631"/>
-      <c r="AO10" s="673"/>
-      <c r="AP10" s="682"/>
-      <c r="AQ10" s="676"/>
-      <c r="AR10" s="669"/>
-      <c r="AS10" s="670"/>
-      <c r="AT10" s="671"/>
-      <c r="AU10" s="679"/>
+      <c r="AG10" s="620"/>
+      <c r="AH10" s="614"/>
+      <c r="AI10" s="614"/>
+      <c r="AJ10" s="614"/>
+      <c r="AK10" s="667"/>
+      <c r="AL10" s="614"/>
+      <c r="AM10" s="614"/>
+      <c r="AN10" s="614"/>
+      <c r="AO10" s="661"/>
+      <c r="AP10" s="641"/>
+      <c r="AQ10" s="644"/>
+      <c r="AR10" s="657"/>
+      <c r="AS10" s="658"/>
+      <c r="AT10" s="659"/>
+      <c r="AU10" s="623"/>
     </row>
     <row r="11" spans="1:51" ht="15.75" customHeight="1">
-      <c r="A11" s="595"/>
-      <c r="B11" s="652"/>
-      <c r="C11" s="656"/>
-      <c r="D11" s="659"/>
-      <c r="E11" s="662"/>
-      <c r="F11" s="620"/>
-      <c r="G11" s="626"/>
+      <c r="A11" s="609"/>
+      <c r="B11" s="682"/>
+      <c r="C11" s="627"/>
+      <c r="D11" s="630"/>
+      <c r="E11" s="633"/>
+      <c r="F11" s="687"/>
+      <c r="G11" s="647"/>
       <c r="H11" s="355" t="s">
         <v>301</v>
       </c>
-      <c r="I11" s="626"/>
+      <c r="I11" s="647"/>
       <c r="J11" s="355" t="s">
         <v>301</v>
       </c>
-      <c r="K11" s="629"/>
-      <c r="L11" s="632"/>
-      <c r="M11" s="632"/>
-      <c r="N11" s="614"/>
-      <c r="O11" s="635"/>
-      <c r="P11" s="640"/>
-      <c r="Q11" s="643"/>
-      <c r="R11" s="611"/>
+      <c r="K11" s="692"/>
+      <c r="L11" s="615"/>
+      <c r="M11" s="615"/>
+      <c r="N11" s="618"/>
+      <c r="O11" s="650"/>
+      <c r="P11" s="671"/>
+      <c r="Q11" s="674"/>
+      <c r="R11" s="677"/>
       <c r="S11" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="T11" s="611"/>
+      <c r="T11" s="677"/>
       <c r="U11" s="289" t="s">
         <v>301</v>
       </c>
-      <c r="V11" s="611"/>
+      <c r="V11" s="677"/>
       <c r="W11" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="X11" s="611"/>
+      <c r="X11" s="677"/>
       <c r="Y11" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="Z11" s="611"/>
+      <c r="Z11" s="677"/>
       <c r="AA11" s="289" t="s">
         <v>301</v>
       </c>
-      <c r="AB11" s="614"/>
+      <c r="AB11" s="618"/>
       <c r="AC11" s="297" t="s">
         <v>301</v>
       </c>
-      <c r="AD11" s="617"/>
-      <c r="AE11" s="614"/>
+      <c r="AD11" s="621"/>
+      <c r="AE11" s="618"/>
       <c r="AF11" s="297" t="s">
         <v>301</v>
       </c>
-      <c r="AG11" s="617"/>
-      <c r="AH11" s="632"/>
-      <c r="AI11" s="632"/>
-      <c r="AJ11" s="632"/>
-      <c r="AK11" s="649"/>
-      <c r="AL11" s="632"/>
-      <c r="AM11" s="632"/>
-      <c r="AN11" s="632"/>
-      <c r="AO11" s="674"/>
-      <c r="AP11" s="683"/>
-      <c r="AQ11" s="677"/>
+      <c r="AG11" s="621"/>
+      <c r="AH11" s="615"/>
+      <c r="AI11" s="615"/>
+      <c r="AJ11" s="615"/>
+      <c r="AK11" s="668"/>
+      <c r="AL11" s="615"/>
+      <c r="AM11" s="615"/>
+      <c r="AN11" s="615"/>
+      <c r="AO11" s="662"/>
+      <c r="AP11" s="642"/>
+      <c r="AQ11" s="645"/>
       <c r="AR11" s="307" t="s">
         <v>334</v>
       </c>
@@ -10588,11 +10690,11 @@
       <c r="AT11" s="308" t="s">
         <v>336</v>
       </c>
-      <c r="AU11" s="680"/>
+      <c r="AU11" s="624"/>
     </row>
     <row r="12" spans="1:51">
-      <c r="A12" s="595"/>
-      <c r="B12" s="652"/>
+      <c r="A12" s="609"/>
+      <c r="B12" s="682"/>
       <c r="C12" s="295">
         <v>60</v>
       </c>
@@ -10762,8 +10864,8 @@
       </c>
     </row>
     <row r="13" spans="1:51">
-      <c r="A13" s="595"/>
-      <c r="B13" s="652"/>
+      <c r="A13" s="609"/>
+      <c r="B13" s="682"/>
       <c r="C13" s="295">
         <v>60</v>
       </c>
@@ -10933,8 +11035,8 @@
       </c>
     </row>
     <row r="14" spans="1:51">
-      <c r="A14" s="597"/>
-      <c r="B14" s="653"/>
+      <c r="A14" s="611"/>
+      <c r="B14" s="683"/>
       <c r="C14" s="294">
         <v>60</v>
       </c>
@@ -11781,7 +11883,346 @@
         <v>378</v>
       </c>
     </row>
-    <row r="19" spans="2:47" ht="15" customHeight="1"/>
+    <row r="19" spans="2:47" ht="15" customHeight="1">
+      <c r="C19" s="310">
+        <v>60</v>
+      </c>
+      <c r="D19" s="121">
+        <v>2</v>
+      </c>
+      <c r="E19" s="309">
+        <v>2</v>
+      </c>
+      <c r="F19" s="313">
+        <f>50*1024*1024</f>
+        <v>52428800</v>
+      </c>
+      <c r="G19" s="386">
+        <v>20</v>
+      </c>
+      <c r="H19" s="389">
+        <f>IF(G19="",1,IF(AND(MOD(G19,'Tab. Intervals'!$E$7)=0,G19&gt;=('Tab. Intervals'!$H$7),G19&lt;=('Tab. Intervals'!$K$7*10^3)),2,0))</f>
+        <v>2</v>
+      </c>
+      <c r="I19" s="386">
+        <v>1</v>
+      </c>
+      <c r="J19" s="389">
+        <f>IF(I19="",1,IF(AND(I19&gt;='Tab. Intervals'!$H$8,I19&lt;='Tab. Intervals'!$K$8),2,0))</f>
+        <v>2</v>
+      </c>
+      <c r="K19" s="387">
+        <f t="shared" ref="K19:K20" si="35">G19+I19</f>
+        <v>21</v>
+      </c>
+      <c r="L19" s="121">
+        <f>'Packets Structures'!$F$28*10^3</f>
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="M19" s="121">
+        <f>'Packets Structures'!$F$27*10^3</f>
+        <v>0.128</v>
+      </c>
+      <c r="N19" s="304" t="s">
+        <v>340</v>
+      </c>
+      <c r="O19" s="122">
+        <f>'Packets Structures'!$F$29*10^3</f>
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="P19" s="357">
+        <f>VALUE(MID(N19,1,1))*L19+VALUE(MID(N19,2,1))*M19+'Tab. Intervals'!$O$5*10^-3+O19</f>
+        <v>0.63</v>
+      </c>
+      <c r="Q19" s="356">
+        <f>CEILING((F19/'Packets Structures'!$Q$22),1)</f>
+        <v>1941808</v>
+      </c>
+      <c r="R19" s="386">
+        <v>7.5</v>
+      </c>
+      <c r="S19" s="391">
+        <f>IF(R19="",1,IF(AND(MOD(R19,'Tab. Intervals'!$E$13)=0,R19&gt;='Tab. Intervals'!$H$13,R19&lt;=('Tab. Intervals'!$K$13*10^3)),2,0))</f>
+        <v>2</v>
+      </c>
+      <c r="T19" s="388">
+        <v>1010</v>
+      </c>
+      <c r="U19" s="391">
+        <f>IF(T19="",1,IF(AND(MOD(T19,'Tab. Intervals'!$E$17)=0,T19&gt;='Tab. Intervals'!$H$17,T19&lt;=('Tab. Intervals'!$K$17*10^3)),2,0))</f>
+        <v>2</v>
+      </c>
+      <c r="V19" s="386">
+        <v>0</v>
+      </c>
+      <c r="W19" s="391">
+        <f>IF(OR(V19="",R19="",T19="",R19=0),1,IF(AND(V19&gt;='Tab. Intervals'!$H$14,V19&lt;=MIN(500,T19/R19 - 1)),2,0))</f>
+        <v>2</v>
+      </c>
+      <c r="X19" s="386">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="391">
+        <f>IF(X19="",1,IF(AND(MOD(X19,'Tab. Intervals'!$E$13)=0,X19&gt;='Tab. Intervals'!$H$19,X19&lt;=R19),2,0))</f>
+        <v>2</v>
+      </c>
+      <c r="Z19" s="386">
+        <v>6.25</v>
+      </c>
+      <c r="AA19" s="391">
+        <f>IF(OR(Z19="",R19=""),1,IF(AND(MOD(Z19,'Tab. Intervals'!$E$20)=0,Z19&gt;='Tab. Intervals'!$H$20,Z19&lt;=MIN(10,R19-1.25)),2,0))</f>
+        <v>2</v>
+      </c>
+      <c r="AB19" s="61">
+        <f t="shared" ref="AB19:AB20" si="36">R19-AD19</f>
+        <v>6.944</v>
+      </c>
+      <c r="AC19" s="84">
+        <f t="shared" ref="AC19:AC20" si="37">IF(R19="",1,IF(OR(R19=0,AB19&lt;=0),0,2))</f>
+        <v>2</v>
+      </c>
+      <c r="AD19" s="390">
+        <f>(2*'Tab. Intervals'!$O$5*10^-3)+('Packets Structures'!$M$27*10^3)+('Packets Structures'!$M$28*10^3)+('Packets Structures'!$M$29*10^3)</f>
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="AE19" s="61">
+        <f t="shared" ref="AE19:AE20" si="38">R19-AG19</f>
+        <v>7.27</v>
+      </c>
+      <c r="AF19" s="84">
+        <f t="shared" ref="AF19:AF20" si="39">IF(R19="",1,IF(OR(R19=0,AE19&lt;=0),0,2))</f>
+        <v>2</v>
+      </c>
+      <c r="AG19" s="390">
+        <f>('Packets Structures'!$M$27*10^3)+('Tab. Intervals'!$O$5*10^-3)</f>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="AH19" s="26">
+        <f>'Packets Structures'!$M$30*10^3+'Packets Structures'!$M$28*10^3+2*'Tab. Intervals'!$O$5*10^-3</f>
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="AI19" s="26">
+        <f t="shared" ref="AI19:AI20" si="40">FLOOR(AB19/AH19,1)</f>
+        <v>11</v>
+      </c>
+      <c r="AJ19" s="26">
+        <f t="shared" ref="AJ19:AJ20" si="41">FLOOR(AE19/AH19,1)</f>
+        <v>12</v>
+      </c>
+      <c r="AK19" s="26">
+        <f t="shared" ref="AK19:AK20" si="42">IF(Q19&lt;=AI19,CEILING(Q19/AI19,1),IF(AND(MOD(Q19,AJ19)&gt;0,MOD(Q19,AJ19)&lt;=AI19),CEILING(Q19/AJ19,1),CEILING(Q19/AJ19,1)+1))</f>
+        <v>161818</v>
+      </c>
+      <c r="AL19" s="3">
+        <f>(F19-(AK19-1)*AJ19*'Packets Structures'!$Q$22)</f>
+        <v>92</v>
+      </c>
+      <c r="AM19" s="3">
+        <f>TRUNC(AL19/'Packets Structures'!$Q$22,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AN19" s="3">
+        <f>MOD(AL19,'Packets Structures'!$Q$22)</f>
+        <v>11</v>
+      </c>
+      <c r="AO19" s="309">
+        <f>R19*(AK19-1)+AD19+(AM19*((('Packets Structures'!$Q$22*8)/($B$4*10^6))*10^3+'Packets Structures'!$M$28*10^3+2*'Tab. Intervals'!$O$5*10^-3)+((AN19*8)/($B$4*10^6))*10^3+'Packets Structures'!$M$28*10^3+2*'Tab. Intervals'!$O$5*10^-3)</f>
+        <v>1213630.3120000002</v>
+      </c>
+      <c r="AP19" s="314">
+        <f>P19+'Tab. Intervals'!$O$24+X19+AO19</f>
+        <v>1213632.192</v>
+      </c>
+      <c r="AQ19" s="315">
+        <f>P19+'Tab. Intervals'!$O$24+X19+Z19+R19*AK19</f>
+        <v>1213643.1299999999</v>
+      </c>
+      <c r="AR19" s="317">
+        <f t="shared" ref="AR19:AR20" si="43">(((D19+E19)*$B$3*AP19*10^-3)/C19)*10^3</f>
+        <v>1213.632192</v>
+      </c>
+      <c r="AS19" s="316">
+        <f t="shared" ref="AS19:AS20" si="44">AVERAGE(AR19,AT19)</f>
+        <v>1213.637661</v>
+      </c>
+      <c r="AT19" s="318">
+        <f t="shared" ref="AT19:AT20" si="45">(((D19+E19)*$B$3*AQ19*10^-3)/C19)*10^3</f>
+        <v>1213.6431299999999</v>
+      </c>
+      <c r="AU19" s="306" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="2:47">
+      <c r="C20" s="310">
+        <v>60</v>
+      </c>
+      <c r="D20" s="121">
+        <v>2</v>
+      </c>
+      <c r="E20" s="309">
+        <v>2</v>
+      </c>
+      <c r="F20" s="313">
+        <f>200*1024*1024</f>
+        <v>209715200</v>
+      </c>
+      <c r="G20" s="386">
+        <v>20</v>
+      </c>
+      <c r="H20" s="389">
+        <f>IF(G20="",1,IF(AND(MOD(G20,'Tab. Intervals'!$E$7)=0,G20&gt;=('Tab. Intervals'!$H$7),G20&lt;=('Tab. Intervals'!$K$7*10^3)),2,0))</f>
+        <v>2</v>
+      </c>
+      <c r="I20" s="386">
+        <v>2</v>
+      </c>
+      <c r="J20" s="389">
+        <f>IF(I20="",1,IF(AND(I20&gt;='Tab. Intervals'!$H$8,I20&lt;='Tab. Intervals'!$K$8),2,0))</f>
+        <v>2</v>
+      </c>
+      <c r="K20" s="387">
+        <f t="shared" si="35"/>
+        <v>22</v>
+      </c>
+      <c r="L20" s="121">
+        <f>'Packets Structures'!$F$28*10^3</f>
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="M20" s="121">
+        <f>'Packets Structures'!$F$27*10^3</f>
+        <v>0.128</v>
+      </c>
+      <c r="N20" s="304" t="s">
+        <v>340</v>
+      </c>
+      <c r="O20" s="122">
+        <f>'Packets Structures'!$F$29*10^3</f>
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="P20" s="357">
+        <f>VALUE(MID(N20,1,1))*L20+VALUE(MID(N20,2,1))*M20+'Tab. Intervals'!$O$5*10^-3+O20</f>
+        <v>0.63</v>
+      </c>
+      <c r="Q20" s="356">
+        <f>CEILING((F20/'Packets Structures'!$Q$22),1)</f>
+        <v>7767230</v>
+      </c>
+      <c r="R20" s="386">
+        <v>7.5</v>
+      </c>
+      <c r="S20" s="391">
+        <f>IF(R20="",1,IF(AND(MOD(R20,'Tab. Intervals'!$E$13)=0,R20&gt;='Tab. Intervals'!$H$13,R20&lt;=('Tab. Intervals'!$K$13*10^3)),2,0))</f>
+        <v>2</v>
+      </c>
+      <c r="T20" s="388">
+        <v>1010</v>
+      </c>
+      <c r="U20" s="391">
+        <f>IF(T20="",1,IF(AND(MOD(T20,'Tab. Intervals'!$E$17)=0,T20&gt;='Tab. Intervals'!$H$17,T20&lt;=('Tab. Intervals'!$K$17*10^3)),2,0))</f>
+        <v>2</v>
+      </c>
+      <c r="V20" s="386">
+        <v>0</v>
+      </c>
+      <c r="W20" s="391">
+        <f>IF(OR(V20="",R20="",T20="",R20=0),1,IF(AND(V20&gt;='Tab. Intervals'!$H$14,V20&lt;=MIN(500,T20/R20 - 1)),2,0))</f>
+        <v>2</v>
+      </c>
+      <c r="X20" s="386">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="391">
+        <f>IF(X20="",1,IF(AND(MOD(X20,'Tab. Intervals'!$E$13)=0,X20&gt;='Tab. Intervals'!$H$19,X20&lt;=R20),2,0))</f>
+        <v>2</v>
+      </c>
+      <c r="Z20" s="386">
+        <v>6.25</v>
+      </c>
+      <c r="AA20" s="391">
+        <f>IF(OR(Z20="",R20=""),1,IF(AND(MOD(Z20,'Tab. Intervals'!$E$20)=0,Z20&gt;='Tab. Intervals'!$H$20,Z20&lt;=MIN(10,R20-1.25)),2,0))</f>
+        <v>2</v>
+      </c>
+      <c r="AB20" s="61">
+        <f t="shared" si="36"/>
+        <v>6.944</v>
+      </c>
+      <c r="AC20" s="84">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="AD20" s="390">
+        <f>(2*'Tab. Intervals'!$O$5*10^-3)+('Packets Structures'!$M$27*10^3)+('Packets Structures'!$M$28*10^3)+('Packets Structures'!$M$29*10^3)</f>
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="AE20" s="61">
+        <f t="shared" si="38"/>
+        <v>7.27</v>
+      </c>
+      <c r="AF20" s="84">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="AG20" s="390">
+        <f>('Packets Structures'!$M$27*10^3)+('Tab. Intervals'!$O$5*10^-3)</f>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="AH20" s="26">
+        <f>'Packets Structures'!$M$30*10^3+'Packets Structures'!$M$28*10^3+2*'Tab. Intervals'!$O$5*10^-3</f>
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="AI20" s="26">
+        <f t="shared" si="40"/>
+        <v>11</v>
+      </c>
+      <c r="AJ20" s="26">
+        <f t="shared" si="41"/>
+        <v>12</v>
+      </c>
+      <c r="AK20" s="26">
+        <f t="shared" si="42"/>
+        <v>647270</v>
+      </c>
+      <c r="AL20" s="3">
+        <f>(F20-(AK20-1)*AJ20*'Packets Structures'!$Q$22)</f>
+        <v>44</v>
+      </c>
+      <c r="AM20" s="3">
+        <f>TRUNC(AL20/'Packets Structures'!$Q$22,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AN20" s="3">
+        <f>MOD(AL20,'Packets Structures'!$Q$22)</f>
+        <v>17</v>
+      </c>
+      <c r="AO20" s="309">
+        <f>R20*(AK20-1)+AD20+(AM20*((('Packets Structures'!$Q$22*8)/($B$4*10^6))*10^3+'Packets Structures'!$M$28*10^3+2*'Tab. Intervals'!$O$5*10^-3)+((AN20*8)/($B$4*10^6))*10^3+'Packets Structures'!$M$28*10^3+2*'Tab. Intervals'!$O$5*10^-3)</f>
+        <v>4854519.1679999996</v>
+      </c>
+      <c r="AP20" s="314">
+        <f>P20+'Tab. Intervals'!$O$24+X20+AO20</f>
+        <v>4854521.0479999995</v>
+      </c>
+      <c r="AQ20" s="315">
+        <f>P20+'Tab. Intervals'!$O$24+X20+Z20+R20*AK20</f>
+        <v>4854533.13</v>
+      </c>
+      <c r="AR20" s="317">
+        <f t="shared" si="43"/>
+        <v>4854.5210479999987</v>
+      </c>
+      <c r="AS20" s="316">
+        <f t="shared" si="44"/>
+        <v>4854.5270889999993</v>
+      </c>
+      <c r="AT20" s="318">
+        <f t="shared" si="45"/>
+        <v>4854.5331300000007</v>
+      </c>
+      <c r="AU20" s="306" t="s">
+        <v>388</v>
+      </c>
+    </row>
     <row r="23" spans="2:47" ht="15" customHeight="1"/>
     <row r="24" spans="2:47" ht="15" customHeight="1"/>
     <row r="30" spans="2:47">
@@ -11803,341 +12244,341 @@
       <c r="E32" s="319"/>
     </row>
     <row r="33" spans="1:47" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A33" s="636" t="s">
+      <c r="A33" s="678" t="s">
         <v>375</v>
       </c>
-      <c r="B33" s="637"/>
-      <c r="C33" s="607" t="s">
+      <c r="B33" s="679"/>
+      <c r="C33" s="684" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="607"/>
-      <c r="E33" s="607"/>
-      <c r="F33" s="607"/>
-      <c r="G33" s="607"/>
-      <c r="H33" s="607"/>
-      <c r="I33" s="607"/>
-      <c r="J33" s="607"/>
-      <c r="K33" s="607"/>
-      <c r="L33" s="607"/>
-      <c r="M33" s="607"/>
-      <c r="N33" s="607"/>
-      <c r="O33" s="607"/>
-      <c r="P33" s="607"/>
-      <c r="Q33" s="607"/>
-      <c r="R33" s="607"/>
-      <c r="S33" s="607"/>
-      <c r="T33" s="607"/>
-      <c r="U33" s="607"/>
-      <c r="V33" s="607"/>
-      <c r="W33" s="607"/>
-      <c r="X33" s="607"/>
-      <c r="Y33" s="607"/>
-      <c r="Z33" s="607"/>
-      <c r="AA33" s="607"/>
-      <c r="AB33" s="607"/>
-      <c r="AC33" s="607"/>
-      <c r="AD33" s="607"/>
-      <c r="AE33" s="607"/>
-      <c r="AF33" s="607"/>
-      <c r="AG33" s="607"/>
-      <c r="AH33" s="607"/>
-      <c r="AI33" s="607"/>
-      <c r="AJ33" s="607"/>
-      <c r="AK33" s="607"/>
-      <c r="AL33" s="607"/>
-      <c r="AM33" s="607"/>
-      <c r="AN33" s="607"/>
-      <c r="AO33" s="607"/>
-      <c r="AP33" s="607"/>
-      <c r="AQ33" s="608"/>
-      <c r="AR33" s="663" t="s">
+      <c r="D33" s="684"/>
+      <c r="E33" s="684"/>
+      <c r="F33" s="684"/>
+      <c r="G33" s="684"/>
+      <c r="H33" s="684"/>
+      <c r="I33" s="684"/>
+      <c r="J33" s="684"/>
+      <c r="K33" s="684"/>
+      <c r="L33" s="684"/>
+      <c r="M33" s="684"/>
+      <c r="N33" s="684"/>
+      <c r="O33" s="684"/>
+      <c r="P33" s="684"/>
+      <c r="Q33" s="684"/>
+      <c r="R33" s="684"/>
+      <c r="S33" s="684"/>
+      <c r="T33" s="684"/>
+      <c r="U33" s="684"/>
+      <c r="V33" s="684"/>
+      <c r="W33" s="684"/>
+      <c r="X33" s="684"/>
+      <c r="Y33" s="684"/>
+      <c r="Z33" s="684"/>
+      <c r="AA33" s="684"/>
+      <c r="AB33" s="684"/>
+      <c r="AC33" s="684"/>
+      <c r="AD33" s="684"/>
+      <c r="AE33" s="684"/>
+      <c r="AF33" s="684"/>
+      <c r="AG33" s="684"/>
+      <c r="AH33" s="684"/>
+      <c r="AI33" s="684"/>
+      <c r="AJ33" s="684"/>
+      <c r="AK33" s="684"/>
+      <c r="AL33" s="684"/>
+      <c r="AM33" s="684"/>
+      <c r="AN33" s="684"/>
+      <c r="AO33" s="684"/>
+      <c r="AP33" s="684"/>
+      <c r="AQ33" s="685"/>
+      <c r="AR33" s="651" t="s">
         <v>371</v>
       </c>
-      <c r="AS33" s="664"/>
-      <c r="AT33" s="665"/>
-      <c r="AU33" s="678" t="s">
+      <c r="AS33" s="652"/>
+      <c r="AT33" s="653"/>
+      <c r="AU33" s="622" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:47" ht="15" customHeight="1">
-      <c r="A34" s="650" t="s">
+      <c r="A34" s="680" t="s">
         <v>374</v>
       </c>
-      <c r="B34" s="651"/>
-      <c r="C34" s="654" t="s">
+      <c r="B34" s="681"/>
+      <c r="C34" s="625" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="657" t="s">
+      <c r="D34" s="628" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="660" t="s">
+      <c r="E34" s="631" t="s">
         <v>122</v>
       </c>
-      <c r="F34" s="618" t="s">
+      <c r="F34" s="634" t="s">
         <v>288</v>
       </c>
-      <c r="G34" s="686" t="s">
+      <c r="G34" s="637" t="s">
         <v>292</v>
       </c>
-      <c r="H34" s="623"/>
-      <c r="I34" s="623"/>
-      <c r="J34" s="623"/>
-      <c r="K34" s="623"/>
-      <c r="L34" s="623"/>
-      <c r="M34" s="623"/>
-      <c r="N34" s="623"/>
-      <c r="O34" s="623"/>
-      <c r="P34" s="624"/>
-      <c r="Q34" s="644" t="s">
+      <c r="H34" s="638"/>
+      <c r="I34" s="638"/>
+      <c r="J34" s="638"/>
+      <c r="K34" s="638"/>
+      <c r="L34" s="638"/>
+      <c r="M34" s="638"/>
+      <c r="N34" s="638"/>
+      <c r="O34" s="638"/>
+      <c r="P34" s="639"/>
+      <c r="Q34" s="663" t="s">
         <v>291</v>
       </c>
-      <c r="R34" s="645"/>
-      <c r="S34" s="645"/>
-      <c r="T34" s="645"/>
-      <c r="U34" s="645"/>
-      <c r="V34" s="645"/>
-      <c r="W34" s="645"/>
-      <c r="X34" s="645"/>
-      <c r="Y34" s="645"/>
-      <c r="Z34" s="645"/>
-      <c r="AA34" s="645"/>
-      <c r="AB34" s="645"/>
-      <c r="AC34" s="645"/>
-      <c r="AD34" s="645"/>
-      <c r="AE34" s="645"/>
-      <c r="AF34" s="645"/>
-      <c r="AG34" s="645"/>
-      <c r="AH34" s="645"/>
-      <c r="AI34" s="645"/>
-      <c r="AJ34" s="645"/>
-      <c r="AK34" s="645"/>
-      <c r="AL34" s="645"/>
-      <c r="AM34" s="645"/>
-      <c r="AN34" s="645"/>
-      <c r="AO34" s="646"/>
-      <c r="AP34" s="681" t="s">
+      <c r="R34" s="664"/>
+      <c r="S34" s="664"/>
+      <c r="T34" s="664"/>
+      <c r="U34" s="664"/>
+      <c r="V34" s="664"/>
+      <c r="W34" s="664"/>
+      <c r="X34" s="664"/>
+      <c r="Y34" s="664"/>
+      <c r="Z34" s="664"/>
+      <c r="AA34" s="664"/>
+      <c r="AB34" s="664"/>
+      <c r="AC34" s="664"/>
+      <c r="AD34" s="664"/>
+      <c r="AE34" s="664"/>
+      <c r="AF34" s="664"/>
+      <c r="AG34" s="664"/>
+      <c r="AH34" s="664"/>
+      <c r="AI34" s="664"/>
+      <c r="AJ34" s="664"/>
+      <c r="AK34" s="664"/>
+      <c r="AL34" s="664"/>
+      <c r="AM34" s="664"/>
+      <c r="AN34" s="664"/>
+      <c r="AO34" s="665"/>
+      <c r="AP34" s="640" t="s">
         <v>331</v>
       </c>
-      <c r="AQ34" s="675" t="s">
+      <c r="AQ34" s="643" t="s">
         <v>332</v>
       </c>
-      <c r="AR34" s="666"/>
-      <c r="AS34" s="667"/>
-      <c r="AT34" s="668"/>
-      <c r="AU34" s="679"/>
+      <c r="AR34" s="654"/>
+      <c r="AS34" s="655"/>
+      <c r="AT34" s="656"/>
+      <c r="AU34" s="623"/>
     </row>
     <row r="35" spans="1:47" ht="15" customHeight="1">
-      <c r="A35" s="595"/>
-      <c r="B35" s="652"/>
-      <c r="C35" s="655"/>
-      <c r="D35" s="658"/>
-      <c r="E35" s="661"/>
-      <c r="F35" s="684"/>
-      <c r="G35" s="625" t="s">
+      <c r="A35" s="609"/>
+      <c r="B35" s="682"/>
+      <c r="C35" s="626"/>
+      <c r="D35" s="629"/>
+      <c r="E35" s="632"/>
+      <c r="F35" s="635"/>
+      <c r="G35" s="646" t="s">
         <v>298</v>
       </c>
       <c r="H35" s="354"/>
-      <c r="I35" s="625" t="s">
+      <c r="I35" s="646" t="s">
         <v>299</v>
       </c>
       <c r="J35" s="354"/>
-      <c r="K35" s="633" t="s">
+      <c r="K35" s="648" t="s">
         <v>300</v>
       </c>
-      <c r="L35" s="630" t="s">
+      <c r="L35" s="613" t="s">
         <v>338</v>
       </c>
-      <c r="M35" s="630" t="s">
+      <c r="M35" s="613" t="s">
         <v>318</v>
       </c>
-      <c r="N35" s="612" t="s">
+      <c r="N35" s="616" t="s">
         <v>339</v>
       </c>
-      <c r="O35" s="633" t="s">
+      <c r="O35" s="648" t="s">
         <v>317</v>
       </c>
-      <c r="P35" s="638" t="s">
+      <c r="P35" s="669" t="s">
         <v>319</v>
       </c>
-      <c r="Q35" s="641" t="s">
+      <c r="Q35" s="672" t="s">
         <v>289</v>
       </c>
-      <c r="R35" s="609" t="s">
+      <c r="R35" s="675" t="s">
         <v>296</v>
       </c>
       <c r="S35" s="244"/>
-      <c r="T35" s="609" t="s">
+      <c r="T35" s="675" t="s">
         <v>302</v>
       </c>
       <c r="U35" s="245"/>
-      <c r="V35" s="609" t="s">
+      <c r="V35" s="675" t="s">
         <v>293</v>
       </c>
       <c r="W35" s="244"/>
-      <c r="X35" s="609" t="s">
+      <c r="X35" s="675" t="s">
         <v>294</v>
       </c>
       <c r="Y35" s="244"/>
-      <c r="Z35" s="609" t="s">
+      <c r="Z35" s="675" t="s">
         <v>295</v>
       </c>
       <c r="AA35" s="245"/>
-      <c r="AB35" s="612" t="s">
+      <c r="AB35" s="616" t="s">
         <v>366</v>
       </c>
       <c r="AC35" s="296"/>
-      <c r="AD35" s="615" t="s">
+      <c r="AD35" s="619" t="s">
         <v>365</v>
       </c>
-      <c r="AE35" s="612" t="s">
+      <c r="AE35" s="616" t="s">
         <v>367</v>
       </c>
       <c r="AF35" s="296"/>
-      <c r="AG35" s="615" t="s">
+      <c r="AG35" s="619" t="s">
         <v>364</v>
       </c>
-      <c r="AH35" s="630" t="s">
+      <c r="AH35" s="613" t="s">
         <v>368</v>
       </c>
-      <c r="AI35" s="630" t="s">
+      <c r="AI35" s="613" t="s">
         <v>320</v>
       </c>
-      <c r="AJ35" s="630" t="s">
+      <c r="AJ35" s="613" t="s">
         <v>321</v>
       </c>
-      <c r="AK35" s="647" t="s">
+      <c r="AK35" s="666" t="s">
         <v>369</v>
       </c>
-      <c r="AL35" s="630" t="s">
+      <c r="AL35" s="613" t="s">
         <v>370</v>
       </c>
-      <c r="AM35" s="630" t="s">
+      <c r="AM35" s="613" t="s">
         <v>342</v>
       </c>
-      <c r="AN35" s="630" t="s">
+      <c r="AN35" s="613" t="s">
         <v>343</v>
       </c>
-      <c r="AO35" s="672" t="s">
+      <c r="AO35" s="660" t="s">
         <v>330</v>
       </c>
-      <c r="AP35" s="682"/>
-      <c r="AQ35" s="676"/>
-      <c r="AR35" s="666"/>
-      <c r="AS35" s="667"/>
-      <c r="AT35" s="668"/>
-      <c r="AU35" s="679"/>
+      <c r="AP35" s="641"/>
+      <c r="AQ35" s="644"/>
+      <c r="AR35" s="654"/>
+      <c r="AS35" s="655"/>
+      <c r="AT35" s="656"/>
+      <c r="AU35" s="623"/>
     </row>
     <row r="36" spans="1:47" ht="15" customHeight="1">
-      <c r="A36" s="595"/>
-      <c r="B36" s="652"/>
-      <c r="C36" s="655"/>
-      <c r="D36" s="658"/>
-      <c r="E36" s="661"/>
-      <c r="F36" s="684"/>
-      <c r="G36" s="626"/>
+      <c r="A36" s="609"/>
+      <c r="B36" s="682"/>
+      <c r="C36" s="626"/>
+      <c r="D36" s="629"/>
+      <c r="E36" s="632"/>
+      <c r="F36" s="635"/>
+      <c r="G36" s="647"/>
       <c r="H36" s="355"/>
-      <c r="I36" s="626"/>
+      <c r="I36" s="647"/>
       <c r="J36" s="355"/>
-      <c r="K36" s="634"/>
-      <c r="L36" s="631"/>
-      <c r="M36" s="631"/>
-      <c r="N36" s="613"/>
-      <c r="O36" s="634"/>
-      <c r="P36" s="639"/>
-      <c r="Q36" s="642"/>
-      <c r="R36" s="610"/>
+      <c r="K36" s="649"/>
+      <c r="L36" s="614"/>
+      <c r="M36" s="614"/>
+      <c r="N36" s="617"/>
+      <c r="O36" s="649"/>
+      <c r="P36" s="670"/>
+      <c r="Q36" s="673"/>
+      <c r="R36" s="676"/>
       <c r="S36" s="287"/>
-      <c r="T36" s="610"/>
+      <c r="T36" s="676"/>
       <c r="U36" s="289"/>
-      <c r="V36" s="610"/>
+      <c r="V36" s="676"/>
       <c r="W36" s="287"/>
-      <c r="X36" s="610"/>
+      <c r="X36" s="676"/>
       <c r="Y36" s="287"/>
-      <c r="Z36" s="610"/>
+      <c r="Z36" s="676"/>
       <c r="AA36" s="289"/>
-      <c r="AB36" s="613"/>
+      <c r="AB36" s="617"/>
       <c r="AC36" s="343"/>
-      <c r="AD36" s="616"/>
-      <c r="AE36" s="613"/>
+      <c r="AD36" s="620"/>
+      <c r="AE36" s="617"/>
       <c r="AF36" s="343"/>
-      <c r="AG36" s="616"/>
-      <c r="AH36" s="631"/>
-      <c r="AI36" s="631"/>
-      <c r="AJ36" s="631"/>
-      <c r="AK36" s="648"/>
-      <c r="AL36" s="631"/>
-      <c r="AM36" s="631"/>
-      <c r="AN36" s="631"/>
-      <c r="AO36" s="673"/>
-      <c r="AP36" s="682"/>
-      <c r="AQ36" s="676"/>
-      <c r="AR36" s="669"/>
-      <c r="AS36" s="670"/>
-      <c r="AT36" s="671"/>
-      <c r="AU36" s="679"/>
+      <c r="AG36" s="620"/>
+      <c r="AH36" s="614"/>
+      <c r="AI36" s="614"/>
+      <c r="AJ36" s="614"/>
+      <c r="AK36" s="667"/>
+      <c r="AL36" s="614"/>
+      <c r="AM36" s="614"/>
+      <c r="AN36" s="614"/>
+      <c r="AO36" s="661"/>
+      <c r="AP36" s="641"/>
+      <c r="AQ36" s="644"/>
+      <c r="AR36" s="657"/>
+      <c r="AS36" s="658"/>
+      <c r="AT36" s="659"/>
+      <c r="AU36" s="623"/>
     </row>
     <row r="37" spans="1:47" ht="15.75">
-      <c r="A37" s="595"/>
-      <c r="B37" s="652"/>
-      <c r="C37" s="656"/>
-      <c r="D37" s="659"/>
-      <c r="E37" s="662"/>
-      <c r="F37" s="685"/>
-      <c r="G37" s="626"/>
+      <c r="A37" s="609"/>
+      <c r="B37" s="682"/>
+      <c r="C37" s="627"/>
+      <c r="D37" s="630"/>
+      <c r="E37" s="633"/>
+      <c r="F37" s="636"/>
+      <c r="G37" s="647"/>
       <c r="H37" s="355" t="s">
         <v>301</v>
       </c>
-      <c r="I37" s="626"/>
+      <c r="I37" s="647"/>
       <c r="J37" s="355" t="s">
         <v>301</v>
       </c>
-      <c r="K37" s="635"/>
-      <c r="L37" s="632"/>
-      <c r="M37" s="632"/>
-      <c r="N37" s="614"/>
-      <c r="O37" s="635"/>
-      <c r="P37" s="640"/>
-      <c r="Q37" s="643"/>
-      <c r="R37" s="611"/>
+      <c r="K37" s="650"/>
+      <c r="L37" s="615"/>
+      <c r="M37" s="615"/>
+      <c r="N37" s="618"/>
+      <c r="O37" s="650"/>
+      <c r="P37" s="671"/>
+      <c r="Q37" s="674"/>
+      <c r="R37" s="677"/>
       <c r="S37" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="T37" s="611"/>
+      <c r="T37" s="677"/>
       <c r="U37" s="289" t="s">
         <v>301</v>
       </c>
-      <c r="V37" s="611"/>
+      <c r="V37" s="677"/>
       <c r="W37" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="X37" s="611"/>
+      <c r="X37" s="677"/>
       <c r="Y37" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="Z37" s="611"/>
+      <c r="Z37" s="677"/>
       <c r="AA37" s="289" t="s">
         <v>301</v>
       </c>
-      <c r="AB37" s="614"/>
+      <c r="AB37" s="618"/>
       <c r="AC37" s="297" t="s">
         <v>301</v>
       </c>
-      <c r="AD37" s="617"/>
-      <c r="AE37" s="614"/>
+      <c r="AD37" s="621"/>
+      <c r="AE37" s="618"/>
       <c r="AF37" s="297" t="s">
         <v>301</v>
       </c>
-      <c r="AG37" s="617"/>
-      <c r="AH37" s="632"/>
-      <c r="AI37" s="632"/>
-      <c r="AJ37" s="632"/>
-      <c r="AK37" s="649"/>
-      <c r="AL37" s="632"/>
-      <c r="AM37" s="632"/>
-      <c r="AN37" s="632"/>
-      <c r="AO37" s="674"/>
-      <c r="AP37" s="683"/>
-      <c r="AQ37" s="677"/>
+      <c r="AG37" s="621"/>
+      <c r="AH37" s="615"/>
+      <c r="AI37" s="615"/>
+      <c r="AJ37" s="615"/>
+      <c r="AK37" s="668"/>
+      <c r="AL37" s="615"/>
+      <c r="AM37" s="615"/>
+      <c r="AN37" s="615"/>
+      <c r="AO37" s="662"/>
+      <c r="AP37" s="642"/>
+      <c r="AQ37" s="645"/>
       <c r="AR37" s="307" t="s">
         <v>334</v>
       </c>
@@ -12147,11 +12588,11 @@
       <c r="AT37" s="308" t="s">
         <v>336</v>
       </c>
-      <c r="AU37" s="680"/>
+      <c r="AU37" s="624"/>
     </row>
     <row r="38" spans="1:47">
-      <c r="A38" s="595"/>
-      <c r="B38" s="652"/>
+      <c r="A38" s="609"/>
+      <c r="B38" s="682"/>
       <c r="C38" s="295">
         <v>60</v>
       </c>
@@ -12321,8 +12762,8 @@
       </c>
     </row>
     <row r="39" spans="1:47">
-      <c r="A39" s="595"/>
-      <c r="B39" s="652"/>
+      <c r="A39" s="609"/>
+      <c r="B39" s="682"/>
       <c r="C39" s="345">
         <v>60</v>
       </c>
@@ -12340,7 +12781,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="345">
-        <f t="shared" ref="K39:K42" si="35">G39+I39</f>
+        <f t="shared" ref="K39:K42" si="46">G39+I39</f>
         <v>0</v>
       </c>
       <c r="L39" s="121"/>
@@ -12376,13 +12817,13 @@
       </c>
       <c r="AB39" s="61"/>
       <c r="AC39" s="84">
-        <f t="shared" ref="AC39:AC42" si="36">IF(R39="",1,IF(OR(R39=0,AB39&lt;=0),0,2))</f>
+        <f t="shared" ref="AC39:AC42" si="47">IF(R39="",1,IF(OR(R39=0,AB39&lt;=0),0,2))</f>
         <v>1</v>
       </c>
       <c r="AD39" s="298"/>
       <c r="AE39" s="61"/>
       <c r="AF39" s="84">
-        <f t="shared" ref="AF39:AF42" si="37">IF(R39="",1,IF(OR(R39=0,AE39&lt;=0),0,2))</f>
+        <f t="shared" ref="AF39:AF42" si="48">IF(R39="",1,IF(OR(R39=0,AE39&lt;=0),0,2))</f>
         <v>1</v>
       </c>
       <c r="AG39" s="298"/>
@@ -12397,22 +12838,22 @@
       <c r="AP39" s="314"/>
       <c r="AQ39" s="315"/>
       <c r="AR39" s="317">
-        <f t="shared" ref="AR39:AR42" si="38">(((D39+E39)*$B$3*AP39*10^-3)/C39)*10^3</f>
+        <f t="shared" ref="AR39:AR42" si="49">(((D39+E39)*$B$3*AP39*10^-3)/C39)*10^3</f>
         <v>0</v>
       </c>
       <c r="AS39" s="316">
-        <f t="shared" ref="AS39:AS42" si="39">AVERAGE(AR39,AT39)</f>
+        <f t="shared" ref="AS39:AS42" si="50">AVERAGE(AR39,AT39)</f>
         <v>0</v>
       </c>
       <c r="AT39" s="318">
-        <f t="shared" ref="AT39:AT42" si="40">(((D39+E39)*$B$3*AQ39*10^-3)/C39)*10^3</f>
+        <f t="shared" ref="AT39:AT42" si="51">(((D39+E39)*$B$3*AQ39*10^-3)/C39)*10^3</f>
         <v>0</v>
       </c>
       <c r="AU39" s="306"/>
     </row>
     <row r="40" spans="1:47">
-      <c r="A40" s="597"/>
-      <c r="B40" s="653"/>
+      <c r="A40" s="611"/>
+      <c r="B40" s="683"/>
       <c r="C40" s="345">
         <v>60</v>
       </c>
@@ -12430,7 +12871,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="345">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="L40" s="121"/>
@@ -12466,13 +12907,13 @@
       </c>
       <c r="AB40" s="61"/>
       <c r="AC40" s="84">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="AD40" s="298"/>
       <c r="AE40" s="61"/>
       <c r="AF40" s="84">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="AG40" s="298"/>
@@ -12487,15 +12928,15 @@
       <c r="AP40" s="314"/>
       <c r="AQ40" s="315"/>
       <c r="AR40" s="317">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AS40" s="316">
-        <f t="shared" si="39"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AT40" s="318">
-        <f t="shared" si="40"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AU40" s="306"/>
@@ -12518,7 +12959,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="345">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="L41" s="121"/>
@@ -12554,13 +12995,13 @@
       </c>
       <c r="AB41" s="61"/>
       <c r="AC41" s="84">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="AD41" s="298"/>
       <c r="AE41" s="61"/>
       <c r="AF41" s="84">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="AG41" s="298"/>
@@ -12575,15 +13016,15 @@
       <c r="AP41" s="314"/>
       <c r="AQ41" s="315"/>
       <c r="AR41" s="317">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AS41" s="316">
-        <f t="shared" si="39"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AT41" s="318">
-        <f t="shared" si="40"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AU41" s="306"/>
@@ -12606,7 +13047,7 @@
         <v>1</v>
       </c>
       <c r="K42" s="345">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="L42" s="121"/>
@@ -12642,13 +13083,13 @@
       </c>
       <c r="AB42" s="61"/>
       <c r="AC42" s="84">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="AD42" s="298"/>
       <c r="AE42" s="61"/>
       <c r="AF42" s="84">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="AG42" s="298"/>
@@ -12663,15 +13104,15 @@
       <c r="AP42" s="314"/>
       <c r="AQ42" s="315"/>
       <c r="AR42" s="317">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AS42" s="316">
-        <f t="shared" si="39"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AT42" s="318">
-        <f t="shared" si="40"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AU42" s="306"/>
@@ -12682,11 +13123,64 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="79">
-    <mergeCell ref="AM35:AM37"/>
-    <mergeCell ref="AN35:AN37"/>
-    <mergeCell ref="AB35:AB37"/>
-    <mergeCell ref="AD35:AD37"/>
-    <mergeCell ref="AE35:AE37"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="C7:AQ7"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="X9:X11"/>
+    <mergeCell ref="Z9:Z11"/>
+    <mergeCell ref="AB9:AB11"/>
+    <mergeCell ref="AD9:AD11"/>
+    <mergeCell ref="AE9:AE11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G8:P8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:AQ33"/>
+    <mergeCell ref="P35:P37"/>
+    <mergeCell ref="Q35:Q37"/>
+    <mergeCell ref="R35:R37"/>
+    <mergeCell ref="T35:T37"/>
+    <mergeCell ref="V35:V37"/>
+    <mergeCell ref="Q34:AO34"/>
+    <mergeCell ref="AG35:AG37"/>
+    <mergeCell ref="AH35:AH37"/>
+    <mergeCell ref="AI35:AI37"/>
+    <mergeCell ref="AJ35:AJ37"/>
+    <mergeCell ref="AK35:AK37"/>
+    <mergeCell ref="X35:X37"/>
+    <mergeCell ref="Z35:Z37"/>
+    <mergeCell ref="A34:B40"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B14"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="Q9:Q11"/>
+    <mergeCell ref="R9:R11"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="AR33:AT36"/>
+    <mergeCell ref="AO35:AO37"/>
+    <mergeCell ref="AQ8:AQ11"/>
+    <mergeCell ref="AU7:AU11"/>
+    <mergeCell ref="Q8:AO8"/>
+    <mergeCell ref="AL9:AL11"/>
+    <mergeCell ref="AM9:AM11"/>
+    <mergeCell ref="AN9:AN11"/>
+    <mergeCell ref="AO9:AO11"/>
+    <mergeCell ref="AP8:AP11"/>
+    <mergeCell ref="AG9:AG11"/>
+    <mergeCell ref="AH9:AH11"/>
+    <mergeCell ref="AI9:AI11"/>
+    <mergeCell ref="AJ9:AJ11"/>
+    <mergeCell ref="AK9:AK11"/>
+    <mergeCell ref="AR7:AT10"/>
     <mergeCell ref="N35:N37"/>
     <mergeCell ref="AU33:AU37"/>
     <mergeCell ref="C34:C37"/>
@@ -12703,76 +13197,23 @@
     <mergeCell ref="M35:M37"/>
     <mergeCell ref="O35:O37"/>
     <mergeCell ref="AL35:AL37"/>
-    <mergeCell ref="AR33:AT36"/>
-    <mergeCell ref="AO35:AO37"/>
-    <mergeCell ref="AQ8:AQ11"/>
-    <mergeCell ref="AU7:AU11"/>
-    <mergeCell ref="Q8:AO8"/>
-    <mergeCell ref="AL9:AL11"/>
-    <mergeCell ref="AM9:AM11"/>
-    <mergeCell ref="AN9:AN11"/>
-    <mergeCell ref="AO9:AO11"/>
-    <mergeCell ref="AP8:AP11"/>
-    <mergeCell ref="AG9:AG11"/>
-    <mergeCell ref="AH9:AH11"/>
-    <mergeCell ref="AI9:AI11"/>
-    <mergeCell ref="AJ9:AJ11"/>
-    <mergeCell ref="AK9:AK11"/>
-    <mergeCell ref="AR7:AT10"/>
-    <mergeCell ref="N9:N11"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="Q9:Q11"/>
-    <mergeCell ref="R9:R11"/>
-    <mergeCell ref="T9:T11"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B14"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:AQ33"/>
-    <mergeCell ref="P35:P37"/>
-    <mergeCell ref="Q35:Q37"/>
-    <mergeCell ref="R35:R37"/>
-    <mergeCell ref="T35:T37"/>
-    <mergeCell ref="V35:V37"/>
-    <mergeCell ref="Q34:AO34"/>
-    <mergeCell ref="AG35:AG37"/>
-    <mergeCell ref="AH35:AH37"/>
-    <mergeCell ref="AI35:AI37"/>
-    <mergeCell ref="AJ35:AJ37"/>
-    <mergeCell ref="AK35:AK37"/>
-    <mergeCell ref="X35:X37"/>
-    <mergeCell ref="Z35:Z37"/>
-    <mergeCell ref="A34:B40"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="C7:AQ7"/>
-    <mergeCell ref="V9:V11"/>
-    <mergeCell ref="X9:X11"/>
-    <mergeCell ref="Z9:Z11"/>
-    <mergeCell ref="AB9:AB11"/>
-    <mergeCell ref="AD9:AD11"/>
-    <mergeCell ref="AE9:AE11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="G8:P8"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="AM35:AM37"/>
+    <mergeCell ref="AN35:AN37"/>
+    <mergeCell ref="AB35:AB37"/>
+    <mergeCell ref="AD35:AD37"/>
+    <mergeCell ref="AE35:AE37"/>
   </mergeCells>
-  <conditionalFormatting sqref="M38:M42 M12:M18">
-    <cfRule type="expression" dxfId="1" priority="15">
+  <conditionalFormatting sqref="M38:M42 M12:M20">
+    <cfRule type="expression" dxfId="9" priority="15">
       <formula>N12="01"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L38:L42 L12:L18">
-    <cfRule type="expression" dxfId="0" priority="14">
+  <conditionalFormatting sqref="L38:L42 L12:L20">
+    <cfRule type="expression" dxfId="8" priority="14">
       <formula>N12="10"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S38:S42 U38:U42 W38:W42 Y38:Y42 AA38:AA42 AC38:AC42 AF38:AF42 U12:U18 W12:W18 Y12:Y18 AA12:AA18 AC12:AC18 AF12:AF18 S12:S18">
+  <conditionalFormatting sqref="S38:S42 U38:U42 W38:W42 Y38:Y42 AA38:AA42 AC38:AC42 AF38:AF42 AA12:AA20 AC12:AC20 AF12:AF20 U12:U20 W12:W20 Y12:Y20 S12:S20">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -12781,7 +13222,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38:H42 H12:H18">
+  <conditionalFormatting sqref="H38:H42 H12:H20">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -12790,7 +13231,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J18">
+  <conditionalFormatting sqref="J12:J20">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -12809,7 +13250,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N38:N42 N12:N18">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N38:N42 N12:N20">
       <formula1>$N$3:$N$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -12873,30 +13314,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="24" thickBot="1">
-      <c r="A1" s="583" t="s">
+      <c r="A1" s="601" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="584"/>
-      <c r="C1" s="584"/>
-      <c r="D1" s="584"/>
-      <c r="E1" s="584"/>
-      <c r="F1" s="584"/>
-      <c r="G1" s="584"/>
-      <c r="H1" s="584"/>
-      <c r="I1" s="584"/>
-      <c r="J1" s="584"/>
-      <c r="K1" s="584"/>
-      <c r="L1" s="584"/>
-      <c r="M1" s="584"/>
-      <c r="N1" s="584"/>
-      <c r="O1" s="584"/>
-      <c r="P1" s="584"/>
-      <c r="Q1" s="584"/>
-      <c r="R1" s="584"/>
-      <c r="S1" s="584"/>
-      <c r="T1" s="584"/>
-      <c r="U1" s="584"/>
-      <c r="V1" s="585"/>
+      <c r="B1" s="602"/>
+      <c r="C1" s="602"/>
+      <c r="D1" s="602"/>
+      <c r="E1" s="602"/>
+      <c r="F1" s="602"/>
+      <c r="G1" s="602"/>
+      <c r="H1" s="602"/>
+      <c r="I1" s="602"/>
+      <c r="J1" s="602"/>
+      <c r="K1" s="602"/>
+      <c r="L1" s="602"/>
+      <c r="M1" s="602"/>
+      <c r="N1" s="602"/>
+      <c r="O1" s="602"/>
+      <c r="P1" s="602"/>
+      <c r="Q1" s="602"/>
+      <c r="R1" s="602"/>
+      <c r="S1" s="602"/>
+      <c r="T1" s="602"/>
+      <c r="U1" s="602"/>
+      <c r="V1" s="603"/>
     </row>
     <row r="2" spans="1:51">
       <c r="N2" t="s">
@@ -12958,343 +13399,343 @@
     </row>
     <row r="6" spans="1:51" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:51" ht="19.5" thickBot="1">
-      <c r="A7" s="636" t="s">
+      <c r="A7" s="678" t="s">
         <v>386</v>
       </c>
-      <c r="B7" s="637"/>
-      <c r="C7" s="607" t="s">
+      <c r="B7" s="679"/>
+      <c r="C7" s="684" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="607"/>
-      <c r="E7" s="607"/>
-      <c r="F7" s="607"/>
-      <c r="G7" s="607"/>
-      <c r="H7" s="607"/>
-      <c r="I7" s="607"/>
-      <c r="J7" s="607"/>
-      <c r="K7" s="607"/>
-      <c r="L7" s="607"/>
-      <c r="M7" s="607"/>
-      <c r="N7" s="607"/>
-      <c r="O7" s="607"/>
-      <c r="P7" s="607"/>
-      <c r="Q7" s="607"/>
-      <c r="R7" s="607"/>
-      <c r="S7" s="607"/>
-      <c r="T7" s="607"/>
-      <c r="U7" s="607"/>
-      <c r="V7" s="607"/>
-      <c r="W7" s="607"/>
-      <c r="X7" s="607"/>
-      <c r="Y7" s="607"/>
-      <c r="Z7" s="607"/>
-      <c r="AA7" s="607"/>
-      <c r="AB7" s="607"/>
-      <c r="AC7" s="607"/>
-      <c r="AD7" s="607"/>
-      <c r="AE7" s="607"/>
-      <c r="AF7" s="607"/>
-      <c r="AG7" s="607"/>
-      <c r="AH7" s="607"/>
-      <c r="AI7" s="607"/>
-      <c r="AJ7" s="607"/>
-      <c r="AK7" s="607"/>
-      <c r="AL7" s="607"/>
-      <c r="AM7" s="607"/>
-      <c r="AN7" s="607"/>
-      <c r="AO7" s="607"/>
-      <c r="AP7" s="607"/>
-      <c r="AQ7" s="608"/>
-      <c r="AR7" s="663" t="s">
+      <c r="D7" s="684"/>
+      <c r="E7" s="684"/>
+      <c r="F7" s="684"/>
+      <c r="G7" s="684"/>
+      <c r="H7" s="684"/>
+      <c r="I7" s="684"/>
+      <c r="J7" s="684"/>
+      <c r="K7" s="684"/>
+      <c r="L7" s="684"/>
+      <c r="M7" s="684"/>
+      <c r="N7" s="684"/>
+      <c r="O7" s="684"/>
+      <c r="P7" s="684"/>
+      <c r="Q7" s="684"/>
+      <c r="R7" s="684"/>
+      <c r="S7" s="684"/>
+      <c r="T7" s="684"/>
+      <c r="U7" s="684"/>
+      <c r="V7" s="684"/>
+      <c r="W7" s="684"/>
+      <c r="X7" s="684"/>
+      <c r="Y7" s="684"/>
+      <c r="Z7" s="684"/>
+      <c r="AA7" s="684"/>
+      <c r="AB7" s="684"/>
+      <c r="AC7" s="684"/>
+      <c r="AD7" s="684"/>
+      <c r="AE7" s="684"/>
+      <c r="AF7" s="684"/>
+      <c r="AG7" s="684"/>
+      <c r="AH7" s="684"/>
+      <c r="AI7" s="684"/>
+      <c r="AJ7" s="684"/>
+      <c r="AK7" s="684"/>
+      <c r="AL7" s="684"/>
+      <c r="AM7" s="684"/>
+      <c r="AN7" s="684"/>
+      <c r="AO7" s="684"/>
+      <c r="AP7" s="684"/>
+      <c r="AQ7" s="685"/>
+      <c r="AR7" s="651" t="s">
         <v>371</v>
       </c>
-      <c r="AS7" s="664"/>
-      <c r="AT7" s="665"/>
-      <c r="AU7" s="678" t="s">
+      <c r="AS7" s="652"/>
+      <c r="AT7" s="653"/>
+      <c r="AU7" s="622" t="s">
         <v>333</v>
       </c>
       <c r="AX7" s="95"/>
       <c r="AY7" s="95"/>
     </row>
     <row r="8" spans="1:51" ht="15" customHeight="1">
-      <c r="A8" s="650" t="s">
+      <c r="A8" s="680" t="s">
         <v>382</v>
       </c>
-      <c r="B8" s="687"/>
-      <c r="C8" s="654" t="s">
+      <c r="B8" s="693"/>
+      <c r="C8" s="625" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="657" t="s">
+      <c r="D8" s="628" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="660" t="s">
+      <c r="E8" s="631" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="618" t="s">
+      <c r="F8" s="634" t="s">
         <v>288</v>
       </c>
-      <c r="G8" s="621" t="s">
+      <c r="G8" s="688" t="s">
         <v>292</v>
       </c>
-      <c r="H8" s="622"/>
-      <c r="I8" s="622"/>
-      <c r="J8" s="622"/>
-      <c r="K8" s="623"/>
-      <c r="L8" s="623"/>
-      <c r="M8" s="623"/>
-      <c r="N8" s="623"/>
-      <c r="O8" s="623"/>
-      <c r="P8" s="624"/>
-      <c r="Q8" s="644" t="s">
+      <c r="H8" s="689"/>
+      <c r="I8" s="689"/>
+      <c r="J8" s="689"/>
+      <c r="K8" s="638"/>
+      <c r="L8" s="638"/>
+      <c r="M8" s="638"/>
+      <c r="N8" s="638"/>
+      <c r="O8" s="638"/>
+      <c r="P8" s="639"/>
+      <c r="Q8" s="663" t="s">
         <v>291</v>
       </c>
-      <c r="R8" s="645"/>
-      <c r="S8" s="645"/>
-      <c r="T8" s="645"/>
-      <c r="U8" s="645"/>
-      <c r="V8" s="645"/>
-      <c r="W8" s="645"/>
-      <c r="X8" s="645"/>
-      <c r="Y8" s="645"/>
-      <c r="Z8" s="645"/>
-      <c r="AA8" s="645"/>
-      <c r="AB8" s="645"/>
-      <c r="AC8" s="645"/>
-      <c r="AD8" s="645"/>
-      <c r="AE8" s="645"/>
-      <c r="AF8" s="645"/>
-      <c r="AG8" s="645"/>
-      <c r="AH8" s="645"/>
-      <c r="AI8" s="645"/>
-      <c r="AJ8" s="645"/>
-      <c r="AK8" s="645"/>
-      <c r="AL8" s="645"/>
-      <c r="AM8" s="645"/>
-      <c r="AN8" s="645"/>
-      <c r="AO8" s="646"/>
-      <c r="AP8" s="681" t="s">
+      <c r="R8" s="664"/>
+      <c r="S8" s="664"/>
+      <c r="T8" s="664"/>
+      <c r="U8" s="664"/>
+      <c r="V8" s="664"/>
+      <c r="W8" s="664"/>
+      <c r="X8" s="664"/>
+      <c r="Y8" s="664"/>
+      <c r="Z8" s="664"/>
+      <c r="AA8" s="664"/>
+      <c r="AB8" s="664"/>
+      <c r="AC8" s="664"/>
+      <c r="AD8" s="664"/>
+      <c r="AE8" s="664"/>
+      <c r="AF8" s="664"/>
+      <c r="AG8" s="664"/>
+      <c r="AH8" s="664"/>
+      <c r="AI8" s="664"/>
+      <c r="AJ8" s="664"/>
+      <c r="AK8" s="664"/>
+      <c r="AL8" s="664"/>
+      <c r="AM8" s="664"/>
+      <c r="AN8" s="664"/>
+      <c r="AO8" s="665"/>
+      <c r="AP8" s="640" t="s">
         <v>331</v>
       </c>
-      <c r="AQ8" s="675" t="s">
+      <c r="AQ8" s="643" t="s">
         <v>332</v>
       </c>
-      <c r="AR8" s="666"/>
-      <c r="AS8" s="667"/>
-      <c r="AT8" s="668"/>
-      <c r="AU8" s="679"/>
+      <c r="AR8" s="654"/>
+      <c r="AS8" s="655"/>
+      <c r="AT8" s="656"/>
+      <c r="AU8" s="623"/>
     </row>
     <row r="9" spans="1:51">
-      <c r="A9" s="595"/>
-      <c r="B9" s="596"/>
-      <c r="C9" s="655"/>
-      <c r="D9" s="658"/>
-      <c r="E9" s="661"/>
-      <c r="F9" s="619"/>
-      <c r="G9" s="625" t="s">
+      <c r="A9" s="609"/>
+      <c r="B9" s="610"/>
+      <c r="C9" s="626"/>
+      <c r="D9" s="629"/>
+      <c r="E9" s="632"/>
+      <c r="F9" s="686"/>
+      <c r="G9" s="646" t="s">
         <v>298</v>
       </c>
       <c r="H9" s="366"/>
-      <c r="I9" s="625" t="s">
+      <c r="I9" s="646" t="s">
         <v>299</v>
       </c>
       <c r="J9" s="366"/>
-      <c r="K9" s="627" t="s">
+      <c r="K9" s="690" t="s">
         <v>300</v>
       </c>
-      <c r="L9" s="630" t="s">
+      <c r="L9" s="613" t="s">
         <v>338</v>
       </c>
-      <c r="M9" s="630" t="s">
+      <c r="M9" s="613" t="s">
         <v>318</v>
       </c>
-      <c r="N9" s="612" t="s">
+      <c r="N9" s="616" t="s">
         <v>339</v>
       </c>
-      <c r="O9" s="633" t="s">
+      <c r="O9" s="648" t="s">
         <v>317</v>
       </c>
-      <c r="P9" s="638" t="s">
+      <c r="P9" s="669" t="s">
         <v>319</v>
       </c>
-      <c r="Q9" s="641" t="s">
+      <c r="Q9" s="672" t="s">
         <v>289</v>
       </c>
-      <c r="R9" s="609" t="s">
+      <c r="R9" s="675" t="s">
         <v>296</v>
       </c>
       <c r="S9" s="244"/>
-      <c r="T9" s="609" t="s">
+      <c r="T9" s="675" t="s">
         <v>302</v>
       </c>
       <c r="U9" s="245"/>
-      <c r="V9" s="609" t="s">
+      <c r="V9" s="675" t="s">
         <v>293</v>
       </c>
       <c r="W9" s="244"/>
-      <c r="X9" s="609" t="s">
+      <c r="X9" s="675" t="s">
         <v>294</v>
       </c>
       <c r="Y9" s="244"/>
-      <c r="Z9" s="609" t="s">
+      <c r="Z9" s="675" t="s">
         <v>295</v>
       </c>
       <c r="AA9" s="245"/>
-      <c r="AB9" s="612" t="s">
+      <c r="AB9" s="616" t="s">
         <v>366</v>
       </c>
       <c r="AC9" s="296"/>
-      <c r="AD9" s="615" t="s">
+      <c r="AD9" s="619" t="s">
         <v>365</v>
       </c>
-      <c r="AE9" s="612" t="s">
+      <c r="AE9" s="616" t="s">
         <v>367</v>
       </c>
       <c r="AF9" s="296"/>
-      <c r="AG9" s="615" t="s">
+      <c r="AG9" s="619" t="s">
         <v>364</v>
       </c>
-      <c r="AH9" s="630" t="s">
+      <c r="AH9" s="613" t="s">
         <v>368</v>
       </c>
-      <c r="AI9" s="630" t="s">
+      <c r="AI9" s="613" t="s">
         <v>320</v>
       </c>
-      <c r="AJ9" s="630" t="s">
+      <c r="AJ9" s="613" t="s">
         <v>321</v>
       </c>
-      <c r="AK9" s="647" t="s">
+      <c r="AK9" s="666" t="s">
         <v>369</v>
       </c>
-      <c r="AL9" s="630" t="s">
+      <c r="AL9" s="613" t="s">
         <v>370</v>
       </c>
-      <c r="AM9" s="630" t="s">
+      <c r="AM9" s="613" t="s">
         <v>342</v>
       </c>
-      <c r="AN9" s="630" t="s">
+      <c r="AN9" s="613" t="s">
         <v>343</v>
       </c>
-      <c r="AO9" s="672" t="s">
+      <c r="AO9" s="660" t="s">
         <v>330</v>
       </c>
-      <c r="AP9" s="682"/>
-      <c r="AQ9" s="676"/>
-      <c r="AR9" s="666"/>
-      <c r="AS9" s="667"/>
-      <c r="AT9" s="668"/>
-      <c r="AU9" s="679"/>
+      <c r="AP9" s="641"/>
+      <c r="AQ9" s="644"/>
+      <c r="AR9" s="654"/>
+      <c r="AS9" s="655"/>
+      <c r="AT9" s="656"/>
+      <c r="AU9" s="623"/>
     </row>
     <row r="10" spans="1:51">
-      <c r="A10" s="595"/>
-      <c r="B10" s="596"/>
-      <c r="C10" s="655"/>
-      <c r="D10" s="658"/>
-      <c r="E10" s="661"/>
-      <c r="F10" s="619"/>
-      <c r="G10" s="626"/>
+      <c r="A10" s="609"/>
+      <c r="B10" s="610"/>
+      <c r="C10" s="626"/>
+      <c r="D10" s="629"/>
+      <c r="E10" s="632"/>
+      <c r="F10" s="686"/>
+      <c r="G10" s="647"/>
       <c r="H10" s="367"/>
-      <c r="I10" s="626"/>
+      <c r="I10" s="647"/>
       <c r="J10" s="367"/>
-      <c r="K10" s="628"/>
-      <c r="L10" s="631"/>
-      <c r="M10" s="631"/>
-      <c r="N10" s="613"/>
-      <c r="O10" s="634"/>
-      <c r="P10" s="639"/>
-      <c r="Q10" s="642"/>
-      <c r="R10" s="610"/>
+      <c r="K10" s="691"/>
+      <c r="L10" s="614"/>
+      <c r="M10" s="614"/>
+      <c r="N10" s="617"/>
+      <c r="O10" s="649"/>
+      <c r="P10" s="670"/>
+      <c r="Q10" s="673"/>
+      <c r="R10" s="676"/>
       <c r="S10" s="287"/>
-      <c r="T10" s="610"/>
+      <c r="T10" s="676"/>
       <c r="U10" s="289"/>
-      <c r="V10" s="610"/>
+      <c r="V10" s="676"/>
       <c r="W10" s="287"/>
-      <c r="X10" s="610"/>
+      <c r="X10" s="676"/>
       <c r="Y10" s="287"/>
-      <c r="Z10" s="610"/>
+      <c r="Z10" s="676"/>
       <c r="AA10" s="289"/>
-      <c r="AB10" s="613"/>
+      <c r="AB10" s="617"/>
       <c r="AC10" s="343"/>
-      <c r="AD10" s="616"/>
-      <c r="AE10" s="613"/>
+      <c r="AD10" s="620"/>
+      <c r="AE10" s="617"/>
       <c r="AF10" s="343"/>
-      <c r="AG10" s="616"/>
-      <c r="AH10" s="631"/>
-      <c r="AI10" s="631"/>
-      <c r="AJ10" s="631"/>
-      <c r="AK10" s="648"/>
-      <c r="AL10" s="631"/>
-      <c r="AM10" s="631"/>
-      <c r="AN10" s="631"/>
-      <c r="AO10" s="673"/>
-      <c r="AP10" s="682"/>
-      <c r="AQ10" s="676"/>
-      <c r="AR10" s="669"/>
-      <c r="AS10" s="670"/>
-      <c r="AT10" s="671"/>
-      <c r="AU10" s="679"/>
+      <c r="AG10" s="620"/>
+      <c r="AH10" s="614"/>
+      <c r="AI10" s="614"/>
+      <c r="AJ10" s="614"/>
+      <c r="AK10" s="667"/>
+      <c r="AL10" s="614"/>
+      <c r="AM10" s="614"/>
+      <c r="AN10" s="614"/>
+      <c r="AO10" s="661"/>
+      <c r="AP10" s="641"/>
+      <c r="AQ10" s="644"/>
+      <c r="AR10" s="657"/>
+      <c r="AS10" s="658"/>
+      <c r="AT10" s="659"/>
+      <c r="AU10" s="623"/>
     </row>
     <row r="11" spans="1:51" ht="15.75">
-      <c r="A11" s="595"/>
-      <c r="B11" s="596"/>
-      <c r="C11" s="656"/>
-      <c r="D11" s="659"/>
-      <c r="E11" s="662"/>
-      <c r="F11" s="620"/>
-      <c r="G11" s="626"/>
+      <c r="A11" s="609"/>
+      <c r="B11" s="610"/>
+      <c r="C11" s="627"/>
+      <c r="D11" s="630"/>
+      <c r="E11" s="633"/>
+      <c r="F11" s="687"/>
+      <c r="G11" s="647"/>
       <c r="H11" s="367" t="s">
         <v>301</v>
       </c>
-      <c r="I11" s="626"/>
+      <c r="I11" s="647"/>
       <c r="J11" s="367" t="s">
         <v>301</v>
       </c>
-      <c r="K11" s="629"/>
-      <c r="L11" s="632"/>
-      <c r="M11" s="632"/>
-      <c r="N11" s="614"/>
-      <c r="O11" s="635"/>
-      <c r="P11" s="640"/>
-      <c r="Q11" s="643"/>
-      <c r="R11" s="611"/>
+      <c r="K11" s="692"/>
+      <c r="L11" s="615"/>
+      <c r="M11" s="615"/>
+      <c r="N11" s="618"/>
+      <c r="O11" s="650"/>
+      <c r="P11" s="671"/>
+      <c r="Q11" s="674"/>
+      <c r="R11" s="677"/>
       <c r="S11" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="T11" s="611"/>
+      <c r="T11" s="677"/>
       <c r="U11" s="289" t="s">
         <v>301</v>
       </c>
-      <c r="V11" s="611"/>
+      <c r="V11" s="677"/>
       <c r="W11" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="X11" s="611"/>
+      <c r="X11" s="677"/>
       <c r="Y11" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="Z11" s="611"/>
+      <c r="Z11" s="677"/>
       <c r="AA11" s="289" t="s">
         <v>301</v>
       </c>
-      <c r="AB11" s="614"/>
+      <c r="AB11" s="618"/>
       <c r="AC11" s="297" t="s">
         <v>301</v>
       </c>
-      <c r="AD11" s="617"/>
-      <c r="AE11" s="614"/>
+      <c r="AD11" s="621"/>
+      <c r="AE11" s="618"/>
       <c r="AF11" s="297" t="s">
         <v>301</v>
       </c>
-      <c r="AG11" s="617"/>
-      <c r="AH11" s="632"/>
-      <c r="AI11" s="632"/>
-      <c r="AJ11" s="632"/>
-      <c r="AK11" s="649"/>
-      <c r="AL11" s="632"/>
-      <c r="AM11" s="632"/>
-      <c r="AN11" s="632"/>
-      <c r="AO11" s="674"/>
-      <c r="AP11" s="683"/>
-      <c r="AQ11" s="677"/>
+      <c r="AG11" s="621"/>
+      <c r="AH11" s="615"/>
+      <c r="AI11" s="615"/>
+      <c r="AJ11" s="615"/>
+      <c r="AK11" s="668"/>
+      <c r="AL11" s="615"/>
+      <c r="AM11" s="615"/>
+      <c r="AN11" s="615"/>
+      <c r="AO11" s="662"/>
+      <c r="AP11" s="642"/>
+      <c r="AQ11" s="645"/>
       <c r="AR11" s="307" t="s">
         <v>334</v>
       </c>
@@ -13304,11 +13745,11 @@
       <c r="AT11" s="308" t="s">
         <v>336</v>
       </c>
-      <c r="AU11" s="680"/>
+      <c r="AU11" s="624"/>
     </row>
     <row r="12" spans="1:51">
-      <c r="A12" s="595"/>
-      <c r="B12" s="596"/>
+      <c r="A12" s="609"/>
+      <c r="B12" s="610"/>
       <c r="C12" s="360">
         <v>300</v>
       </c>
@@ -13479,8 +13920,8 @@
       </c>
     </row>
     <row r="13" spans="1:51">
-      <c r="A13" s="595"/>
-      <c r="B13" s="596"/>
+      <c r="A13" s="609"/>
+      <c r="B13" s="610"/>
       <c r="C13" s="360"/>
       <c r="D13" s="121"/>
       <c r="E13" s="309"/>
@@ -13528,8 +13969,8 @@
       <c r="AU13" s="306"/>
     </row>
     <row r="14" spans="1:51">
-      <c r="A14" s="595"/>
-      <c r="B14" s="596"/>
+      <c r="A14" s="609"/>
+      <c r="B14" s="610"/>
       <c r="C14" s="360"/>
       <c r="D14" s="121"/>
       <c r="E14" s="309"/>
@@ -13577,8 +14018,8 @@
       <c r="AU14" s="306"/>
     </row>
     <row r="15" spans="1:51">
-      <c r="A15" s="597"/>
-      <c r="B15" s="598"/>
+      <c r="A15" s="611"/>
+      <c r="B15" s="612"/>
       <c r="C15" s="360"/>
       <c r="D15" s="121"/>
       <c r="E15" s="309"/>
@@ -13768,6 +14209,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="AO9:AO11"/>
+    <mergeCell ref="AH9:AH11"/>
+    <mergeCell ref="AI9:AI11"/>
+    <mergeCell ref="AJ9:AJ11"/>
+    <mergeCell ref="AK9:AK11"/>
+    <mergeCell ref="AL9:AL11"/>
+    <mergeCell ref="AM9:AM11"/>
+    <mergeCell ref="R9:R11"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="A8:B15"/>
+    <mergeCell ref="AN9:AN11"/>
+    <mergeCell ref="X9:X11"/>
+    <mergeCell ref="Z9:Z11"/>
+    <mergeCell ref="AB9:AB11"/>
+    <mergeCell ref="AD9:AD11"/>
+    <mergeCell ref="AE9:AE11"/>
+    <mergeCell ref="AG9:AG11"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="Q9:Q11"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:AQ7"/>
@@ -13784,38 +14249,14 @@
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="N9:N11"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="Q9:Q11"/>
-    <mergeCell ref="R9:R11"/>
-    <mergeCell ref="T9:T11"/>
-    <mergeCell ref="V9:V11"/>
-    <mergeCell ref="A8:B15"/>
-    <mergeCell ref="AN9:AN11"/>
-    <mergeCell ref="AO9:AO11"/>
-    <mergeCell ref="AH9:AH11"/>
-    <mergeCell ref="AI9:AI11"/>
-    <mergeCell ref="AJ9:AJ11"/>
-    <mergeCell ref="AK9:AK11"/>
-    <mergeCell ref="AL9:AL11"/>
-    <mergeCell ref="AM9:AM11"/>
-    <mergeCell ref="X9:X11"/>
-    <mergeCell ref="Z9:Z11"/>
-    <mergeCell ref="AB9:AB11"/>
-    <mergeCell ref="AD9:AD11"/>
-    <mergeCell ref="AE9:AE11"/>
-    <mergeCell ref="AG9:AG11"/>
-    <mergeCell ref="O9:O11"/>
   </mergeCells>
   <conditionalFormatting sqref="M12:M18">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>N12="01"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:L18">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>N12="10"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13886,17 +14327,17 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="M2" s="696" t="s">
+      <c r="M2" s="702" t="s">
         <v>212</v>
       </c>
-      <c r="N2" s="697"/>
-      <c r="P2" s="695" t="s">
+      <c r="N2" s="703"/>
+      <c r="P2" s="701" t="s">
         <v>226</v>
       </c>
-      <c r="Q2" s="695"/>
-      <c r="R2" s="695"/>
-      <c r="S2" s="695"/>
-      <c r="T2" s="695"/>
+      <c r="Q2" s="701"/>
+      <c r="R2" s="701"/>
+      <c r="S2" s="701"/>
+      <c r="T2" s="701"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
       <c r="A3" s="222" t="s">
@@ -13917,16 +14358,16 @@
       <c r="G3" s="228" t="s">
         <v>231</v>
       </c>
-      <c r="I3" s="688" t="s">
+      <c r="I3" s="694" t="s">
         <v>124</v>
       </c>
-      <c r="J3" s="688"/>
-      <c r="K3" s="688"/>
-      <c r="P3" s="695"/>
-      <c r="Q3" s="695"/>
-      <c r="R3" s="695"/>
-      <c r="S3" s="695"/>
-      <c r="T3" s="695"/>
+      <c r="J3" s="694"/>
+      <c r="K3" s="694"/>
+      <c r="P3" s="701"/>
+      <c r="Q3" s="701"/>
+      <c r="R3" s="701"/>
+      <c r="S3" s="701"/>
+      <c r="T3" s="701"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1">
       <c r="A4" s="20" t="s">
@@ -13965,11 +14406,11 @@
         <f t="array" ref="N4">IFERROR(INDEX($K$5:$K$14,MATCH(TRUE,EXACT($I$5:$I$14,MID(M4,1,1)),0)),1)</f>
         <v>1000000000</v>
       </c>
-      <c r="P4" s="695"/>
-      <c r="Q4" s="695"/>
-      <c r="R4" s="695"/>
-      <c r="S4" s="695"/>
-      <c r="T4" s="695"/>
+      <c r="P4" s="701"/>
+      <c r="Q4" s="701"/>
+      <c r="R4" s="701"/>
+      <c r="S4" s="701"/>
+      <c r="T4" s="701"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="20" t="s">
@@ -14048,12 +14489,12 @@
         <f t="array" ref="N6">IFERROR(INDEX($K$5:$K$14,MATCH(TRUE,EXACT($I$5:$I$14,MID(M6,1,1)),0)),1)</f>
         <v>1000</v>
       </c>
-      <c r="P6" s="689" t="s">
+      <c r="P6" s="695" t="s">
         <v>123</v>
       </c>
-      <c r="Q6" s="690"/>
-      <c r="R6" s="690"/>
-      <c r="S6" s="691"/>
+      <c r="Q6" s="696"/>
+      <c r="R6" s="696"/>
+      <c r="S6" s="697"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="227" t="s">
@@ -14781,14 +15222,14 @@
         <f t="array" ref="G24">INDEX($K$16:$K$21,MATCH(TRUE,EXACT($I$16:$I$21,E24),0))/INDEX($K$16:$K$21,MATCH(TRUE,EXACT($I$16:$I$21,F24),0))</f>
         <v>9.3132257461547852E-10</v>
       </c>
-      <c r="N24" s="692" t="s">
+      <c r="N24" s="698" t="s">
         <v>241</v>
       </c>
-      <c r="O24" s="693"/>
-      <c r="P24" s="694" t="s">
+      <c r="O24" s="699"/>
+      <c r="P24" s="700" t="s">
         <v>240</v>
       </c>
-      <c r="Q24" s="694"/>
+      <c r="Q24" s="700"/>
       <c r="S24" t="s">
         <v>233</v>
       </c>

--- a/altri_doc/Analisi Dati + Modello.xlsx
+++ b/altri_doc/Analisi Dati + Modello.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6180" windowWidth="20535" windowHeight="1170" tabRatio="582" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="6180" windowWidth="20535" windowHeight="1170" tabRatio="598" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Bluetooth" sheetId="9" r:id="rId1"/>
@@ -4361,191 +4361,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4644,6 +4477,240 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4704,12 +4771,6 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4734,47 +4795,38 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4806,35 +4858,45 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4884,44 +4946,40 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4933,21 +4991,9 @@
     <xf numFmtId="0" fontId="16" fillId="21" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4972,29 +5018,218 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5002,36 +5237,6 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5044,18 +5249,6 @@
     <xf numFmtId="0" fontId="7" fillId="29" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5065,177 +5258,6 @@
     <xf numFmtId="0" fontId="7" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5268,28 +5290,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5373,9 +5373,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.10228765432098766"/>
-          <c:y val="9.8960185185185179E-2"/>
-          <c:w val="0.65944027777777781"/>
-          <c:h val="0.79225092592592594"/>
+          <c:y val="9.896018518518522E-2"/>
+          <c:w val="0.65944027777777792"/>
+          <c:h val="0.79225092592592572"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -5394,6 +5394,90 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5011377932049746E-2"/>
+                  <c:y val="-2.4988820320186029E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8626913794513539E-2"/>
+                  <c:y val="-2.7260531258384759E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.7803062071221656E-3"/>
+                  <c:y val="-4.5434218763974596E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.8352296553415527E-3"/>
+                  <c:y val="-2.0445398443788527E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.8352296553416247E-3"/>
+                  <c:y val="-2.0445398443788652E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.7803062071221656E-3"/>
+                  <c:y val="-2.2717109381987299E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.7253827589027075E-3"/>
+                  <c:y val="-1.5901976567391111E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3615689018097789E-2"/>
+                  <c:y val="-2.0445398443788568E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+            <c:showCatName val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'grafici batterie'!$O$3:$O$11</c:f>
@@ -5487,6 +5571,9 @@
               <a:prstDash val="sysDash"/>
             </a:ln>
           </c:spPr>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'grafici batterie'!$O$3:$O$11</c:f>
@@ -5575,6 +5662,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'grafici batterie'!$O$3:$O$11</c:f>
@@ -5668,6 +5758,9 @@
               <a:prstDash val="dashDot"/>
             </a:ln>
           </c:spPr>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'grafici batterie'!$O$3:$O$11</c:f>
@@ -5761,6 +5854,9 @@
               <a:prstDash val="dash"/>
             </a:ln>
           </c:spPr>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'grafici batterie'!$O$3:$O$11</c:f>
@@ -5854,6 +5950,9 @@
               <a:prstDash val="sysDot"/>
             </a:ln>
           </c:spPr>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'grafici batterie'!$O$3:$O$11</c:f>
@@ -5947,6 +6046,9 @@
               <a:prstDash val="lgDash"/>
             </a:ln>
           </c:spPr>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'grafici batterie'!$O$3:$O$11</c:f>
@@ -6040,6 +6142,9 @@
               <a:prstDash val="lgDashDot"/>
             </a:ln>
           </c:spPr>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'grafici batterie'!$O$3:$O$11</c:f>
@@ -6133,6 +6238,9 @@
               <a:prstDash val="lgDashDotDot"/>
             </a:ln>
           </c:spPr>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'grafici batterie'!$O$3:$O$11</c:f>
@@ -6224,6 +6332,9 @@
           <c:spPr>
             <a:ln w="38100" cmpd="dbl"/>
           </c:spPr>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'grafici batterie'!$O$3:$O$11</c:f>
@@ -6325,6 +6436,9 @@
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'grafici batterie'!$O$3:$O$11</c:f>
@@ -6426,6 +6540,9 @@
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'grafici batterie'!$O$3:$O$11</c:f>
@@ -6500,11 +6617,14 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="179760512"/>
-        <c:axId val="179758592"/>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:axId val="84718336"/>
+        <c:axId val="84721024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179760512"/>
+        <c:axId val="84718336"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6533,12 +6653,12 @@
         </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179758592"/>
+        <c:crossAx val="84721024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179758592"/>
+        <c:axId val="84721024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6569,7 +6689,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179760512"/>
+        <c:crossAx val="84718336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6582,7 +6702,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6617,9 +6737,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.10228765432098766"/>
-          <c:y val="9.8960185185185234E-2"/>
-          <c:w val="0.65944027777777803"/>
-          <c:h val="0.7922509259259255"/>
+          <c:y val="9.8960185185185248E-2"/>
+          <c:w val="0.65944027777777814"/>
+          <c:h val="0.79225092592592539"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -6627,6 +6747,99 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'grafici batterie'!$P$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Samsung Galaxy S5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2317901234567901E-2"/>
+                  <c:y val="-9.6485185185184973E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.4277932098765432E-2"/>
+                  <c:y val="-2.1407777777777734E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5879629629629628E-4"/>
+                  <c:y val="-1.200037037037037E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.4277777777777849E-2"/>
+                  <c:y val="-3.0815185185185185E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2317901234567901E-2"/>
+                  <c:y val="-2.3759629629629631E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5864197530864203E-4"/>
+                  <c:y val="2.1107407407407407E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6237654320987654E-2"/>
+                  <c:y val="-1.4352222222222223E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+            <c:dLblPos val="t"/>
+            <c:showCatName val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'grafici batterie'!$O$18:$O$26</c:f>
@@ -6704,6 +6917,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'grafici batterie'!$Q$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Samsung Galaxy S4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln>
               <a:prstDash val="sysDash"/>
@@ -6786,6 +7010,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'grafici batterie'!$R$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Samsung Galaxy S3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:xVal>
             <c:numRef>
               <c:f>'grafici batterie'!$O$18:$O$26</c:f>
@@ -6863,6 +7098,17 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'grafici batterie'!$S$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LG G3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln>
               <a:prstDash val="dashDot"/>
@@ -6945,6 +7191,17 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'grafici batterie'!$T$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LG G2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln>
               <a:prstDash val="dash"/>
@@ -7027,6 +7284,17 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'grafici batterie'!$U$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iPhone 6 plus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln>
               <a:prstDash val="sysDot"/>
@@ -7109,6 +7377,17 @@
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'grafici batterie'!$V$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iPhone 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln>
               <a:prstDash val="lgDash"/>
@@ -7191,6 +7470,17 @@
         <c:ser>
           <c:idx val="7"/>
           <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'grafici batterie'!$W$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iPhone 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln>
               <a:prstDash val="lgDashDot"/>
@@ -7273,6 +7563,17 @@
         <c:ser>
           <c:idx val="8"/>
           <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'grafici batterie'!$X$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Google Nexus 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:xVal>
             <c:numRef>
               <c:f>'grafici batterie'!$O$18:$O$26</c:f>
@@ -7350,6 +7651,17 @@
         <c:ser>
           <c:idx val="9"/>
           <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'grafici batterie'!$Y$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Google Nexus 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:xVal>
             <c:numRef>
               <c:f>'grafici batterie'!$O$18:$O$26</c:f>
@@ -7427,6 +7739,17 @@
         <c:ser>
           <c:idx val="10"/>
           <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'grafici batterie'!$Z$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nokia Lumia 930</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:xVal>
             <c:numRef>
               <c:f>'grafici batterie'!$O$18:$O$26</c:f>
@@ -7504,6 +7827,17 @@
         <c:ser>
           <c:idx val="11"/>
           <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'grafici batterie'!$AA$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nokia Lumia 1020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:xVal>
             <c:numRef>
               <c:f>'grafici batterie'!$O$18:$O$26</c:f>
@@ -7578,11 +7912,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="170571648"/>
-        <c:axId val="170819968"/>
+        <c:axId val="85840256"/>
+        <c:axId val="85842176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="170571648"/>
+        <c:axId val="85840256"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7611,12 +7945,12 @@
         </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170819968"/>
+        <c:crossAx val="85842176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="170819968"/>
+        <c:axId val="85842176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7642,7 +7976,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170571648"/>
+        <c:crossAx val="85840256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7655,7 +7989,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7695,6 +8029,110 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5836425283398962E-2"/>
+                  <c:y val="2.7955009415282988E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.1050784112775331E-2"/>
+                  <c:y val="-2.1387807902325272E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.5754639776950579E-3"/>
+                  <c:y val="2.1087717727262803E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.8753100116219147E-2"/>
+                  <c:y val="-1.6688491967315006E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9956794746418942E-2"/>
+                  <c:y val="3.7353641285303614E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.6793223270559147E-2"/>
+                  <c:y val="-2.1387807902325272E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.4783957528388508E-3"/>
+                  <c:y val="2.5605351447777834E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.7395070585659042E-2"/>
+                  <c:y val="-3.3136097739851052E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.1476244054975933E-2"/>
+                  <c:y val="-2.843678180484074E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+            <c:dLblPos val="t"/>
+            <c:showCatName val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>hp.2.0!$F$13:$F$24</c:f>
@@ -7786,17 +8224,20 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="96584832"/>
-        <c:axId val="96587136"/>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:axId val="88756608"/>
+        <c:axId val="88758528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96584832"/>
+        <c:axId val="88756608"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:majorGridlines/>
+        <c:minorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -7823,12 +8264,12 @@
         <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96587136"/>
-        <c:crossesAt val="1.0000000000000005E-3"/>
+        <c:crossAx val="88758528"/>
+        <c:crossesAt val="1.0000000000000007E-3"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96587136"/>
+        <c:axId val="88758528"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7856,7 +8297,7 @@
         <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96584832"/>
+        <c:crossAx val="88756608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7865,7 +8306,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7991,11 +8432,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="38578816"/>
-        <c:axId val="189347328"/>
+        <c:axId val="91621632"/>
+        <c:axId val="91636096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="38578816"/>
+        <c:axId val="91621632"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8028,12 +8469,12 @@
         <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189347328"/>
-        <c:crossesAt val="1.0000000000000009E-3"/>
+        <c:crossAx val="91636096"/>
+        <c:crossesAt val="1.0000000000000011E-3"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189347328"/>
+        <c:axId val="91636096"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8069,7 +8510,7 @@
         <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38578816"/>
+        <c:crossAx val="91621632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8078,7 +8519,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8667,27 +9108,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="23.25">
-      <c r="D1" s="437" t="s">
+      <c r="D1" s="441" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="437"/>
+      <c r="E1" s="441"/>
       <c r="F1" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="438" t="s">
+      <c r="I1" s="442" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="439"/>
-      <c r="K1" s="439"/>
-      <c r="L1" s="440"/>
-      <c r="M1" s="441" t="s">
+      <c r="J1" s="443"/>
+      <c r="K1" s="443"/>
+      <c r="L1" s="444"/>
+      <c r="M1" s="445" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="442"/>
-      <c r="O1" s="442"/>
-      <c r="P1" s="442"/>
-      <c r="Q1" s="442"/>
-      <c r="R1" s="442"/>
+      <c r="N1" s="446"/>
+      <c r="O1" s="446"/>
+      <c r="P1" s="446"/>
+      <c r="Q1" s="446"/>
+      <c r="R1" s="446"/>
     </row>
     <row r="2" spans="2:18" ht="15.75">
       <c r="D2" s="21" t="s">
@@ -8696,7 +9137,7 @@
       <c r="E2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="443" t="s">
+      <c r="F2" s="447" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="25"/>
@@ -8712,27 +9153,27 @@
       <c r="L2" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="446" t="s">
+      <c r="M2" s="450" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="447"/>
-      <c r="O2" s="447"/>
-      <c r="P2" s="447"/>
-      <c r="Q2" s="447"/>
-      <c r="R2" s="448"/>
+      <c r="N2" s="451"/>
+      <c r="O2" s="451"/>
+      <c r="P2" s="451"/>
+      <c r="Q2" s="451"/>
+      <c r="R2" s="452"/>
     </row>
     <row r="3" spans="2:18">
-      <c r="B3" s="421" t="s">
+      <c r="B3" s="467" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="422"/>
+      <c r="C3" s="468"/>
       <c r="D3" s="42">
         <v>100</v>
       </c>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="444"/>
+      <c r="F3" s="448"/>
       <c r="H3" s="25"/>
       <c r="I3" s="46" t="s">
         <v>48</v>
@@ -8746,25 +9187,25 @@
       <c r="L3" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="449"/>
-      <c r="N3" s="450"/>
-      <c r="O3" s="450"/>
-      <c r="P3" s="450"/>
-      <c r="Q3" s="450"/>
-      <c r="R3" s="451"/>
+      <c r="M3" s="453"/>
+      <c r="N3" s="454"/>
+      <c r="O3" s="454"/>
+      <c r="P3" s="454"/>
+      <c r="Q3" s="454"/>
+      <c r="R3" s="455"/>
     </row>
     <row r="4" spans="2:18">
-      <c r="B4" s="423" t="s">
+      <c r="B4" s="469" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="424"/>
-      <c r="D4" s="435" t="s">
+      <c r="C4" s="470"/>
+      <c r="D4" s="482" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="427">
+      <c r="E4" s="473">
         <v>1</v>
       </c>
-      <c r="F4" s="444"/>
+      <c r="F4" s="448"/>
       <c r="H4" s="25"/>
       <c r="I4" s="44" t="s">
         <v>49</v>
@@ -8786,11 +9227,11 @@
       <c r="R4" s="54"/>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="425"/>
-      <c r="C5" s="426"/>
-      <c r="D5" s="436"/>
-      <c r="E5" s="428"/>
-      <c r="F5" s="444"/>
+      <c r="B5" s="471"/>
+      <c r="C5" s="472"/>
+      <c r="D5" s="483"/>
+      <c r="E5" s="474"/>
+      <c r="F5" s="448"/>
       <c r="H5" s="25"/>
       <c r="I5" s="46" t="s">
         <v>50</v>
@@ -8805,26 +9246,26 @@
       <c r="M5" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N5" s="411" t="s">
+      <c r="N5" s="475" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="429"/>
-      <c r="P5" s="429"/>
-      <c r="Q5" s="429"/>
-      <c r="R5" s="430"/>
+      <c r="O5" s="476"/>
+      <c r="P5" s="476"/>
+      <c r="Q5" s="476"/>
+      <c r="R5" s="477"/>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="431" t="s">
+      <c r="B6" s="478" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="432"/>
-      <c r="D6" s="407" t="s">
+      <c r="C6" s="479"/>
+      <c r="D6" s="456" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="409" t="s">
+      <c r="E6" s="492" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="444"/>
+      <c r="F6" s="448"/>
       <c r="H6" s="25"/>
       <c r="I6" s="45" t="s">
         <v>52</v>
@@ -8841,20 +9282,20 @@
       <c r="M6" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="411" t="s">
+      <c r="N6" s="475" t="s">
         <v>69</v>
       </c>
-      <c r="O6" s="411"/>
-      <c r="P6" s="411"/>
-      <c r="Q6" s="411"/>
-      <c r="R6" s="412"/>
+      <c r="O6" s="475"/>
+      <c r="P6" s="475"/>
+      <c r="Q6" s="475"/>
+      <c r="R6" s="494"/>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="433"/>
-      <c r="C7" s="434"/>
-      <c r="D7" s="408"/>
-      <c r="E7" s="410"/>
-      <c r="F7" s="444"/>
+      <c r="B7" s="480"/>
+      <c r="C7" s="481"/>
+      <c r="D7" s="458"/>
+      <c r="E7" s="493"/>
+      <c r="F7" s="448"/>
       <c r="H7" s="25"/>
       <c r="I7" s="46" t="s">
         <v>51</v>
@@ -8871,26 +9312,26 @@
       <c r="M7" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="413" t="s">
+      <c r="N7" s="495" t="s">
         <v>66</v>
       </c>
-      <c r="O7" s="413"/>
-      <c r="P7" s="413"/>
-      <c r="Q7" s="413"/>
-      <c r="R7" s="414"/>
+      <c r="O7" s="495"/>
+      <c r="P7" s="495"/>
+      <c r="Q7" s="495"/>
+      <c r="R7" s="496"/>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="399" t="s">
+      <c r="B8" s="484" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="400"/>
+      <c r="C8" s="485"/>
       <c r="D8" s="68">
         <v>100</v>
       </c>
       <c r="E8" s="68">
         <v>6</v>
       </c>
-      <c r="F8" s="444"/>
+      <c r="F8" s="448"/>
       <c r="H8" s="25"/>
       <c r="I8" s="55" t="s">
         <v>111</v>
@@ -8906,120 +9347,120 @@
       </c>
     </row>
     <row r="9" spans="2:18">
-      <c r="B9" s="401" t="s">
+      <c r="B9" s="486" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="402"/>
-      <c r="D9" s="407">
+      <c r="C9" s="487"/>
+      <c r="D9" s="456">
         <v>100</v>
       </c>
-      <c r="E9" s="407">
+      <c r="E9" s="456">
         <v>3</v>
       </c>
-      <c r="F9" s="444"/>
+      <c r="F9" s="448"/>
       <c r="H9" s="25"/>
       <c r="J9" s="132"/>
       <c r="K9" s="320"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="403"/>
-      <c r="C10" s="404"/>
-      <c r="D10" s="452"/>
-      <c r="E10" s="452"/>
-      <c r="F10" s="444"/>
+      <c r="B10" s="488"/>
+      <c r="C10" s="489"/>
+      <c r="D10" s="457"/>
+      <c r="E10" s="457"/>
+      <c r="F10" s="448"/>
       <c r="H10" s="25"/>
       <c r="J10" s="132"/>
       <c r="K10" s="320"/>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="405"/>
-      <c r="C11" s="406"/>
-      <c r="D11" s="408"/>
-      <c r="E11" s="408"/>
-      <c r="F11" s="444"/>
+      <c r="B11" s="490"/>
+      <c r="C11" s="491"/>
+      <c r="D11" s="458"/>
+      <c r="E11" s="458"/>
+      <c r="F11" s="448"/>
       <c r="H11" s="25"/>
       <c r="J11" s="132"/>
       <c r="K11" s="320"/>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="415" t="s">
+      <c r="B12" s="497" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="416"/>
+      <c r="C12" s="498"/>
       <c r="D12" s="68">
         <v>1</v>
       </c>
       <c r="E12" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="444"/>
+      <c r="F12" s="448"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="453" t="s">
+      <c r="I12" s="459" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="455" t="s">
+      <c r="J12" s="461" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="457">
+      <c r="K12" s="463">
         <v>15</v>
       </c>
-      <c r="L12" s="459" t="s">
+      <c r="L12" s="465" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="417" t="s">
+      <c r="B13" s="499" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="418"/>
-      <c r="D13" s="407" t="s">
+      <c r="C13" s="500"/>
+      <c r="D13" s="456" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="407" t="s">
+      <c r="E13" s="456" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="444"/>
+      <c r="F13" s="448"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="454"/>
-      <c r="J13" s="456"/>
-      <c r="K13" s="458"/>
-      <c r="L13" s="460"/>
+      <c r="I13" s="460"/>
+      <c r="J13" s="462"/>
+      <c r="K13" s="464"/>
+      <c r="L13" s="466"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="419"/>
-      <c r="C14" s="420"/>
-      <c r="D14" s="408"/>
-      <c r="E14" s="408"/>
-      <c r="F14" s="444"/>
+      <c r="B14" s="501"/>
+      <c r="C14" s="502"/>
+      <c r="D14" s="458"/>
+      <c r="E14" s="458"/>
+      <c r="F14" s="448"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="464" t="s">
+      <c r="B15" s="409" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="465"/>
+      <c r="C15" s="410"/>
       <c r="D15" s="69" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="70"/>
-      <c r="F15" s="444"/>
+      <c r="F15" s="448"/>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="466"/>
-      <c r="C16" s="467"/>
+      <c r="B16" s="411"/>
+      <c r="C16" s="412"/>
       <c r="D16" s="71" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="72"/>
-      <c r="F16" s="444"/>
+      <c r="F16" s="448"/>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="466"/>
-      <c r="C17" s="467"/>
+      <c r="B17" s="411"/>
+      <c r="C17" s="412"/>
       <c r="D17" s="71" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="72"/>
-      <c r="F17" s="444"/>
+      <c r="F17" s="448"/>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
@@ -9028,13 +9469,13 @@
       <c r="O17" s="27"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="466"/>
-      <c r="C18" s="467"/>
+      <c r="B18" s="411"/>
+      <c r="C18" s="412"/>
       <c r="D18" s="71" t="s">
         <v>36</v>
       </c>
       <c r="E18" s="72"/>
-      <c r="F18" s="444"/>
+      <c r="F18" s="448"/>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
@@ -9043,177 +9484,177 @@
       <c r="O18" s="27"/>
     </row>
     <row r="19" spans="2:21">
-      <c r="B19" s="468"/>
-      <c r="C19" s="469"/>
+      <c r="B19" s="413"/>
+      <c r="C19" s="414"/>
       <c r="D19" s="73" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="74"/>
-      <c r="F19" s="445"/>
+      <c r="F19" s="449"/>
     </row>
     <row r="22" spans="2:21" ht="18.75">
-      <c r="F22" s="474" t="s">
+      <c r="F22" s="419" t="s">
         <v>351</v>
       </c>
-      <c r="G22" s="475"/>
-      <c r="H22" s="475"/>
-      <c r="I22" s="475"/>
-      <c r="J22" s="475"/>
-      <c r="K22" s="475"/>
-      <c r="L22" s="475"/>
-      <c r="M22" s="475"/>
-      <c r="N22" s="476"/>
+      <c r="G22" s="420"/>
+      <c r="H22" s="420"/>
+      <c r="I22" s="420"/>
+      <c r="J22" s="420"/>
+      <c r="K22" s="420"/>
+      <c r="L22" s="420"/>
+      <c r="M22" s="420"/>
+      <c r="N22" s="421"/>
     </row>
     <row r="24" spans="2:21">
-      <c r="B24" s="480" t="s">
+      <c r="B24" s="425" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="481"/>
-      <c r="D24" s="481"/>
-      <c r="E24" s="481"/>
-      <c r="F24" s="481"/>
-      <c r="G24" s="481"/>
-      <c r="H24" s="481"/>
-      <c r="I24" s="481"/>
-      <c r="J24" s="482"/>
-      <c r="L24" s="480" t="s">
+      <c r="C24" s="426"/>
+      <c r="D24" s="426"/>
+      <c r="E24" s="426"/>
+      <c r="F24" s="426"/>
+      <c r="G24" s="426"/>
+      <c r="H24" s="426"/>
+      <c r="I24" s="426"/>
+      <c r="J24" s="427"/>
+      <c r="L24" s="425" t="s">
         <v>45</v>
       </c>
-      <c r="M24" s="481"/>
-      <c r="N24" s="481"/>
-      <c r="O24" s="481"/>
-      <c r="P24" s="481"/>
-      <c r="Q24" s="481"/>
-      <c r="R24" s="481"/>
-      <c r="S24" s="481"/>
-      <c r="T24" s="481"/>
-      <c r="U24" s="482"/>
+      <c r="M24" s="426"/>
+      <c r="N24" s="426"/>
+      <c r="O24" s="426"/>
+      <c r="P24" s="426"/>
+      <c r="Q24" s="426"/>
+      <c r="R24" s="426"/>
+      <c r="S24" s="426"/>
+      <c r="T24" s="426"/>
+      <c r="U24" s="427"/>
     </row>
     <row r="25" spans="2:21">
-      <c r="B25" s="483"/>
-      <c r="C25" s="484"/>
-      <c r="D25" s="484"/>
-      <c r="E25" s="484"/>
-      <c r="F25" s="484"/>
-      <c r="G25" s="484"/>
-      <c r="H25" s="484"/>
-      <c r="I25" s="484"/>
-      <c r="J25" s="485"/>
-      <c r="L25" s="483"/>
-      <c r="M25" s="484"/>
-      <c r="N25" s="484"/>
-      <c r="O25" s="484"/>
-      <c r="P25" s="484"/>
-      <c r="Q25" s="484"/>
-      <c r="R25" s="484"/>
-      <c r="S25" s="484"/>
-      <c r="T25" s="484"/>
-      <c r="U25" s="485"/>
+      <c r="B25" s="428"/>
+      <c r="C25" s="429"/>
+      <c r="D25" s="429"/>
+      <c r="E25" s="429"/>
+      <c r="F25" s="429"/>
+      <c r="G25" s="429"/>
+      <c r="H25" s="429"/>
+      <c r="I25" s="429"/>
+      <c r="J25" s="430"/>
+      <c r="L25" s="428"/>
+      <c r="M25" s="429"/>
+      <c r="N25" s="429"/>
+      <c r="O25" s="429"/>
+      <c r="P25" s="429"/>
+      <c r="Q25" s="429"/>
+      <c r="R25" s="429"/>
+      <c r="S25" s="429"/>
+      <c r="T25" s="429"/>
+      <c r="U25" s="430"/>
     </row>
     <row r="26" spans="2:21">
-      <c r="B26" s="483"/>
-      <c r="C26" s="484"/>
-      <c r="D26" s="484"/>
-      <c r="E26" s="484"/>
-      <c r="F26" s="484"/>
-      <c r="G26" s="484"/>
-      <c r="H26" s="484"/>
-      <c r="I26" s="484"/>
-      <c r="J26" s="485"/>
-      <c r="L26" s="483"/>
-      <c r="M26" s="484"/>
-      <c r="N26" s="484"/>
-      <c r="O26" s="484"/>
-      <c r="P26" s="484"/>
-      <c r="Q26" s="484"/>
-      <c r="R26" s="484"/>
-      <c r="S26" s="484"/>
-      <c r="T26" s="484"/>
-      <c r="U26" s="485"/>
+      <c r="B26" s="428"/>
+      <c r="C26" s="429"/>
+      <c r="D26" s="429"/>
+      <c r="E26" s="429"/>
+      <c r="F26" s="429"/>
+      <c r="G26" s="429"/>
+      <c r="H26" s="429"/>
+      <c r="I26" s="429"/>
+      <c r="J26" s="430"/>
+      <c r="L26" s="428"/>
+      <c r="M26" s="429"/>
+      <c r="N26" s="429"/>
+      <c r="O26" s="429"/>
+      <c r="P26" s="429"/>
+      <c r="Q26" s="429"/>
+      <c r="R26" s="429"/>
+      <c r="S26" s="429"/>
+      <c r="T26" s="429"/>
+      <c r="U26" s="430"/>
     </row>
     <row r="27" spans="2:21">
-      <c r="B27" s="483"/>
-      <c r="C27" s="484"/>
-      <c r="D27" s="484"/>
-      <c r="E27" s="484"/>
-      <c r="F27" s="484"/>
-      <c r="G27" s="484"/>
-      <c r="H27" s="484"/>
-      <c r="I27" s="484"/>
-      <c r="J27" s="485"/>
-      <c r="L27" s="483"/>
-      <c r="M27" s="484"/>
-      <c r="N27" s="484"/>
-      <c r="O27" s="484"/>
-      <c r="P27" s="484"/>
-      <c r="Q27" s="484"/>
-      <c r="R27" s="484"/>
-      <c r="S27" s="484"/>
-      <c r="T27" s="484"/>
-      <c r="U27" s="485"/>
+      <c r="B27" s="428"/>
+      <c r="C27" s="429"/>
+      <c r="D27" s="429"/>
+      <c r="E27" s="429"/>
+      <c r="F27" s="429"/>
+      <c r="G27" s="429"/>
+      <c r="H27" s="429"/>
+      <c r="I27" s="429"/>
+      <c r="J27" s="430"/>
+      <c r="L27" s="428"/>
+      <c r="M27" s="429"/>
+      <c r="N27" s="429"/>
+      <c r="O27" s="429"/>
+      <c r="P27" s="429"/>
+      <c r="Q27" s="429"/>
+      <c r="R27" s="429"/>
+      <c r="S27" s="429"/>
+      <c r="T27" s="429"/>
+      <c r="U27" s="430"/>
     </row>
     <row r="28" spans="2:21">
-      <c r="B28" s="483"/>
-      <c r="C28" s="484"/>
-      <c r="D28" s="484"/>
-      <c r="E28" s="484"/>
-      <c r="F28" s="484"/>
-      <c r="G28" s="484"/>
-      <c r="H28" s="484"/>
-      <c r="I28" s="484"/>
-      <c r="J28" s="485"/>
-      <c r="L28" s="483"/>
-      <c r="M28" s="484"/>
-      <c r="N28" s="484"/>
-      <c r="O28" s="484"/>
-      <c r="P28" s="484"/>
-      <c r="Q28" s="484"/>
-      <c r="R28" s="484"/>
-      <c r="S28" s="484"/>
-      <c r="T28" s="484"/>
-      <c r="U28" s="485"/>
+      <c r="B28" s="428"/>
+      <c r="C28" s="429"/>
+      <c r="D28" s="429"/>
+      <c r="E28" s="429"/>
+      <c r="F28" s="429"/>
+      <c r="G28" s="429"/>
+      <c r="H28" s="429"/>
+      <c r="I28" s="429"/>
+      <c r="J28" s="430"/>
+      <c r="L28" s="428"/>
+      <c r="M28" s="429"/>
+      <c r="N28" s="429"/>
+      <c r="O28" s="429"/>
+      <c r="P28" s="429"/>
+      <c r="Q28" s="429"/>
+      <c r="R28" s="429"/>
+      <c r="S28" s="429"/>
+      <c r="T28" s="429"/>
+      <c r="U28" s="430"/>
     </row>
     <row r="29" spans="2:21">
-      <c r="B29" s="483"/>
-      <c r="C29" s="484"/>
-      <c r="D29" s="484"/>
-      <c r="E29" s="484"/>
-      <c r="F29" s="484"/>
-      <c r="G29" s="484"/>
-      <c r="H29" s="484"/>
-      <c r="I29" s="484"/>
-      <c r="J29" s="485"/>
-      <c r="L29" s="483"/>
-      <c r="M29" s="484"/>
-      <c r="N29" s="484"/>
-      <c r="O29" s="484"/>
-      <c r="P29" s="484"/>
-      <c r="Q29" s="484"/>
-      <c r="R29" s="484"/>
-      <c r="S29" s="484"/>
-      <c r="T29" s="484"/>
-      <c r="U29" s="485"/>
+      <c r="B29" s="428"/>
+      <c r="C29" s="429"/>
+      <c r="D29" s="429"/>
+      <c r="E29" s="429"/>
+      <c r="F29" s="429"/>
+      <c r="G29" s="429"/>
+      <c r="H29" s="429"/>
+      <c r="I29" s="429"/>
+      <c r="J29" s="430"/>
+      <c r="L29" s="428"/>
+      <c r="M29" s="429"/>
+      <c r="N29" s="429"/>
+      <c r="O29" s="429"/>
+      <c r="P29" s="429"/>
+      <c r="Q29" s="429"/>
+      <c r="R29" s="429"/>
+      <c r="S29" s="429"/>
+      <c r="T29" s="429"/>
+      <c r="U29" s="430"/>
     </row>
     <row r="30" spans="2:21">
-      <c r="B30" s="483"/>
-      <c r="C30" s="484"/>
-      <c r="D30" s="484"/>
-      <c r="E30" s="484"/>
-      <c r="F30" s="484"/>
-      <c r="G30" s="484"/>
-      <c r="H30" s="484"/>
-      <c r="I30" s="484"/>
-      <c r="J30" s="485"/>
-      <c r="L30" s="483"/>
-      <c r="M30" s="484"/>
-      <c r="N30" s="484"/>
-      <c r="O30" s="484"/>
-      <c r="P30" s="484"/>
-      <c r="Q30" s="484"/>
-      <c r="R30" s="484"/>
-      <c r="S30" s="484"/>
-      <c r="T30" s="484"/>
-      <c r="U30" s="485"/>
+      <c r="B30" s="428"/>
+      <c r="C30" s="429"/>
+      <c r="D30" s="429"/>
+      <c r="E30" s="429"/>
+      <c r="F30" s="429"/>
+      <c r="G30" s="429"/>
+      <c r="H30" s="429"/>
+      <c r="I30" s="429"/>
+      <c r="J30" s="430"/>
+      <c r="L30" s="428"/>
+      <c r="M30" s="429"/>
+      <c r="N30" s="429"/>
+      <c r="O30" s="429"/>
+      <c r="P30" s="429"/>
+      <c r="Q30" s="429"/>
+      <c r="R30" s="429"/>
+      <c r="S30" s="429"/>
+      <c r="T30" s="429"/>
+      <c r="U30" s="430"/>
     </row>
     <row r="31" spans="2:21">
       <c r="B31" s="29"/>
@@ -9229,108 +9670,108 @@
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
       <c r="J31" s="33"/>
-      <c r="L31" s="483"/>
-      <c r="M31" s="484"/>
-      <c r="N31" s="484"/>
-      <c r="O31" s="484"/>
-      <c r="P31" s="484"/>
-      <c r="Q31" s="484"/>
-      <c r="R31" s="484"/>
-      <c r="S31" s="484"/>
-      <c r="T31" s="484"/>
-      <c r="U31" s="485"/>
+      <c r="L31" s="428"/>
+      <c r="M31" s="429"/>
+      <c r="N31" s="429"/>
+      <c r="O31" s="429"/>
+      <c r="P31" s="429"/>
+      <c r="Q31" s="429"/>
+      <c r="R31" s="429"/>
+      <c r="S31" s="429"/>
+      <c r="T31" s="429"/>
+      <c r="U31" s="430"/>
     </row>
     <row r="32" spans="2:21">
       <c r="B32" s="34"/>
       <c r="C32" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="489" t="s">
+      <c r="D32" s="434" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="489"/>
-      <c r="F32" s="489"/>
-      <c r="G32" s="489"/>
-      <c r="H32" s="489"/>
-      <c r="I32" s="489"/>
-      <c r="J32" s="490"/>
-      <c r="L32" s="483"/>
-      <c r="M32" s="484"/>
-      <c r="N32" s="484"/>
-      <c r="O32" s="484"/>
-      <c r="P32" s="484"/>
-      <c r="Q32" s="484"/>
-      <c r="R32" s="484"/>
-      <c r="S32" s="484"/>
-      <c r="T32" s="484"/>
-      <c r="U32" s="485"/>
+      <c r="E32" s="434"/>
+      <c r="F32" s="434"/>
+      <c r="G32" s="434"/>
+      <c r="H32" s="434"/>
+      <c r="I32" s="434"/>
+      <c r="J32" s="435"/>
+      <c r="L32" s="428"/>
+      <c r="M32" s="429"/>
+      <c r="N32" s="429"/>
+      <c r="O32" s="429"/>
+      <c r="P32" s="429"/>
+      <c r="Q32" s="429"/>
+      <c r="R32" s="429"/>
+      <c r="S32" s="429"/>
+      <c r="T32" s="429"/>
+      <c r="U32" s="430"/>
     </row>
     <row r="33" spans="2:21">
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
-      <c r="D33" s="489"/>
-      <c r="E33" s="489"/>
-      <c r="F33" s="489"/>
-      <c r="G33" s="489"/>
-      <c r="H33" s="489"/>
-      <c r="I33" s="489"/>
-      <c r="J33" s="490"/>
-      <c r="L33" s="483"/>
-      <c r="M33" s="484"/>
-      <c r="N33" s="484"/>
-      <c r="O33" s="484"/>
-      <c r="P33" s="484"/>
-      <c r="Q33" s="484"/>
-      <c r="R33" s="484"/>
-      <c r="S33" s="484"/>
-      <c r="T33" s="484"/>
-      <c r="U33" s="485"/>
+      <c r="D33" s="434"/>
+      <c r="E33" s="434"/>
+      <c r="F33" s="434"/>
+      <c r="G33" s="434"/>
+      <c r="H33" s="434"/>
+      <c r="I33" s="434"/>
+      <c r="J33" s="435"/>
+      <c r="L33" s="428"/>
+      <c r="M33" s="429"/>
+      <c r="N33" s="429"/>
+      <c r="O33" s="429"/>
+      <c r="P33" s="429"/>
+      <c r="Q33" s="429"/>
+      <c r="R33" s="429"/>
+      <c r="S33" s="429"/>
+      <c r="T33" s="429"/>
+      <c r="U33" s="430"/>
     </row>
     <row r="34" spans="2:21">
       <c r="B34" s="37"/>
       <c r="C34" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="491" t="s">
+      <c r="D34" s="436" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="492"/>
-      <c r="F34" s="492"/>
-      <c r="G34" s="492"/>
-      <c r="H34" s="492"/>
-      <c r="I34" s="492"/>
-      <c r="J34" s="493"/>
-      <c r="L34" s="483"/>
-      <c r="M34" s="484"/>
-      <c r="N34" s="484"/>
-      <c r="O34" s="484"/>
-      <c r="P34" s="484"/>
-      <c r="Q34" s="484"/>
-      <c r="R34" s="484"/>
-      <c r="S34" s="484"/>
-      <c r="T34" s="484"/>
-      <c r="U34" s="485"/>
+      <c r="E34" s="437"/>
+      <c r="F34" s="437"/>
+      <c r="G34" s="437"/>
+      <c r="H34" s="437"/>
+      <c r="I34" s="437"/>
+      <c r="J34" s="438"/>
+      <c r="L34" s="428"/>
+      <c r="M34" s="429"/>
+      <c r="N34" s="429"/>
+      <c r="O34" s="429"/>
+      <c r="P34" s="429"/>
+      <c r="Q34" s="429"/>
+      <c r="R34" s="429"/>
+      <c r="S34" s="429"/>
+      <c r="T34" s="429"/>
+      <c r="U34" s="430"/>
     </row>
     <row r="35" spans="2:21">
       <c r="B35" s="39"/>
       <c r="C35" s="40"/>
-      <c r="D35" s="494"/>
-      <c r="E35" s="494"/>
-      <c r="F35" s="494"/>
-      <c r="G35" s="494"/>
-      <c r="H35" s="494"/>
-      <c r="I35" s="494"/>
-      <c r="J35" s="495"/>
-      <c r="L35" s="486"/>
-      <c r="M35" s="487"/>
-      <c r="N35" s="487"/>
-      <c r="O35" s="487"/>
-      <c r="P35" s="487"/>
-      <c r="Q35" s="487"/>
-      <c r="R35" s="487"/>
-      <c r="S35" s="487"/>
-      <c r="T35" s="487"/>
-      <c r="U35" s="488"/>
+      <c r="D35" s="439"/>
+      <c r="E35" s="439"/>
+      <c r="F35" s="439"/>
+      <c r="G35" s="439"/>
+      <c r="H35" s="439"/>
+      <c r="I35" s="439"/>
+      <c r="J35" s="440"/>
+      <c r="L35" s="431"/>
+      <c r="M35" s="432"/>
+      <c r="N35" s="432"/>
+      <c r="O35" s="432"/>
+      <c r="P35" s="432"/>
+      <c r="Q35" s="432"/>
+      <c r="R35" s="432"/>
+      <c r="S35" s="432"/>
+      <c r="T35" s="432"/>
+      <c r="U35" s="433"/>
     </row>
     <row r="36" spans="2:21">
       <c r="B36" s="28"/>
@@ -9346,13 +9787,13 @@
       <c r="C37" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="470" t="s">
+      <c r="D37" s="415" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="470"/>
-      <c r="F37" s="470"/>
-      <c r="G37" s="470"/>
-      <c r="H37" s="471"/>
+      <c r="E37" s="415"/>
+      <c r="F37" s="415"/>
+      <c r="G37" s="415"/>
+      <c r="H37" s="416"/>
       <c r="M37" s="27"/>
       <c r="N37" s="27"/>
       <c r="O37" s="27"/>
@@ -9406,16 +9847,16 @@
       <c r="F41" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="L41" s="461" t="s">
+      <c r="L41" s="406" t="s">
         <v>104</v>
       </c>
-      <c r="M41" s="462"/>
-      <c r="N41" s="463"/>
-      <c r="O41" s="461" t="s">
+      <c r="M41" s="407"/>
+      <c r="N41" s="408"/>
+      <c r="O41" s="406" t="s">
         <v>105</v>
       </c>
-      <c r="P41" s="462"/>
-      <c r="Q41" s="463"/>
+      <c r="P41" s="407"/>
+      <c r="Q41" s="408"/>
       <c r="R41" s="76" t="s">
         <v>92</v>
       </c>
@@ -9433,16 +9874,16 @@
       <c r="F42" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="L42" s="477" t="s">
+      <c r="L42" s="422" t="s">
         <v>107</v>
       </c>
-      <c r="M42" s="478"/>
-      <c r="N42" s="479"/>
-      <c r="O42" s="477" t="s">
+      <c r="M42" s="423"/>
+      <c r="N42" s="424"/>
+      <c r="O42" s="422" t="s">
         <v>106</v>
       </c>
-      <c r="P42" s="478"/>
-      <c r="Q42" s="479"/>
+      <c r="P42" s="423"/>
+      <c r="Q42" s="424"/>
       <c r="R42" s="26" t="s">
         <v>108</v>
       </c>
@@ -9467,13 +9908,13 @@
       <c r="M44" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="N44" s="472" t="s">
+      <c r="N44" s="417" t="s">
         <v>109</v>
       </c>
-      <c r="O44" s="472"/>
-      <c r="P44" s="472"/>
-      <c r="Q44" s="472"/>
-      <c r="R44" s="473"/>
+      <c r="O44" s="417"/>
+      <c r="P44" s="417"/>
+      <c r="Q44" s="417"/>
+      <c r="R44" s="418"/>
       <c r="S44" s="330"/>
       <c r="T44" s="330"/>
     </row>
@@ -9481,18 +9922,45 @@
       <c r="C45" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="470" t="s">
+      <c r="D45" s="415" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="470"/>
-      <c r="F45" s="470"/>
-      <c r="G45" s="471"/>
+      <c r="E45" s="415"/>
+      <c r="F45" s="415"/>
+      <c r="G45" s="416"/>
     </row>
     <row r="47" spans="2:21">
       <c r="G47" s="328"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="F2:F19"/>
+    <mergeCell ref="M2:R3"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
     <mergeCell ref="O41:Q41"/>
     <mergeCell ref="B15:C19"/>
     <mergeCell ref="D45:G45"/>
@@ -9506,33 +9974,6 @@
     <mergeCell ref="L24:U35"/>
     <mergeCell ref="D32:J33"/>
     <mergeCell ref="D34:J35"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="F2:F19"/>
-    <mergeCell ref="M2:R3"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N5" r:id="rId1"/>
@@ -9555,8 +9996,8 @@
   <sheetPr codeName="Foglio1"/>
   <dimension ref="A1:AU31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3:AC3"/>
+    <sheetView topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AN31" sqref="AN31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9580,197 +10021,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="21">
-      <c r="A1" s="499" t="s">
+      <c r="A1" s="522" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="502" t="s">
+      <c r="B1" s="525" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="505" t="s">
+      <c r="C1" s="528" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="506"/>
-      <c r="E1" s="506"/>
-      <c r="F1" s="506"/>
-      <c r="G1" s="506"/>
-      <c r="H1" s="507"/>
-      <c r="I1" s="513" t="s">
+      <c r="D1" s="529"/>
+      <c r="E1" s="529"/>
+      <c r="F1" s="529"/>
+      <c r="G1" s="529"/>
+      <c r="H1" s="530"/>
+      <c r="I1" s="536" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="514"/>
-      <c r="K1" s="514"/>
-      <c r="L1" s="514"/>
-      <c r="M1" s="514"/>
-      <c r="N1" s="515"/>
-      <c r="R1" s="534" t="s">
+      <c r="J1" s="537"/>
+      <c r="K1" s="537"/>
+      <c r="L1" s="537"/>
+      <c r="M1" s="537"/>
+      <c r="N1" s="538"/>
+      <c r="R1" s="511" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="535"/>
-      <c r="T1" s="535"/>
-      <c r="U1" s="535"/>
-      <c r="V1" s="535"/>
-      <c r="W1" s="535"/>
-      <c r="X1" s="535"/>
-      <c r="Y1" s="535"/>
-      <c r="Z1" s="535"/>
-      <c r="AA1" s="535"/>
-      <c r="AB1" s="535"/>
-      <c r="AC1" s="536"/>
+      <c r="S1" s="512"/>
+      <c r="T1" s="512"/>
+      <c r="U1" s="512"/>
+      <c r="V1" s="512"/>
+      <c r="W1" s="512"/>
+      <c r="X1" s="512"/>
+      <c r="Y1" s="512"/>
+      <c r="Z1" s="512"/>
+      <c r="AA1" s="512"/>
+      <c r="AB1" s="512"/>
+      <c r="AC1" s="513"/>
     </row>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="500"/>
-      <c r="B2" s="503"/>
-      <c r="C2" s="516" t="s">
+      <c r="A2" s="523"/>
+      <c r="B2" s="526"/>
+      <c r="C2" s="514" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="516" t="s">
+      <c r="D2" s="514" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="516" t="s">
+      <c r="E2" s="514" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="523" t="s">
+      <c r="F2" s="544" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="524"/>
-      <c r="H2" s="525"/>
-      <c r="I2" s="518" t="s">
+      <c r="G2" s="545"/>
+      <c r="H2" s="546"/>
+      <c r="I2" s="539" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="508" t="s">
+      <c r="J2" s="531" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="509"/>
-      <c r="L2" s="510"/>
-      <c r="M2" s="511" t="s">
+      <c r="K2" s="532"/>
+      <c r="L2" s="533"/>
+      <c r="M2" s="534" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="512"/>
-      <c r="R2" s="531" t="str">
+      <c r="N2" s="535"/>
+      <c r="R2" s="508" t="str">
         <f>'hp. 1.0'!A6</f>
         <v>Hp. 1.1) 1tx/min</v>
       </c>
-      <c r="S2" s="532"/>
-      <c r="T2" s="533"/>
-      <c r="U2" s="528" t="s">
+      <c r="S2" s="509"/>
+      <c r="T2" s="510"/>
+      <c r="U2" s="503" t="s">
         <v>352</v>
       </c>
-      <c r="V2" s="529"/>
-      <c r="W2" s="529"/>
-      <c r="X2" s="529"/>
-      <c r="Y2" s="529"/>
-      <c r="Z2" s="529"/>
-      <c r="AA2" s="529"/>
-      <c r="AB2" s="529"/>
-      <c r="AC2" s="530"/>
+      <c r="V2" s="504"/>
+      <c r="W2" s="504"/>
+      <c r="X2" s="504"/>
+      <c r="Y2" s="504"/>
+      <c r="Z2" s="504"/>
+      <c r="AA2" s="504"/>
+      <c r="AB2" s="504"/>
+      <c r="AC2" s="505"/>
     </row>
     <row r="3" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A3" s="500"/>
-      <c r="B3" s="503"/>
-      <c r="C3" s="537"/>
-      <c r="D3" s="537"/>
-      <c r="E3" s="537"/>
-      <c r="F3" s="516" t="s">
+      <c r="A3" s="523"/>
+      <c r="B3" s="526"/>
+      <c r="C3" s="515"/>
+      <c r="D3" s="515"/>
+      <c r="E3" s="515"/>
+      <c r="F3" s="514" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="516" t="s">
+      <c r="G3" s="514" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="516" t="s">
+      <c r="H3" s="514" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="519"/>
-      <c r="J3" s="521" t="s">
+      <c r="I3" s="540"/>
+      <c r="J3" s="542" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="521" t="s">
+      <c r="K3" s="542" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="521" t="s">
+      <c r="L3" s="542" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="538" t="s">
+      <c r="M3" s="517" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="538" t="s">
+      <c r="N3" s="517" t="s">
         <v>76</v>
       </c>
-      <c r="R3" s="526" t="s">
+      <c r="R3" s="506" t="s">
         <v>87</v>
       </c>
-      <c r="S3" s="526" t="s">
+      <c r="S3" s="506" t="s">
         <v>84</v>
       </c>
-      <c r="T3" s="526" t="s">
+      <c r="T3" s="506" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="528" t="s">
+      <c r="U3" s="503" t="s">
         <v>360</v>
       </c>
-      <c r="V3" s="529"/>
-      <c r="W3" s="530"/>
-      <c r="X3" s="528" t="s">
+      <c r="V3" s="504"/>
+      <c r="W3" s="505"/>
+      <c r="X3" s="503" t="s">
         <v>377</v>
       </c>
-      <c r="Y3" s="529"/>
-      <c r="Z3" s="530"/>
-      <c r="AA3" s="528" t="s">
+      <c r="Y3" s="504"/>
+      <c r="Z3" s="505"/>
+      <c r="AA3" s="503" t="s">
         <v>381</v>
       </c>
-      <c r="AB3" s="529"/>
-      <c r="AC3" s="530"/>
-      <c r="AD3" s="528" t="s">
+      <c r="AB3" s="504"/>
+      <c r="AC3" s="505"/>
+      <c r="AD3" s="503" t="s">
         <v>394</v>
       </c>
-      <c r="AE3" s="529"/>
-      <c r="AF3" s="530"/>
-      <c r="AG3" s="528" t="s">
+      <c r="AE3" s="504"/>
+      <c r="AF3" s="505"/>
+      <c r="AG3" s="503" t="s">
         <v>393</v>
       </c>
-      <c r="AH3" s="529"/>
-      <c r="AI3" s="530"/>
-      <c r="AJ3" s="528" t="s">
+      <c r="AH3" s="504"/>
+      <c r="AI3" s="505"/>
+      <c r="AJ3" s="503" t="s">
         <v>398</v>
       </c>
-      <c r="AK3" s="529"/>
-      <c r="AL3" s="530"/>
-      <c r="AM3" s="528" t="s">
+      <c r="AK3" s="504"/>
+      <c r="AL3" s="505"/>
+      <c r="AM3" s="503" t="s">
         <v>395</v>
       </c>
-      <c r="AN3" s="529"/>
-      <c r="AO3" s="530"/>
-      <c r="AP3" s="528" t="s">
+      <c r="AN3" s="504"/>
+      <c r="AO3" s="505"/>
+      <c r="AP3" s="503" t="s">
         <v>396</v>
       </c>
-      <c r="AQ3" s="529"/>
-      <c r="AR3" s="530"/>
-      <c r="AS3" s="528" t="s">
+      <c r="AQ3" s="504"/>
+      <c r="AR3" s="505"/>
+      <c r="AS3" s="503" t="s">
         <v>397</v>
       </c>
-      <c r="AT3" s="529"/>
-      <c r="AU3" s="530"/>
+      <c r="AT3" s="504"/>
+      <c r="AU3" s="505"/>
     </row>
     <row r="4" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A4" s="501"/>
-      <c r="B4" s="504"/>
-      <c r="C4" s="517"/>
-      <c r="D4" s="517"/>
-      <c r="E4" s="517"/>
-      <c r="F4" s="517"/>
-      <c r="G4" s="517"/>
-      <c r="H4" s="517"/>
-      <c r="I4" s="520"/>
-      <c r="J4" s="522"/>
-      <c r="K4" s="522"/>
-      <c r="L4" s="522"/>
-      <c r="M4" s="539"/>
-      <c r="N4" s="539"/>
+      <c r="A4" s="524"/>
+      <c r="B4" s="527"/>
+      <c r="C4" s="516"/>
+      <c r="D4" s="516"/>
+      <c r="E4" s="516"/>
+      <c r="F4" s="516"/>
+      <c r="G4" s="516"/>
+      <c r="H4" s="516"/>
+      <c r="I4" s="541"/>
+      <c r="J4" s="543"/>
+      <c r="K4" s="543"/>
+      <c r="L4" s="543"/>
+      <c r="M4" s="518"/>
+      <c r="N4" s="518"/>
       <c r="P4" t="s">
         <v>410</v>
       </c>
-      <c r="R4" s="527"/>
-      <c r="S4" s="527"/>
-      <c r="T4" s="527"/>
+      <c r="R4" s="507"/>
+      <c r="S4" s="507"/>
+      <c r="T4" s="507"/>
       <c r="U4" s="331" t="s">
         <v>87</v>
       </c>
@@ -9905,7 +10346,7 @@
         <v>3.10000075</v>
       </c>
       <c r="S5" s="380">
-        <f>TRUNC(E5/R5,2)</f>
+        <f t="shared" ref="S5:S16" si="0">TRUNC(E5/R5,2)</f>
         <v>3.47</v>
       </c>
       <c r="T5" s="381">
@@ -9917,7 +10358,7 @@
         <v>3.1000548270000001</v>
       </c>
       <c r="V5" s="333">
-        <f t="shared" ref="V5:V16" si="0">TRUNC($E5/U5,2)</f>
+        <f t="shared" ref="V5:V16" si="1">TRUNC($E5/U5,2)</f>
         <v>3.47</v>
       </c>
       <c r="W5" s="336">
@@ -9929,7 +10370,7 @@
         <v>3.1189704950000001</v>
       </c>
       <c r="Y5" s="333">
-        <f t="shared" ref="Y5:Y16" si="1">TRUNC($E5/X5,2)</f>
+        <f t="shared" ref="Y5:Y16" si="2">TRUNC($E5/X5,2)</f>
         <v>3.45</v>
       </c>
       <c r="Z5" s="341">
@@ -9941,7 +10382,7 @@
         <v>3.1485516389999999</v>
       </c>
       <c r="AB5" s="333">
-        <f t="shared" ref="AB5:AB16" si="2">TRUNC($E5/AA5,2)</f>
+        <f t="shared" ref="AB5:AB16" si="3">TRUNC($E5/AA5,2)</f>
         <v>3.42</v>
       </c>
       <c r="AC5" s="336">
@@ -9953,7 +10394,7 @@
         <v>4.3136376609999996</v>
       </c>
       <c r="AE5" s="333">
-        <f t="shared" ref="AE5" si="3">TRUNC($E5/AD5,2)</f>
+        <f t="shared" ref="AE5" si="4">TRUNC($E5/AD5,2)</f>
         <v>2.4900000000000002</v>
       </c>
       <c r="AF5" s="336">
@@ -9965,7 +10406,7 @@
         <v>7.9545270889999991</v>
       </c>
       <c r="AH5" s="333">
-        <f t="shared" ref="AH5" si="4">TRUNC($E5/AG5,2)</f>
+        <f t="shared" ref="AH5" si="5">TRUNC($E5/AG5,2)</f>
         <v>1.35</v>
       </c>
       <c r="AI5" s="336">
@@ -9977,7 +10418,7 @@
         <v>15.236302211</v>
       </c>
       <c r="AK5" s="333">
-        <f t="shared" ref="AK5" si="5">TRUNC($E5/AJ5,2)</f>
+        <f t="shared" ref="AK5" si="6">TRUNC($E5/AJ5,2)</f>
         <v>0.7</v>
       </c>
       <c r="AL5" s="336">
@@ -9989,7 +10430,7 @@
         <v>22.518081067000001</v>
       </c>
       <c r="AN5" s="333">
-        <f t="shared" ref="AN5" si="6">TRUNC($E5/AM5,2)</f>
+        <f t="shared" ref="AN5" si="7">TRUNC($E5/AM5,2)</f>
         <v>0.47</v>
       </c>
       <c r="AO5" s="336">
@@ -10001,7 +10442,7 @@
         <v>27.955144299000001</v>
       </c>
       <c r="AQ5" s="333">
-        <f t="shared" ref="AQ5" si="7">TRUNC($E5/AP5,2)</f>
+        <f t="shared" ref="AQ5" si="8">TRUNC($E5/AP5,2)</f>
         <v>0.38</v>
       </c>
       <c r="AR5" s="336">
@@ -10013,7 +10454,7 @@
         <v>127.37567975899999</v>
       </c>
       <c r="AT5" s="333">
-        <f t="shared" ref="AT5" si="8">TRUNC($E5/AS5,2)</f>
+        <f t="shared" ref="AT5" si="9">TRUNC($E5/AS5,2)</f>
         <v>0.08</v>
       </c>
       <c r="AU5" s="336">
@@ -10063,7 +10504,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6:P16" si="9">M6</f>
+        <f t="shared" ref="P6:P16" si="10">M6</f>
         <v>3.2</v>
       </c>
       <c r="R6" s="382">
@@ -10071,7 +10512,7 @@
         <v>3.2000007500000001</v>
       </c>
       <c r="S6" s="382">
-        <f>TRUNC(E6/R6,2)</f>
+        <f t="shared" si="0"/>
         <v>3.08</v>
       </c>
       <c r="T6" s="383">
@@ -10083,7 +10524,7 @@
         <v>3.2000548270000002</v>
       </c>
       <c r="V6" s="334">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.08</v>
       </c>
       <c r="W6" s="337">
@@ -10095,7 +10536,7 @@
         <v>3.2189704950000002</v>
       </c>
       <c r="Y6" s="334">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.06</v>
       </c>
       <c r="Z6" s="340">
@@ -10107,7 +10548,7 @@
         <v>3.248551639</v>
       </c>
       <c r="AB6" s="334">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.04</v>
       </c>
       <c r="AC6" s="337">
@@ -10119,7 +10560,7 @@
         <v>4.4136376610000001</v>
       </c>
       <c r="AE6" s="334">
-        <f t="shared" ref="AE6:AE16" si="10">TRUNC($E6/AD6,2)</f>
+        <f t="shared" ref="AE6:AE16" si="11">TRUNC($E6/AD6,2)</f>
         <v>2.23</v>
       </c>
       <c r="AF6" s="337">
@@ -10131,7 +10572,7 @@
         <v>8.0545270890000005</v>
       </c>
       <c r="AH6" s="334">
-        <f t="shared" ref="AH6:AH16" si="11">TRUNC($E6/AG6,2)</f>
+        <f t="shared" ref="AH6:AH16" si="12">TRUNC($E6/AG6,2)</f>
         <v>1.22</v>
       </c>
       <c r="AI6" s="337">
@@ -10143,7 +10584,7 @@
         <v>15.336302211</v>
       </c>
       <c r="AK6" s="334">
-        <f t="shared" ref="AK6:AK16" si="12">TRUNC($E6/AJ6,2)</f>
+        <f t="shared" ref="AK6:AK16" si="13">TRUNC($E6/AJ6,2)</f>
         <v>0.64</v>
       </c>
       <c r="AL6" s="337">
@@ -10155,7 +10596,7 @@
         <v>22.618081066999999</v>
       </c>
       <c r="AN6" s="334">
-        <f t="shared" ref="AN6:AN16" si="13">TRUNC($E6/AM6,2)</f>
+        <f t="shared" ref="AN6:AN16" si="14">TRUNC($E6/AM6,2)</f>
         <v>0.43</v>
       </c>
       <c r="AO6" s="337">
@@ -10167,7 +10608,7 @@
         <v>28.055144298999998</v>
       </c>
       <c r="AQ6" s="334">
-        <f t="shared" ref="AQ6:AQ16" si="14">TRUNC($E6/AP6,2)</f>
+        <f t="shared" ref="AQ6:AQ16" si="15">TRUNC($E6/AP6,2)</f>
         <v>0.35</v>
       </c>
       <c r="AR6" s="337">
@@ -10179,7 +10620,7 @@
         <v>127.475679759</v>
       </c>
       <c r="AT6" s="334">
-        <f t="shared" ref="AT6:AT16" si="15">TRUNC($E6/AS6,2)</f>
+        <f t="shared" ref="AT6:AT16" si="16">TRUNC($E6/AS6,2)</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AU6" s="337">
@@ -10229,7 +10670,7 @@
         <v>3.4</v>
       </c>
       <c r="P7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.3</v>
       </c>
       <c r="R7" s="384">
@@ -10237,7 +10678,7 @@
         <v>3.3000007499999997</v>
       </c>
       <c r="S7" s="384">
-        <f>TRUNC(E7/R7,2)</f>
+        <f t="shared" si="0"/>
         <v>2.41</v>
       </c>
       <c r="T7" s="385">
@@ -10249,7 +10690,7 @@
         <v>3.3000548269999999</v>
       </c>
       <c r="V7" s="335">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.41</v>
       </c>
       <c r="W7" s="338">
@@ -10261,7 +10702,7 @@
         <v>3.3189704949999999</v>
       </c>
       <c r="Y7" s="335">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
       <c r="Z7" s="342">
@@ -10273,7 +10714,7 @@
         <v>3.3485516389999996</v>
       </c>
       <c r="AB7" s="335">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.38</v>
       </c>
       <c r="AC7" s="338">
@@ -10285,7 +10726,7 @@
         <v>4.5136376609999997</v>
       </c>
       <c r="AE7" s="335">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.76</v>
       </c>
       <c r="AF7" s="338">
@@ -10297,7 +10738,7 @@
         <v>8.1545270889999983</v>
       </c>
       <c r="AH7" s="335">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.97</v>
       </c>
       <c r="AI7" s="338">
@@ -10309,7 +10750,7 @@
         <v>15.436302211000001</v>
       </c>
       <c r="AK7" s="335">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.51</v>
       </c>
       <c r="AL7" s="338">
@@ -10321,7 +10762,7 @@
         <v>22.718081067</v>
       </c>
       <c r="AN7" s="335">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.35</v>
       </c>
       <c r="AO7" s="338">
@@ -10333,7 +10774,7 @@
         <v>28.155144299</v>
       </c>
       <c r="AQ7" s="335">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AR7" s="338">
@@ -10345,7 +10786,7 @@
         <v>127.575679759</v>
       </c>
       <c r="AT7" s="335">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.06</v>
       </c>
       <c r="AU7" s="338">
@@ -10391,7 +10832,7 @@
         <v>9.1</v>
       </c>
       <c r="P8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="R8" s="380">
@@ -10399,7 +10840,7 @@
         <v>4.4000007500000002</v>
       </c>
       <c r="S8" s="380">
-        <f>TRUNC(E8/R8,2)</f>
+        <f t="shared" si="0"/>
         <v>2.59</v>
       </c>
       <c r="T8" s="381">
@@ -10411,7 +10852,7 @@
         <v>4.4000548269999999</v>
       </c>
       <c r="V8" s="333">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.59</v>
       </c>
       <c r="W8" s="336">
@@ -10423,7 +10864,7 @@
         <v>4.4189704949999999</v>
       </c>
       <c r="Y8" s="333">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.57</v>
       </c>
       <c r="Z8" s="341">
@@ -10435,7 +10876,7 @@
         <v>4.4485516390000006</v>
       </c>
       <c r="AB8" s="333">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.56</v>
       </c>
       <c r="AC8" s="336">
@@ -10447,7 +10888,7 @@
         <v>5.6136376610000003</v>
       </c>
       <c r="AE8" s="333">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.0299999999999998</v>
       </c>
       <c r="AF8" s="336">
@@ -10459,7 +10900,7 @@
         <v>9.2545270889999998</v>
       </c>
       <c r="AH8" s="333">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.23</v>
       </c>
       <c r="AI8" s="336">
@@ -10471,7 +10912,7 @@
         <v>16.536302210999999</v>
       </c>
       <c r="AK8" s="333">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.68</v>
       </c>
       <c r="AL8" s="336">
@@ -10483,7 +10924,7 @@
         <v>23.818081067000001</v>
       </c>
       <c r="AN8" s="333">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.47</v>
       </c>
       <c r="AO8" s="336">
@@ -10495,7 +10936,7 @@
         <v>29.255144299000001</v>
       </c>
       <c r="AQ8" s="333">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.38</v>
       </c>
       <c r="AR8" s="336">
@@ -10507,7 +10948,7 @@
         <v>128.67567975899999</v>
       </c>
       <c r="AT8" s="333">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.08</v>
       </c>
       <c r="AU8" s="336">
@@ -10553,7 +10994,7 @@
         <v>4.8</v>
       </c>
       <c r="P9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.8</v>
       </c>
       <c r="R9" s="384">
@@ -10561,7 +11002,7 @@
         <v>3.8000007499999997</v>
       </c>
       <c r="S9" s="384">
-        <f>TRUNC(E9/R9,2)</f>
+        <f t="shared" si="0"/>
         <v>2.99</v>
       </c>
       <c r="T9" s="385">
@@ -10573,7 +11014,7 @@
         <v>3.8000548269999999</v>
       </c>
       <c r="V9" s="335">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.99</v>
       </c>
       <c r="W9" s="338">
@@ -10585,7 +11026,7 @@
         <v>3.8189704949999999</v>
       </c>
       <c r="Y9" s="335">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.98</v>
       </c>
       <c r="Z9" s="342">
@@ -10597,7 +11038,7 @@
         <v>3.8485516389999996</v>
       </c>
       <c r="AB9" s="335">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.96</v>
       </c>
       <c r="AC9" s="338">
@@ -10609,7 +11050,7 @@
         <v>5.0136376609999997</v>
       </c>
       <c r="AE9" s="335">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.27</v>
       </c>
       <c r="AF9" s="338">
@@ -10621,7 +11062,7 @@
         <v>8.6545270889999983</v>
       </c>
       <c r="AH9" s="335">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.31</v>
       </c>
       <c r="AI9" s="338">
@@ -10633,7 +11074,7 @@
         <v>15.936302211000001</v>
       </c>
       <c r="AK9" s="335">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.71</v>
       </c>
       <c r="AL9" s="338">
@@ -10645,7 +11086,7 @@
         <v>23.218081067</v>
       </c>
       <c r="AN9" s="335">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.49</v>
       </c>
       <c r="AO9" s="338">
@@ -10657,7 +11098,7 @@
         <v>28.655144299</v>
       </c>
       <c r="AQ9" s="335">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.39</v>
       </c>
       <c r="AR9" s="338">
@@ -10669,7 +11110,7 @@
         <v>128.075679759</v>
       </c>
       <c r="AT9" s="335">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.08</v>
       </c>
       <c r="AU9" s="338">
@@ -10717,7 +11158,7 @@
         <v>3.8</v>
       </c>
       <c r="P10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5</v>
       </c>
       <c r="R10" s="380">
@@ -10725,7 +11166,7 @@
         <v>3.5000007499999999</v>
       </c>
       <c r="S10" s="380">
-        <f>TRUNC(E10/R10,2)</f>
+        <f t="shared" si="0"/>
         <v>3.17</v>
       </c>
       <c r="T10" s="381">
@@ -10737,7 +11178,7 @@
         <v>3.500054827</v>
       </c>
       <c r="V10" s="333">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.17</v>
       </c>
       <c r="W10" s="336">
@@ -10749,7 +11190,7 @@
         <v>3.518970495</v>
       </c>
       <c r="Y10" s="333">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.15</v>
       </c>
       <c r="Z10" s="341">
@@ -10761,7 +11202,7 @@
         <v>3.5485516389999998</v>
       </c>
       <c r="AB10" s="333">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.12</v>
       </c>
       <c r="AC10" s="336">
@@ -10773,7 +11214,7 @@
         <v>4.7136376609999999</v>
       </c>
       <c r="AE10" s="333">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.35</v>
       </c>
       <c r="AF10" s="336">
@@ -10785,7 +11226,7 @@
         <v>8.3545270889999994</v>
       </c>
       <c r="AH10" s="333">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.32</v>
       </c>
       <c r="AI10" s="336">
@@ -10797,7 +11238,7 @@
         <v>15.636302211</v>
       </c>
       <c r="AK10" s="333">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.7</v>
       </c>
       <c r="AL10" s="336">
@@ -10809,7 +11250,7 @@
         <v>22.918081066999999</v>
       </c>
       <c r="AN10" s="333">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.48</v>
       </c>
       <c r="AO10" s="336">
@@ -10821,7 +11262,7 @@
         <v>28.355144298999999</v>
       </c>
       <c r="AQ10" s="333">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.39</v>
       </c>
       <c r="AR10" s="336">
@@ -10833,7 +11274,7 @@
         <v>127.775679759</v>
       </c>
       <c r="AT10" s="333">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.08</v>
       </c>
       <c r="AU10" s="336">
@@ -10881,7 +11322,7 @@
         <v>5.2</v>
       </c>
       <c r="P11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.1</v>
       </c>
       <c r="R11" s="382">
@@ -10889,7 +11330,7 @@
         <v>3.10000075</v>
       </c>
       <c r="S11" s="382">
-        <f>TRUNC(E11/R11,2)</f>
+        <f t="shared" si="0"/>
         <v>2.2200000000000002</v>
       </c>
       <c r="T11" s="383">
@@ -10901,7 +11342,7 @@
         <v>3.1000548270000001</v>
       </c>
       <c r="V11" s="334">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2200000000000002</v>
       </c>
       <c r="W11" s="337">
@@ -10913,7 +11354,7 @@
         <v>3.1189704950000001</v>
       </c>
       <c r="Y11" s="334">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.21</v>
       </c>
       <c r="Z11" s="340">
@@ -10925,7 +11366,7 @@
         <v>3.1485516389999999</v>
       </c>
       <c r="AB11" s="334">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.19</v>
       </c>
       <c r="AC11" s="337">
@@ -10937,7 +11378,7 @@
         <v>4.3136376609999996</v>
       </c>
       <c r="AE11" s="334">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
       <c r="AF11" s="337">
@@ -10949,7 +11390,7 @@
         <v>7.9545270889999991</v>
       </c>
       <c r="AH11" s="334">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86</v>
       </c>
       <c r="AI11" s="337">
@@ -10961,7 +11402,7 @@
         <v>15.236302211</v>
       </c>
       <c r="AK11" s="334">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.45</v>
       </c>
       <c r="AL11" s="337">
@@ -10973,7 +11414,7 @@
         <v>22.518081067000001</v>
       </c>
       <c r="AN11" s="334">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.3</v>
       </c>
       <c r="AO11" s="337">
@@ -10985,7 +11426,7 @@
         <v>27.955144299000001</v>
       </c>
       <c r="AQ11" s="334">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.24</v>
       </c>
       <c r="AR11" s="337">
@@ -10997,7 +11438,7 @@
         <v>127.37567975899999</v>
       </c>
       <c r="AT11" s="334">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.05</v>
       </c>
       <c r="AU11" s="337">
@@ -11043,7 +11484,7 @@
         <v>2.9</v>
       </c>
       <c r="P12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="R12" s="384">
@@ -11051,7 +11492,7 @@
         <v>2.2000007500000001</v>
       </c>
       <c r="S12" s="384">
-        <f>TRUNC(E12/R12,2)</f>
+        <f t="shared" si="0"/>
         <v>2.4700000000000002</v>
       </c>
       <c r="T12" s="385">
@@ -11063,7 +11504,7 @@
         <v>2.2000548270000002</v>
       </c>
       <c r="V12" s="335">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4700000000000002</v>
       </c>
       <c r="W12" s="338">
@@ -11075,7 +11516,7 @@
         <v>2.2189704950000002</v>
       </c>
       <c r="Y12" s="335">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4500000000000002</v>
       </c>
       <c r="Z12" s="342">
@@ -11087,7 +11528,7 @@
         <v>2.248551639</v>
       </c>
       <c r="AB12" s="335">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.42</v>
       </c>
       <c r="AC12" s="338">
@@ -11099,7 +11540,7 @@
         <v>3.4136376610000001</v>
       </c>
       <c r="AE12" s="335">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.59</v>
       </c>
       <c r="AF12" s="338">
@@ -11111,7 +11552,7 @@
         <v>7.0545270889999996</v>
       </c>
       <c r="AH12" s="335">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.77</v>
       </c>
       <c r="AI12" s="338">
@@ -11123,7 +11564,7 @@
         <v>14.336302211</v>
       </c>
       <c r="AK12" s="335">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.38</v>
       </c>
       <c r="AL12" s="338">
@@ -11135,7 +11576,7 @@
         <v>21.618081066999999</v>
       </c>
       <c r="AN12" s="335">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.25</v>
       </c>
       <c r="AO12" s="338">
@@ -11147,7 +11588,7 @@
         <v>27.055144298999998</v>
       </c>
       <c r="AQ12" s="335">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.2</v>
       </c>
       <c r="AR12" s="338">
@@ -11159,7 +11600,7 @@
         <v>126.475679759</v>
       </c>
       <c r="AT12" s="335">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.04</v>
       </c>
       <c r="AU12" s="338">
@@ -11205,7 +11646,7 @@
         <v>8.4</v>
       </c>
       <c r="P13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.3</v>
       </c>
       <c r="R13" s="380">
@@ -11213,7 +11654,7 @@
         <v>4.3000007499999997</v>
       </c>
       <c r="S13" s="380">
-        <f>TRUNC(E13/R13,2)</f>
+        <f t="shared" si="0"/>
         <v>1.86</v>
       </c>
       <c r="T13" s="381">
@@ -11225,7 +11666,7 @@
         <v>4.3000548269999994</v>
       </c>
       <c r="V13" s="333">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.86</v>
       </c>
       <c r="W13" s="336">
@@ -11237,7 +11678,7 @@
         <v>4.3189704949999994</v>
       </c>
       <c r="Y13" s="333">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.85</v>
       </c>
       <c r="Z13" s="341">
@@ -11249,7 +11690,7 @@
         <v>4.3485516390000001</v>
       </c>
       <c r="AB13" s="333">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.83</v>
       </c>
       <c r="AC13" s="336">
@@ -11261,7 +11702,7 @@
         <v>5.5136376609999997</v>
       </c>
       <c r="AE13" s="333">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.45</v>
       </c>
       <c r="AF13" s="336">
@@ -11273,7 +11714,7 @@
         <v>9.1545270889999983</v>
       </c>
       <c r="AH13" s="333">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.87</v>
       </c>
       <c r="AI13" s="336">
@@ -11285,7 +11726,7 @@
         <v>16.436302211000001</v>
       </c>
       <c r="AK13" s="333">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.48</v>
       </c>
       <c r="AL13" s="336">
@@ -11297,7 +11738,7 @@
         <v>23.718081067</v>
       </c>
       <c r="AN13" s="333">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.33</v>
       </c>
       <c r="AO13" s="336">
@@ -11309,7 +11750,7 @@
         <v>29.155144299</v>
       </c>
       <c r="AQ13" s="333">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.27</v>
       </c>
       <c r="AR13" s="336">
@@ -11321,7 +11762,7 @@
         <v>128.575679759</v>
       </c>
       <c r="AT13" s="333">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.06</v>
       </c>
       <c r="AU13" s="336">
@@ -11369,7 +11810,7 @@
         <v>10.9</v>
       </c>
       <c r="P14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.8</v>
       </c>
       <c r="R14" s="384">
@@ -11377,7 +11818,7 @@
         <v>4.8000007499999997</v>
       </c>
       <c r="S14" s="384">
-        <f>TRUNC(E14/R14,2)</f>
+        <f t="shared" si="0"/>
         <v>2.54</v>
       </c>
       <c r="T14" s="385">
@@ -11389,7 +11830,7 @@
         <v>4.8000548269999994</v>
       </c>
       <c r="V14" s="335">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.54</v>
       </c>
       <c r="W14" s="338">
@@ -11401,7 +11842,7 @@
         <v>4.8189704949999994</v>
       </c>
       <c r="Y14" s="335">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5299999999999998</v>
       </c>
       <c r="Z14" s="342">
@@ -11413,7 +11854,7 @@
         <v>4.8485516390000001</v>
       </c>
       <c r="AB14" s="335">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.5099999999999998</v>
       </c>
       <c r="AC14" s="338">
@@ -11425,7 +11866,7 @@
         <v>6.0136376609999997</v>
       </c>
       <c r="AE14" s="335">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.02</v>
       </c>
       <c r="AF14" s="338">
@@ -11437,7 +11878,7 @@
         <v>9.6545270889999983</v>
       </c>
       <c r="AH14" s="335">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.26</v>
       </c>
       <c r="AI14" s="338">
@@ -11449,7 +11890,7 @@
         <v>16.936302211000001</v>
       </c>
       <c r="AK14" s="335">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.72</v>
       </c>
       <c r="AL14" s="338">
@@ -11461,7 +11902,7 @@
         <v>24.218081067</v>
       </c>
       <c r="AN14" s="335">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="AO14" s="338">
@@ -11473,7 +11914,7 @@
         <v>29.655144299</v>
       </c>
       <c r="AQ14" s="335">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.41</v>
       </c>
       <c r="AR14" s="338">
@@ -11485,7 +11926,7 @@
         <v>129.075679759</v>
       </c>
       <c r="AT14" s="335">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.09</v>
       </c>
       <c r="AU14" s="338">
@@ -11533,7 +11974,7 @@
         <v>6.5</v>
       </c>
       <c r="P15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.8</v>
       </c>
       <c r="R15" s="382">
@@ -11541,7 +11982,7 @@
         <v>3.8000007499999997</v>
       </c>
       <c r="S15" s="382">
-        <f>TRUNC(E15/R15,2)</f>
+        <f t="shared" si="0"/>
         <v>2.42</v>
       </c>
       <c r="T15" s="383">
@@ -11553,7 +11994,7 @@
         <v>3.8000548269999999</v>
       </c>
       <c r="V15" s="334">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.42</v>
       </c>
       <c r="W15" s="337">
@@ -11565,7 +12006,7 @@
         <v>3.8189704949999999</v>
       </c>
       <c r="Y15" s="334">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
       <c r="Z15" s="340">
@@ -11577,7 +12018,7 @@
         <v>3.8485516389999996</v>
       </c>
       <c r="AB15" s="334">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.39</v>
       </c>
       <c r="AC15" s="337">
@@ -11589,7 +12030,7 @@
         <v>5.0136376609999997</v>
       </c>
       <c r="AE15" s="334">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.83</v>
       </c>
       <c r="AF15" s="337">
@@ -11601,7 +12042,7 @@
         <v>8.6545270889999983</v>
       </c>
       <c r="AH15" s="334">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.06</v>
       </c>
       <c r="AI15" s="337">
@@ -11613,7 +12054,7 @@
         <v>15.936302211000001</v>
       </c>
       <c r="AK15" s="334">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="AL15" s="337">
@@ -11625,7 +12066,7 @@
         <v>23.218081067</v>
       </c>
       <c r="AN15" s="334">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.39</v>
       </c>
       <c r="AO15" s="337">
@@ -11637,7 +12078,7 @@
         <v>28.655144299</v>
       </c>
       <c r="AQ15" s="334">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.32</v>
       </c>
       <c r="AR15" s="337">
@@ -11649,7 +12090,7 @@
         <v>128.075679759</v>
       </c>
       <c r="AT15" s="334">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AU15" s="337">
@@ -11695,7 +12136,7 @@
         <v>4.7</v>
       </c>
       <c r="P16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.4</v>
       </c>
       <c r="R16" s="384">
@@ -11703,7 +12144,7 @@
         <v>3.4000007499999998</v>
       </c>
       <c r="S16" s="384">
-        <f>TRUNC(E16/R16,2)</f>
+        <f t="shared" si="0"/>
         <v>2.23</v>
       </c>
       <c r="T16" s="385">
@@ -11715,7 +12156,7 @@
         <v>3.4000548269999999</v>
       </c>
       <c r="V16" s="335">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.23</v>
       </c>
       <c r="W16" s="338">
@@ -11727,7 +12168,7 @@
         <v>3.4189704949999999</v>
       </c>
       <c r="Y16" s="335">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2200000000000002</v>
       </c>
       <c r="Z16" s="342">
@@ -11739,7 +12180,7 @@
         <v>3.4485516389999997</v>
       </c>
       <c r="AB16" s="335">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="AC16" s="338">
@@ -11751,7 +12192,7 @@
         <v>4.6136376610000003</v>
       </c>
       <c r="AE16" s="335">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.64</v>
       </c>
       <c r="AF16" s="338">
@@ -11763,7 +12204,7 @@
         <v>8.2545270889999998</v>
       </c>
       <c r="AH16" s="335">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.92</v>
       </c>
       <c r="AI16" s="338">
@@ -11775,7 +12216,7 @@
         <v>15.536302211000001</v>
       </c>
       <c r="AK16" s="335">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.48</v>
       </c>
       <c r="AL16" s="338">
@@ -11787,7 +12228,7 @@
         <v>22.818081066999998</v>
       </c>
       <c r="AN16" s="335">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.33</v>
       </c>
       <c r="AO16" s="338">
@@ -11799,7 +12240,7 @@
         <v>28.255144298999998</v>
       </c>
       <c r="AQ16" s="335">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.26</v>
       </c>
       <c r="AR16" s="338">
@@ -11811,7 +12252,7 @@
         <v>127.675679759</v>
       </c>
       <c r="AT16" s="335">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.05</v>
       </c>
       <c r="AU16" s="338">
@@ -11820,42 +12261,42 @@
       </c>
     </row>
     <row r="17" spans="1:29">
-      <c r="U17" s="496" t="s">
+      <c r="U17" s="519" t="s">
         <v>384</v>
       </c>
-      <c r="V17" s="497"/>
-      <c r="W17" s="497"/>
-      <c r="X17" s="497"/>
-      <c r="Y17" s="497"/>
-      <c r="Z17" s="497"/>
-      <c r="AA17" s="497"/>
-      <c r="AB17" s="497"/>
-      <c r="AC17" s="498"/>
+      <c r="V17" s="520"/>
+      <c r="W17" s="520"/>
+      <c r="X17" s="520"/>
+      <c r="Y17" s="520"/>
+      <c r="Z17" s="520"/>
+      <c r="AA17" s="520"/>
+      <c r="AB17" s="520"/>
+      <c r="AC17" s="521"/>
     </row>
     <row r="18" spans="1:29">
       <c r="A18" t="s">
         <v>399</v>
       </c>
-      <c r="B18" s="711">
+      <c r="B18" s="399">
         <v>2000</v>
       </c>
-      <c r="U18" s="496" t="s">
+      <c r="U18" s="519" t="s">
         <v>381</v>
       </c>
-      <c r="V18" s="497"/>
-      <c r="W18" s="498"/>
-      <c r="X18" s="496"/>
-      <c r="Y18" s="497"/>
-      <c r="Z18" s="498"/>
-      <c r="AA18" s="496"/>
-      <c r="AB18" s="497"/>
-      <c r="AC18" s="498"/>
+      <c r="V18" s="520"/>
+      <c r="W18" s="521"/>
+      <c r="X18" s="519"/>
+      <c r="Y18" s="520"/>
+      <c r="Z18" s="521"/>
+      <c r="AA18" s="519"/>
+      <c r="AB18" s="520"/>
+      <c r="AC18" s="521"/>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" t="s">
         <v>400</v>
       </c>
-      <c r="B19" s="711">
+      <c r="B19" s="399">
         <f>800*1024</f>
         <v>819200</v>
       </c>
@@ -11880,7 +12321,7 @@
       <c r="A20" t="s">
         <v>401</v>
       </c>
-      <c r="B20" s="711">
+      <c r="B20" s="399">
         <f>2*1024*1024</f>
         <v>2097152</v>
       </c>
@@ -11908,7 +12349,7 @@
       <c r="A21" t="s">
         <v>402</v>
       </c>
-      <c r="B21" s="711">
+      <c r="B21" s="399">
         <f>50*1024*1024</f>
         <v>52428800</v>
       </c>
@@ -11917,7 +12358,7 @@
         <v>3.56656487445</v>
       </c>
       <c r="V21" s="374">
-        <f t="shared" ref="V21:V31" si="16">TRUNC($E6/U21,2)</f>
+        <f t="shared" ref="V21:V31" si="17">TRUNC($E6/U21,2)</f>
         <v>2.77</v>
       </c>
       <c r="W21" s="375">
@@ -11935,7 +12376,7 @@
       <c r="A22" t="s">
         <v>403</v>
       </c>
-      <c r="B22" s="711">
+      <c r="B22" s="399">
         <f>200*1024*1024</f>
         <v>209715200</v>
       </c>
@@ -11944,7 +12385,7 @@
         <v>3.6665648744499997</v>
       </c>
       <c r="V22" s="377">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.17</v>
       </c>
       <c r="W22" s="378">
@@ -11962,7 +12403,7 @@
       <c r="A23" t="s">
         <v>404</v>
       </c>
-      <c r="B23" s="711">
+      <c r="B23" s="399">
         <f>500*1024*1024</f>
         <v>524288000</v>
       </c>
@@ -11971,7 +12412,7 @@
         <v>4.7665648744500002</v>
       </c>
       <c r="V23" s="371">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.39</v>
       </c>
       <c r="W23" s="372">
@@ -11989,7 +12430,7 @@
       <c r="A24" t="s">
         <v>405</v>
       </c>
-      <c r="B24" s="711">
+      <c r="B24" s="399">
         <f>800*1024*1024</f>
         <v>838860800</v>
       </c>
@@ -11998,7 +12439,7 @@
         <v>4.1665648744499997</v>
       </c>
       <c r="V24" s="377">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.73</v>
       </c>
       <c r="W24" s="378">
@@ -12016,7 +12457,7 @@
       <c r="A25" t="s">
         <v>406</v>
       </c>
-      <c r="B25" s="711">
+      <c r="B25" s="399">
         <f>1*1024*1024*1024</f>
         <v>1073741824</v>
       </c>
@@ -12025,7 +12466,7 @@
         <v>3.8665648744499999</v>
       </c>
       <c r="V25" s="371">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.87</v>
       </c>
       <c r="W25" s="372">
@@ -12043,7 +12484,7 @@
       <c r="A26" t="s">
         <v>407</v>
       </c>
-      <c r="B26" s="711">
+      <c r="B26" s="399">
         <f>5*1024*1024*1024</f>
         <v>5368709120</v>
       </c>
@@ -12052,7 +12493,7 @@
         <v>3.4665648744500004</v>
       </c>
       <c r="V26" s="374">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.99</v>
       </c>
       <c r="W26" s="375">
@@ -12072,7 +12513,7 @@
         <v>2.56656487445</v>
       </c>
       <c r="V27" s="377">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.12</v>
       </c>
       <c r="W27" s="378">
@@ -12092,7 +12533,7 @@
         <v>4.6665648744499997</v>
       </c>
       <c r="V28" s="371">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.71</v>
       </c>
       <c r="W28" s="372">
@@ -12112,7 +12553,7 @@
         <v>5.1665648744499997</v>
       </c>
       <c r="V29" s="377">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.36</v>
       </c>
       <c r="W29" s="378">
@@ -12132,7 +12573,7 @@
         <v>4.1665648744499997</v>
       </c>
       <c r="V30" s="374">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="W30" s="375">
@@ -12152,7 +12593,7 @@
         <v>3.7665648744500002</v>
       </c>
       <c r="V31" s="377">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.0099999999999998</v>
       </c>
       <c r="W31" s="378">
@@ -12168,12 +12609,22 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="U17:AC17"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AA18:AC18"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="F2:H2"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="U3:W3"/>
     <mergeCell ref="R2:T2"/>
@@ -12190,22 +12641,12 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="U2:AC2"/>
-    <mergeCell ref="U17:AC17"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AA18:AC18"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AJ3:AL3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12216,8 +12657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView topLeftCell="AB7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM9" sqref="AM9"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BA9" sqref="BA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12229,24 +12670,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="E1" s="712" t="s">
+      <c r="E1" s="547" t="s">
         <v>408</v>
       </c>
-      <c r="F1" s="712"/>
-      <c r="G1" s="712"/>
-      <c r="H1" s="712"/>
-      <c r="I1" s="712"/>
-      <c r="J1" s="712"/>
-      <c r="K1" s="712"/>
-      <c r="L1" s="712"/>
-      <c r="M1" s="712"/>
+      <c r="F1" s="547"/>
+      <c r="G1" s="547"/>
+      <c r="H1" s="547"/>
+      <c r="I1" s="547"/>
+      <c r="J1" s="547"/>
+      <c r="K1" s="547"/>
+      <c r="L1" s="547"/>
+      <c r="M1" s="547"/>
       <c r="N1" s="20"/>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>399</v>
       </c>
-      <c r="B2" s="711">
+      <c r="B2" s="399">
         <v>2000</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -12288,40 +12729,40 @@
         <f>Batteries!AU5</f>
         <v>8</v>
       </c>
-      <c r="P2" s="714" t="s">
+      <c r="P2" s="401" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="715" t="s">
+      <c r="Q2" s="402" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="716" t="s">
+      <c r="R2" s="403" t="s">
         <v>86</v>
       </c>
-      <c r="S2" s="717" t="s">
+      <c r="S2" s="404" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="718" t="s">
+      <c r="T2" s="405" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="714" t="s">
+      <c r="U2" s="401" t="s">
         <v>362</v>
       </c>
-      <c r="V2" s="715" t="s">
+      <c r="V2" s="402" t="s">
         <v>363</v>
       </c>
-      <c r="W2" s="715" t="s">
+      <c r="W2" s="402" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="717" t="s">
+      <c r="X2" s="404" t="s">
         <v>14</v>
       </c>
       <c r="Y2" s="395" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="714" t="s">
+      <c r="Z2" s="401" t="s">
         <v>361</v>
       </c>
-      <c r="AA2" s="716" t="s">
+      <c r="AA2" s="403" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12329,7 +12770,7 @@
       <c r="A3" t="s">
         <v>400</v>
       </c>
-      <c r="B3" s="711">
+      <c r="B3" s="399">
         <f>800*1024</f>
         <v>819200</v>
       </c>
@@ -12372,7 +12813,7 @@
         <f>Batteries!AU6</f>
         <v>8</v>
       </c>
-      <c r="O3" s="711">
+      <c r="O3" s="399">
         <v>2000</v>
       </c>
       <c r="P3" s="276">
@@ -12416,7 +12857,7 @@
       <c r="A4" t="s">
         <v>401</v>
       </c>
-      <c r="B4" s="711">
+      <c r="B4" s="399">
         <f>2*1024*1024</f>
         <v>2097152</v>
       </c>
@@ -12459,7 +12900,7 @@
         <f>Batteries!AU7</f>
         <v>6</v>
       </c>
-      <c r="O4" s="711">
+      <c r="O4" s="399">
         <f>800*1024</f>
         <v>819200</v>
       </c>
@@ -12504,7 +12945,7 @@
       <c r="A5" t="s">
         <v>402</v>
       </c>
-      <c r="B5" s="711">
+      <c r="B5" s="399">
         <f>50*1024*1024</f>
         <v>52428800</v>
       </c>
@@ -12547,7 +12988,7 @@
         <f>Batteries!AU8</f>
         <v>8</v>
       </c>
-      <c r="O5" s="711">
+      <c r="O5" s="399">
         <f>2*1024*1024</f>
         <v>2097152</v>
       </c>
@@ -12592,7 +13033,7 @@
       <c r="A6" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="711">
+      <c r="B6" s="399">
         <f>200*1024*1024</f>
         <v>209715200</v>
       </c>
@@ -12635,7 +13076,7 @@
         <f>Batteries!AU9</f>
         <v>8</v>
       </c>
-      <c r="O6" s="711">
+      <c r="O6" s="399">
         <f>50*1024*1024</f>
         <v>52428800</v>
       </c>
@@ -12680,7 +13121,7 @@
       <c r="A7" t="s">
         <v>404</v>
       </c>
-      <c r="B7" s="711">
+      <c r="B7" s="399">
         <f>500*1024*1024</f>
         <v>524288000</v>
       </c>
@@ -12723,7 +13164,7 @@
         <f>Batteries!AU10</f>
         <v>8</v>
       </c>
-      <c r="O7" s="711">
+      <c r="O7" s="399">
         <f>200*1024*1024</f>
         <v>209715200</v>
       </c>
@@ -12768,7 +13209,7 @@
       <c r="A8" t="s">
         <v>405</v>
       </c>
-      <c r="B8" s="711">
+      <c r="B8" s="399">
         <f>800*1024*1024</f>
         <v>838860800</v>
       </c>
@@ -12811,7 +13252,7 @@
         <f>Batteries!AU11</f>
         <v>6</v>
       </c>
-      <c r="O8" s="711">
+      <c r="O8" s="399">
         <f>500*1024*1024</f>
         <v>524288000</v>
       </c>
@@ -12856,7 +13297,7 @@
       <c r="A9" t="s">
         <v>406</v>
       </c>
-      <c r="B9" s="711">
+      <c r="B9" s="399">
         <f>1*1024*1024*1024</f>
         <v>1073741824</v>
       </c>
@@ -12899,7 +13340,7 @@
         <f>Batteries!AU12</f>
         <v>4</v>
       </c>
-      <c r="O9" s="711">
+      <c r="O9" s="399">
         <f>800*1024*1024</f>
         <v>838860800</v>
       </c>
@@ -12944,7 +13385,7 @@
       <c r="A10" t="s">
         <v>407</v>
       </c>
-      <c r="B10" s="711">
+      <c r="B10" s="399">
         <f>5*1024*1024*1024</f>
         <v>5368709120</v>
       </c>
@@ -12987,7 +13428,7 @@
         <f>Batteries!AU13</f>
         <v>6</v>
       </c>
-      <c r="O10" s="711">
+      <c r="O10" s="399">
         <f>1*1024*1024*1024</f>
         <v>1073741824</v>
       </c>
@@ -13068,7 +13509,7 @@
         <f>Batteries!AU14</f>
         <v>10</v>
       </c>
-      <c r="O11" s="711">
+      <c r="O11" s="399">
         <f>5*1024*1024*1024</f>
         <v>5368709120</v>
       </c>
@@ -13192,55 +13633,55 @@
       </c>
     </row>
     <row r="14" spans="1:27">
-      <c r="D14" s="713"/>
+      <c r="D14" s="400"/>
     </row>
     <row r="15" spans="1:27">
-      <c r="E15" s="712" t="s">
+      <c r="E15" s="547" t="s">
         <v>409</v>
       </c>
-      <c r="F15" s="712"/>
-      <c r="G15" s="712"/>
-      <c r="H15" s="712"/>
-      <c r="I15" s="712"/>
-      <c r="J15" s="712"/>
-      <c r="K15" s="712"/>
-      <c r="L15" s="712"/>
-      <c r="M15" s="712"/>
+      <c r="F15" s="547"/>
+      <c r="G15" s="547"/>
+      <c r="H15" s="547"/>
+      <c r="I15" s="547"/>
+      <c r="J15" s="547"/>
+      <c r="K15" s="547"/>
+      <c r="L15" s="547"/>
+      <c r="M15" s="547"/>
       <c r="N15" s="20"/>
     </row>
     <row r="16" spans="1:27">
-      <c r="E16" s="711">
+      <c r="E16" s="399">
         <v>2000</v>
       </c>
-      <c r="F16" s="711">
+      <c r="F16" s="399">
         <f>800*1024</f>
         <v>819200</v>
       </c>
-      <c r="G16" s="711">
+      <c r="G16" s="399">
         <f>2*1024*1024</f>
         <v>2097152</v>
       </c>
-      <c r="H16" s="711">
+      <c r="H16" s="399">
         <f>50*1024*1024</f>
         <v>52428800</v>
       </c>
-      <c r="I16" s="711">
+      <c r="I16" s="399">
         <f>200*1024*1024</f>
         <v>209715200</v>
       </c>
-      <c r="J16" s="711">
+      <c r="J16" s="399">
         <f>500*1024*1024</f>
         <v>524288000</v>
       </c>
-      <c r="K16" s="711">
+      <c r="K16" s="399">
         <f>800*1024*1024</f>
         <v>838860800</v>
       </c>
-      <c r="L16" s="711">
+      <c r="L16" s="399">
         <f>1*1024*1024*1024</f>
         <v>1073741824</v>
       </c>
-      <c r="M16" s="711">
+      <c r="M16" s="399">
         <f>5*1024*1024*1024</f>
         <v>5368709120</v>
       </c>
@@ -13286,40 +13727,40 @@
         <f>Batteries!AT5</f>
         <v>0.08</v>
       </c>
-      <c r="P17" s="714" t="s">
+      <c r="P17" s="401" t="s">
         <v>0</v>
       </c>
-      <c r="Q17" s="715" t="s">
+      <c r="Q17" s="402" t="s">
         <v>5</v>
       </c>
-      <c r="R17" s="716" t="s">
+      <c r="R17" s="403" t="s">
         <v>86</v>
       </c>
-      <c r="S17" s="717" t="s">
+      <c r="S17" s="404" t="s">
         <v>6</v>
       </c>
-      <c r="T17" s="718" t="s">
+      <c r="T17" s="405" t="s">
         <v>7</v>
       </c>
-      <c r="U17" s="714" t="s">
+      <c r="U17" s="401" t="s">
         <v>362</v>
       </c>
-      <c r="V17" s="715" t="s">
+      <c r="V17" s="402" t="s">
         <v>363</v>
       </c>
-      <c r="W17" s="715" t="s">
+      <c r="W17" s="402" t="s">
         <v>9</v>
       </c>
-      <c r="X17" s="717" t="s">
+      <c r="X17" s="404" t="s">
         <v>14</v>
       </c>
       <c r="Y17" s="395" t="s">
         <v>15</v>
       </c>
-      <c r="Z17" s="714" t="s">
+      <c r="Z17" s="401" t="s">
         <v>361</v>
       </c>
-      <c r="AA17" s="716" t="s">
+      <c r="AA17" s="403" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13363,7 +13804,7 @@
         <f>Batteries!AT6</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O18" s="711">
+      <c r="O18" s="399">
         <v>2000</v>
       </c>
       <c r="P18" s="276">
@@ -13443,7 +13884,7 @@
         <f>Batteries!AT7</f>
         <v>0.06</v>
       </c>
-      <c r="O19" s="711">
+      <c r="O19" s="399">
         <f>800*1024</f>
         <v>819200</v>
       </c>
@@ -13524,7 +13965,7 @@
         <f>Batteries!AT8</f>
         <v>0.08</v>
       </c>
-      <c r="O20" s="711">
+      <c r="O20" s="399">
         <f>2*1024*1024</f>
         <v>2097152</v>
       </c>
@@ -13605,7 +14046,7 @@
         <f>Batteries!AT9</f>
         <v>0.08</v>
       </c>
-      <c r="O21" s="711">
+      <c r="O21" s="399">
         <f>50*1024*1024</f>
         <v>52428800</v>
       </c>
@@ -13686,7 +14127,7 @@
         <f>Batteries!AT10</f>
         <v>0.08</v>
       </c>
-      <c r="O22" s="711">
+      <c r="O22" s="399">
         <f>200*1024*1024</f>
         <v>209715200</v>
       </c>
@@ -13767,7 +14208,7 @@
         <f>Batteries!AT11</f>
         <v>0.05</v>
       </c>
-      <c r="O23" s="711">
+      <c r="O23" s="399">
         <f>500*1024*1024</f>
         <v>524288000</v>
       </c>
@@ -13848,7 +14289,7 @@
         <f>Batteries!AT12</f>
         <v>0.04</v>
       </c>
-      <c r="O24" s="711">
+      <c r="O24" s="399">
         <f>800*1024*1024</f>
         <v>838860800</v>
       </c>
@@ -13929,7 +14370,7 @@
         <f>Batteries!AT13</f>
         <v>0.06</v>
       </c>
-      <c r="O25" s="711">
+      <c r="O25" s="399">
         <f>1*1024*1024*1024</f>
         <v>1073741824</v>
       </c>
@@ -14010,7 +14451,7 @@
         <f>Batteries!AT14</f>
         <v>0.09</v>
       </c>
-      <c r="O26" s="711">
+      <c r="O26" s="399">
         <f>5*1024*1024*1024</f>
         <v>5368709120</v>
       </c>
@@ -14168,54 +14609,54 @@
       <c r="E1" s="106" t="s">
         <v>269</v>
       </c>
-      <c r="S1" s="555" t="s">
+      <c r="S1" s="553" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="556"/>
-      <c r="U1" s="556"/>
-      <c r="V1" s="556"/>
-      <c r="W1" s="557"/>
+      <c r="T1" s="554"/>
+      <c r="U1" s="554"/>
+      <c r="V1" s="554"/>
+      <c r="W1" s="555"/>
     </row>
     <row r="3" spans="2:26">
       <c r="D3" s="219" t="s">
         <v>244</v>
       </c>
-      <c r="E3" s="511" t="s">
+      <c r="E3" s="534" t="s">
         <v>245</v>
       </c>
-      <c r="F3" s="512"/>
-      <c r="G3" s="511" t="s">
+      <c r="F3" s="535"/>
+      <c r="G3" s="534" t="s">
         <v>246</v>
       </c>
-      <c r="H3" s="546"/>
-      <c r="I3" s="512"/>
+      <c r="H3" s="564"/>
+      <c r="I3" s="535"/>
       <c r="J3" s="219" t="s">
         <v>247</v>
       </c>
-      <c r="S3" s="550" t="s">
+      <c r="S3" s="548" t="s">
         <v>145</v>
       </c>
-      <c r="T3" s="551"/>
-      <c r="U3" s="551"/>
-      <c r="V3" s="552"/>
-      <c r="W3" s="550" t="s">
+      <c r="T3" s="549"/>
+      <c r="U3" s="549"/>
+      <c r="V3" s="550"/>
+      <c r="W3" s="548" t="s">
         <v>146</v>
       </c>
-      <c r="X3" s="552"/>
+      <c r="X3" s="550"/>
     </row>
     <row r="4" spans="2:26">
       <c r="D4" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="E4" s="543" t="s">
+      <c r="E4" s="561" t="s">
         <v>249</v>
       </c>
-      <c r="F4" s="545"/>
-      <c r="G4" s="543" t="s">
+      <c r="F4" s="563"/>
+      <c r="G4" s="561" t="s">
         <v>251</v>
       </c>
-      <c r="H4" s="544"/>
-      <c r="I4" s="545"/>
+      <c r="H4" s="562"/>
+      <c r="I4" s="563"/>
       <c r="J4" s="64" t="s">
         <v>250</v>
       </c>
@@ -14343,49 +14784,49 @@
       <c r="B13" s="224" t="s">
         <v>254</v>
       </c>
-      <c r="C13" s="549" t="s">
+      <c r="C13" s="567" t="s">
         <v>256</v>
       </c>
-      <c r="D13" s="549"/>
-      <c r="E13" s="549"/>
-      <c r="F13" s="549"/>
-      <c r="G13" s="549"/>
+      <c r="D13" s="567"/>
+      <c r="E13" s="567"/>
+      <c r="F13" s="567"/>
+      <c r="G13" s="567"/>
       <c r="I13" s="242" t="s">
         <v>254</v>
       </c>
-      <c r="J13" s="540" t="s">
+      <c r="J13" s="558" t="s">
         <v>256</v>
       </c>
-      <c r="K13" s="540"/>
-      <c r="L13" s="540"/>
-      <c r="M13" s="541"/>
-      <c r="N13" s="547" t="s">
+      <c r="K13" s="558"/>
+      <c r="L13" s="558"/>
+      <c r="M13" s="559"/>
+      <c r="N13" s="565" t="s">
         <v>275</v>
       </c>
-      <c r="O13" s="548"/>
+      <c r="O13" s="566"/>
     </row>
     <row r="14" spans="2:26">
       <c r="B14" s="64" t="s">
         <v>255</v>
       </c>
-      <c r="C14" s="542" t="s">
+      <c r="C14" s="560" t="s">
         <v>257</v>
       </c>
-      <c r="D14" s="542"/>
-      <c r="E14" s="542"/>
-      <c r="F14" s="542"/>
-      <c r="G14" s="542"/>
+      <c r="D14" s="560"/>
+      <c r="E14" s="560"/>
+      <c r="F14" s="560"/>
+      <c r="G14" s="560"/>
       <c r="I14" s="64" t="s">
         <v>255</v>
       </c>
-      <c r="J14" s="542"/>
-      <c r="K14" s="542"/>
-      <c r="L14" s="542"/>
-      <c r="M14" s="543"/>
-      <c r="N14" s="558" t="s">
+      <c r="J14" s="560"/>
+      <c r="K14" s="560"/>
+      <c r="L14" s="560"/>
+      <c r="M14" s="561"/>
+      <c r="N14" s="556" t="s">
         <v>249</v>
       </c>
-      <c r="O14" s="559"/>
+      <c r="O14" s="557"/>
     </row>
     <row r="16" spans="2:26" ht="15.75">
       <c r="B16" s="237" t="s">
@@ -14484,7 +14925,7 @@
       <c r="I20" t="s">
         <v>283</v>
       </c>
-      <c r="Q20" s="553" t="s">
+      <c r="Q20" s="551" t="s">
         <v>312</v>
       </c>
     </row>
@@ -14495,7 +14936,7 @@
       <c r="I21" t="s">
         <v>284</v>
       </c>
-      <c r="Q21" s="554"/>
+      <c r="Q21" s="552"/>
     </row>
     <row r="22" spans="2:17" ht="15.75">
       <c r="B22" t="s">
@@ -14641,11 +15082,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="N14:O14"/>
     <mergeCell ref="J13:M13"/>
     <mergeCell ref="J14:M14"/>
     <mergeCell ref="G4:I4"/>
@@ -14655,6 +15091,11 @@
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="N14:O14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14716,64 +15157,64 @@
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:18" ht="18.75">
-      <c r="A3" s="562" t="s">
+      <c r="A3" s="584" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="562" t="s">
+      <c r="B3" s="584" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="562" t="s">
+      <c r="C3" s="584" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="564" t="s">
+      <c r="D3" s="586" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="579" t="s">
+      <c r="E3" s="601" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="580"/>
-      <c r="G3" s="580"/>
-      <c r="H3" s="580"/>
-      <c r="I3" s="580"/>
-      <c r="J3" s="580"/>
-      <c r="K3" s="580"/>
-      <c r="L3" s="580"/>
-      <c r="M3" s="580"/>
-      <c r="N3" s="580"/>
-      <c r="O3" s="580"/>
-      <c r="P3" s="581"/>
-      <c r="Q3" s="562" t="s">
+      <c r="F3" s="602"/>
+      <c r="G3" s="602"/>
+      <c r="H3" s="602"/>
+      <c r="I3" s="602"/>
+      <c r="J3" s="602"/>
+      <c r="K3" s="602"/>
+      <c r="L3" s="602"/>
+      <c r="M3" s="602"/>
+      <c r="N3" s="602"/>
+      <c r="O3" s="602"/>
+      <c r="P3" s="603"/>
+      <c r="Q3" s="584" t="s">
         <v>150</v>
       </c>
-      <c r="R3" s="565" t="s">
+      <c r="R3" s="587" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="19.5" thickBot="1">
-      <c r="A4" s="563"/>
-      <c r="B4" s="563"/>
-      <c r="C4" s="563"/>
-      <c r="D4" s="563"/>
-      <c r="E4" s="568" t="s">
+      <c r="A4" s="585"/>
+      <c r="B4" s="585"/>
+      <c r="C4" s="585"/>
+      <c r="D4" s="585"/>
+      <c r="E4" s="590" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="569"/>
+      <c r="F4" s="591"/>
       <c r="G4" s="215"/>
-      <c r="H4" s="567" t="s">
+      <c r="H4" s="589" t="s">
         <v>164</v>
       </c>
-      <c r="I4" s="567"/>
-      <c r="J4" s="567"/>
-      <c r="K4" s="567"/>
-      <c r="L4" s="567"/>
+      <c r="I4" s="589"/>
+      <c r="J4" s="589"/>
+      <c r="K4" s="589"/>
+      <c r="L4" s="589"/>
       <c r="M4" s="216"/>
-      <c r="N4" s="576" t="s">
+      <c r="N4" s="598" t="s">
         <v>151</v>
       </c>
-      <c r="O4" s="577"/>
-      <c r="P4" s="578"/>
-      <c r="Q4" s="563"/>
-      <c r="R4" s="566"/>
+      <c r="O4" s="599"/>
+      <c r="P4" s="600"/>
+      <c r="Q4" s="585"/>
+      <c r="R4" s="588"/>
     </row>
     <row r="5" spans="1:18" ht="30.75" thickBot="1">
       <c r="A5" s="157" t="s">
@@ -14808,13 +15249,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="30">
-      <c r="A6" s="560" t="s">
+      <c r="A6" s="582" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="573" t="s">
+      <c r="B6" s="595" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="573" t="s">
+      <c r="C6" s="595" t="s">
         <v>162</v>
       </c>
       <c r="D6" s="179" t="s">
@@ -14835,14 +15276,14 @@
       <c r="Q6" s="188" t="s">
         <v>159</v>
       </c>
-      <c r="R6" s="570">
+      <c r="R6" s="592">
         <v>2223</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1">
-      <c r="A7" s="561"/>
-      <c r="B7" s="574"/>
-      <c r="C7" s="574"/>
+      <c r="A7" s="583"/>
+      <c r="B7" s="596"/>
+      <c r="C7" s="596"/>
       <c r="D7" s="189" t="s">
         <v>160</v>
       </c>
@@ -14879,12 +15320,12 @@
       <c r="Q7" s="197" t="s">
         <v>167</v>
       </c>
-      <c r="R7" s="571"/>
+      <c r="R7" s="593"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1">
-      <c r="A8" s="561"/>
-      <c r="B8" s="575"/>
-      <c r="C8" s="575"/>
+      <c r="A8" s="583"/>
+      <c r="B8" s="597"/>
+      <c r="C8" s="597"/>
       <c r="D8" s="189" t="s">
         <v>297</v>
       </c>
@@ -14917,10 +15358,10 @@
       <c r="Q8" s="197" t="s">
         <v>168</v>
       </c>
-      <c r="R8" s="572"/>
+      <c r="R8" s="594"/>
     </row>
     <row r="9" spans="1:18" ht="27.75" customHeight="1">
-      <c r="A9" s="561"/>
+      <c r="A9" s="583"/>
       <c r="B9" s="199"/>
       <c r="C9" s="200"/>
       <c r="D9" s="200"/>
@@ -14940,7 +15381,7 @@
       <c r="R9" s="206"/>
     </row>
     <row r="10" spans="1:18" ht="45">
-      <c r="A10" s="561"/>
+      <c r="A10" s="583"/>
       <c r="B10" s="207" t="s">
         <v>171</v>
       </c>
@@ -14976,7 +15417,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="60.75" thickBot="1">
-      <c r="A11" s="561"/>
+      <c r="A11" s="583"/>
       <c r="B11" s="253" t="s">
         <v>173</v>
       </c>
@@ -15010,7 +15451,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="45">
-      <c r="A12" s="585" t="s">
+      <c r="A12" s="571" t="s">
         <v>179</v>
       </c>
       <c r="B12" s="248" t="s">
@@ -15033,12 +15474,12 @@
       <c r="Q12" s="178" t="s">
         <v>181</v>
       </c>
-      <c r="R12" s="591">
+      <c r="R12" s="577">
         <v>2232</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="60">
-      <c r="A13" s="586"/>
+      <c r="A13" s="572"/>
       <c r="B13" s="249" t="s">
         <v>182</v>
       </c>
@@ -15079,10 +15520,10 @@
       <c r="Q13" s="139" t="s">
         <v>185</v>
       </c>
-      <c r="R13" s="583"/>
+      <c r="R13" s="569"/>
     </row>
     <row r="14" spans="1:18" ht="75">
-      <c r="A14" s="586"/>
+      <c r="A14" s="572"/>
       <c r="B14" s="250" t="s">
         <v>183</v>
       </c>
@@ -15121,10 +15562,10 @@
       <c r="Q14" s="138" t="s">
         <v>186</v>
       </c>
-      <c r="R14" s="592"/>
+      <c r="R14" s="578"/>
     </row>
     <row r="15" spans="1:18" ht="60">
-      <c r="A15" s="586"/>
+      <c r="A15" s="572"/>
       <c r="B15" s="249" t="s">
         <v>187</v>
       </c>
@@ -15137,17 +15578,17 @@
       <c r="G15" s="146" t="s">
         <v>165</v>
       </c>
-      <c r="H15" s="593" t="s">
+      <c r="H15" s="579" t="s">
         <v>189</v>
       </c>
-      <c r="I15" s="593"/>
+      <c r="I15" s="579"/>
       <c r="J15" s="233" t="s">
         <v>130</v>
       </c>
-      <c r="K15" s="593" t="s">
+      <c r="K15" s="579" t="s">
         <v>190</v>
       </c>
-      <c r="L15" s="593"/>
+      <c r="L15" s="579"/>
       <c r="M15" s="150" t="s">
         <v>166</v>
       </c>
@@ -15157,12 +15598,12 @@
       <c r="Q15" s="140" t="s">
         <v>191</v>
       </c>
-      <c r="R15" s="582">
+      <c r="R15" s="568">
         <v>2233</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="45">
-      <c r="A16" s="586"/>
+      <c r="A16" s="572"/>
       <c r="B16" s="249" t="s">
         <v>194</v>
       </c>
@@ -15182,17 +15623,17 @@
       <c r="N16" s="153" t="s">
         <v>172</v>
       </c>
-      <c r="O16" s="595" t="s">
+      <c r="O16" s="581" t="s">
         <v>195</v>
       </c>
-      <c r="P16" s="594"/>
+      <c r="P16" s="580"/>
       <c r="Q16" s="139" t="s">
         <v>196</v>
       </c>
-      <c r="R16" s="583"/>
+      <c r="R16" s="569"/>
     </row>
     <row r="17" spans="1:18" ht="75">
-      <c r="A17" s="586"/>
+      <c r="A17" s="572"/>
       <c r="B17" s="250" t="s">
         <v>192</v>
       </c>
@@ -15232,17 +15673,17 @@
       <c r="N17" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="O17" s="593" t="s">
+      <c r="O17" s="579" t="s">
         <v>197</v>
       </c>
-      <c r="P17" s="594"/>
+      <c r="P17" s="580"/>
       <c r="Q17" s="154" t="s">
         <v>198</v>
       </c>
-      <c r="R17" s="592"/>
+      <c r="R17" s="578"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="586"/>
+      <c r="A18" s="572"/>
       <c r="B18" s="155"/>
       <c r="C18" s="155"/>
       <c r="D18" s="155"/>
@@ -15262,8 +15703,8 @@
       <c r="R18" s="277"/>
     </row>
     <row r="19" spans="1:18" ht="45">
-      <c r="A19" s="586"/>
-      <c r="B19" s="588" t="s">
+      <c r="A19" s="572"/>
+      <c r="B19" s="574" t="s">
         <v>206</v>
       </c>
       <c r="C19" s="251"/>
@@ -15288,10 +15729,10 @@
       <c r="J19" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="K19" s="593" t="s">
+      <c r="K19" s="579" t="s">
         <v>180</v>
       </c>
-      <c r="L19" s="593"/>
+      <c r="L19" s="579"/>
       <c r="M19" s="150" t="s">
         <v>166</v>
       </c>
@@ -15301,13 +15742,13 @@
       <c r="Q19" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="R19" s="582">
+      <c r="R19" s="568">
         <v>2234</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="45">
-      <c r="A20" s="586"/>
-      <c r="B20" s="589"/>
+      <c r="A20" s="572"/>
+      <c r="B20" s="575"/>
       <c r="C20" s="252"/>
       <c r="D20" s="142" t="s">
         <v>306</v>
@@ -15330,10 +15771,10 @@
       <c r="J20" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="K20" s="593" t="s">
+      <c r="K20" s="579" t="s">
         <v>290</v>
       </c>
-      <c r="L20" s="593"/>
+      <c r="L20" s="579"/>
       <c r="M20" s="150" t="s">
         <v>166</v>
       </c>
@@ -15343,11 +15784,11 @@
       <c r="Q20" s="139" t="s">
         <v>205</v>
       </c>
-      <c r="R20" s="583"/>
+      <c r="R20" s="569"/>
     </row>
     <row r="21" spans="1:18" ht="60">
-      <c r="A21" s="586"/>
-      <c r="B21" s="589"/>
+      <c r="A21" s="572"/>
+      <c r="B21" s="575"/>
       <c r="C21" s="173"/>
       <c r="D21" s="173"/>
       <c r="E21" s="173"/>
@@ -15365,11 +15806,11 @@
       <c r="Q21" s="172" t="s">
         <v>207</v>
       </c>
-      <c r="R21" s="583"/>
+      <c r="R21" s="569"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="586"/>
-      <c r="B22" s="589"/>
+      <c r="A22" s="572"/>
+      <c r="B22" s="575"/>
       <c r="C22" s="173"/>
       <c r="D22" s="173"/>
       <c r="E22" s="173"/>
@@ -15385,11 +15826,11 @@
       <c r="O22" s="173"/>
       <c r="P22" s="173"/>
       <c r="Q22" s="174"/>
-      <c r="R22" s="583"/>
+      <c r="R22" s="569"/>
     </row>
     <row r="23" spans="1:18" ht="90">
-      <c r="A23" s="586"/>
-      <c r="B23" s="589"/>
+      <c r="A23" s="572"/>
+      <c r="B23" s="575"/>
       <c r="C23" s="173"/>
       <c r="D23" s="173"/>
       <c r="E23" s="173"/>
@@ -15407,11 +15848,11 @@
       <c r="Q23" s="247" t="s">
         <v>209</v>
       </c>
-      <c r="R23" s="583"/>
+      <c r="R23" s="569"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A24" s="587"/>
-      <c r="B24" s="590"/>
+      <c r="A24" s="573"/>
+      <c r="B24" s="576"/>
       <c r="C24" s="266"/>
       <c r="D24" s="267" t="s">
         <v>305</v>
@@ -15435,7 +15876,7 @@
       <c r="Q24" s="275" t="s">
         <v>307</v>
       </c>
-      <c r="R24" s="584"/>
+      <c r="R24" s="570"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="130"/>
@@ -15443,17 +15884,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="R19:R24"/>
-    <mergeCell ref="A12:A24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R15:R17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="O16:P16"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
@@ -15468,6 +15898,17 @@
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="E3:P3"/>
     <mergeCell ref="B6:B8"/>
+    <mergeCell ref="R19:R24"/>
+    <mergeCell ref="A12:A24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R15:R17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="O16:P16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15501,20 +15942,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24" thickBot="1">
-      <c r="A1" s="596" t="s">
+      <c r="A1" s="616" t="s">
         <v>303</v>
       </c>
-      <c r="B1" s="597"/>
-      <c r="C1" s="597"/>
-      <c r="D1" s="597"/>
-      <c r="E1" s="597"/>
-      <c r="F1" s="597"/>
-      <c r="G1" s="597"/>
-      <c r="H1" s="597"/>
-      <c r="I1" s="597"/>
-      <c r="J1" s="597"/>
-      <c r="K1" s="597"/>
-      <c r="L1" s="598"/>
+      <c r="B1" s="617"/>
+      <c r="C1" s="617"/>
+      <c r="D1" s="617"/>
+      <c r="E1" s="617"/>
+      <c r="F1" s="617"/>
+      <c r="G1" s="617"/>
+      <c r="H1" s="617"/>
+      <c r="I1" s="617"/>
+      <c r="J1" s="617"/>
+      <c r="K1" s="617"/>
+      <c r="L1" s="618"/>
     </row>
     <row r="2" spans="1:18">
       <c r="D2" s="98">
@@ -15572,82 +16013,82 @@
         <v>354</v>
       </c>
       <c r="B6" s="96"/>
-      <c r="C6" s="618" t="s">
+      <c r="C6" s="614" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="618"/>
-      <c r="E6" s="618"/>
-      <c r="F6" s="618"/>
-      <c r="G6" s="618"/>
-      <c r="H6" s="618"/>
-      <c r="I6" s="618"/>
-      <c r="J6" s="618"/>
-      <c r="K6" s="618"/>
-      <c r="L6" s="619"/>
-      <c r="M6" s="612" t="s">
+      <c r="D6" s="614"/>
+      <c r="E6" s="614"/>
+      <c r="F6" s="614"/>
+      <c r="G6" s="614"/>
+      <c r="H6" s="614"/>
+      <c r="I6" s="614"/>
+      <c r="J6" s="614"/>
+      <c r="K6" s="614"/>
+      <c r="L6" s="615"/>
+      <c r="M6" s="604" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A7" s="606" t="s">
+      <c r="A7" s="622" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="607"/>
-      <c r="C7" s="602" t="s">
+      <c r="B7" s="623"/>
+      <c r="C7" s="607" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="602" t="s">
+      <c r="D7" s="607" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="602" t="s">
+      <c r="E7" s="607" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="602" t="s">
+      <c r="F7" s="607" t="s">
         <v>210</v>
       </c>
-      <c r="G7" s="531" t="s">
+      <c r="G7" s="508" t="s">
         <v>137</v>
       </c>
-      <c r="H7" s="532"/>
-      <c r="I7" s="532"/>
-      <c r="J7" s="532"/>
-      <c r="K7" s="533"/>
-      <c r="L7" s="602" t="s">
+      <c r="H7" s="509"/>
+      <c r="I7" s="509"/>
+      <c r="J7" s="509"/>
+      <c r="K7" s="510"/>
+      <c r="L7" s="607" t="s">
         <v>117</v>
       </c>
-      <c r="M7" s="613"/>
+      <c r="M7" s="605"/>
       <c r="Q7" s="95"/>
       <c r="R7" s="95"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="608"/>
-      <c r="B8" s="609"/>
-      <c r="C8" s="603"/>
-      <c r="D8" s="603"/>
-      <c r="E8" s="603"/>
-      <c r="F8" s="603"/>
-      <c r="G8" s="599" t="s">
+      <c r="A8" s="624"/>
+      <c r="B8" s="625"/>
+      <c r="C8" s="608"/>
+      <c r="D8" s="608"/>
+      <c r="E8" s="608"/>
+      <c r="F8" s="608"/>
+      <c r="G8" s="610" t="s">
         <v>140</v>
       </c>
-      <c r="H8" s="616" t="s">
+      <c r="H8" s="612" t="s">
         <v>135</v>
       </c>
-      <c r="I8" s="616"/>
-      <c r="J8" s="617"/>
-      <c r="K8" s="599" t="s">
+      <c r="I8" s="612"/>
+      <c r="J8" s="613"/>
+      <c r="K8" s="610" t="s">
         <v>120</v>
       </c>
-      <c r="L8" s="603"/>
-      <c r="M8" s="613"/>
+      <c r="L8" s="608"/>
+      <c r="M8" s="605"/>
     </row>
     <row r="9" spans="1:18" ht="30.75" thickBot="1">
-      <c r="A9" s="608"/>
-      <c r="B9" s="609"/>
-      <c r="C9" s="615"/>
-      <c r="D9" s="615"/>
-      <c r="E9" s="615"/>
-      <c r="F9" s="615"/>
-      <c r="G9" s="600"/>
+      <c r="A9" s="624"/>
+      <c r="B9" s="625"/>
+      <c r="C9" s="609"/>
+      <c r="D9" s="609"/>
+      <c r="E9" s="609"/>
+      <c r="F9" s="609"/>
+      <c r="G9" s="611"/>
       <c r="H9" s="126" t="s">
         <v>139</v>
       </c>
@@ -15657,13 +16098,13 @@
       <c r="J9" s="126" t="s">
         <v>136</v>
       </c>
-      <c r="K9" s="600"/>
-      <c r="L9" s="604"/>
-      <c r="M9" s="614"/>
+      <c r="K9" s="611"/>
+      <c r="L9" s="620"/>
+      <c r="M9" s="606"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="608"/>
-      <c r="B10" s="609"/>
+      <c r="A10" s="624"/>
+      <c r="B10" s="625"/>
       <c r="C10" s="123">
         <v>60</v>
       </c>
@@ -15706,8 +16147,8 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="610"/>
-      <c r="B11" s="611"/>
+      <c r="A11" s="626"/>
+      <c r="B11" s="627"/>
       <c r="C11" s="108">
         <v>60</v>
       </c>
@@ -15750,8 +16191,8 @@
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="C12" s="601"/>
-      <c r="D12" s="601"/>
+      <c r="C12" s="619"/>
+      <c r="D12" s="619"/>
       <c r="F12" s="94"/>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1"/>
@@ -15759,131 +16200,137 @@
       <c r="A17" t="s">
         <v>313</v>
       </c>
-      <c r="B17" s="605" t="s">
+      <c r="B17" s="621" t="s">
         <v>337</v>
       </c>
-      <c r="C17" s="605"/>
-      <c r="D17" s="605"/>
-      <c r="E17" s="605"/>
+      <c r="C17" s="621"/>
+      <c r="D17" s="621"/>
+      <c r="E17" s="621"/>
       <c r="G17" t="s">
         <v>322</v>
       </c>
       <c r="R17" s="303"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="B18" s="605"/>
-      <c r="C18" s="605"/>
-      <c r="D18" s="605"/>
-      <c r="E18" s="605"/>
+      <c r="B18" s="621"/>
+      <c r="C18" s="621"/>
+      <c r="D18" s="621"/>
+      <c r="E18" s="621"/>
       <c r="G18" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="B19" s="605"/>
-      <c r="C19" s="605"/>
-      <c r="D19" s="605"/>
-      <c r="E19" s="605"/>
+      <c r="B19" s="621"/>
+      <c r="C19" s="621"/>
+      <c r="D19" s="621"/>
+      <c r="E19" s="621"/>
       <c r="G19" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="B20" s="605"/>
-      <c r="C20" s="605"/>
-      <c r="D20" s="605"/>
-      <c r="E20" s="605"/>
+      <c r="B20" s="621"/>
+      <c r="C20" s="621"/>
+      <c r="D20" s="621"/>
+      <c r="E20" s="621"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="B21" s="605"/>
-      <c r="C21" s="605"/>
-      <c r="D21" s="605"/>
-      <c r="E21" s="605"/>
+      <c r="B21" s="621"/>
+      <c r="C21" s="621"/>
+      <c r="D21" s="621"/>
+      <c r="E21" s="621"/>
       <c r="G21" t="s">
         <v>325</v>
       </c>
       <c r="J21" s="239"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="B22" s="605"/>
-      <c r="C22" s="605"/>
-      <c r="D22" s="605"/>
-      <c r="E22" s="605"/>
+      <c r="B22" s="621"/>
+      <c r="C22" s="621"/>
+      <c r="D22" s="621"/>
+      <c r="E22" s="621"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="B23" s="605"/>
-      <c r="C23" s="605"/>
-      <c r="D23" s="605"/>
-      <c r="E23" s="605"/>
+      <c r="B23" s="621"/>
+      <c r="C23" s="621"/>
+      <c r="D23" s="621"/>
+      <c r="E23" s="621"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="B24" s="605"/>
-      <c r="C24" s="605"/>
-      <c r="D24" s="605"/>
-      <c r="E24" s="605"/>
+      <c r="B24" s="621"/>
+      <c r="C24" s="621"/>
+      <c r="D24" s="621"/>
+      <c r="E24" s="621"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="B25" s="605"/>
-      <c r="C25" s="605"/>
-      <c r="D25" s="605"/>
-      <c r="E25" s="605"/>
+      <c r="B25" s="621"/>
+      <c r="C25" s="621"/>
+      <c r="D25" s="621"/>
+      <c r="E25" s="621"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="B26" s="605"/>
-      <c r="C26" s="605"/>
-      <c r="D26" s="605"/>
-      <c r="E26" s="605"/>
+      <c r="B26" s="621"/>
+      <c r="C26" s="621"/>
+      <c r="D26" s="621"/>
+      <c r="E26" s="621"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="B27" s="605"/>
-      <c r="C27" s="605"/>
-      <c r="D27" s="605"/>
-      <c r="E27" s="605"/>
+      <c r="B27" s="621"/>
+      <c r="C27" s="621"/>
+      <c r="D27" s="621"/>
+      <c r="E27" s="621"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="B28" s="605"/>
-      <c r="C28" s="605"/>
-      <c r="D28" s="605"/>
-      <c r="E28" s="605"/>
+      <c r="B28" s="621"/>
+      <c r="C28" s="621"/>
+      <c r="D28" s="621"/>
+      <c r="E28" s="621"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="B29" s="605"/>
-      <c r="C29" s="605"/>
-      <c r="D29" s="605"/>
-      <c r="E29" s="605"/>
+      <c r="B29" s="621"/>
+      <c r="C29" s="621"/>
+      <c r="D29" s="621"/>
+      <c r="E29" s="621"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="B30" s="605"/>
-      <c r="C30" s="605"/>
-      <c r="D30" s="605"/>
-      <c r="E30" s="605"/>
+      <c r="B30" s="621"/>
+      <c r="C30" s="621"/>
+      <c r="D30" s="621"/>
+      <c r="E30" s="621"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="B31" s="605"/>
-      <c r="C31" s="605"/>
-      <c r="D31" s="605"/>
-      <c r="E31" s="605"/>
+      <c r="B31" s="621"/>
+      <c r="C31" s="621"/>
+      <c r="D31" s="621"/>
+      <c r="E31" s="621"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="B32" s="605"/>
-      <c r="C32" s="605"/>
-      <c r="D32" s="605"/>
-      <c r="E32" s="605"/>
+      <c r="B32" s="621"/>
+      <c r="C32" s="621"/>
+      <c r="D32" s="621"/>
+      <c r="E32" s="621"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="605"/>
-      <c r="C33" s="605"/>
-      <c r="D33" s="605"/>
-      <c r="E33" s="605"/>
+      <c r="B33" s="621"/>
+      <c r="C33" s="621"/>
+      <c r="D33" s="621"/>
+      <c r="E33" s="621"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="605"/>
-      <c r="C34" s="605"/>
-      <c r="D34" s="605"/>
-      <c r="E34" s="605"/>
+      <c r="B34" s="621"/>
+      <c r="C34" s="621"/>
+      <c r="D34" s="621"/>
+      <c r="E34" s="621"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="B17:E34"/>
+    <mergeCell ref="A7:B11"/>
     <mergeCell ref="M6:M9"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="C7:C9"/>
@@ -15893,12 +16340,6 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="C6:L6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="B17:E34"/>
-    <mergeCell ref="A7:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -15910,8 +16351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AZ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AV13" sqref="AV13:AV24"/>
+    <sheetView topLeftCell="AV3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AV28" sqref="AV28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -15959,30 +16400,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="24" thickBot="1">
-      <c r="A1" s="596" t="s">
+      <c r="A1" s="616" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="597"/>
-      <c r="C1" s="597"/>
-      <c r="D1" s="597"/>
-      <c r="E1" s="597"/>
-      <c r="F1" s="597"/>
-      <c r="G1" s="597"/>
-      <c r="H1" s="597"/>
-      <c r="I1" s="597"/>
-      <c r="J1" s="597"/>
-      <c r="K1" s="597"/>
-      <c r="L1" s="597"/>
-      <c r="M1" s="597"/>
-      <c r="N1" s="597"/>
-      <c r="O1" s="597"/>
-      <c r="P1" s="597"/>
-      <c r="Q1" s="597"/>
-      <c r="R1" s="597"/>
-      <c r="S1" s="597"/>
-      <c r="T1" s="597"/>
-      <c r="U1" s="597"/>
-      <c r="V1" s="598"/>
+      <c r="B1" s="617"/>
+      <c r="C1" s="617"/>
+      <c r="D1" s="617"/>
+      <c r="E1" s="617"/>
+      <c r="F1" s="617"/>
+      <c r="G1" s="617"/>
+      <c r="H1" s="617"/>
+      <c r="I1" s="617"/>
+      <c r="J1" s="617"/>
+      <c r="K1" s="617"/>
+      <c r="L1" s="617"/>
+      <c r="M1" s="617"/>
+      <c r="N1" s="617"/>
+      <c r="O1" s="617"/>
+      <c r="P1" s="617"/>
+      <c r="Q1" s="617"/>
+      <c r="R1" s="617"/>
+      <c r="S1" s="617"/>
+      <c r="T1" s="617"/>
+      <c r="U1" s="617"/>
+      <c r="V1" s="618"/>
     </row>
     <row r="2" spans="1:52">
       <c r="N2" t="s">
@@ -16062,343 +16503,343 @@
     </row>
     <row r="6" spans="1:52" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="7" spans="1:52" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="649" t="s">
+      <c r="A7" s="693" t="s">
         <v>355</v>
       </c>
-      <c r="B7" s="650"/>
-      <c r="C7" s="620" t="s">
+      <c r="B7" s="694"/>
+      <c r="C7" s="699" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="620"/>
-      <c r="E7" s="620"/>
-      <c r="F7" s="620"/>
-      <c r="G7" s="620"/>
-      <c r="H7" s="620"/>
-      <c r="I7" s="620"/>
-      <c r="J7" s="620"/>
-      <c r="K7" s="620"/>
-      <c r="L7" s="620"/>
-      <c r="M7" s="620"/>
-      <c r="N7" s="620"/>
-      <c r="O7" s="620"/>
-      <c r="P7" s="620"/>
-      <c r="Q7" s="620"/>
-      <c r="R7" s="620"/>
-      <c r="S7" s="620"/>
-      <c r="T7" s="620"/>
-      <c r="U7" s="620"/>
-      <c r="V7" s="620"/>
-      <c r="W7" s="620"/>
-      <c r="X7" s="620"/>
-      <c r="Y7" s="620"/>
-      <c r="Z7" s="620"/>
-      <c r="AA7" s="620"/>
-      <c r="AB7" s="620"/>
-      <c r="AC7" s="620"/>
-      <c r="AD7" s="620"/>
-      <c r="AE7" s="620"/>
-      <c r="AF7" s="620"/>
-      <c r="AG7" s="620"/>
-      <c r="AH7" s="620"/>
-      <c r="AI7" s="620"/>
-      <c r="AJ7" s="620"/>
-      <c r="AK7" s="620"/>
-      <c r="AL7" s="620"/>
-      <c r="AM7" s="620"/>
-      <c r="AN7" s="620"/>
-      <c r="AO7" s="620"/>
-      <c r="AP7" s="620"/>
-      <c r="AQ7" s="621"/>
-      <c r="AR7" s="676" t="s">
+      <c r="D7" s="699"/>
+      <c r="E7" s="699"/>
+      <c r="F7" s="699"/>
+      <c r="G7" s="699"/>
+      <c r="H7" s="699"/>
+      <c r="I7" s="699"/>
+      <c r="J7" s="699"/>
+      <c r="K7" s="699"/>
+      <c r="L7" s="699"/>
+      <c r="M7" s="699"/>
+      <c r="N7" s="699"/>
+      <c r="O7" s="699"/>
+      <c r="P7" s="699"/>
+      <c r="Q7" s="699"/>
+      <c r="R7" s="699"/>
+      <c r="S7" s="699"/>
+      <c r="T7" s="699"/>
+      <c r="U7" s="699"/>
+      <c r="V7" s="699"/>
+      <c r="W7" s="699"/>
+      <c r="X7" s="699"/>
+      <c r="Y7" s="699"/>
+      <c r="Z7" s="699"/>
+      <c r="AA7" s="699"/>
+      <c r="AB7" s="699"/>
+      <c r="AC7" s="699"/>
+      <c r="AD7" s="699"/>
+      <c r="AE7" s="699"/>
+      <c r="AF7" s="699"/>
+      <c r="AG7" s="699"/>
+      <c r="AH7" s="699"/>
+      <c r="AI7" s="699"/>
+      <c r="AJ7" s="699"/>
+      <c r="AK7" s="699"/>
+      <c r="AL7" s="699"/>
+      <c r="AM7" s="699"/>
+      <c r="AN7" s="699"/>
+      <c r="AO7" s="699"/>
+      <c r="AP7" s="699"/>
+      <c r="AQ7" s="700"/>
+      <c r="AR7" s="666" t="s">
         <v>371</v>
       </c>
-      <c r="AS7" s="677"/>
-      <c r="AT7" s="678"/>
-      <c r="AU7" s="691" t="s">
+      <c r="AS7" s="667"/>
+      <c r="AT7" s="668"/>
+      <c r="AU7" s="637" t="s">
         <v>333</v>
       </c>
       <c r="AY7" s="95"/>
       <c r="AZ7" s="95"/>
     </row>
     <row r="8" spans="1:52" ht="15" customHeight="1">
-      <c r="A8" s="663" t="s">
+      <c r="A8" s="695" t="s">
         <v>287</v>
       </c>
-      <c r="B8" s="664"/>
-      <c r="C8" s="667" t="s">
+      <c r="B8" s="696"/>
+      <c r="C8" s="640" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="670" t="s">
+      <c r="D8" s="643" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="673" t="s">
+      <c r="E8" s="646" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="631" t="s">
+      <c r="F8" s="649" t="s">
         <v>288</v>
       </c>
-      <c r="G8" s="634" t="s">
+      <c r="G8" s="703" t="s">
         <v>292</v>
       </c>
-      <c r="H8" s="635"/>
-      <c r="I8" s="635"/>
-      <c r="J8" s="635"/>
-      <c r="K8" s="636"/>
-      <c r="L8" s="636"/>
-      <c r="M8" s="636"/>
-      <c r="N8" s="636"/>
-      <c r="O8" s="636"/>
-      <c r="P8" s="637"/>
-      <c r="Q8" s="657" t="s">
+      <c r="H8" s="704"/>
+      <c r="I8" s="704"/>
+      <c r="J8" s="704"/>
+      <c r="K8" s="653"/>
+      <c r="L8" s="653"/>
+      <c r="M8" s="653"/>
+      <c r="N8" s="653"/>
+      <c r="O8" s="653"/>
+      <c r="P8" s="654"/>
+      <c r="Q8" s="678" t="s">
         <v>291</v>
       </c>
-      <c r="R8" s="658"/>
-      <c r="S8" s="658"/>
-      <c r="T8" s="658"/>
-      <c r="U8" s="658"/>
-      <c r="V8" s="658"/>
-      <c r="W8" s="658"/>
-      <c r="X8" s="658"/>
-      <c r="Y8" s="658"/>
-      <c r="Z8" s="658"/>
-      <c r="AA8" s="658"/>
-      <c r="AB8" s="658"/>
-      <c r="AC8" s="658"/>
-      <c r="AD8" s="658"/>
-      <c r="AE8" s="658"/>
-      <c r="AF8" s="658"/>
-      <c r="AG8" s="658"/>
-      <c r="AH8" s="658"/>
-      <c r="AI8" s="658"/>
-      <c r="AJ8" s="658"/>
-      <c r="AK8" s="658"/>
-      <c r="AL8" s="658"/>
-      <c r="AM8" s="658"/>
-      <c r="AN8" s="658"/>
-      <c r="AO8" s="659"/>
-      <c r="AP8" s="694" t="s">
+      <c r="R8" s="679"/>
+      <c r="S8" s="679"/>
+      <c r="T8" s="679"/>
+      <c r="U8" s="679"/>
+      <c r="V8" s="679"/>
+      <c r="W8" s="679"/>
+      <c r="X8" s="679"/>
+      <c r="Y8" s="679"/>
+      <c r="Z8" s="679"/>
+      <c r="AA8" s="679"/>
+      <c r="AB8" s="679"/>
+      <c r="AC8" s="679"/>
+      <c r="AD8" s="679"/>
+      <c r="AE8" s="679"/>
+      <c r="AF8" s="679"/>
+      <c r="AG8" s="679"/>
+      <c r="AH8" s="679"/>
+      <c r="AI8" s="679"/>
+      <c r="AJ8" s="679"/>
+      <c r="AK8" s="679"/>
+      <c r="AL8" s="679"/>
+      <c r="AM8" s="679"/>
+      <c r="AN8" s="679"/>
+      <c r="AO8" s="680"/>
+      <c r="AP8" s="655" t="s">
         <v>331</v>
       </c>
-      <c r="AQ8" s="688" t="s">
+      <c r="AQ8" s="658" t="s">
         <v>332</v>
       </c>
-      <c r="AR8" s="679"/>
-      <c r="AS8" s="680"/>
-      <c r="AT8" s="681"/>
-      <c r="AU8" s="692"/>
+      <c r="AR8" s="669"/>
+      <c r="AS8" s="670"/>
+      <c r="AT8" s="671"/>
+      <c r="AU8" s="638"/>
     </row>
     <row r="9" spans="1:52" ht="15" customHeight="1">
-      <c r="A9" s="608"/>
-      <c r="B9" s="665"/>
-      <c r="C9" s="668"/>
-      <c r="D9" s="671"/>
-      <c r="E9" s="674"/>
-      <c r="F9" s="632"/>
-      <c r="G9" s="638" t="s">
+      <c r="A9" s="624"/>
+      <c r="B9" s="697"/>
+      <c r="C9" s="641"/>
+      <c r="D9" s="644"/>
+      <c r="E9" s="647"/>
+      <c r="F9" s="701"/>
+      <c r="G9" s="661" t="s">
         <v>298</v>
       </c>
       <c r="H9" s="354"/>
-      <c r="I9" s="638" t="s">
+      <c r="I9" s="661" t="s">
         <v>299</v>
       </c>
       <c r="J9" s="354"/>
-      <c r="K9" s="640" t="s">
+      <c r="K9" s="705" t="s">
         <v>300</v>
       </c>
-      <c r="L9" s="643" t="s">
+      <c r="L9" s="628" t="s">
         <v>338</v>
       </c>
-      <c r="M9" s="643" t="s">
+      <c r="M9" s="628" t="s">
         <v>318</v>
       </c>
-      <c r="N9" s="625" t="s">
+      <c r="N9" s="631" t="s">
         <v>339</v>
       </c>
-      <c r="O9" s="646" t="s">
+      <c r="O9" s="663" t="s">
         <v>317</v>
       </c>
-      <c r="P9" s="651" t="s">
+      <c r="P9" s="684" t="s">
         <v>319</v>
       </c>
-      <c r="Q9" s="654" t="s">
+      <c r="Q9" s="687" t="s">
         <v>289</v>
       </c>
-      <c r="R9" s="622" t="s">
+      <c r="R9" s="690" t="s">
         <v>296</v>
       </c>
       <c r="S9" s="244"/>
-      <c r="T9" s="622" t="s">
+      <c r="T9" s="690" t="s">
         <v>302</v>
       </c>
       <c r="U9" s="245"/>
-      <c r="V9" s="622" t="s">
+      <c r="V9" s="690" t="s">
         <v>293</v>
       </c>
       <c r="W9" s="244"/>
-      <c r="X9" s="622" t="s">
+      <c r="X9" s="690" t="s">
         <v>294</v>
       </c>
       <c r="Y9" s="244"/>
-      <c r="Z9" s="622" t="s">
+      <c r="Z9" s="690" t="s">
         <v>295</v>
       </c>
       <c r="AA9" s="245"/>
-      <c r="AB9" s="625" t="s">
+      <c r="AB9" s="631" t="s">
         <v>366</v>
       </c>
       <c r="AC9" s="296"/>
-      <c r="AD9" s="628" t="s">
+      <c r="AD9" s="634" t="s">
         <v>365</v>
       </c>
-      <c r="AE9" s="625" t="s">
+      <c r="AE9" s="631" t="s">
         <v>367</v>
       </c>
       <c r="AF9" s="296"/>
-      <c r="AG9" s="628" t="s">
+      <c r="AG9" s="634" t="s">
         <v>364</v>
       </c>
-      <c r="AH9" s="643" t="s">
+      <c r="AH9" s="628" t="s">
         <v>368</v>
       </c>
-      <c r="AI9" s="643" t="s">
+      <c r="AI9" s="628" t="s">
         <v>320</v>
       </c>
-      <c r="AJ9" s="643" t="s">
+      <c r="AJ9" s="628" t="s">
         <v>321</v>
       </c>
-      <c r="AK9" s="660" t="s">
+      <c r="AK9" s="681" t="s">
         <v>369</v>
       </c>
-      <c r="AL9" s="643" t="s">
+      <c r="AL9" s="628" t="s">
         <v>370</v>
       </c>
-      <c r="AM9" s="643" t="s">
+      <c r="AM9" s="628" t="s">
         <v>342</v>
       </c>
-      <c r="AN9" s="643" t="s">
+      <c r="AN9" s="628" t="s">
         <v>343</v>
       </c>
-      <c r="AO9" s="685" t="s">
+      <c r="AO9" s="675" t="s">
         <v>330</v>
       </c>
-      <c r="AP9" s="695"/>
-      <c r="AQ9" s="689"/>
-      <c r="AR9" s="679"/>
-      <c r="AS9" s="680"/>
-      <c r="AT9" s="681"/>
-      <c r="AU9" s="692"/>
+      <c r="AP9" s="656"/>
+      <c r="AQ9" s="659"/>
+      <c r="AR9" s="669"/>
+      <c r="AS9" s="670"/>
+      <c r="AT9" s="671"/>
+      <c r="AU9" s="638"/>
     </row>
     <row r="10" spans="1:52" ht="15" customHeight="1">
-      <c r="A10" s="608"/>
-      <c r="B10" s="665"/>
-      <c r="C10" s="668"/>
-      <c r="D10" s="671"/>
-      <c r="E10" s="674"/>
-      <c r="F10" s="632"/>
-      <c r="G10" s="639"/>
+      <c r="A10" s="624"/>
+      <c r="B10" s="697"/>
+      <c r="C10" s="641"/>
+      <c r="D10" s="644"/>
+      <c r="E10" s="647"/>
+      <c r="F10" s="701"/>
+      <c r="G10" s="662"/>
       <c r="H10" s="355"/>
-      <c r="I10" s="639"/>
+      <c r="I10" s="662"/>
       <c r="J10" s="355"/>
-      <c r="K10" s="641"/>
-      <c r="L10" s="644"/>
-      <c r="M10" s="644"/>
-      <c r="N10" s="626"/>
-      <c r="O10" s="647"/>
-      <c r="P10" s="652"/>
-      <c r="Q10" s="655"/>
-      <c r="R10" s="623"/>
+      <c r="K10" s="706"/>
+      <c r="L10" s="629"/>
+      <c r="M10" s="629"/>
+      <c r="N10" s="632"/>
+      <c r="O10" s="664"/>
+      <c r="P10" s="685"/>
+      <c r="Q10" s="688"/>
+      <c r="R10" s="691"/>
       <c r="S10" s="287"/>
-      <c r="T10" s="623"/>
+      <c r="T10" s="691"/>
       <c r="U10" s="289"/>
-      <c r="V10" s="623"/>
+      <c r="V10" s="691"/>
       <c r="W10" s="287"/>
-      <c r="X10" s="623"/>
+      <c r="X10" s="691"/>
       <c r="Y10" s="287"/>
-      <c r="Z10" s="623"/>
+      <c r="Z10" s="691"/>
       <c r="AA10" s="289"/>
-      <c r="AB10" s="626"/>
+      <c r="AB10" s="632"/>
       <c r="AC10" s="343"/>
-      <c r="AD10" s="629"/>
-      <c r="AE10" s="626"/>
+      <c r="AD10" s="635"/>
+      <c r="AE10" s="632"/>
       <c r="AF10" s="343"/>
-      <c r="AG10" s="629"/>
-      <c r="AH10" s="644"/>
-      <c r="AI10" s="644"/>
-      <c r="AJ10" s="644"/>
-      <c r="AK10" s="661"/>
-      <c r="AL10" s="644"/>
-      <c r="AM10" s="644"/>
-      <c r="AN10" s="644"/>
-      <c r="AO10" s="686"/>
-      <c r="AP10" s="695"/>
-      <c r="AQ10" s="689"/>
-      <c r="AR10" s="682"/>
-      <c r="AS10" s="683"/>
-      <c r="AT10" s="684"/>
-      <c r="AU10" s="692"/>
+      <c r="AG10" s="635"/>
+      <c r="AH10" s="629"/>
+      <c r="AI10" s="629"/>
+      <c r="AJ10" s="629"/>
+      <c r="AK10" s="682"/>
+      <c r="AL10" s="629"/>
+      <c r="AM10" s="629"/>
+      <c r="AN10" s="629"/>
+      <c r="AO10" s="676"/>
+      <c r="AP10" s="656"/>
+      <c r="AQ10" s="659"/>
+      <c r="AR10" s="672"/>
+      <c r="AS10" s="673"/>
+      <c r="AT10" s="674"/>
+      <c r="AU10" s="638"/>
     </row>
     <row r="11" spans="1:52" ht="15.75" customHeight="1">
-      <c r="A11" s="608"/>
-      <c r="B11" s="665"/>
-      <c r="C11" s="669"/>
-      <c r="D11" s="672"/>
-      <c r="E11" s="675"/>
-      <c r="F11" s="633"/>
-      <c r="G11" s="639"/>
+      <c r="A11" s="624"/>
+      <c r="B11" s="697"/>
+      <c r="C11" s="642"/>
+      <c r="D11" s="645"/>
+      <c r="E11" s="648"/>
+      <c r="F11" s="702"/>
+      <c r="G11" s="662"/>
       <c r="H11" s="355" t="s">
         <v>301</v>
       </c>
-      <c r="I11" s="639"/>
+      <c r="I11" s="662"/>
       <c r="J11" s="355" t="s">
         <v>301</v>
       </c>
-      <c r="K11" s="642"/>
-      <c r="L11" s="645"/>
-      <c r="M11" s="645"/>
-      <c r="N11" s="627"/>
-      <c r="O11" s="648"/>
-      <c r="P11" s="653"/>
-      <c r="Q11" s="656"/>
-      <c r="R11" s="624"/>
+      <c r="K11" s="707"/>
+      <c r="L11" s="630"/>
+      <c r="M11" s="630"/>
+      <c r="N11" s="633"/>
+      <c r="O11" s="665"/>
+      <c r="P11" s="686"/>
+      <c r="Q11" s="689"/>
+      <c r="R11" s="692"/>
       <c r="S11" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="T11" s="624"/>
+      <c r="T11" s="692"/>
       <c r="U11" s="289" t="s">
         <v>301</v>
       </c>
-      <c r="V11" s="624"/>
+      <c r="V11" s="692"/>
       <c r="W11" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="X11" s="624"/>
+      <c r="X11" s="692"/>
       <c r="Y11" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="Z11" s="624"/>
+      <c r="Z11" s="692"/>
       <c r="AA11" s="289" t="s">
         <v>301</v>
       </c>
-      <c r="AB11" s="627"/>
+      <c r="AB11" s="633"/>
       <c r="AC11" s="297" t="s">
         <v>301</v>
       </c>
-      <c r="AD11" s="630"/>
-      <c r="AE11" s="627"/>
+      <c r="AD11" s="636"/>
+      <c r="AE11" s="633"/>
       <c r="AF11" s="297" t="s">
         <v>301</v>
       </c>
-      <c r="AG11" s="630"/>
-      <c r="AH11" s="645"/>
-      <c r="AI11" s="645"/>
-      <c r="AJ11" s="645"/>
-      <c r="AK11" s="662"/>
-      <c r="AL11" s="645"/>
-      <c r="AM11" s="645"/>
-      <c r="AN11" s="645"/>
-      <c r="AO11" s="687"/>
-      <c r="AP11" s="696"/>
-      <c r="AQ11" s="690"/>
+      <c r="AG11" s="636"/>
+      <c r="AH11" s="630"/>
+      <c r="AI11" s="630"/>
+      <c r="AJ11" s="630"/>
+      <c r="AK11" s="683"/>
+      <c r="AL11" s="630"/>
+      <c r="AM11" s="630"/>
+      <c r="AN11" s="630"/>
+      <c r="AO11" s="677"/>
+      <c r="AP11" s="657"/>
+      <c r="AQ11" s="660"/>
       <c r="AR11" s="307" t="s">
         <v>334</v>
       </c>
@@ -16408,14 +16849,14 @@
       <c r="AT11" s="308" t="s">
         <v>336</v>
       </c>
-      <c r="AU11" s="693"/>
+      <c r="AU11" s="639"/>
       <c r="AV11" s="276" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:52">
-      <c r="A12" s="608"/>
-      <c r="B12" s="665"/>
+      <c r="A12" s="624"/>
+      <c r="B12" s="697"/>
       <c r="C12" s="295">
         <v>60</v>
       </c>
@@ -16586,8 +17027,8 @@
       <c r="AV12" s="276"/>
     </row>
     <row r="13" spans="1:52">
-      <c r="A13" s="608"/>
-      <c r="B13" s="665"/>
+      <c r="A13" s="624"/>
+      <c r="B13" s="697"/>
       <c r="C13" s="295">
         <v>60</v>
       </c>
@@ -16761,8 +17202,8 @@
       </c>
     </row>
     <row r="14" spans="1:52">
-      <c r="A14" s="610"/>
-      <c r="B14" s="666"/>
+      <c r="A14" s="626"/>
+      <c r="B14" s="698"/>
       <c r="C14" s="294">
         <v>60</v>
       </c>
@@ -18692,341 +19133,341 @@
       <c r="E32" s="319"/>
     </row>
     <row r="33" spans="1:47" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A33" s="649" t="s">
+      <c r="A33" s="693" t="s">
         <v>375</v>
       </c>
-      <c r="B33" s="650"/>
-      <c r="C33" s="620" t="s">
+      <c r="B33" s="694"/>
+      <c r="C33" s="699" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="620"/>
-      <c r="E33" s="620"/>
-      <c r="F33" s="620"/>
-      <c r="G33" s="620"/>
-      <c r="H33" s="620"/>
-      <c r="I33" s="620"/>
-      <c r="J33" s="620"/>
-      <c r="K33" s="620"/>
-      <c r="L33" s="620"/>
-      <c r="M33" s="620"/>
-      <c r="N33" s="620"/>
-      <c r="O33" s="620"/>
-      <c r="P33" s="620"/>
-      <c r="Q33" s="620"/>
-      <c r="R33" s="620"/>
-      <c r="S33" s="620"/>
-      <c r="T33" s="620"/>
-      <c r="U33" s="620"/>
-      <c r="V33" s="620"/>
-      <c r="W33" s="620"/>
-      <c r="X33" s="620"/>
-      <c r="Y33" s="620"/>
-      <c r="Z33" s="620"/>
-      <c r="AA33" s="620"/>
-      <c r="AB33" s="620"/>
-      <c r="AC33" s="620"/>
-      <c r="AD33" s="620"/>
-      <c r="AE33" s="620"/>
-      <c r="AF33" s="620"/>
-      <c r="AG33" s="620"/>
-      <c r="AH33" s="620"/>
-      <c r="AI33" s="620"/>
-      <c r="AJ33" s="620"/>
-      <c r="AK33" s="620"/>
-      <c r="AL33" s="620"/>
-      <c r="AM33" s="620"/>
-      <c r="AN33" s="620"/>
-      <c r="AO33" s="620"/>
-      <c r="AP33" s="620"/>
-      <c r="AQ33" s="621"/>
-      <c r="AR33" s="676" t="s">
+      <c r="D33" s="699"/>
+      <c r="E33" s="699"/>
+      <c r="F33" s="699"/>
+      <c r="G33" s="699"/>
+      <c r="H33" s="699"/>
+      <c r="I33" s="699"/>
+      <c r="J33" s="699"/>
+      <c r="K33" s="699"/>
+      <c r="L33" s="699"/>
+      <c r="M33" s="699"/>
+      <c r="N33" s="699"/>
+      <c r="O33" s="699"/>
+      <c r="P33" s="699"/>
+      <c r="Q33" s="699"/>
+      <c r="R33" s="699"/>
+      <c r="S33" s="699"/>
+      <c r="T33" s="699"/>
+      <c r="U33" s="699"/>
+      <c r="V33" s="699"/>
+      <c r="W33" s="699"/>
+      <c r="X33" s="699"/>
+      <c r="Y33" s="699"/>
+      <c r="Z33" s="699"/>
+      <c r="AA33" s="699"/>
+      <c r="AB33" s="699"/>
+      <c r="AC33" s="699"/>
+      <c r="AD33" s="699"/>
+      <c r="AE33" s="699"/>
+      <c r="AF33" s="699"/>
+      <c r="AG33" s="699"/>
+      <c r="AH33" s="699"/>
+      <c r="AI33" s="699"/>
+      <c r="AJ33" s="699"/>
+      <c r="AK33" s="699"/>
+      <c r="AL33" s="699"/>
+      <c r="AM33" s="699"/>
+      <c r="AN33" s="699"/>
+      <c r="AO33" s="699"/>
+      <c r="AP33" s="699"/>
+      <c r="AQ33" s="700"/>
+      <c r="AR33" s="666" t="s">
         <v>371</v>
       </c>
-      <c r="AS33" s="677"/>
-      <c r="AT33" s="678"/>
-      <c r="AU33" s="691" t="s">
+      <c r="AS33" s="667"/>
+      <c r="AT33" s="668"/>
+      <c r="AU33" s="637" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:47" ht="15" customHeight="1">
-      <c r="A34" s="663" t="s">
+      <c r="A34" s="695" t="s">
         <v>374</v>
       </c>
-      <c r="B34" s="664"/>
-      <c r="C34" s="667" t="s">
+      <c r="B34" s="696"/>
+      <c r="C34" s="640" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="670" t="s">
+      <c r="D34" s="643" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="673" t="s">
+      <c r="E34" s="646" t="s">
         <v>122</v>
       </c>
-      <c r="F34" s="631" t="s">
+      <c r="F34" s="649" t="s">
         <v>288</v>
       </c>
-      <c r="G34" s="699" t="s">
+      <c r="G34" s="652" t="s">
         <v>292</v>
       </c>
-      <c r="H34" s="636"/>
-      <c r="I34" s="636"/>
-      <c r="J34" s="636"/>
-      <c r="K34" s="636"/>
-      <c r="L34" s="636"/>
-      <c r="M34" s="636"/>
-      <c r="N34" s="636"/>
-      <c r="O34" s="636"/>
-      <c r="P34" s="637"/>
-      <c r="Q34" s="657" t="s">
+      <c r="H34" s="653"/>
+      <c r="I34" s="653"/>
+      <c r="J34" s="653"/>
+      <c r="K34" s="653"/>
+      <c r="L34" s="653"/>
+      <c r="M34" s="653"/>
+      <c r="N34" s="653"/>
+      <c r="O34" s="653"/>
+      <c r="P34" s="654"/>
+      <c r="Q34" s="678" t="s">
         <v>291</v>
       </c>
-      <c r="R34" s="658"/>
-      <c r="S34" s="658"/>
-      <c r="T34" s="658"/>
-      <c r="U34" s="658"/>
-      <c r="V34" s="658"/>
-      <c r="W34" s="658"/>
-      <c r="X34" s="658"/>
-      <c r="Y34" s="658"/>
-      <c r="Z34" s="658"/>
-      <c r="AA34" s="658"/>
-      <c r="AB34" s="658"/>
-      <c r="AC34" s="658"/>
-      <c r="AD34" s="658"/>
-      <c r="AE34" s="658"/>
-      <c r="AF34" s="658"/>
-      <c r="AG34" s="658"/>
-      <c r="AH34" s="658"/>
-      <c r="AI34" s="658"/>
-      <c r="AJ34" s="658"/>
-      <c r="AK34" s="658"/>
-      <c r="AL34" s="658"/>
-      <c r="AM34" s="658"/>
-      <c r="AN34" s="658"/>
-      <c r="AO34" s="659"/>
-      <c r="AP34" s="694" t="s">
+      <c r="R34" s="679"/>
+      <c r="S34" s="679"/>
+      <c r="T34" s="679"/>
+      <c r="U34" s="679"/>
+      <c r="V34" s="679"/>
+      <c r="W34" s="679"/>
+      <c r="X34" s="679"/>
+      <c r="Y34" s="679"/>
+      <c r="Z34" s="679"/>
+      <c r="AA34" s="679"/>
+      <c r="AB34" s="679"/>
+      <c r="AC34" s="679"/>
+      <c r="AD34" s="679"/>
+      <c r="AE34" s="679"/>
+      <c r="AF34" s="679"/>
+      <c r="AG34" s="679"/>
+      <c r="AH34" s="679"/>
+      <c r="AI34" s="679"/>
+      <c r="AJ34" s="679"/>
+      <c r="AK34" s="679"/>
+      <c r="AL34" s="679"/>
+      <c r="AM34" s="679"/>
+      <c r="AN34" s="679"/>
+      <c r="AO34" s="680"/>
+      <c r="AP34" s="655" t="s">
         <v>331</v>
       </c>
-      <c r="AQ34" s="688" t="s">
+      <c r="AQ34" s="658" t="s">
         <v>332</v>
       </c>
-      <c r="AR34" s="679"/>
-      <c r="AS34" s="680"/>
-      <c r="AT34" s="681"/>
-      <c r="AU34" s="692"/>
+      <c r="AR34" s="669"/>
+      <c r="AS34" s="670"/>
+      <c r="AT34" s="671"/>
+      <c r="AU34" s="638"/>
     </row>
     <row r="35" spans="1:47" ht="15" customHeight="1">
-      <c r="A35" s="608"/>
-      <c r="B35" s="665"/>
-      <c r="C35" s="668"/>
-      <c r="D35" s="671"/>
-      <c r="E35" s="674"/>
-      <c r="F35" s="697"/>
-      <c r="G35" s="638" t="s">
+      <c r="A35" s="624"/>
+      <c r="B35" s="697"/>
+      <c r="C35" s="641"/>
+      <c r="D35" s="644"/>
+      <c r="E35" s="647"/>
+      <c r="F35" s="650"/>
+      <c r="G35" s="661" t="s">
         <v>298</v>
       </c>
       <c r="H35" s="354"/>
-      <c r="I35" s="638" t="s">
+      <c r="I35" s="661" t="s">
         <v>299</v>
       </c>
       <c r="J35" s="354"/>
-      <c r="K35" s="646" t="s">
+      <c r="K35" s="663" t="s">
         <v>300</v>
       </c>
-      <c r="L35" s="643" t="s">
+      <c r="L35" s="628" t="s">
         <v>338</v>
       </c>
-      <c r="M35" s="643" t="s">
+      <c r="M35" s="628" t="s">
         <v>318</v>
       </c>
-      <c r="N35" s="625" t="s">
+      <c r="N35" s="631" t="s">
         <v>339</v>
       </c>
-      <c r="O35" s="646" t="s">
+      <c r="O35" s="663" t="s">
         <v>317</v>
       </c>
-      <c r="P35" s="651" t="s">
+      <c r="P35" s="684" t="s">
         <v>319</v>
       </c>
-      <c r="Q35" s="654" t="s">
+      <c r="Q35" s="687" t="s">
         <v>289</v>
       </c>
-      <c r="R35" s="622" t="s">
+      <c r="R35" s="690" t="s">
         <v>296</v>
       </c>
       <c r="S35" s="244"/>
-      <c r="T35" s="622" t="s">
+      <c r="T35" s="690" t="s">
         <v>302</v>
       </c>
       <c r="U35" s="245"/>
-      <c r="V35" s="622" t="s">
+      <c r="V35" s="690" t="s">
         <v>293</v>
       </c>
       <c r="W35" s="244"/>
-      <c r="X35" s="622" t="s">
+      <c r="X35" s="690" t="s">
         <v>294</v>
       </c>
       <c r="Y35" s="244"/>
-      <c r="Z35" s="622" t="s">
+      <c r="Z35" s="690" t="s">
         <v>295</v>
       </c>
       <c r="AA35" s="245"/>
-      <c r="AB35" s="625" t="s">
+      <c r="AB35" s="631" t="s">
         <v>366</v>
       </c>
       <c r="AC35" s="296"/>
-      <c r="AD35" s="628" t="s">
+      <c r="AD35" s="634" t="s">
         <v>365</v>
       </c>
-      <c r="AE35" s="625" t="s">
+      <c r="AE35" s="631" t="s">
         <v>367</v>
       </c>
       <c r="AF35" s="296"/>
-      <c r="AG35" s="628" t="s">
+      <c r="AG35" s="634" t="s">
         <v>364</v>
       </c>
-      <c r="AH35" s="643" t="s">
+      <c r="AH35" s="628" t="s">
         <v>368</v>
       </c>
-      <c r="AI35" s="643" t="s">
+      <c r="AI35" s="628" t="s">
         <v>320</v>
       </c>
-      <c r="AJ35" s="643" t="s">
+      <c r="AJ35" s="628" t="s">
         <v>321</v>
       </c>
-      <c r="AK35" s="660" t="s">
+      <c r="AK35" s="681" t="s">
         <v>369</v>
       </c>
-      <c r="AL35" s="643" t="s">
+      <c r="AL35" s="628" t="s">
         <v>370</v>
       </c>
-      <c r="AM35" s="643" t="s">
+      <c r="AM35" s="628" t="s">
         <v>342</v>
       </c>
-      <c r="AN35" s="643" t="s">
+      <c r="AN35" s="628" t="s">
         <v>343</v>
       </c>
-      <c r="AO35" s="685" t="s">
+      <c r="AO35" s="675" t="s">
         <v>330</v>
       </c>
-      <c r="AP35" s="695"/>
-      <c r="AQ35" s="689"/>
-      <c r="AR35" s="679"/>
-      <c r="AS35" s="680"/>
-      <c r="AT35" s="681"/>
-      <c r="AU35" s="692"/>
+      <c r="AP35" s="656"/>
+      <c r="AQ35" s="659"/>
+      <c r="AR35" s="669"/>
+      <c r="AS35" s="670"/>
+      <c r="AT35" s="671"/>
+      <c r="AU35" s="638"/>
     </row>
     <row r="36" spans="1:47" ht="15" customHeight="1">
-      <c r="A36" s="608"/>
-      <c r="B36" s="665"/>
-      <c r="C36" s="668"/>
-      <c r="D36" s="671"/>
-      <c r="E36" s="674"/>
-      <c r="F36" s="697"/>
-      <c r="G36" s="639"/>
+      <c r="A36" s="624"/>
+      <c r="B36" s="697"/>
+      <c r="C36" s="641"/>
+      <c r="D36" s="644"/>
+      <c r="E36" s="647"/>
+      <c r="F36" s="650"/>
+      <c r="G36" s="662"/>
       <c r="H36" s="355"/>
-      <c r="I36" s="639"/>
+      <c r="I36" s="662"/>
       <c r="J36" s="355"/>
-      <c r="K36" s="647"/>
-      <c r="L36" s="644"/>
-      <c r="M36" s="644"/>
-      <c r="N36" s="626"/>
-      <c r="O36" s="647"/>
-      <c r="P36" s="652"/>
-      <c r="Q36" s="655"/>
-      <c r="R36" s="623"/>
+      <c r="K36" s="664"/>
+      <c r="L36" s="629"/>
+      <c r="M36" s="629"/>
+      <c r="N36" s="632"/>
+      <c r="O36" s="664"/>
+      <c r="P36" s="685"/>
+      <c r="Q36" s="688"/>
+      <c r="R36" s="691"/>
       <c r="S36" s="287"/>
-      <c r="T36" s="623"/>
+      <c r="T36" s="691"/>
       <c r="U36" s="289"/>
-      <c r="V36" s="623"/>
+      <c r="V36" s="691"/>
       <c r="W36" s="287"/>
-      <c r="X36" s="623"/>
+      <c r="X36" s="691"/>
       <c r="Y36" s="287"/>
-      <c r="Z36" s="623"/>
+      <c r="Z36" s="691"/>
       <c r="AA36" s="289"/>
-      <c r="AB36" s="626"/>
+      <c r="AB36" s="632"/>
       <c r="AC36" s="343"/>
-      <c r="AD36" s="629"/>
-      <c r="AE36" s="626"/>
+      <c r="AD36" s="635"/>
+      <c r="AE36" s="632"/>
       <c r="AF36" s="343"/>
-      <c r="AG36" s="629"/>
-      <c r="AH36" s="644"/>
-      <c r="AI36" s="644"/>
-      <c r="AJ36" s="644"/>
-      <c r="AK36" s="661"/>
-      <c r="AL36" s="644"/>
-      <c r="AM36" s="644"/>
-      <c r="AN36" s="644"/>
-      <c r="AO36" s="686"/>
-      <c r="AP36" s="695"/>
-      <c r="AQ36" s="689"/>
-      <c r="AR36" s="682"/>
-      <c r="AS36" s="683"/>
-      <c r="AT36" s="684"/>
-      <c r="AU36" s="692"/>
+      <c r="AG36" s="635"/>
+      <c r="AH36" s="629"/>
+      <c r="AI36" s="629"/>
+      <c r="AJ36" s="629"/>
+      <c r="AK36" s="682"/>
+      <c r="AL36" s="629"/>
+      <c r="AM36" s="629"/>
+      <c r="AN36" s="629"/>
+      <c r="AO36" s="676"/>
+      <c r="AP36" s="656"/>
+      <c r="AQ36" s="659"/>
+      <c r="AR36" s="672"/>
+      <c r="AS36" s="673"/>
+      <c r="AT36" s="674"/>
+      <c r="AU36" s="638"/>
     </row>
     <row r="37" spans="1:47" ht="15.75">
-      <c r="A37" s="608"/>
-      <c r="B37" s="665"/>
-      <c r="C37" s="669"/>
-      <c r="D37" s="672"/>
-      <c r="E37" s="675"/>
-      <c r="F37" s="698"/>
-      <c r="G37" s="639"/>
+      <c r="A37" s="624"/>
+      <c r="B37" s="697"/>
+      <c r="C37" s="642"/>
+      <c r="D37" s="645"/>
+      <c r="E37" s="648"/>
+      <c r="F37" s="651"/>
+      <c r="G37" s="662"/>
       <c r="H37" s="355" t="s">
         <v>301</v>
       </c>
-      <c r="I37" s="639"/>
+      <c r="I37" s="662"/>
       <c r="J37" s="355" t="s">
         <v>301</v>
       </c>
-      <c r="K37" s="648"/>
-      <c r="L37" s="645"/>
-      <c r="M37" s="645"/>
-      <c r="N37" s="627"/>
-      <c r="O37" s="648"/>
-      <c r="P37" s="653"/>
-      <c r="Q37" s="656"/>
-      <c r="R37" s="624"/>
+      <c r="K37" s="665"/>
+      <c r="L37" s="630"/>
+      <c r="M37" s="630"/>
+      <c r="N37" s="633"/>
+      <c r="O37" s="665"/>
+      <c r="P37" s="686"/>
+      <c r="Q37" s="689"/>
+      <c r="R37" s="692"/>
       <c r="S37" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="T37" s="624"/>
+      <c r="T37" s="692"/>
       <c r="U37" s="289" t="s">
         <v>301</v>
       </c>
-      <c r="V37" s="624"/>
+      <c r="V37" s="692"/>
       <c r="W37" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="X37" s="624"/>
+      <c r="X37" s="692"/>
       <c r="Y37" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="Z37" s="624"/>
+      <c r="Z37" s="692"/>
       <c r="AA37" s="289" t="s">
         <v>301</v>
       </c>
-      <c r="AB37" s="627"/>
+      <c r="AB37" s="633"/>
       <c r="AC37" s="297" t="s">
         <v>301</v>
       </c>
-      <c r="AD37" s="630"/>
-      <c r="AE37" s="627"/>
+      <c r="AD37" s="636"/>
+      <c r="AE37" s="633"/>
       <c r="AF37" s="297" t="s">
         <v>301</v>
       </c>
-      <c r="AG37" s="630"/>
-      <c r="AH37" s="645"/>
-      <c r="AI37" s="645"/>
-      <c r="AJ37" s="645"/>
-      <c r="AK37" s="662"/>
-      <c r="AL37" s="645"/>
-      <c r="AM37" s="645"/>
-      <c r="AN37" s="645"/>
-      <c r="AO37" s="687"/>
-      <c r="AP37" s="696"/>
-      <c r="AQ37" s="690"/>
+      <c r="AG37" s="636"/>
+      <c r="AH37" s="630"/>
+      <c r="AI37" s="630"/>
+      <c r="AJ37" s="630"/>
+      <c r="AK37" s="683"/>
+      <c r="AL37" s="630"/>
+      <c r="AM37" s="630"/>
+      <c r="AN37" s="630"/>
+      <c r="AO37" s="677"/>
+      <c r="AP37" s="657"/>
+      <c r="AQ37" s="660"/>
       <c r="AR37" s="307" t="s">
         <v>334</v>
       </c>
@@ -19036,11 +19477,11 @@
       <c r="AT37" s="308" t="s">
         <v>336</v>
       </c>
-      <c r="AU37" s="693"/>
+      <c r="AU37" s="639"/>
     </row>
     <row r="38" spans="1:47">
-      <c r="A38" s="608"/>
-      <c r="B38" s="665"/>
+      <c r="A38" s="624"/>
+      <c r="B38" s="697"/>
       <c r="C38" s="295">
         <v>60</v>
       </c>
@@ -19210,8 +19651,8 @@
       </c>
     </row>
     <row r="39" spans="1:47">
-      <c r="A39" s="608"/>
-      <c r="B39" s="665"/>
+      <c r="A39" s="624"/>
+      <c r="B39" s="697"/>
       <c r="C39" s="345">
         <v>60</v>
       </c>
@@ -19300,8 +19741,8 @@
       <c r="AU39" s="306"/>
     </row>
     <row r="40" spans="1:47">
-      <c r="A40" s="610"/>
-      <c r="B40" s="666"/>
+      <c r="A40" s="626"/>
+      <c r="B40" s="698"/>
       <c r="C40" s="345">
         <v>60</v>
       </c>
@@ -19571,11 +20012,64 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="79">
-    <mergeCell ref="AM35:AM37"/>
-    <mergeCell ref="AN35:AN37"/>
-    <mergeCell ref="AB35:AB37"/>
-    <mergeCell ref="AD35:AD37"/>
-    <mergeCell ref="AE35:AE37"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="C7:AQ7"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="X9:X11"/>
+    <mergeCell ref="Z9:Z11"/>
+    <mergeCell ref="AB9:AB11"/>
+    <mergeCell ref="AD9:AD11"/>
+    <mergeCell ref="AE9:AE11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G8:P8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:AQ33"/>
+    <mergeCell ref="P35:P37"/>
+    <mergeCell ref="Q35:Q37"/>
+    <mergeCell ref="R35:R37"/>
+    <mergeCell ref="T35:T37"/>
+    <mergeCell ref="V35:V37"/>
+    <mergeCell ref="Q34:AO34"/>
+    <mergeCell ref="AG35:AG37"/>
+    <mergeCell ref="AH35:AH37"/>
+    <mergeCell ref="AI35:AI37"/>
+    <mergeCell ref="AJ35:AJ37"/>
+    <mergeCell ref="AK35:AK37"/>
+    <mergeCell ref="X35:X37"/>
+    <mergeCell ref="Z35:Z37"/>
+    <mergeCell ref="A34:B40"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B14"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="Q9:Q11"/>
+    <mergeCell ref="R9:R11"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="AR33:AT36"/>
+    <mergeCell ref="AO35:AO37"/>
+    <mergeCell ref="AQ8:AQ11"/>
+    <mergeCell ref="AU7:AU11"/>
+    <mergeCell ref="Q8:AO8"/>
+    <mergeCell ref="AL9:AL11"/>
+    <mergeCell ref="AM9:AM11"/>
+    <mergeCell ref="AN9:AN11"/>
+    <mergeCell ref="AO9:AO11"/>
+    <mergeCell ref="AP8:AP11"/>
+    <mergeCell ref="AG9:AG11"/>
+    <mergeCell ref="AH9:AH11"/>
+    <mergeCell ref="AI9:AI11"/>
+    <mergeCell ref="AJ9:AJ11"/>
+    <mergeCell ref="AK9:AK11"/>
+    <mergeCell ref="AR7:AT10"/>
     <mergeCell ref="N35:N37"/>
     <mergeCell ref="AU33:AU37"/>
     <mergeCell ref="C34:C37"/>
@@ -19592,72 +20086,19 @@
     <mergeCell ref="M35:M37"/>
     <mergeCell ref="O35:O37"/>
     <mergeCell ref="AL35:AL37"/>
-    <mergeCell ref="AR33:AT36"/>
-    <mergeCell ref="AO35:AO37"/>
-    <mergeCell ref="AQ8:AQ11"/>
-    <mergeCell ref="AU7:AU11"/>
-    <mergeCell ref="Q8:AO8"/>
-    <mergeCell ref="AL9:AL11"/>
-    <mergeCell ref="AM9:AM11"/>
-    <mergeCell ref="AN9:AN11"/>
-    <mergeCell ref="AO9:AO11"/>
-    <mergeCell ref="AP8:AP11"/>
-    <mergeCell ref="AG9:AG11"/>
-    <mergeCell ref="AH9:AH11"/>
-    <mergeCell ref="AI9:AI11"/>
-    <mergeCell ref="AJ9:AJ11"/>
-    <mergeCell ref="AK9:AK11"/>
-    <mergeCell ref="AR7:AT10"/>
-    <mergeCell ref="N9:N11"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="Q9:Q11"/>
-    <mergeCell ref="R9:R11"/>
-    <mergeCell ref="T9:T11"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B14"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:AQ33"/>
-    <mergeCell ref="P35:P37"/>
-    <mergeCell ref="Q35:Q37"/>
-    <mergeCell ref="R35:R37"/>
-    <mergeCell ref="T35:T37"/>
-    <mergeCell ref="V35:V37"/>
-    <mergeCell ref="Q34:AO34"/>
-    <mergeCell ref="AG35:AG37"/>
-    <mergeCell ref="AH35:AH37"/>
-    <mergeCell ref="AI35:AI37"/>
-    <mergeCell ref="AJ35:AJ37"/>
-    <mergeCell ref="AK35:AK37"/>
-    <mergeCell ref="X35:X37"/>
-    <mergeCell ref="Z35:Z37"/>
-    <mergeCell ref="A34:B40"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="C7:AQ7"/>
-    <mergeCell ref="V9:V11"/>
-    <mergeCell ref="X9:X11"/>
-    <mergeCell ref="Z9:Z11"/>
-    <mergeCell ref="AB9:AB11"/>
-    <mergeCell ref="AD9:AD11"/>
-    <mergeCell ref="AE9:AE11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="G8:P8"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="AM35:AM37"/>
+    <mergeCell ref="AN35:AN37"/>
+    <mergeCell ref="AB35:AB37"/>
+    <mergeCell ref="AD35:AD37"/>
+    <mergeCell ref="AE35:AE37"/>
   </mergeCells>
   <conditionalFormatting sqref="M38:M42 M12:M24">
-    <cfRule type="expression" dxfId="1" priority="15">
+    <cfRule type="expression" dxfId="3" priority="15">
       <formula>N12="01"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38:L42 L12:L24">
-    <cfRule type="expression" dxfId="0" priority="14">
+    <cfRule type="expression" dxfId="2" priority="14">
       <formula>N12="10"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19762,30 +20203,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="24" thickBot="1">
-      <c r="A1" s="596" t="s">
+      <c r="A1" s="616" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="597"/>
-      <c r="C1" s="597"/>
-      <c r="D1" s="597"/>
-      <c r="E1" s="597"/>
-      <c r="F1" s="597"/>
-      <c r="G1" s="597"/>
-      <c r="H1" s="597"/>
-      <c r="I1" s="597"/>
-      <c r="J1" s="597"/>
-      <c r="K1" s="597"/>
-      <c r="L1" s="597"/>
-      <c r="M1" s="597"/>
-      <c r="N1" s="597"/>
-      <c r="O1" s="597"/>
-      <c r="P1" s="597"/>
-      <c r="Q1" s="597"/>
-      <c r="R1" s="597"/>
-      <c r="S1" s="597"/>
-      <c r="T1" s="597"/>
-      <c r="U1" s="597"/>
-      <c r="V1" s="598"/>
+      <c r="B1" s="617"/>
+      <c r="C1" s="617"/>
+      <c r="D1" s="617"/>
+      <c r="E1" s="617"/>
+      <c r="F1" s="617"/>
+      <c r="G1" s="617"/>
+      <c r="H1" s="617"/>
+      <c r="I1" s="617"/>
+      <c r="J1" s="617"/>
+      <c r="K1" s="617"/>
+      <c r="L1" s="617"/>
+      <c r="M1" s="617"/>
+      <c r="N1" s="617"/>
+      <c r="O1" s="617"/>
+      <c r="P1" s="617"/>
+      <c r="Q1" s="617"/>
+      <c r="R1" s="617"/>
+      <c r="S1" s="617"/>
+      <c r="T1" s="617"/>
+      <c r="U1" s="617"/>
+      <c r="V1" s="618"/>
     </row>
     <row r="2" spans="1:51">
       <c r="N2" t="s">
@@ -19847,343 +20288,343 @@
     </row>
     <row r="6" spans="1:51" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:51" ht="19.5" thickBot="1">
-      <c r="A7" s="649" t="s">
+      <c r="A7" s="693" t="s">
         <v>386</v>
       </c>
-      <c r="B7" s="650"/>
-      <c r="C7" s="620" t="s">
+      <c r="B7" s="694"/>
+      <c r="C7" s="699" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="620"/>
-      <c r="E7" s="620"/>
-      <c r="F7" s="620"/>
-      <c r="G7" s="620"/>
-      <c r="H7" s="620"/>
-      <c r="I7" s="620"/>
-      <c r="J7" s="620"/>
-      <c r="K7" s="620"/>
-      <c r="L7" s="620"/>
-      <c r="M7" s="620"/>
-      <c r="N7" s="620"/>
-      <c r="O7" s="620"/>
-      <c r="P7" s="620"/>
-      <c r="Q7" s="620"/>
-      <c r="R7" s="620"/>
-      <c r="S7" s="620"/>
-      <c r="T7" s="620"/>
-      <c r="U7" s="620"/>
-      <c r="V7" s="620"/>
-      <c r="W7" s="620"/>
-      <c r="X7" s="620"/>
-      <c r="Y7" s="620"/>
-      <c r="Z7" s="620"/>
-      <c r="AA7" s="620"/>
-      <c r="AB7" s="620"/>
-      <c r="AC7" s="620"/>
-      <c r="AD7" s="620"/>
-      <c r="AE7" s="620"/>
-      <c r="AF7" s="620"/>
-      <c r="AG7" s="620"/>
-      <c r="AH7" s="620"/>
-      <c r="AI7" s="620"/>
-      <c r="AJ7" s="620"/>
-      <c r="AK7" s="620"/>
-      <c r="AL7" s="620"/>
-      <c r="AM7" s="620"/>
-      <c r="AN7" s="620"/>
-      <c r="AO7" s="620"/>
-      <c r="AP7" s="620"/>
-      <c r="AQ7" s="621"/>
-      <c r="AR7" s="676" t="s">
+      <c r="D7" s="699"/>
+      <c r="E7" s="699"/>
+      <c r="F7" s="699"/>
+      <c r="G7" s="699"/>
+      <c r="H7" s="699"/>
+      <c r="I7" s="699"/>
+      <c r="J7" s="699"/>
+      <c r="K7" s="699"/>
+      <c r="L7" s="699"/>
+      <c r="M7" s="699"/>
+      <c r="N7" s="699"/>
+      <c r="O7" s="699"/>
+      <c r="P7" s="699"/>
+      <c r="Q7" s="699"/>
+      <c r="R7" s="699"/>
+      <c r="S7" s="699"/>
+      <c r="T7" s="699"/>
+      <c r="U7" s="699"/>
+      <c r="V7" s="699"/>
+      <c r="W7" s="699"/>
+      <c r="X7" s="699"/>
+      <c r="Y7" s="699"/>
+      <c r="Z7" s="699"/>
+      <c r="AA7" s="699"/>
+      <c r="AB7" s="699"/>
+      <c r="AC7" s="699"/>
+      <c r="AD7" s="699"/>
+      <c r="AE7" s="699"/>
+      <c r="AF7" s="699"/>
+      <c r="AG7" s="699"/>
+      <c r="AH7" s="699"/>
+      <c r="AI7" s="699"/>
+      <c r="AJ7" s="699"/>
+      <c r="AK7" s="699"/>
+      <c r="AL7" s="699"/>
+      <c r="AM7" s="699"/>
+      <c r="AN7" s="699"/>
+      <c r="AO7" s="699"/>
+      <c r="AP7" s="699"/>
+      <c r="AQ7" s="700"/>
+      <c r="AR7" s="666" t="s">
         <v>371</v>
       </c>
-      <c r="AS7" s="677"/>
-      <c r="AT7" s="678"/>
-      <c r="AU7" s="691" t="s">
+      <c r="AS7" s="667"/>
+      <c r="AT7" s="668"/>
+      <c r="AU7" s="637" t="s">
         <v>333</v>
       </c>
       <c r="AX7" s="95"/>
       <c r="AY7" s="95"/>
     </row>
     <row r="8" spans="1:51" ht="15" customHeight="1">
-      <c r="A8" s="663" t="s">
+      <c r="A8" s="695" t="s">
         <v>382</v>
       </c>
-      <c r="B8" s="700"/>
-      <c r="C8" s="667" t="s">
+      <c r="B8" s="708"/>
+      <c r="C8" s="640" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="670" t="s">
+      <c r="D8" s="643" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="673" t="s">
+      <c r="E8" s="646" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="631" t="s">
+      <c r="F8" s="649" t="s">
         <v>288</v>
       </c>
-      <c r="G8" s="634" t="s">
+      <c r="G8" s="703" t="s">
         <v>292</v>
       </c>
-      <c r="H8" s="635"/>
-      <c r="I8" s="635"/>
-      <c r="J8" s="635"/>
-      <c r="K8" s="636"/>
-      <c r="L8" s="636"/>
-      <c r="M8" s="636"/>
-      <c r="N8" s="636"/>
-      <c r="O8" s="636"/>
-      <c r="P8" s="637"/>
-      <c r="Q8" s="657" t="s">
+      <c r="H8" s="704"/>
+      <c r="I8" s="704"/>
+      <c r="J8" s="704"/>
+      <c r="K8" s="653"/>
+      <c r="L8" s="653"/>
+      <c r="M8" s="653"/>
+      <c r="N8" s="653"/>
+      <c r="O8" s="653"/>
+      <c r="P8" s="654"/>
+      <c r="Q8" s="678" t="s">
         <v>291</v>
       </c>
-      <c r="R8" s="658"/>
-      <c r="S8" s="658"/>
-      <c r="T8" s="658"/>
-      <c r="U8" s="658"/>
-      <c r="V8" s="658"/>
-      <c r="W8" s="658"/>
-      <c r="X8" s="658"/>
-      <c r="Y8" s="658"/>
-      <c r="Z8" s="658"/>
-      <c r="AA8" s="658"/>
-      <c r="AB8" s="658"/>
-      <c r="AC8" s="658"/>
-      <c r="AD8" s="658"/>
-      <c r="AE8" s="658"/>
-      <c r="AF8" s="658"/>
-      <c r="AG8" s="658"/>
-      <c r="AH8" s="658"/>
-      <c r="AI8" s="658"/>
-      <c r="AJ8" s="658"/>
-      <c r="AK8" s="658"/>
-      <c r="AL8" s="658"/>
-      <c r="AM8" s="658"/>
-      <c r="AN8" s="658"/>
-      <c r="AO8" s="659"/>
-      <c r="AP8" s="694" t="s">
+      <c r="R8" s="679"/>
+      <c r="S8" s="679"/>
+      <c r="T8" s="679"/>
+      <c r="U8" s="679"/>
+      <c r="V8" s="679"/>
+      <c r="W8" s="679"/>
+      <c r="X8" s="679"/>
+      <c r="Y8" s="679"/>
+      <c r="Z8" s="679"/>
+      <c r="AA8" s="679"/>
+      <c r="AB8" s="679"/>
+      <c r="AC8" s="679"/>
+      <c r="AD8" s="679"/>
+      <c r="AE8" s="679"/>
+      <c r="AF8" s="679"/>
+      <c r="AG8" s="679"/>
+      <c r="AH8" s="679"/>
+      <c r="AI8" s="679"/>
+      <c r="AJ8" s="679"/>
+      <c r="AK8" s="679"/>
+      <c r="AL8" s="679"/>
+      <c r="AM8" s="679"/>
+      <c r="AN8" s="679"/>
+      <c r="AO8" s="680"/>
+      <c r="AP8" s="655" t="s">
         <v>331</v>
       </c>
-      <c r="AQ8" s="688" t="s">
+      <c r="AQ8" s="658" t="s">
         <v>332</v>
       </c>
-      <c r="AR8" s="679"/>
-      <c r="AS8" s="680"/>
-      <c r="AT8" s="681"/>
-      <c r="AU8" s="692"/>
+      <c r="AR8" s="669"/>
+      <c r="AS8" s="670"/>
+      <c r="AT8" s="671"/>
+      <c r="AU8" s="638"/>
     </row>
     <row r="9" spans="1:51">
-      <c r="A9" s="608"/>
-      <c r="B9" s="609"/>
-      <c r="C9" s="668"/>
-      <c r="D9" s="671"/>
-      <c r="E9" s="674"/>
-      <c r="F9" s="632"/>
-      <c r="G9" s="638" t="s">
+      <c r="A9" s="624"/>
+      <c r="B9" s="625"/>
+      <c r="C9" s="641"/>
+      <c r="D9" s="644"/>
+      <c r="E9" s="647"/>
+      <c r="F9" s="701"/>
+      <c r="G9" s="661" t="s">
         <v>298</v>
       </c>
       <c r="H9" s="366"/>
-      <c r="I9" s="638" t="s">
+      <c r="I9" s="661" t="s">
         <v>299</v>
       </c>
       <c r="J9" s="366"/>
-      <c r="K9" s="640" t="s">
+      <c r="K9" s="705" t="s">
         <v>300</v>
       </c>
-      <c r="L9" s="643" t="s">
+      <c r="L9" s="628" t="s">
         <v>338</v>
       </c>
-      <c r="M9" s="643" t="s">
+      <c r="M9" s="628" t="s">
         <v>318</v>
       </c>
-      <c r="N9" s="625" t="s">
+      <c r="N9" s="631" t="s">
         <v>339</v>
       </c>
-      <c r="O9" s="646" t="s">
+      <c r="O9" s="663" t="s">
         <v>317</v>
       </c>
-      <c r="P9" s="651" t="s">
+      <c r="P9" s="684" t="s">
         <v>319</v>
       </c>
-      <c r="Q9" s="654" t="s">
+      <c r="Q9" s="687" t="s">
         <v>289</v>
       </c>
-      <c r="R9" s="622" t="s">
+      <c r="R9" s="690" t="s">
         <v>296</v>
       </c>
       <c r="S9" s="244"/>
-      <c r="T9" s="622" t="s">
+      <c r="T9" s="690" t="s">
         <v>302</v>
       </c>
       <c r="U9" s="245"/>
-      <c r="V9" s="622" t="s">
+      <c r="V9" s="690" t="s">
         <v>293</v>
       </c>
       <c r="W9" s="244"/>
-      <c r="X9" s="622" t="s">
+      <c r="X9" s="690" t="s">
         <v>294</v>
       </c>
       <c r="Y9" s="244"/>
-      <c r="Z9" s="622" t="s">
+      <c r="Z9" s="690" t="s">
         <v>295</v>
       </c>
       <c r="AA9" s="245"/>
-      <c r="AB9" s="625" t="s">
+      <c r="AB9" s="631" t="s">
         <v>366</v>
       </c>
       <c r="AC9" s="296"/>
-      <c r="AD9" s="628" t="s">
+      <c r="AD9" s="634" t="s">
         <v>365</v>
       </c>
-      <c r="AE9" s="625" t="s">
+      <c r="AE9" s="631" t="s">
         <v>367</v>
       </c>
       <c r="AF9" s="296"/>
-      <c r="AG9" s="628" t="s">
+      <c r="AG9" s="634" t="s">
         <v>364</v>
       </c>
-      <c r="AH9" s="643" t="s">
+      <c r="AH9" s="628" t="s">
         <v>368</v>
       </c>
-      <c r="AI9" s="643" t="s">
+      <c r="AI9" s="628" t="s">
         <v>320</v>
       </c>
-      <c r="AJ9" s="643" t="s">
+      <c r="AJ9" s="628" t="s">
         <v>321</v>
       </c>
-      <c r="AK9" s="660" t="s">
+      <c r="AK9" s="681" t="s">
         <v>369</v>
       </c>
-      <c r="AL9" s="643" t="s">
+      <c r="AL9" s="628" t="s">
         <v>370</v>
       </c>
-      <c r="AM9" s="643" t="s">
+      <c r="AM9" s="628" t="s">
         <v>342</v>
       </c>
-      <c r="AN9" s="643" t="s">
+      <c r="AN9" s="628" t="s">
         <v>343</v>
       </c>
-      <c r="AO9" s="685" t="s">
+      <c r="AO9" s="675" t="s">
         <v>330</v>
       </c>
-      <c r="AP9" s="695"/>
-      <c r="AQ9" s="689"/>
-      <c r="AR9" s="679"/>
-      <c r="AS9" s="680"/>
-      <c r="AT9" s="681"/>
-      <c r="AU9" s="692"/>
+      <c r="AP9" s="656"/>
+      <c r="AQ9" s="659"/>
+      <c r="AR9" s="669"/>
+      <c r="AS9" s="670"/>
+      <c r="AT9" s="671"/>
+      <c r="AU9" s="638"/>
     </row>
     <row r="10" spans="1:51">
-      <c r="A10" s="608"/>
-      <c r="B10" s="609"/>
-      <c r="C10" s="668"/>
-      <c r="D10" s="671"/>
-      <c r="E10" s="674"/>
-      <c r="F10" s="632"/>
-      <c r="G10" s="639"/>
+      <c r="A10" s="624"/>
+      <c r="B10" s="625"/>
+      <c r="C10" s="641"/>
+      <c r="D10" s="644"/>
+      <c r="E10" s="647"/>
+      <c r="F10" s="701"/>
+      <c r="G10" s="662"/>
       <c r="H10" s="367"/>
-      <c r="I10" s="639"/>
+      <c r="I10" s="662"/>
       <c r="J10" s="367"/>
-      <c r="K10" s="641"/>
-      <c r="L10" s="644"/>
-      <c r="M10" s="644"/>
-      <c r="N10" s="626"/>
-      <c r="O10" s="647"/>
-      <c r="P10" s="652"/>
-      <c r="Q10" s="655"/>
-      <c r="R10" s="623"/>
+      <c r="K10" s="706"/>
+      <c r="L10" s="629"/>
+      <c r="M10" s="629"/>
+      <c r="N10" s="632"/>
+      <c r="O10" s="664"/>
+      <c r="P10" s="685"/>
+      <c r="Q10" s="688"/>
+      <c r="R10" s="691"/>
       <c r="S10" s="287"/>
-      <c r="T10" s="623"/>
+      <c r="T10" s="691"/>
       <c r="U10" s="289"/>
-      <c r="V10" s="623"/>
+      <c r="V10" s="691"/>
       <c r="W10" s="287"/>
-      <c r="X10" s="623"/>
+      <c r="X10" s="691"/>
       <c r="Y10" s="287"/>
-      <c r="Z10" s="623"/>
+      <c r="Z10" s="691"/>
       <c r="AA10" s="289"/>
-      <c r="AB10" s="626"/>
+      <c r="AB10" s="632"/>
       <c r="AC10" s="343"/>
-      <c r="AD10" s="629"/>
-      <c r="AE10" s="626"/>
+      <c r="AD10" s="635"/>
+      <c r="AE10" s="632"/>
       <c r="AF10" s="343"/>
-      <c r="AG10" s="629"/>
-      <c r="AH10" s="644"/>
-      <c r="AI10" s="644"/>
-      <c r="AJ10" s="644"/>
-      <c r="AK10" s="661"/>
-      <c r="AL10" s="644"/>
-      <c r="AM10" s="644"/>
-      <c r="AN10" s="644"/>
-      <c r="AO10" s="686"/>
-      <c r="AP10" s="695"/>
-      <c r="AQ10" s="689"/>
-      <c r="AR10" s="682"/>
-      <c r="AS10" s="683"/>
-      <c r="AT10" s="684"/>
-      <c r="AU10" s="692"/>
+      <c r="AG10" s="635"/>
+      <c r="AH10" s="629"/>
+      <c r="AI10" s="629"/>
+      <c r="AJ10" s="629"/>
+      <c r="AK10" s="682"/>
+      <c r="AL10" s="629"/>
+      <c r="AM10" s="629"/>
+      <c r="AN10" s="629"/>
+      <c r="AO10" s="676"/>
+      <c r="AP10" s="656"/>
+      <c r="AQ10" s="659"/>
+      <c r="AR10" s="672"/>
+      <c r="AS10" s="673"/>
+      <c r="AT10" s="674"/>
+      <c r="AU10" s="638"/>
     </row>
     <row r="11" spans="1:51" ht="15.75">
-      <c r="A11" s="608"/>
-      <c r="B11" s="609"/>
-      <c r="C11" s="669"/>
-      <c r="D11" s="672"/>
-      <c r="E11" s="675"/>
-      <c r="F11" s="633"/>
-      <c r="G11" s="639"/>
+      <c r="A11" s="624"/>
+      <c r="B11" s="625"/>
+      <c r="C11" s="642"/>
+      <c r="D11" s="645"/>
+      <c r="E11" s="648"/>
+      <c r="F11" s="702"/>
+      <c r="G11" s="662"/>
       <c r="H11" s="367" t="s">
         <v>301</v>
       </c>
-      <c r="I11" s="639"/>
+      <c r="I11" s="662"/>
       <c r="J11" s="367" t="s">
         <v>301</v>
       </c>
-      <c r="K11" s="642"/>
-      <c r="L11" s="645"/>
-      <c r="M11" s="645"/>
-      <c r="N11" s="627"/>
-      <c r="O11" s="648"/>
-      <c r="P11" s="653"/>
-      <c r="Q11" s="656"/>
-      <c r="R11" s="624"/>
+      <c r="K11" s="707"/>
+      <c r="L11" s="630"/>
+      <c r="M11" s="630"/>
+      <c r="N11" s="633"/>
+      <c r="O11" s="665"/>
+      <c r="P11" s="686"/>
+      <c r="Q11" s="689"/>
+      <c r="R11" s="692"/>
       <c r="S11" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="T11" s="624"/>
+      <c r="T11" s="692"/>
       <c r="U11" s="289" t="s">
         <v>301</v>
       </c>
-      <c r="V11" s="624"/>
+      <c r="V11" s="692"/>
       <c r="W11" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="X11" s="624"/>
+      <c r="X11" s="692"/>
       <c r="Y11" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="Z11" s="624"/>
+      <c r="Z11" s="692"/>
       <c r="AA11" s="289" t="s">
         <v>301</v>
       </c>
-      <c r="AB11" s="627"/>
+      <c r="AB11" s="633"/>
       <c r="AC11" s="297" t="s">
         <v>301</v>
       </c>
-      <c r="AD11" s="630"/>
-      <c r="AE11" s="627"/>
+      <c r="AD11" s="636"/>
+      <c r="AE11" s="633"/>
       <c r="AF11" s="297" t="s">
         <v>301</v>
       </c>
-      <c r="AG11" s="630"/>
-      <c r="AH11" s="645"/>
-      <c r="AI11" s="645"/>
-      <c r="AJ11" s="645"/>
-      <c r="AK11" s="662"/>
-      <c r="AL11" s="645"/>
-      <c r="AM11" s="645"/>
-      <c r="AN11" s="645"/>
-      <c r="AO11" s="687"/>
-      <c r="AP11" s="696"/>
-      <c r="AQ11" s="690"/>
+      <c r="AG11" s="636"/>
+      <c r="AH11" s="630"/>
+      <c r="AI11" s="630"/>
+      <c r="AJ11" s="630"/>
+      <c r="AK11" s="683"/>
+      <c r="AL11" s="630"/>
+      <c r="AM11" s="630"/>
+      <c r="AN11" s="630"/>
+      <c r="AO11" s="677"/>
+      <c r="AP11" s="657"/>
+      <c r="AQ11" s="660"/>
       <c r="AR11" s="307" t="s">
         <v>334</v>
       </c>
@@ -20193,11 +20634,11 @@
       <c r="AT11" s="308" t="s">
         <v>336</v>
       </c>
-      <c r="AU11" s="693"/>
+      <c r="AU11" s="639"/>
     </row>
     <row r="12" spans="1:51">
-      <c r="A12" s="608"/>
-      <c r="B12" s="609"/>
+      <c r="A12" s="624"/>
+      <c r="B12" s="625"/>
       <c r="C12" s="360">
         <v>300</v>
       </c>
@@ -20368,8 +20809,8 @@
       </c>
     </row>
     <row r="13" spans="1:51">
-      <c r="A13" s="608"/>
-      <c r="B13" s="609"/>
+      <c r="A13" s="624"/>
+      <c r="B13" s="625"/>
       <c r="C13" s="360"/>
       <c r="D13" s="121"/>
       <c r="E13" s="309"/>
@@ -20417,8 +20858,8 @@
       <c r="AU13" s="306"/>
     </row>
     <row r="14" spans="1:51">
-      <c r="A14" s="608"/>
-      <c r="B14" s="609"/>
+      <c r="A14" s="624"/>
+      <c r="B14" s="625"/>
       <c r="C14" s="360"/>
       <c r="D14" s="121"/>
       <c r="E14" s="309"/>
@@ -20466,8 +20907,8 @@
       <c r="AU14" s="306"/>
     </row>
     <row r="15" spans="1:51">
-      <c r="A15" s="610"/>
-      <c r="B15" s="611"/>
+      <c r="A15" s="626"/>
+      <c r="B15" s="627"/>
       <c r="C15" s="360"/>
       <c r="D15" s="121"/>
       <c r="E15" s="309"/>
@@ -20657,19 +21098,14 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="AU7:AU11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="G8:P8"/>
-    <mergeCell ref="Q8:AO8"/>
-    <mergeCell ref="AP8:AP11"/>
-    <mergeCell ref="AQ8:AQ11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="Q9:Q11"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="AO9:AO11"/>
+    <mergeCell ref="AH9:AH11"/>
+    <mergeCell ref="AI9:AI11"/>
+    <mergeCell ref="AJ9:AJ11"/>
+    <mergeCell ref="AK9:AK11"/>
+    <mergeCell ref="AL9:AL11"/>
+    <mergeCell ref="AM9:AM11"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:AQ7"/>
@@ -20686,25 +21122,30 @@
     <mergeCell ref="AE9:AE11"/>
     <mergeCell ref="AG9:AG11"/>
     <mergeCell ref="O9:O11"/>
+    <mergeCell ref="AU7:AU11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G8:P8"/>
+    <mergeCell ref="Q8:AO8"/>
+    <mergeCell ref="AP8:AP11"/>
+    <mergeCell ref="AQ8:AQ11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="Q9:Q11"/>
     <mergeCell ref="L9:L11"/>
     <mergeCell ref="M9:M11"/>
     <mergeCell ref="N9:N11"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="AO9:AO11"/>
-    <mergeCell ref="AH9:AH11"/>
-    <mergeCell ref="AI9:AI11"/>
-    <mergeCell ref="AJ9:AJ11"/>
-    <mergeCell ref="AK9:AK11"/>
-    <mergeCell ref="AL9:AL11"/>
-    <mergeCell ref="AM9:AM11"/>
   </mergeCells>
   <conditionalFormatting sqref="M12:M18">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>N12="01"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:L18">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>N12="10"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20775,17 +21216,17 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="M2" s="709" t="s">
+      <c r="M2" s="717" t="s">
         <v>212</v>
       </c>
-      <c r="N2" s="710"/>
-      <c r="P2" s="708" t="s">
+      <c r="N2" s="718"/>
+      <c r="P2" s="716" t="s">
         <v>226</v>
       </c>
-      <c r="Q2" s="708"/>
-      <c r="R2" s="708"/>
-      <c r="S2" s="708"/>
-      <c r="T2" s="708"/>
+      <c r="Q2" s="716"/>
+      <c r="R2" s="716"/>
+      <c r="S2" s="716"/>
+      <c r="T2" s="716"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
       <c r="A3" s="222" t="s">
@@ -20806,16 +21247,16 @@
       <c r="G3" s="228" t="s">
         <v>231</v>
       </c>
-      <c r="I3" s="701" t="s">
+      <c r="I3" s="709" t="s">
         <v>124</v>
       </c>
-      <c r="J3" s="701"/>
-      <c r="K3" s="701"/>
-      <c r="P3" s="708"/>
-      <c r="Q3" s="708"/>
-      <c r="R3" s="708"/>
-      <c r="S3" s="708"/>
-      <c r="T3" s="708"/>
+      <c r="J3" s="709"/>
+      <c r="K3" s="709"/>
+      <c r="P3" s="716"/>
+      <c r="Q3" s="716"/>
+      <c r="R3" s="716"/>
+      <c r="S3" s="716"/>
+      <c r="T3" s="716"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1">
       <c r="A4" s="20" t="s">
@@ -20854,11 +21295,11 @@
         <f t="array" ref="N4">IFERROR(INDEX($K$5:$K$14,MATCH(TRUE,EXACT($I$5:$I$14,MID(M4,1,1)),0)),1)</f>
         <v>1000000000</v>
       </c>
-      <c r="P4" s="708"/>
-      <c r="Q4" s="708"/>
-      <c r="R4" s="708"/>
-      <c r="S4" s="708"/>
-      <c r="T4" s="708"/>
+      <c r="P4" s="716"/>
+      <c r="Q4" s="716"/>
+      <c r="R4" s="716"/>
+      <c r="S4" s="716"/>
+      <c r="T4" s="716"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="20" t="s">
@@ -20937,12 +21378,12 @@
         <f t="array" ref="N6">IFERROR(INDEX($K$5:$K$14,MATCH(TRUE,EXACT($I$5:$I$14,MID(M6,1,1)),0)),1)</f>
         <v>1000</v>
       </c>
-      <c r="P6" s="702" t="s">
+      <c r="P6" s="710" t="s">
         <v>123</v>
       </c>
-      <c r="Q6" s="703"/>
-      <c r="R6" s="703"/>
-      <c r="S6" s="704"/>
+      <c r="Q6" s="711"/>
+      <c r="R6" s="711"/>
+      <c r="S6" s="712"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="227" t="s">
@@ -21670,14 +22111,14 @@
         <f t="array" ref="G24">INDEX($K$16:$K$21,MATCH(TRUE,EXACT($I$16:$I$21,E24),0))/INDEX($K$16:$K$21,MATCH(TRUE,EXACT($I$16:$I$21,F24),0))</f>
         <v>9.3132257461547852E-10</v>
       </c>
-      <c r="N24" s="705" t="s">
+      <c r="N24" s="713" t="s">
         <v>241</v>
       </c>
-      <c r="O24" s="706"/>
-      <c r="P24" s="707" t="s">
+      <c r="O24" s="714"/>
+      <c r="P24" s="715" t="s">
         <v>240</v>
       </c>
-      <c r="Q24" s="707"/>
+      <c r="Q24" s="715"/>
       <c r="S24" t="s">
         <v>233</v>
       </c>

--- a/altri_doc/Analisi Dati + Modello.xlsx
+++ b/altri_doc/Analisi Dati + Modello.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6180" windowWidth="20535" windowHeight="1170" tabRatio="598" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="6180" windowWidth="20535" windowHeight="1170" tabRatio="598" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Bluetooth" sheetId="9" r:id="rId1"/>
@@ -5373,9 +5373,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.10228765432098766"/>
-          <c:y val="9.896018518518522E-2"/>
-          <c:w val="0.65944027777777792"/>
-          <c:h val="0.79225092592592572"/>
+          <c:y val="9.8960185185185248E-2"/>
+          <c:w val="0.65944027777777814"/>
+          <c:h val="0.79225092592592539"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -5399,80 +5399,193 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.5011377932049746E-2"/>
+                  <c:x val="-3.501137793204976E-2"/>
                   <c:y val="-2.4988820320186029E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>2 KB</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:showCatName val="1"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.8626913794513539E-2"/>
+                  <c:x val="-4.8626913794513525E-2"/>
                   <c:y val="-2.7260531258384759E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>800 KB</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:showCatName val="1"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.7803062071221656E-3"/>
-                  <c:y val="-4.5434218763974596E-3"/>
+                  <c:x val="-7.78030620712217E-3"/>
+                  <c:y val="-4.5434218763974578E-3"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>2MB</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:showCatName val="1"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.8352296553415527E-3"/>
-                  <c:y val="-2.0445398443788527E-2"/>
+                  <c:x val="-5.8352296553415561E-3"/>
+                  <c:y val="-2.0445398443788544E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>50 MB</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:showCatName val="1"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.8352296553416247E-3"/>
+                  <c:x val="-5.8352296553416307E-3"/>
                   <c:y val="-2.0445398443788652E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>200 MB</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:showCatName val="1"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.7803062071221656E-3"/>
+                  <c:x val="-7.78030620712217E-3"/>
                   <c:y val="-2.2717109381987299E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>500 MB</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:showCatName val="1"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.7253827589027075E-3"/>
+                  <c:x val="-9.7253827589027109E-3"/>
                   <c:y val="-1.5901976567391111E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>800 MB</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>1 GB</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:showCatName val="1"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.3615689018097789E-2"/>
-                  <c:y val="-2.0445398443788568E-2"/>
+                  <c:x val="-1.3615689018097793E-2"/>
+                  <c:y val="-2.0445398443788579E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>5 GB</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:showCatName val="1"/>
             </c:dLbl>
             <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
@@ -6620,11 +6733,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="84718336"/>
-        <c:axId val="84721024"/>
+        <c:axId val="151409024"/>
+        <c:axId val="151411328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84718336"/>
+        <c:axId val="151409024"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6653,12 +6766,12 @@
         </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84721024"/>
+        <c:crossAx val="151411328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84721024"/>
+        <c:axId val="151411328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6689,7 +6802,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84718336"/>
+        <c:crossAx val="151409024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6702,7 +6815,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6738,8 +6851,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.10228765432098766"/>
           <c:y val="9.8960185185185248E-2"/>
-          <c:w val="0.65944027777777814"/>
-          <c:h val="0.79225092592592539"/>
+          <c:w val="0.65944027777777836"/>
+          <c:h val="0.79225092592592516"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -6760,13 +6873,66 @@
           </c:tx>
           <c:dLbls>
             <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>2 KB</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>800 KB</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.2317901234567901E-2"/>
-                  <c:y val="-9.6485185185184973E-3"/>
+                  <c:x val="-1.2317901234567904E-2"/>
+                  <c:y val="-9.6485185185185007E-3"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> MB</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="r"/>
               <c:showCatName val="1"/>
             </c:dLbl>
@@ -6774,10 +6940,22 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.4277932098765432E-2"/>
-                  <c:y val="-2.1407777777777734E-2"/>
+                  <c:x val="-1.4277932098765433E-2"/>
+                  <c:y val="-2.1407777777777762E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>50 MB</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="r"/>
               <c:showCatName val="1"/>
             </c:dLbl>
@@ -6785,10 +6963,22 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.5879629629629628E-4"/>
-                  <c:y val="-1.200037037037037E-2"/>
+                  <c:x val="-5.5879629629629649E-4"/>
+                  <c:y val="-1.2000370370370371E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>200 MB</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="r"/>
               <c:showCatName val="1"/>
             </c:dLbl>
@@ -6797,9 +6987,21 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.4277777777777849E-2"/>
-                  <c:y val="-3.0815185185185185E-2"/>
+                  <c:y val="-3.0815185185185195E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>500 MB</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="r"/>
               <c:showCatName val="1"/>
             </c:dLbl>
@@ -6807,10 +7009,22 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.2317901234567901E-2"/>
-                  <c:y val="-2.3759629629629631E-2"/>
+                  <c:x val="-1.2317901234567904E-2"/>
+                  <c:y val="-2.3759629629629637E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>800 MB</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="r"/>
               <c:showCatName val="1"/>
             </c:dLbl>
@@ -6818,10 +7032,22 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.5864197530864203E-4"/>
-                  <c:y val="2.1107407407407407E-3"/>
+                  <c:x val="-5.5864197530864225E-4"/>
+                  <c:y val="2.110740740740742E-3"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>1 GB</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="r"/>
               <c:showCatName val="1"/>
             </c:dLbl>
@@ -6829,10 +7055,22 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.6237654320987654E-2"/>
-                  <c:y val="-1.4352222222222223E-2"/>
+                  <c:x val="-1.6237654320987661E-2"/>
+                  <c:y val="-1.4352222222222219E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>5 GB</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="r"/>
               <c:showCatName val="1"/>
             </c:dLbl>
@@ -7912,11 +8150,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="85840256"/>
-        <c:axId val="85842176"/>
+        <c:axId val="151572480"/>
+        <c:axId val="151574400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85840256"/>
+        <c:axId val="151572480"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7945,12 +8183,12 @@
         </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85842176"/>
+        <c:crossAx val="151574400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85842176"/>
+        <c:axId val="151574400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7976,7 +8214,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85840256"/>
+        <c:crossAx val="151572480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7989,7 +8227,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8031,13 +8269,94 @@
           <c:order val="0"/>
           <c:dLbls>
             <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.739387480311387E-2"/>
+                  <c:y val="-1.9087271467291101E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>10 B</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.5836425283398962E-2"/>
-                  <c:y val="2.7955009415282988E-2"/>
+                  <c:x val="-3.1954884632788165E-2"/>
+                  <c:y val="-1.9159426999747077E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>30 B</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2313831335729609E-2"/>
+                  <c:y val="-1.6731550998936771E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>300 B</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1396774055026802E-2"/>
+                  <c:y val="-1.6731550998936771E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>2 KB</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="r"/>
               <c:showCatName val="1"/>
             </c:dLbl>
@@ -8045,10 +8364,22 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.1050784112775331E-2"/>
-                  <c:y val="-2.1387807902325272E-2"/>
+                  <c:x val="-7.7169277526656324E-2"/>
+                  <c:y val="-1.1964834101632087E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>800 KB</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="r"/>
               <c:showCatName val="1"/>
             </c:dLbl>
@@ -8056,10 +8387,22 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.5754639776950579E-3"/>
-                  <c:y val="2.1087717727262803E-3"/>
+                  <c:x val="-5.8976517618242852E-2"/>
+                  <c:y val="-1.4381209734801522E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>2 MB</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="r"/>
               <c:showCatName val="1"/>
             </c:dLbl>
@@ -8067,10 +8410,22 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.8753100116219147E-2"/>
-                  <c:y val="-1.6688491967315006E-2"/>
+                  <c:x val="-8.8753100116219216E-2"/>
+                  <c:y val="-1.6688491967315013E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>50 MB</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="r"/>
               <c:showCatName val="1"/>
             </c:dLbl>
@@ -8078,10 +8433,22 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.9956794746418942E-2"/>
-                  <c:y val="3.7353641285303614E-2"/>
+                  <c:x val="-8.8180230408922575E-2"/>
+                  <c:y val="-3.3796241679854991E-4"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>200 MB</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="r"/>
               <c:showCatName val="1"/>
             </c:dLbl>
@@ -8089,10 +8456,22 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.6793223270559147E-2"/>
-                  <c:y val="-2.1387807902325272E-2"/>
+                  <c:x val="-9.0674821818719734E-2"/>
+                  <c:y val="-1.8623175986045231E-4"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>500 MB</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="r"/>
               <c:showCatName val="1"/>
             </c:dLbl>
@@ -8100,10 +8479,22 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.4783957528388508E-3"/>
-                  <c:y val="2.5605351447777834E-2"/>
+                  <c:x val="-8.2816186481252288E-2"/>
+                  <c:y val="-7.2533931649234338E-3"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>800 MB</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="r"/>
               <c:showCatName val="1"/>
             </c:dLbl>
@@ -8111,10 +8502,22 @@
               <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.7395070585659042E-2"/>
-                  <c:y val="-3.3136097739851052E-2"/>
+                  <c:x val="-5.3475243655899812E-2"/>
+                  <c:y val="-1.9019938669652309E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>1 GB</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="r"/>
               <c:showCatName val="1"/>
             </c:dLbl>
@@ -8122,10 +8525,27 @@
               <c:idx val="11"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.1476244054975933E-2"/>
-                  <c:y val="-2.843678180484074E-2"/>
+                  <c:x val="-5.7193596889371041E-2"/>
+                  <c:y val="-1.4326675733408123E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>5</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> GB</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="r"/>
               <c:showCatName val="1"/>
             </c:dLbl>
@@ -8227,11 +8647,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="88756608"/>
-        <c:axId val="88758528"/>
+        <c:axId val="153624960"/>
+        <c:axId val="153626880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88756608"/>
+        <c:axId val="153624960"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8264,12 +8684,12 @@
         <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88758528"/>
-        <c:crossesAt val="1.0000000000000007E-3"/>
+        <c:crossAx val="153626880"/>
+        <c:crossesAt val="1.0000000000000011E-3"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88758528"/>
+        <c:axId val="153626880"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8297,7 +8717,7 @@
         <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88756608"/>
+        <c:crossAx val="153624960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8306,7 +8726,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8432,11 +8852,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="91621632"/>
-        <c:axId val="91636096"/>
+        <c:axId val="153647744"/>
+        <c:axId val="153678208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91621632"/>
+        <c:axId val="153647744"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8469,12 +8889,12 @@
         <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91636096"/>
-        <c:crossesAt val="1.0000000000000011E-3"/>
+        <c:crossAx val="153678208"/>
+        <c:crossesAt val="1.0000000000000015E-3"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91636096"/>
+        <c:axId val="153678208"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8510,7 +8930,7 @@
         <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91621632"/>
+        <c:crossAx val="153647744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8519,7 +8939,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8537,7 +8957,7 @@
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>372794</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>99617</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8700,9 +9120,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>59</xdr:col>
-      <xdr:colOff>357104</xdr:colOff>
+      <xdr:colOff>277864</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>37425</xdr:rowOff>
+      <xdr:rowOff>25178</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9093,7 +9513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:U47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
@@ -9996,8 +10416,8 @@
   <sheetPr codeName="Foglio1"/>
   <dimension ref="A1:AU31"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AN31" sqref="AN31"/>
+    <sheetView topLeftCell="R1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AW4" sqref="AW4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12657,8 +13077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BA9" sqref="BA9"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AY25" sqref="AY25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16351,7 +16771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AZ43"/>
   <sheetViews>
-    <sheetView topLeftCell="AV3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AV1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AV28" sqref="AV28"/>
     </sheetView>
   </sheetViews>

--- a/altri_doc/Analisi Dati + Modello.xlsx
+++ b/altri_doc/Analisi Dati + Modello.xlsx
@@ -4416,191 +4416,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4699,6 +4555,240 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4759,12 +4849,6 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4789,51 +4873,39 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4864,35 +4936,45 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4942,44 +5024,40 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4991,21 +5069,9 @@
     <xf numFmtId="0" fontId="16" fillId="21" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5030,29 +5096,218 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5060,36 +5315,6 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5102,18 +5327,6 @@
     <xf numFmtId="0" fontId="7" fillId="29" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5123,177 +5336,6 @@
     <xf numFmtId="0" fontId="7" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5326,48 +5368,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5452,8 +5452,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.10228765432098766"/>
           <c:y val="9.8960185185185248E-2"/>
-          <c:w val="0.65944027777777825"/>
-          <c:h val="0.79225092592592528"/>
+          <c:w val="0.65944027777777836"/>
+          <c:h val="0.79225092592592516"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -5477,7 +5477,7 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.5011377932049774E-2"/>
+                  <c:x val="-3.5011377932049788E-2"/>
                   <c:y val="-2.4988820320186029E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -5487,8 +5487,12 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="0"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>2 KB</a:t>
+                      <a:t> KB</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -5509,8 +5513,12 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="0"/>
+                      <a:t>8</a:t>
+                    </a:r>
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>800 KB</a:t>
+                      <a:t>00 KB</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -5521,8 +5529,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.7803062071221717E-3"/>
-                  <c:y val="-4.543421876397457E-3"/>
+                  <c:x val="-7.7803062071221734E-3"/>
+                  <c:y val="-4.5434218763974561E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5531,8 +5539,12 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="0"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>2MB</a:t>
+                      <a:t>MB</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -5543,8 +5555,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.8352296553415579E-3"/>
-                  <c:y val="-2.0445398443788551E-2"/>
+                  <c:x val="-1.9154320987654321E-3"/>
+                  <c:y val="-3.9824074074074076E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5553,8 +5565,12 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="0"/>
+                      <a:t>5</a:t>
+                    </a:r>
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>50 MB</a:t>
+                      <a:t>0 MB</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -5565,7 +5581,7 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.8352296553416333E-3"/>
+                  <c:x val="-5.8352296553416351E-3"/>
                   <c:y val="-2.0445398443788652E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -5575,8 +5591,12 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="0"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>200 MB</a:t>
+                      <a:t>00 MB</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -5587,7 +5607,7 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.7803062071221717E-3"/>
+                  <c:x val="-7.7803062071221734E-3"/>
                   <c:y val="-2.2717109381987299E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -5597,8 +5617,12 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="0"/>
+                      <a:t>5</a:t>
+                    </a:r>
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>500 MB</a:t>
+                      <a:t>00 MB</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -5609,7 +5633,7 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.7253827589027144E-3"/>
+                  <c:x val="-9.7253827589027161E-3"/>
                   <c:y val="-1.5901976567391111E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -5619,8 +5643,12 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="0"/>
+                      <a:t>8</a:t>
+                    </a:r>
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>800 MB</a:t>
+                      <a:t>00 MB</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -5636,8 +5664,12 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="0"/>
+                      <a:t>1</a:t>
+                    </a:r>
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>1 GB</a:t>
+                      <a:t> GB</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -5648,8 +5680,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.3615689018097796E-2"/>
-                  <c:y val="-2.0445398443788586E-2"/>
+                  <c:x val="-1.36156890180978E-2"/>
+                  <c:y val="-2.0445398443788589E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -5658,8 +5690,12 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="0"/>
+                      <a:t>5</a:t>
+                    </a:r>
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>5 GB</a:t>
+                      <a:t> GB</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -5667,6 +5703,16 @@
               <c:showCatName val="1"/>
             </c:dLbl>
             <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0"/>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
             <c:showCatName val="1"/>
           </c:dLbls>
           <c:xVal>
@@ -6811,11 +6857,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="78648832"/>
-        <c:axId val="78659584"/>
+        <c:axId val="63396096"/>
+        <c:axId val="63415040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78648832"/>
+        <c:axId val="63396096"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6844,12 +6890,12 @@
         </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78659584"/>
+        <c:crossAx val="63415040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78659584"/>
+        <c:axId val="63415040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6879,8 +6925,9 @@
           <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78648832"/>
+        <c:crossAx val="63396096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6893,7 +6940,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6929,8 +6976,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.10228765432098766"/>
           <c:y val="9.8960185185185248E-2"/>
-          <c:w val="0.65944027777777858"/>
-          <c:h val="0.79225092592592505"/>
+          <c:w val="0.6594402777777788"/>
+          <c:h val="0.79225092592592483"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -6959,8 +7006,12 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="0"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>2 KB</a:t>
+                      <a:t> KB</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -6977,8 +7028,12 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="0"/>
+                      <a:t>8</a:t>
+                    </a:r>
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>800 KB</a:t>
+                      <a:t>00 KB</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -6990,7 +7045,7 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.2317901234567906E-2"/>
+                  <c:x val="-1.2317901234567909E-2"/>
                   <c:y val="-9.6485185185185007E-3"/>
                 </c:manualLayout>
               </c:layout>
@@ -7000,7 +7055,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="en-US" sz="1400" b="0"/>
                       <a:t>2</a:t>
                     </a:r>
                     <a:r>
@@ -7019,7 +7074,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.4277932098765433E-2"/>
-                  <c:y val="-2.1407777777777776E-2"/>
+                  <c:y val="-2.1407777777777789E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -7028,8 +7083,12 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="0"/>
+                      <a:t>5</a:t>
+                    </a:r>
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>50 MB</a:t>
+                      <a:t>0 MB</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -7041,7 +7100,7 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.5879629629629671E-4"/>
+                  <c:x val="-5.5879629629629682E-4"/>
                   <c:y val="-1.2000370370370371E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -7051,8 +7110,12 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="0"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>200 MB</a:t>
+                      <a:t>00 MB</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -7065,7 +7128,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.4277777777777849E-2"/>
-                  <c:y val="-3.0815185185185199E-2"/>
+                  <c:y val="-3.0815185185185206E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -7074,8 +7137,12 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="0"/>
+                      <a:t>5</a:t>
+                    </a:r>
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>500 MB</a:t>
+                      <a:t>00 MB</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -7087,7 +7154,7 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.2317901234567906E-2"/>
+                  <c:x val="-1.2317901234567909E-2"/>
                   <c:y val="-2.3759629629629641E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -7097,8 +7164,12 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="0"/>
+                      <a:t>8</a:t>
+                    </a:r>
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>800 MB</a:t>
+                      <a:t>00 MB</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -7110,8 +7181,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.5864197530864235E-4"/>
-                  <c:y val="2.1107407407407429E-3"/>
+                  <c:x val="-5.5864197530864246E-4"/>
+                  <c:y val="2.1107407407407438E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -7120,8 +7191,12 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="0"/>
+                      <a:t>1</a:t>
+                    </a:r>
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>1 GB</a:t>
+                      <a:t> GB</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -7143,8 +7218,12 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="0"/>
+                      <a:t>5</a:t>
+                    </a:r>
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>5 GB</a:t>
+                      <a:t> GB</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -7153,6 +7232,16 @@
               <c:showCatName val="1"/>
             </c:dLbl>
             <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0"/>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="t"/>
             <c:showCatName val="1"/>
           </c:dLbls>
@@ -8228,11 +8317,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="78824576"/>
-        <c:axId val="78826496"/>
+        <c:axId val="64006016"/>
+        <c:axId val="63901696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78824576"/>
+        <c:axId val="64006016"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8261,12 +8350,12 @@
         </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78826496"/>
+        <c:crossAx val="63901696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78826496"/>
+        <c:axId val="63901696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8291,8 +8380,9 @@
           <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78824576"/>
+        <c:crossAx val="64006016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8305,7 +8395,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8350,8 +8440,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.739387480311389E-2"/>
-                  <c:y val="-1.9087271467291101E-2"/>
+                  <c:x val="-6.1344038707942312E-2"/>
+                  <c:y val="-1.1995110797285777E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -8360,8 +8450,12 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="1"/>
+                      <a:t>1</a:t>
+                    </a:r>
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>10 B</a:t>
+                      <a:t>0 B</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -8373,8 +8467,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.1954884632788165E-2"/>
-                  <c:y val="-1.915942699974708E-2"/>
+                  <c:x val="-3.6036142279133494E-2"/>
+                  <c:y val="-1.9159382487101095E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -8383,8 +8477,12 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="1"/>
+                      <a:t>3</a:t>
+                    </a:r>
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>30 B</a:t>
+                      <a:t>0 B</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -8396,8 +8494,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.231383133572963E-2"/>
-                  <c:y val="-1.6731550998936775E-2"/>
+                  <c:x val="-5.6419166141087586E-2"/>
+                  <c:y val="-2.1437786525936881E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -8406,8 +8504,12 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="1"/>
+                      <a:t>3</a:t>
+                    </a:r>
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>300 B</a:t>
+                      <a:t>00 B</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -8419,8 +8521,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.1396774055026823E-2"/>
-                  <c:y val="-1.6731550998936775E-2"/>
+                  <c:x val="-5.5478177925800995E-2"/>
+                  <c:y val="-1.6731641727496058E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -8429,8 +8531,12 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="1"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>2 KB</a:t>
+                      <a:t> KB</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -8442,8 +8548,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.7169277526656324E-2"/>
-                  <c:y val="-1.196483410163209E-2"/>
+                  <c:x val="-8.7157501884580005E-2"/>
+                  <c:y val="-2.5526203499259522E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -8452,8 +8558,12 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="1"/>
+                      <a:t>8</a:t>
+                    </a:r>
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>800 KB</a:t>
+                      <a:t>00 KB</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -8465,8 +8575,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.8976517618242859E-2"/>
-                  <c:y val="-1.4381209734801522E-2"/>
+                  <c:x val="-7.2783233011287876E-2"/>
+                  <c:y val="-7.3219460686922977E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -8475,8 +8585,12 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="1"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>2 MB</a:t>
+                      <a:t> MB</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -8488,8 +8602,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.8753100116219244E-2"/>
-                  <c:y val="-1.6688491967315016E-2"/>
+                  <c:x val="-9.0876580144964872E-2"/>
+                  <c:y val="-1.7694363316972378E-4"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -8498,8 +8612,12 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="1"/>
+                      <a:t>5</a:t>
+                    </a:r>
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>50 MB</a:t>
+                      <a:t>0 MB</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -8511,8 +8629,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.8180230408922561E-2"/>
-                  <c:y val="-3.3796241679854997E-4"/>
+                  <c:x val="-0.1020290671014653"/>
+                  <c:y val="-2.6934341312966226E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -8521,8 +8639,12 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="1"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>200 MB</a:t>
+                      <a:t>00 MB</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -8534,8 +8656,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.0674821818719747E-2"/>
-                  <c:y val="-1.8623175986045236E-4"/>
+                  <c:x val="-0.10646690475220491"/>
+                  <c:y val="-1.8639297902486087E-4"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -8544,8 +8666,12 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="1"/>
+                      <a:t>5</a:t>
+                    </a:r>
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>500 MB</a:t>
+                      <a:t>00 MB</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -8557,8 +8683,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.2816186481252288E-2"/>
-                  <c:y val="-7.2533931649234364E-3"/>
+                  <c:x val="-0.10258303102963776"/>
+                  <c:y val="-7.2533919909197348E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -8567,8 +8693,12 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="1"/>
+                      <a:t>8</a:t>
+                    </a:r>
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>800 MB</a:t>
+                      <a:t>00 MB</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -8580,8 +8710,8 @@
               <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.3475243655899798E-2"/>
-                  <c:y val="-1.9019938669652313E-2"/>
+                  <c:x val="-5.7413219866776534E-2"/>
+                  <c:y val="-2.1377186370644681E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -8590,8 +8720,12 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="1"/>
+                      <a:t>1</a:t>
+                    </a:r>
+                    <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>1 GB</a:t>
+                      <a:t> GB</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -8603,8 +8737,8 @@
               <c:idx val="11"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.7193596889371062E-2"/>
-                  <c:y val="-1.4326675733408125E-2"/>
+                  <c:x val="-6.6983180012546037E-2"/>
+                  <c:y val="-1.1967812185121727E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -8613,7 +8747,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
+                      <a:rPr lang="en-US" sz="1200" b="1"/>
                       <a:t>5</a:t>
                     </a:r>
                     <a:r>
@@ -8628,6 +8762,16 @@
               <c:showCatName val="1"/>
             </c:dLbl>
             <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="t"/>
             <c:showCatName val="1"/>
           </c:dLbls>
@@ -8725,11 +8869,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="84194816"/>
-        <c:axId val="84196736"/>
+        <c:axId val="75049216"/>
+        <c:axId val="75100544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84194816"/>
+        <c:axId val="75049216"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8762,12 +8906,12 @@
         <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84196736"/>
-        <c:crossesAt val="1.0000000000000013E-3"/>
+        <c:crossAx val="75100544"/>
+        <c:crossesAt val="1.0000000000000015E-3"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84196736"/>
+        <c:axId val="75100544"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8795,7 +8939,7 @@
         <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84194816"/>
+        <c:crossAx val="75049216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8804,7 +8948,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8930,11 +9074,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="80694656"/>
-        <c:axId val="80717312"/>
+        <c:axId val="75424128"/>
+        <c:axId val="75426048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80694656"/>
+        <c:axId val="75424128"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8967,12 +9111,12 @@
         <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80717312"/>
-        <c:crossesAt val="1.0000000000000018E-3"/>
+        <c:crossAx val="75426048"/>
+        <c:crossesAt val="1.0000000000000022E-3"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80717312"/>
+        <c:axId val="75426048"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9008,7 +9152,7 @@
         <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80694656"/>
+        <c:crossAx val="75424128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9017,7 +9161,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9192,15 +9336,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>48</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>533398</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>302558</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>59</xdr:col>
-      <xdr:colOff>277864</xdr:colOff>
+      <xdr:colOff>357104</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>25178</xdr:rowOff>
+      <xdr:rowOff>32382</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9606,27 +9750,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="23.25">
-      <c r="D1" s="447" t="s">
+      <c r="D1" s="458" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="447"/>
+      <c r="E1" s="458"/>
       <c r="F1" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="448" t="s">
+      <c r="I1" s="459" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="449"/>
-      <c r="K1" s="449"/>
-      <c r="L1" s="450"/>
-      <c r="M1" s="451" t="s">
+      <c r="J1" s="460"/>
+      <c r="K1" s="460"/>
+      <c r="L1" s="461"/>
+      <c r="M1" s="462" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="452"/>
-      <c r="O1" s="452"/>
-      <c r="P1" s="452"/>
-      <c r="Q1" s="452"/>
-      <c r="R1" s="452"/>
+      <c r="N1" s="463"/>
+      <c r="O1" s="463"/>
+      <c r="P1" s="463"/>
+      <c r="Q1" s="463"/>
+      <c r="R1" s="463"/>
     </row>
     <row r="2" spans="2:18" ht="15.75">
       <c r="D2" s="21" t="s">
@@ -9635,7 +9779,7 @@
       <c r="E2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="453" t="s">
+      <c r="F2" s="464" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="25"/>
@@ -9651,27 +9795,27 @@
       <c r="L2" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="456" t="s">
+      <c r="M2" s="467" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="457"/>
-      <c r="O2" s="457"/>
-      <c r="P2" s="457"/>
-      <c r="Q2" s="457"/>
-      <c r="R2" s="458"/>
+      <c r="N2" s="468"/>
+      <c r="O2" s="468"/>
+      <c r="P2" s="468"/>
+      <c r="Q2" s="468"/>
+      <c r="R2" s="469"/>
     </row>
     <row r="3" spans="2:18">
-      <c r="B3" s="431" t="s">
+      <c r="B3" s="484" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="432"/>
+      <c r="C3" s="485"/>
       <c r="D3" s="42">
         <v>100</v>
       </c>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="454"/>
+      <c r="F3" s="465"/>
       <c r="H3" s="25"/>
       <c r="I3" s="46" t="s">
         <v>48</v>
@@ -9685,25 +9829,25 @@
       <c r="L3" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="459"/>
-      <c r="N3" s="460"/>
-      <c r="O3" s="460"/>
-      <c r="P3" s="460"/>
-      <c r="Q3" s="460"/>
-      <c r="R3" s="461"/>
+      <c r="M3" s="470"/>
+      <c r="N3" s="471"/>
+      <c r="O3" s="471"/>
+      <c r="P3" s="471"/>
+      <c r="Q3" s="471"/>
+      <c r="R3" s="472"/>
     </row>
     <row r="4" spans="2:18">
-      <c r="B4" s="433" t="s">
+      <c r="B4" s="486" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="434"/>
-      <c r="D4" s="445" t="s">
+      <c r="C4" s="487"/>
+      <c r="D4" s="499" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="437">
+      <c r="E4" s="490">
         <v>1</v>
       </c>
-      <c r="F4" s="454"/>
+      <c r="F4" s="465"/>
       <c r="H4" s="25"/>
       <c r="I4" s="44" t="s">
         <v>49</v>
@@ -9725,11 +9869,11 @@
       <c r="R4" s="54"/>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="435"/>
-      <c r="C5" s="436"/>
-      <c r="D5" s="446"/>
-      <c r="E5" s="438"/>
-      <c r="F5" s="454"/>
+      <c r="B5" s="488"/>
+      <c r="C5" s="489"/>
+      <c r="D5" s="500"/>
+      <c r="E5" s="491"/>
+      <c r="F5" s="465"/>
       <c r="H5" s="25"/>
       <c r="I5" s="46" t="s">
         <v>50</v>
@@ -9744,26 +9888,26 @@
       <c r="M5" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N5" s="421" t="s">
+      <c r="N5" s="492" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="439"/>
-      <c r="P5" s="439"/>
-      <c r="Q5" s="439"/>
-      <c r="R5" s="440"/>
+      <c r="O5" s="493"/>
+      <c r="P5" s="493"/>
+      <c r="Q5" s="493"/>
+      <c r="R5" s="494"/>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="441" t="s">
+      <c r="B6" s="495" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="442"/>
-      <c r="D6" s="417" t="s">
+      <c r="C6" s="496"/>
+      <c r="D6" s="473" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="419" t="s">
+      <c r="E6" s="509" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="454"/>
+      <c r="F6" s="465"/>
       <c r="H6" s="25"/>
       <c r="I6" s="45" t="s">
         <v>52</v>
@@ -9780,20 +9924,20 @@
       <c r="M6" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="421" t="s">
+      <c r="N6" s="492" t="s">
         <v>69</v>
       </c>
-      <c r="O6" s="421"/>
-      <c r="P6" s="421"/>
-      <c r="Q6" s="421"/>
-      <c r="R6" s="422"/>
+      <c r="O6" s="492"/>
+      <c r="P6" s="492"/>
+      <c r="Q6" s="492"/>
+      <c r="R6" s="511"/>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="443"/>
-      <c r="C7" s="444"/>
-      <c r="D7" s="418"/>
-      <c r="E7" s="420"/>
-      <c r="F7" s="454"/>
+      <c r="B7" s="497"/>
+      <c r="C7" s="498"/>
+      <c r="D7" s="475"/>
+      <c r="E7" s="510"/>
+      <c r="F7" s="465"/>
       <c r="H7" s="25"/>
       <c r="I7" s="46" t="s">
         <v>51</v>
@@ -9810,26 +9954,26 @@
       <c r="M7" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="423" t="s">
+      <c r="N7" s="512" t="s">
         <v>66</v>
       </c>
-      <c r="O7" s="423"/>
-      <c r="P7" s="423"/>
-      <c r="Q7" s="423"/>
-      <c r="R7" s="424"/>
+      <c r="O7" s="512"/>
+      <c r="P7" s="512"/>
+      <c r="Q7" s="512"/>
+      <c r="R7" s="513"/>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="409" t="s">
+      <c r="B8" s="501" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="410"/>
+      <c r="C8" s="502"/>
       <c r="D8" s="68">
         <v>100</v>
       </c>
       <c r="E8" s="68">
         <v>6</v>
       </c>
-      <c r="F8" s="454"/>
+      <c r="F8" s="465"/>
       <c r="H8" s="25"/>
       <c r="I8" s="55" t="s">
         <v>111</v>
@@ -9845,120 +9989,120 @@
       </c>
     </row>
     <row r="9" spans="2:18">
-      <c r="B9" s="411" t="s">
+      <c r="B9" s="503" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="412"/>
-      <c r="D9" s="417">
+      <c r="C9" s="504"/>
+      <c r="D9" s="473">
         <v>100</v>
       </c>
-      <c r="E9" s="417">
+      <c r="E9" s="473">
         <v>3</v>
       </c>
-      <c r="F9" s="454"/>
+      <c r="F9" s="465"/>
       <c r="H9" s="25"/>
       <c r="J9" s="132"/>
       <c r="K9" s="320"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="413"/>
-      <c r="C10" s="414"/>
-      <c r="D10" s="462"/>
-      <c r="E10" s="462"/>
-      <c r="F10" s="454"/>
+      <c r="B10" s="505"/>
+      <c r="C10" s="506"/>
+      <c r="D10" s="474"/>
+      <c r="E10" s="474"/>
+      <c r="F10" s="465"/>
       <c r="H10" s="25"/>
       <c r="J10" s="132"/>
       <c r="K10" s="320"/>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="415"/>
-      <c r="C11" s="416"/>
-      <c r="D11" s="418"/>
-      <c r="E11" s="418"/>
-      <c r="F11" s="454"/>
+      <c r="B11" s="507"/>
+      <c r="C11" s="508"/>
+      <c r="D11" s="475"/>
+      <c r="E11" s="475"/>
+      <c r="F11" s="465"/>
       <c r="H11" s="25"/>
       <c r="J11" s="132"/>
       <c r="K11" s="320"/>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="425" t="s">
+      <c r="B12" s="514" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="426"/>
+      <c r="C12" s="515"/>
       <c r="D12" s="68">
         <v>1</v>
       </c>
       <c r="E12" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="454"/>
+      <c r="F12" s="465"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="463" t="s">
+      <c r="I12" s="476" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="465" t="s">
+      <c r="J12" s="478" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="467">
+      <c r="K12" s="480">
         <v>15</v>
       </c>
-      <c r="L12" s="469" t="s">
+      <c r="L12" s="482" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="427" t="s">
+      <c r="B13" s="516" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="428"/>
-      <c r="D13" s="417" t="s">
+      <c r="C13" s="517"/>
+      <c r="D13" s="473" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="417" t="s">
+      <c r="E13" s="473" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="454"/>
+      <c r="F13" s="465"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="464"/>
-      <c r="J13" s="466"/>
-      <c r="K13" s="468"/>
-      <c r="L13" s="470"/>
+      <c r="I13" s="477"/>
+      <c r="J13" s="479"/>
+      <c r="K13" s="481"/>
+      <c r="L13" s="483"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="429"/>
-      <c r="C14" s="430"/>
-      <c r="D14" s="418"/>
-      <c r="E14" s="418"/>
-      <c r="F14" s="454"/>
+      <c r="B14" s="518"/>
+      <c r="C14" s="519"/>
+      <c r="D14" s="475"/>
+      <c r="E14" s="475"/>
+      <c r="F14" s="465"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="474" t="s">
+      <c r="B15" s="426" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="475"/>
+      <c r="C15" s="427"/>
       <c r="D15" s="69" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="70"/>
-      <c r="F15" s="454"/>
+      <c r="F15" s="465"/>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="476"/>
-      <c r="C16" s="477"/>
+      <c r="B16" s="428"/>
+      <c r="C16" s="429"/>
       <c r="D16" s="71" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="72"/>
-      <c r="F16" s="454"/>
+      <c r="F16" s="465"/>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="476"/>
-      <c r="C17" s="477"/>
+      <c r="B17" s="428"/>
+      <c r="C17" s="429"/>
       <c r="D17" s="71" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="72"/>
-      <c r="F17" s="454"/>
+      <c r="F17" s="465"/>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
@@ -9967,13 +10111,13 @@
       <c r="O17" s="27"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="476"/>
-      <c r="C18" s="477"/>
+      <c r="B18" s="428"/>
+      <c r="C18" s="429"/>
       <c r="D18" s="71" t="s">
         <v>36</v>
       </c>
       <c r="E18" s="72"/>
-      <c r="F18" s="454"/>
+      <c r="F18" s="465"/>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
@@ -9982,177 +10126,177 @@
       <c r="O18" s="27"/>
     </row>
     <row r="19" spans="2:21">
-      <c r="B19" s="478"/>
-      <c r="C19" s="479"/>
+      <c r="B19" s="430"/>
+      <c r="C19" s="431"/>
       <c r="D19" s="73" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="74"/>
-      <c r="F19" s="455"/>
+      <c r="F19" s="466"/>
     </row>
     <row r="22" spans="2:21" ht="18.75">
-      <c r="F22" s="484" t="s">
+      <c r="F22" s="436" t="s">
         <v>351</v>
       </c>
-      <c r="G22" s="485"/>
-      <c r="H22" s="485"/>
-      <c r="I22" s="485"/>
-      <c r="J22" s="485"/>
-      <c r="K22" s="485"/>
-      <c r="L22" s="485"/>
-      <c r="M22" s="485"/>
-      <c r="N22" s="486"/>
+      <c r="G22" s="437"/>
+      <c r="H22" s="437"/>
+      <c r="I22" s="437"/>
+      <c r="J22" s="437"/>
+      <c r="K22" s="437"/>
+      <c r="L22" s="437"/>
+      <c r="M22" s="437"/>
+      <c r="N22" s="438"/>
     </row>
     <row r="24" spans="2:21">
-      <c r="B24" s="490" t="s">
+      <c r="B24" s="442" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="491"/>
-      <c r="D24" s="491"/>
-      <c r="E24" s="491"/>
-      <c r="F24" s="491"/>
-      <c r="G24" s="491"/>
-      <c r="H24" s="491"/>
-      <c r="I24" s="491"/>
-      <c r="J24" s="492"/>
-      <c r="L24" s="490" t="s">
+      <c r="C24" s="443"/>
+      <c r="D24" s="443"/>
+      <c r="E24" s="443"/>
+      <c r="F24" s="443"/>
+      <c r="G24" s="443"/>
+      <c r="H24" s="443"/>
+      <c r="I24" s="443"/>
+      <c r="J24" s="444"/>
+      <c r="L24" s="442" t="s">
         <v>45</v>
       </c>
-      <c r="M24" s="491"/>
-      <c r="N24" s="491"/>
-      <c r="O24" s="491"/>
-      <c r="P24" s="491"/>
-      <c r="Q24" s="491"/>
-      <c r="R24" s="491"/>
-      <c r="S24" s="491"/>
-      <c r="T24" s="491"/>
-      <c r="U24" s="492"/>
+      <c r="M24" s="443"/>
+      <c r="N24" s="443"/>
+      <c r="O24" s="443"/>
+      <c r="P24" s="443"/>
+      <c r="Q24" s="443"/>
+      <c r="R24" s="443"/>
+      <c r="S24" s="443"/>
+      <c r="T24" s="443"/>
+      <c r="U24" s="444"/>
     </row>
     <row r="25" spans="2:21">
-      <c r="B25" s="493"/>
-      <c r="C25" s="494"/>
-      <c r="D25" s="494"/>
-      <c r="E25" s="494"/>
-      <c r="F25" s="494"/>
-      <c r="G25" s="494"/>
-      <c r="H25" s="494"/>
-      <c r="I25" s="494"/>
-      <c r="J25" s="495"/>
-      <c r="L25" s="493"/>
-      <c r="M25" s="494"/>
-      <c r="N25" s="494"/>
-      <c r="O25" s="494"/>
-      <c r="P25" s="494"/>
-      <c r="Q25" s="494"/>
-      <c r="R25" s="494"/>
-      <c r="S25" s="494"/>
-      <c r="T25" s="494"/>
-      <c r="U25" s="495"/>
+      <c r="B25" s="445"/>
+      <c r="C25" s="446"/>
+      <c r="D25" s="446"/>
+      <c r="E25" s="446"/>
+      <c r="F25" s="446"/>
+      <c r="G25" s="446"/>
+      <c r="H25" s="446"/>
+      <c r="I25" s="446"/>
+      <c r="J25" s="447"/>
+      <c r="L25" s="445"/>
+      <c r="M25" s="446"/>
+      <c r="N25" s="446"/>
+      <c r="O25" s="446"/>
+      <c r="P25" s="446"/>
+      <c r="Q25" s="446"/>
+      <c r="R25" s="446"/>
+      <c r="S25" s="446"/>
+      <c r="T25" s="446"/>
+      <c r="U25" s="447"/>
     </row>
     <row r="26" spans="2:21">
-      <c r="B26" s="493"/>
-      <c r="C26" s="494"/>
-      <c r="D26" s="494"/>
-      <c r="E26" s="494"/>
-      <c r="F26" s="494"/>
-      <c r="G26" s="494"/>
-      <c r="H26" s="494"/>
-      <c r="I26" s="494"/>
-      <c r="J26" s="495"/>
-      <c r="L26" s="493"/>
-      <c r="M26" s="494"/>
-      <c r="N26" s="494"/>
-      <c r="O26" s="494"/>
-      <c r="P26" s="494"/>
-      <c r="Q26" s="494"/>
-      <c r="R26" s="494"/>
-      <c r="S26" s="494"/>
-      <c r="T26" s="494"/>
-      <c r="U26" s="495"/>
+      <c r="B26" s="445"/>
+      <c r="C26" s="446"/>
+      <c r="D26" s="446"/>
+      <c r="E26" s="446"/>
+      <c r="F26" s="446"/>
+      <c r="G26" s="446"/>
+      <c r="H26" s="446"/>
+      <c r="I26" s="446"/>
+      <c r="J26" s="447"/>
+      <c r="L26" s="445"/>
+      <c r="M26" s="446"/>
+      <c r="N26" s="446"/>
+      <c r="O26" s="446"/>
+      <c r="P26" s="446"/>
+      <c r="Q26" s="446"/>
+      <c r="R26" s="446"/>
+      <c r="S26" s="446"/>
+      <c r="T26" s="446"/>
+      <c r="U26" s="447"/>
     </row>
     <row r="27" spans="2:21">
-      <c r="B27" s="493"/>
-      <c r="C27" s="494"/>
-      <c r="D27" s="494"/>
-      <c r="E27" s="494"/>
-      <c r="F27" s="494"/>
-      <c r="G27" s="494"/>
-      <c r="H27" s="494"/>
-      <c r="I27" s="494"/>
-      <c r="J27" s="495"/>
-      <c r="L27" s="493"/>
-      <c r="M27" s="494"/>
-      <c r="N27" s="494"/>
-      <c r="O27" s="494"/>
-      <c r="P27" s="494"/>
-      <c r="Q27" s="494"/>
-      <c r="R27" s="494"/>
-      <c r="S27" s="494"/>
-      <c r="T27" s="494"/>
-      <c r="U27" s="495"/>
+      <c r="B27" s="445"/>
+      <c r="C27" s="446"/>
+      <c r="D27" s="446"/>
+      <c r="E27" s="446"/>
+      <c r="F27" s="446"/>
+      <c r="G27" s="446"/>
+      <c r="H27" s="446"/>
+      <c r="I27" s="446"/>
+      <c r="J27" s="447"/>
+      <c r="L27" s="445"/>
+      <c r="M27" s="446"/>
+      <c r="N27" s="446"/>
+      <c r="O27" s="446"/>
+      <c r="P27" s="446"/>
+      <c r="Q27" s="446"/>
+      <c r="R27" s="446"/>
+      <c r="S27" s="446"/>
+      <c r="T27" s="446"/>
+      <c r="U27" s="447"/>
     </row>
     <row r="28" spans="2:21">
-      <c r="B28" s="493"/>
-      <c r="C28" s="494"/>
-      <c r="D28" s="494"/>
-      <c r="E28" s="494"/>
-      <c r="F28" s="494"/>
-      <c r="G28" s="494"/>
-      <c r="H28" s="494"/>
-      <c r="I28" s="494"/>
-      <c r="J28" s="495"/>
-      <c r="L28" s="493"/>
-      <c r="M28" s="494"/>
-      <c r="N28" s="494"/>
-      <c r="O28" s="494"/>
-      <c r="P28" s="494"/>
-      <c r="Q28" s="494"/>
-      <c r="R28" s="494"/>
-      <c r="S28" s="494"/>
-      <c r="T28" s="494"/>
-      <c r="U28" s="495"/>
+      <c r="B28" s="445"/>
+      <c r="C28" s="446"/>
+      <c r="D28" s="446"/>
+      <c r="E28" s="446"/>
+      <c r="F28" s="446"/>
+      <c r="G28" s="446"/>
+      <c r="H28" s="446"/>
+      <c r="I28" s="446"/>
+      <c r="J28" s="447"/>
+      <c r="L28" s="445"/>
+      <c r="M28" s="446"/>
+      <c r="N28" s="446"/>
+      <c r="O28" s="446"/>
+      <c r="P28" s="446"/>
+      <c r="Q28" s="446"/>
+      <c r="R28" s="446"/>
+      <c r="S28" s="446"/>
+      <c r="T28" s="446"/>
+      <c r="U28" s="447"/>
     </row>
     <row r="29" spans="2:21">
-      <c r="B29" s="493"/>
-      <c r="C29" s="494"/>
-      <c r="D29" s="494"/>
-      <c r="E29" s="494"/>
-      <c r="F29" s="494"/>
-      <c r="G29" s="494"/>
-      <c r="H29" s="494"/>
-      <c r="I29" s="494"/>
-      <c r="J29" s="495"/>
-      <c r="L29" s="493"/>
-      <c r="M29" s="494"/>
-      <c r="N29" s="494"/>
-      <c r="O29" s="494"/>
-      <c r="P29" s="494"/>
-      <c r="Q29" s="494"/>
-      <c r="R29" s="494"/>
-      <c r="S29" s="494"/>
-      <c r="T29" s="494"/>
-      <c r="U29" s="495"/>
+      <c r="B29" s="445"/>
+      <c r="C29" s="446"/>
+      <c r="D29" s="446"/>
+      <c r="E29" s="446"/>
+      <c r="F29" s="446"/>
+      <c r="G29" s="446"/>
+      <c r="H29" s="446"/>
+      <c r="I29" s="446"/>
+      <c r="J29" s="447"/>
+      <c r="L29" s="445"/>
+      <c r="M29" s="446"/>
+      <c r="N29" s="446"/>
+      <c r="O29" s="446"/>
+      <c r="P29" s="446"/>
+      <c r="Q29" s="446"/>
+      <c r="R29" s="446"/>
+      <c r="S29" s="446"/>
+      <c r="T29" s="446"/>
+      <c r="U29" s="447"/>
     </row>
     <row r="30" spans="2:21">
-      <c r="B30" s="493"/>
-      <c r="C30" s="494"/>
-      <c r="D30" s="494"/>
-      <c r="E30" s="494"/>
-      <c r="F30" s="494"/>
-      <c r="G30" s="494"/>
-      <c r="H30" s="494"/>
-      <c r="I30" s="494"/>
-      <c r="J30" s="495"/>
-      <c r="L30" s="493"/>
-      <c r="M30" s="494"/>
-      <c r="N30" s="494"/>
-      <c r="O30" s="494"/>
-      <c r="P30" s="494"/>
-      <c r="Q30" s="494"/>
-      <c r="R30" s="494"/>
-      <c r="S30" s="494"/>
-      <c r="T30" s="494"/>
-      <c r="U30" s="495"/>
+      <c r="B30" s="445"/>
+      <c r="C30" s="446"/>
+      <c r="D30" s="446"/>
+      <c r="E30" s="446"/>
+      <c r="F30" s="446"/>
+      <c r="G30" s="446"/>
+      <c r="H30" s="446"/>
+      <c r="I30" s="446"/>
+      <c r="J30" s="447"/>
+      <c r="L30" s="445"/>
+      <c r="M30" s="446"/>
+      <c r="N30" s="446"/>
+      <c r="O30" s="446"/>
+      <c r="P30" s="446"/>
+      <c r="Q30" s="446"/>
+      <c r="R30" s="446"/>
+      <c r="S30" s="446"/>
+      <c r="T30" s="446"/>
+      <c r="U30" s="447"/>
     </row>
     <row r="31" spans="2:21">
       <c r="B31" s="29"/>
@@ -10168,108 +10312,108 @@
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
       <c r="J31" s="33"/>
-      <c r="L31" s="493"/>
-      <c r="M31" s="494"/>
-      <c r="N31" s="494"/>
-      <c r="O31" s="494"/>
-      <c r="P31" s="494"/>
-      <c r="Q31" s="494"/>
-      <c r="R31" s="494"/>
-      <c r="S31" s="494"/>
-      <c r="T31" s="494"/>
-      <c r="U31" s="495"/>
+      <c r="L31" s="445"/>
+      <c r="M31" s="446"/>
+      <c r="N31" s="446"/>
+      <c r="O31" s="446"/>
+      <c r="P31" s="446"/>
+      <c r="Q31" s="446"/>
+      <c r="R31" s="446"/>
+      <c r="S31" s="446"/>
+      <c r="T31" s="446"/>
+      <c r="U31" s="447"/>
     </row>
     <row r="32" spans="2:21">
       <c r="B32" s="34"/>
       <c r="C32" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="499" t="s">
+      <c r="D32" s="451" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="499"/>
-      <c r="F32" s="499"/>
-      <c r="G32" s="499"/>
-      <c r="H32" s="499"/>
-      <c r="I32" s="499"/>
-      <c r="J32" s="500"/>
-      <c r="L32" s="493"/>
-      <c r="M32" s="494"/>
-      <c r="N32" s="494"/>
-      <c r="O32" s="494"/>
-      <c r="P32" s="494"/>
-      <c r="Q32" s="494"/>
-      <c r="R32" s="494"/>
-      <c r="S32" s="494"/>
-      <c r="T32" s="494"/>
-      <c r="U32" s="495"/>
+      <c r="E32" s="451"/>
+      <c r="F32" s="451"/>
+      <c r="G32" s="451"/>
+      <c r="H32" s="451"/>
+      <c r="I32" s="451"/>
+      <c r="J32" s="452"/>
+      <c r="L32" s="445"/>
+      <c r="M32" s="446"/>
+      <c r="N32" s="446"/>
+      <c r="O32" s="446"/>
+      <c r="P32" s="446"/>
+      <c r="Q32" s="446"/>
+      <c r="R32" s="446"/>
+      <c r="S32" s="446"/>
+      <c r="T32" s="446"/>
+      <c r="U32" s="447"/>
     </row>
     <row r="33" spans="2:21">
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
-      <c r="D33" s="499"/>
-      <c r="E33" s="499"/>
-      <c r="F33" s="499"/>
-      <c r="G33" s="499"/>
-      <c r="H33" s="499"/>
-      <c r="I33" s="499"/>
-      <c r="J33" s="500"/>
-      <c r="L33" s="493"/>
-      <c r="M33" s="494"/>
-      <c r="N33" s="494"/>
-      <c r="O33" s="494"/>
-      <c r="P33" s="494"/>
-      <c r="Q33" s="494"/>
-      <c r="R33" s="494"/>
-      <c r="S33" s="494"/>
-      <c r="T33" s="494"/>
-      <c r="U33" s="495"/>
+      <c r="D33" s="451"/>
+      <c r="E33" s="451"/>
+      <c r="F33" s="451"/>
+      <c r="G33" s="451"/>
+      <c r="H33" s="451"/>
+      <c r="I33" s="451"/>
+      <c r="J33" s="452"/>
+      <c r="L33" s="445"/>
+      <c r="M33" s="446"/>
+      <c r="N33" s="446"/>
+      <c r="O33" s="446"/>
+      <c r="P33" s="446"/>
+      <c r="Q33" s="446"/>
+      <c r="R33" s="446"/>
+      <c r="S33" s="446"/>
+      <c r="T33" s="446"/>
+      <c r="U33" s="447"/>
     </row>
     <row r="34" spans="2:21">
       <c r="B34" s="37"/>
       <c r="C34" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="501" t="s">
+      <c r="D34" s="453" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="502"/>
-      <c r="F34" s="502"/>
-      <c r="G34" s="502"/>
-      <c r="H34" s="502"/>
-      <c r="I34" s="502"/>
-      <c r="J34" s="503"/>
-      <c r="L34" s="493"/>
-      <c r="M34" s="494"/>
-      <c r="N34" s="494"/>
-      <c r="O34" s="494"/>
-      <c r="P34" s="494"/>
-      <c r="Q34" s="494"/>
-      <c r="R34" s="494"/>
-      <c r="S34" s="494"/>
-      <c r="T34" s="494"/>
-      <c r="U34" s="495"/>
+      <c r="E34" s="454"/>
+      <c r="F34" s="454"/>
+      <c r="G34" s="454"/>
+      <c r="H34" s="454"/>
+      <c r="I34" s="454"/>
+      <c r="J34" s="455"/>
+      <c r="L34" s="445"/>
+      <c r="M34" s="446"/>
+      <c r="N34" s="446"/>
+      <c r="O34" s="446"/>
+      <c r="P34" s="446"/>
+      <c r="Q34" s="446"/>
+      <c r="R34" s="446"/>
+      <c r="S34" s="446"/>
+      <c r="T34" s="446"/>
+      <c r="U34" s="447"/>
     </row>
     <row r="35" spans="2:21">
       <c r="B35" s="39"/>
       <c r="C35" s="40"/>
-      <c r="D35" s="504"/>
-      <c r="E35" s="504"/>
-      <c r="F35" s="504"/>
-      <c r="G35" s="504"/>
-      <c r="H35" s="504"/>
-      <c r="I35" s="504"/>
-      <c r="J35" s="505"/>
-      <c r="L35" s="496"/>
-      <c r="M35" s="497"/>
-      <c r="N35" s="497"/>
-      <c r="O35" s="497"/>
-      <c r="P35" s="497"/>
-      <c r="Q35" s="497"/>
-      <c r="R35" s="497"/>
-      <c r="S35" s="497"/>
-      <c r="T35" s="497"/>
-      <c r="U35" s="498"/>
+      <c r="D35" s="456"/>
+      <c r="E35" s="456"/>
+      <c r="F35" s="456"/>
+      <c r="G35" s="456"/>
+      <c r="H35" s="456"/>
+      <c r="I35" s="456"/>
+      <c r="J35" s="457"/>
+      <c r="L35" s="448"/>
+      <c r="M35" s="449"/>
+      <c r="N35" s="449"/>
+      <c r="O35" s="449"/>
+      <c r="P35" s="449"/>
+      <c r="Q35" s="449"/>
+      <c r="R35" s="449"/>
+      <c r="S35" s="449"/>
+      <c r="T35" s="449"/>
+      <c r="U35" s="450"/>
     </row>
     <row r="36" spans="2:21">
       <c r="B36" s="28"/>
@@ -10285,13 +10429,13 @@
       <c r="C37" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="480" t="s">
+      <c r="D37" s="432" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="480"/>
-      <c r="F37" s="480"/>
-      <c r="G37" s="480"/>
-      <c r="H37" s="481"/>
+      <c r="E37" s="432"/>
+      <c r="F37" s="432"/>
+      <c r="G37" s="432"/>
+      <c r="H37" s="433"/>
       <c r="M37" s="27"/>
       <c r="N37" s="27"/>
       <c r="O37" s="27"/>
@@ -10345,16 +10489,16 @@
       <c r="F41" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="L41" s="471" t="s">
+      <c r="L41" s="423" t="s">
         <v>104</v>
       </c>
-      <c r="M41" s="472"/>
-      <c r="N41" s="473"/>
-      <c r="O41" s="471" t="s">
+      <c r="M41" s="424"/>
+      <c r="N41" s="425"/>
+      <c r="O41" s="423" t="s">
         <v>105</v>
       </c>
-      <c r="P41" s="472"/>
-      <c r="Q41" s="473"/>
+      <c r="P41" s="424"/>
+      <c r="Q41" s="425"/>
       <c r="R41" s="76" t="s">
         <v>92</v>
       </c>
@@ -10372,16 +10516,16 @@
       <c r="F42" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="L42" s="487" t="s">
+      <c r="L42" s="439" t="s">
         <v>107</v>
       </c>
-      <c r="M42" s="488"/>
-      <c r="N42" s="489"/>
-      <c r="O42" s="487" t="s">
+      <c r="M42" s="440"/>
+      <c r="N42" s="441"/>
+      <c r="O42" s="439" t="s">
         <v>106</v>
       </c>
-      <c r="P42" s="488"/>
-      <c r="Q42" s="489"/>
+      <c r="P42" s="440"/>
+      <c r="Q42" s="441"/>
       <c r="R42" s="26" t="s">
         <v>108</v>
       </c>
@@ -10406,13 +10550,13 @@
       <c r="M44" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="N44" s="482" t="s">
+      <c r="N44" s="434" t="s">
         <v>109</v>
       </c>
-      <c r="O44" s="482"/>
-      <c r="P44" s="482"/>
-      <c r="Q44" s="482"/>
-      <c r="R44" s="483"/>
+      <c r="O44" s="434"/>
+      <c r="P44" s="434"/>
+      <c r="Q44" s="434"/>
+      <c r="R44" s="435"/>
       <c r="S44" s="330"/>
       <c r="T44" s="330"/>
     </row>
@@ -10420,18 +10564,45 @@
       <c r="C45" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="480" t="s">
+      <c r="D45" s="432" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="480"/>
-      <c r="F45" s="480"/>
-      <c r="G45" s="481"/>
+      <c r="E45" s="432"/>
+      <c r="F45" s="432"/>
+      <c r="G45" s="433"/>
     </row>
     <row r="47" spans="2:21">
       <c r="G47" s="328"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="F2:F19"/>
+    <mergeCell ref="M2:R3"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
     <mergeCell ref="O41:Q41"/>
     <mergeCell ref="B15:C19"/>
     <mergeCell ref="D45:G45"/>
@@ -10445,33 +10616,6 @@
     <mergeCell ref="L24:U35"/>
     <mergeCell ref="D32:J33"/>
     <mergeCell ref="D34:J35"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="F2:F19"/>
-    <mergeCell ref="M2:R3"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N5" r:id="rId1"/>
@@ -10519,197 +10663,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="21">
-      <c r="A1" s="509" t="s">
+      <c r="A1" s="539" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="512" t="s">
+      <c r="B1" s="542" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="515" t="s">
+      <c r="C1" s="545" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="516"/>
-      <c r="E1" s="516"/>
-      <c r="F1" s="516"/>
-      <c r="G1" s="516"/>
-      <c r="H1" s="517"/>
-      <c r="I1" s="523" t="s">
+      <c r="D1" s="546"/>
+      <c r="E1" s="546"/>
+      <c r="F1" s="546"/>
+      <c r="G1" s="546"/>
+      <c r="H1" s="547"/>
+      <c r="I1" s="553" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="524"/>
-      <c r="K1" s="524"/>
-      <c r="L1" s="524"/>
-      <c r="M1" s="524"/>
-      <c r="N1" s="525"/>
-      <c r="R1" s="544" t="s">
+      <c r="J1" s="554"/>
+      <c r="K1" s="554"/>
+      <c r="L1" s="554"/>
+      <c r="M1" s="554"/>
+      <c r="N1" s="555"/>
+      <c r="R1" s="528" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="545"/>
-      <c r="T1" s="545"/>
-      <c r="U1" s="545"/>
-      <c r="V1" s="545"/>
-      <c r="W1" s="545"/>
-      <c r="X1" s="545"/>
-      <c r="Y1" s="545"/>
-      <c r="Z1" s="545"/>
-      <c r="AA1" s="545"/>
-      <c r="AB1" s="545"/>
-      <c r="AC1" s="546"/>
+      <c r="S1" s="529"/>
+      <c r="T1" s="529"/>
+      <c r="U1" s="529"/>
+      <c r="V1" s="529"/>
+      <c r="W1" s="529"/>
+      <c r="X1" s="529"/>
+      <c r="Y1" s="529"/>
+      <c r="Z1" s="529"/>
+      <c r="AA1" s="529"/>
+      <c r="AB1" s="529"/>
+      <c r="AC1" s="530"/>
     </row>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="510"/>
-      <c r="B2" s="513"/>
-      <c r="C2" s="526" t="s">
+      <c r="A2" s="540"/>
+      <c r="B2" s="543"/>
+      <c r="C2" s="531" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="526" t="s">
+      <c r="D2" s="531" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="526" t="s">
+      <c r="E2" s="531" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="533" t="s">
+      <c r="F2" s="561" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="534"/>
-      <c r="H2" s="535"/>
-      <c r="I2" s="528" t="s">
+      <c r="G2" s="562"/>
+      <c r="H2" s="563"/>
+      <c r="I2" s="556" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="518" t="s">
+      <c r="J2" s="548" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="519"/>
-      <c r="L2" s="520"/>
-      <c r="M2" s="521" t="s">
+      <c r="K2" s="549"/>
+      <c r="L2" s="550"/>
+      <c r="M2" s="551" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="522"/>
-      <c r="R2" s="541" t="str">
+      <c r="N2" s="552"/>
+      <c r="R2" s="525" t="str">
         <f>'hp. 1.0'!A6</f>
         <v>Hp. 1.1) 1tx/min</v>
       </c>
-      <c r="S2" s="542"/>
-      <c r="T2" s="543"/>
-      <c r="U2" s="538" t="s">
+      <c r="S2" s="526"/>
+      <c r="T2" s="527"/>
+      <c r="U2" s="520" t="s">
         <v>352</v>
       </c>
-      <c r="V2" s="539"/>
-      <c r="W2" s="539"/>
-      <c r="X2" s="539"/>
-      <c r="Y2" s="539"/>
-      <c r="Z2" s="539"/>
-      <c r="AA2" s="539"/>
-      <c r="AB2" s="539"/>
-      <c r="AC2" s="540"/>
+      <c r="V2" s="521"/>
+      <c r="W2" s="521"/>
+      <c r="X2" s="521"/>
+      <c r="Y2" s="521"/>
+      <c r="Z2" s="521"/>
+      <c r="AA2" s="521"/>
+      <c r="AB2" s="521"/>
+      <c r="AC2" s="522"/>
     </row>
     <row r="3" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A3" s="510"/>
-      <c r="B3" s="513"/>
-      <c r="C3" s="547"/>
-      <c r="D3" s="547"/>
-      <c r="E3" s="547"/>
-      <c r="F3" s="526" t="s">
+      <c r="A3" s="540"/>
+      <c r="B3" s="543"/>
+      <c r="C3" s="532"/>
+      <c r="D3" s="532"/>
+      <c r="E3" s="532"/>
+      <c r="F3" s="531" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="526" t="s">
+      <c r="G3" s="531" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="526" t="s">
+      <c r="H3" s="531" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="529"/>
-      <c r="J3" s="531" t="s">
+      <c r="I3" s="557"/>
+      <c r="J3" s="559" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="531" t="s">
+      <c r="K3" s="559" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="531" t="s">
+      <c r="L3" s="559" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="548" t="s">
+      <c r="M3" s="534" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="548" t="s">
+      <c r="N3" s="534" t="s">
         <v>76</v>
       </c>
-      <c r="R3" s="536" t="s">
+      <c r="R3" s="523" t="s">
         <v>87</v>
       </c>
-      <c r="S3" s="536" t="s">
+      <c r="S3" s="523" t="s">
         <v>84</v>
       </c>
-      <c r="T3" s="536" t="s">
+      <c r="T3" s="523" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="538" t="s">
+      <c r="U3" s="520" t="s">
         <v>360</v>
       </c>
-      <c r="V3" s="539"/>
-      <c r="W3" s="540"/>
-      <c r="X3" s="538" t="s">
+      <c r="V3" s="521"/>
+      <c r="W3" s="522"/>
+      <c r="X3" s="520" t="s">
         <v>377</v>
       </c>
-      <c r="Y3" s="539"/>
-      <c r="Z3" s="540"/>
-      <c r="AA3" s="538" t="s">
+      <c r="Y3" s="521"/>
+      <c r="Z3" s="522"/>
+      <c r="AA3" s="520" t="s">
         <v>381</v>
       </c>
-      <c r="AB3" s="539"/>
-      <c r="AC3" s="540"/>
-      <c r="AD3" s="538" t="s">
+      <c r="AB3" s="521"/>
+      <c r="AC3" s="522"/>
+      <c r="AD3" s="520" t="s">
         <v>394</v>
       </c>
-      <c r="AE3" s="539"/>
-      <c r="AF3" s="540"/>
-      <c r="AG3" s="538" t="s">
+      <c r="AE3" s="521"/>
+      <c r="AF3" s="522"/>
+      <c r="AG3" s="520" t="s">
         <v>393</v>
       </c>
-      <c r="AH3" s="539"/>
-      <c r="AI3" s="540"/>
-      <c r="AJ3" s="538" t="s">
+      <c r="AH3" s="521"/>
+      <c r="AI3" s="522"/>
+      <c r="AJ3" s="520" t="s">
         <v>398</v>
       </c>
-      <c r="AK3" s="539"/>
-      <c r="AL3" s="540"/>
-      <c r="AM3" s="538" t="s">
+      <c r="AK3" s="521"/>
+      <c r="AL3" s="522"/>
+      <c r="AM3" s="520" t="s">
         <v>395</v>
       </c>
-      <c r="AN3" s="539"/>
-      <c r="AO3" s="540"/>
-      <c r="AP3" s="538" t="s">
+      <c r="AN3" s="521"/>
+      <c r="AO3" s="522"/>
+      <c r="AP3" s="520" t="s">
         <v>396</v>
       </c>
-      <c r="AQ3" s="539"/>
-      <c r="AR3" s="540"/>
-      <c r="AS3" s="538" t="s">
+      <c r="AQ3" s="521"/>
+      <c r="AR3" s="522"/>
+      <c r="AS3" s="520" t="s">
         <v>397</v>
       </c>
-      <c r="AT3" s="539"/>
-      <c r="AU3" s="540"/>
+      <c r="AT3" s="521"/>
+      <c r="AU3" s="522"/>
     </row>
     <row r="4" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A4" s="511"/>
-      <c r="B4" s="514"/>
-      <c r="C4" s="527"/>
-      <c r="D4" s="527"/>
-      <c r="E4" s="527"/>
-      <c r="F4" s="527"/>
-      <c r="G4" s="527"/>
-      <c r="H4" s="527"/>
-      <c r="I4" s="530"/>
-      <c r="J4" s="532"/>
-      <c r="K4" s="532"/>
-      <c r="L4" s="532"/>
-      <c r="M4" s="549"/>
-      <c r="N4" s="549"/>
+      <c r="A4" s="541"/>
+      <c r="B4" s="544"/>
+      <c r="C4" s="533"/>
+      <c r="D4" s="533"/>
+      <c r="E4" s="533"/>
+      <c r="F4" s="533"/>
+      <c r="G4" s="533"/>
+      <c r="H4" s="533"/>
+      <c r="I4" s="558"/>
+      <c r="J4" s="560"/>
+      <c r="K4" s="560"/>
+      <c r="L4" s="560"/>
+      <c r="M4" s="535"/>
+      <c r="N4" s="535"/>
       <c r="P4" t="s">
         <v>410</v>
       </c>
-      <c r="R4" s="537"/>
-      <c r="S4" s="537"/>
-      <c r="T4" s="537"/>
+      <c r="R4" s="524"/>
+      <c r="S4" s="524"/>
+      <c r="T4" s="524"/>
       <c r="U4" s="331" t="s">
         <v>87</v>
       </c>
@@ -12759,17 +12903,17 @@
       </c>
     </row>
     <row r="17" spans="1:29">
-      <c r="U17" s="506" t="s">
+      <c r="U17" s="536" t="s">
         <v>384</v>
       </c>
-      <c r="V17" s="507"/>
-      <c r="W17" s="507"/>
-      <c r="X17" s="507"/>
-      <c r="Y17" s="507"/>
-      <c r="Z17" s="507"/>
-      <c r="AA17" s="507"/>
-      <c r="AB17" s="507"/>
-      <c r="AC17" s="508"/>
+      <c r="V17" s="537"/>
+      <c r="W17" s="537"/>
+      <c r="X17" s="537"/>
+      <c r="Y17" s="537"/>
+      <c r="Z17" s="537"/>
+      <c r="AA17" s="537"/>
+      <c r="AB17" s="537"/>
+      <c r="AC17" s="538"/>
     </row>
     <row r="18" spans="1:29">
       <c r="A18" t="s">
@@ -12778,17 +12922,17 @@
       <c r="B18" s="399">
         <v>2000</v>
       </c>
-      <c r="U18" s="506" t="s">
+      <c r="U18" s="536" t="s">
         <v>381</v>
       </c>
-      <c r="V18" s="507"/>
-      <c r="W18" s="508"/>
-      <c r="X18" s="506"/>
-      <c r="Y18" s="507"/>
-      <c r="Z18" s="508"/>
-      <c r="AA18" s="506"/>
-      <c r="AB18" s="507"/>
-      <c r="AC18" s="508"/>
+      <c r="V18" s="537"/>
+      <c r="W18" s="538"/>
+      <c r="X18" s="536"/>
+      <c r="Y18" s="537"/>
+      <c r="Z18" s="538"/>
+      <c r="AA18" s="536"/>
+      <c r="AB18" s="537"/>
+      <c r="AC18" s="538"/>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" t="s">
@@ -13107,12 +13251,22 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="U17:AC17"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AA18:AC18"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="F2:H2"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="U3:W3"/>
     <mergeCell ref="R2:T2"/>
@@ -13129,22 +13283,12 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="U2:AC2"/>
-    <mergeCell ref="U17:AC17"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AA18:AC18"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AJ3:AL3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13155,7 +13299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C38" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O58" sqref="O58"/>
     </sheetView>
   </sheetViews>
@@ -13168,17 +13312,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="E1" s="550" t="s">
+      <c r="E1" s="564" t="s">
         <v>408</v>
       </c>
-      <c r="F1" s="550"/>
-      <c r="G1" s="550"/>
-      <c r="H1" s="550"/>
-      <c r="I1" s="550"/>
-      <c r="J1" s="550"/>
-      <c r="K1" s="550"/>
-      <c r="L1" s="550"/>
-      <c r="M1" s="550"/>
+      <c r="F1" s="564"/>
+      <c r="G1" s="564"/>
+      <c r="H1" s="564"/>
+      <c r="I1" s="564"/>
+      <c r="J1" s="564"/>
+      <c r="K1" s="564"/>
+      <c r="L1" s="564"/>
+      <c r="M1" s="564"/>
       <c r="N1" s="20"/>
     </row>
     <row r="2" spans="1:27">
@@ -14172,17 +14316,17 @@
       <c r="D15" s="400"/>
     </row>
     <row r="16" spans="1:27">
-      <c r="E16" s="550" t="s">
+      <c r="E16" s="564" t="s">
         <v>409</v>
       </c>
-      <c r="F16" s="550"/>
-      <c r="G16" s="550"/>
-      <c r="H16" s="550"/>
-      <c r="I16" s="550"/>
-      <c r="J16" s="550"/>
-      <c r="K16" s="550"/>
-      <c r="L16" s="550"/>
-      <c r="M16" s="550"/>
+      <c r="F16" s="564"/>
+      <c r="G16" s="564"/>
+      <c r="H16" s="564"/>
+      <c r="I16" s="564"/>
+      <c r="J16" s="564"/>
+      <c r="K16" s="564"/>
+      <c r="L16" s="564"/>
+      <c r="M16" s="564"/>
       <c r="N16" s="20"/>
     </row>
     <row r="17" spans="4:27">
@@ -14224,7 +14368,7 @@
       <c r="N17" s="20"/>
     </row>
     <row r="18" spans="4:27">
-      <c r="D18" s="722" t="s">
+      <c r="D18" s="409" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="276">
@@ -14301,7 +14445,7 @@
       </c>
     </row>
     <row r="19" spans="4:27">
-      <c r="D19" s="723" t="s">
+      <c r="D19" s="410" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="276">
@@ -14381,7 +14525,7 @@
       </c>
     </row>
     <row r="20" spans="4:27">
-      <c r="D20" s="724" t="s">
+      <c r="D20" s="411" t="s">
         <v>86</v>
       </c>
       <c r="E20" s="276">
@@ -14462,7 +14606,7 @@
       </c>
     </row>
     <row r="21" spans="4:27">
-      <c r="D21" s="725" t="s">
+      <c r="D21" s="412" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="276">
@@ -14543,7 +14687,7 @@
       </c>
     </row>
     <row r="22" spans="4:27">
-      <c r="D22" s="726" t="s">
+      <c r="D22" s="413" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="276">
@@ -14624,7 +14768,7 @@
       </c>
     </row>
     <row r="23" spans="4:27">
-      <c r="D23" s="722" t="s">
+      <c r="D23" s="409" t="s">
         <v>362</v>
       </c>
       <c r="E23" s="276">
@@ -14705,7 +14849,7 @@
       </c>
     </row>
     <row r="24" spans="4:27">
-      <c r="D24" s="723" t="s">
+      <c r="D24" s="410" t="s">
         <v>363</v>
       </c>
       <c r="E24" s="276">
@@ -14786,7 +14930,7 @@
       </c>
     </row>
     <row r="25" spans="4:27">
-      <c r="D25" s="723" t="s">
+      <c r="D25" s="410" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="276">
@@ -14867,7 +15011,7 @@
       </c>
     </row>
     <row r="26" spans="4:27">
-      <c r="D26" s="725" t="s">
+      <c r="D26" s="412" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="276">
@@ -14948,7 +15092,7 @@
       </c>
     </row>
     <row r="27" spans="4:27">
-      <c r="D27" s="727" t="s">
+      <c r="D27" s="414" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="276">
@@ -15029,7 +15173,7 @@
       </c>
     </row>
     <row r="28" spans="4:27">
-      <c r="D28" s="722" t="s">
+      <c r="D28" s="409" t="s">
         <v>361</v>
       </c>
       <c r="E28" s="276">
@@ -15070,7 +15214,7 @@
       </c>
     </row>
     <row r="29" spans="4:27">
-      <c r="D29" s="724" t="s">
+      <c r="D29" s="411" t="s">
         <v>31</v>
       </c>
       <c r="E29" s="276">
@@ -15111,36 +15255,36 @@
       </c>
     </row>
     <row r="35" spans="4:13">
-      <c r="E35" s="734" t="s">
+      <c r="E35" s="421" t="s">
         <v>412</v>
       </c>
-      <c r="F35" s="734" t="s">
+      <c r="F35" s="421" t="s">
         <v>413</v>
       </c>
-      <c r="G35" s="734" t="s">
+      <c r="G35" s="421" t="s">
         <v>414</v>
       </c>
-      <c r="H35" s="734" t="s">
+      <c r="H35" s="421" t="s">
         <v>415</v>
       </c>
-      <c r="I35" s="734" t="s">
+      <c r="I35" s="421" t="s">
         <v>416</v>
       </c>
-      <c r="J35" s="734" t="s">
+      <c r="J35" s="421" t="s">
         <v>417</v>
       </c>
-      <c r="K35" s="734" t="s">
+      <c r="K35" s="421" t="s">
         <v>418</v>
       </c>
-      <c r="L35" s="734" t="s">
+      <c r="L35" s="421" t="s">
         <v>419</v>
       </c>
-      <c r="M35" s="734" t="s">
+      <c r="M35" s="421" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="36" spans="4:13">
-      <c r="D36" s="728" t="s">
+      <c r="D36" s="415" t="s">
         <v>0</v>
       </c>
       <c r="E36" s="406">
@@ -15172,39 +15316,39 @@
       </c>
     </row>
     <row r="37" spans="4:13">
-      <c r="D37" s="729" t="s">
+      <c r="D37" s="416" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="735">
+      <c r="E37" s="422">
         <v>368</v>
       </c>
-      <c r="F37" s="735">
+      <c r="F37" s="422">
         <v>366</v>
       </c>
-      <c r="G37" s="735">
+      <c r="G37" s="422">
         <v>364</v>
       </c>
-      <c r="H37" s="735">
+      <c r="H37" s="422">
         <v>266</v>
       </c>
-      <c r="I37" s="735">
+      <c r="I37" s="422">
         <v>146</v>
       </c>
-      <c r="J37" s="735">
+      <c r="J37" s="422">
         <v>76</v>
       </c>
-      <c r="K37" s="735">
+      <c r="K37" s="422">
         <v>50</v>
       </c>
-      <c r="L37" s="735">
+      <c r="L37" s="422">
         <v>42</v>
       </c>
-      <c r="M37" s="735">
+      <c r="M37" s="422">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="4:13">
-      <c r="D38" s="730" t="s">
+      <c r="D38" s="417" t="s">
         <v>86</v>
       </c>
       <c r="E38" s="407">
@@ -15236,7 +15380,7 @@
       </c>
     </row>
     <row r="39" spans="4:13">
-      <c r="D39" s="731" t="s">
+      <c r="D39" s="418" t="s">
         <v>6</v>
       </c>
       <c r="E39" s="406">
@@ -15268,7 +15412,7 @@
       </c>
     </row>
     <row r="40" spans="4:13">
-      <c r="D40" s="732" t="s">
+      <c r="D40" s="419" t="s">
         <v>7</v>
       </c>
       <c r="E40" s="407">
@@ -15300,7 +15444,7 @@
       </c>
     </row>
     <row r="41" spans="4:13">
-      <c r="D41" s="728" t="s">
+      <c r="D41" s="415" t="s">
         <v>362</v>
       </c>
       <c r="E41" s="406">
@@ -15332,39 +15476,39 @@
       </c>
     </row>
     <row r="42" spans="4:13">
-      <c r="D42" s="729" t="s">
+      <c r="D42" s="416" t="s">
         <v>363</v>
       </c>
-      <c r="E42" s="735">
+      <c r="E42" s="422">
         <v>266</v>
       </c>
-      <c r="F42" s="735">
+      <c r="F42" s="422">
         <v>264</v>
       </c>
-      <c r="G42" s="735">
+      <c r="G42" s="422">
         <v>262</v>
       </c>
-      <c r="H42" s="735">
+      <c r="H42" s="422">
         <v>192</v>
       </c>
-      <c r="I42" s="735">
+      <c r="I42" s="422">
         <v>102</v>
       </c>
-      <c r="J42" s="735">
+      <c r="J42" s="422">
         <v>54</v>
       </c>
-      <c r="K42" s="735">
+      <c r="K42" s="422">
         <v>36</v>
       </c>
-      <c r="L42" s="735">
+      <c r="L42" s="422">
         <v>28</v>
       </c>
-      <c r="M42" s="735">
+      <c r="M42" s="422">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="4:13">
-      <c r="D43" s="730" t="s">
+      <c r="D43" s="417" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="407">
@@ -15396,7 +15540,7 @@
       </c>
     </row>
     <row r="44" spans="4:13">
-      <c r="D44" s="731" t="s">
+      <c r="D44" s="418" t="s">
         <v>14</v>
       </c>
       <c r="E44" s="406">
@@ -15428,7 +15572,7 @@
       </c>
     </row>
     <row r="45" spans="4:13">
-      <c r="D45" s="733" t="s">
+      <c r="D45" s="420" t="s">
         <v>15</v>
       </c>
       <c r="E45" s="407">
@@ -15460,7 +15604,7 @@
       </c>
     </row>
     <row r="46" spans="4:13">
-      <c r="D46" s="728" t="s">
+      <c r="D46" s="415" t="s">
         <v>361</v>
       </c>
       <c r="E46" s="406">
@@ -15492,7 +15636,7 @@
       </c>
     </row>
     <row r="47" spans="4:13">
-      <c r="D47" s="730" t="s">
+      <c r="D47" s="417" t="s">
         <v>31</v>
       </c>
       <c r="E47" s="407">
@@ -15524,36 +15668,36 @@
       </c>
     </row>
     <row r="49" spans="4:13">
-      <c r="E49" s="734" t="s">
+      <c r="E49" s="421" t="s">
         <v>412</v>
       </c>
-      <c r="F49" s="734" t="s">
+      <c r="F49" s="421" t="s">
         <v>413</v>
       </c>
-      <c r="G49" s="734" t="s">
+      <c r="G49" s="421" t="s">
         <v>414</v>
       </c>
-      <c r="H49" s="734" t="s">
+      <c r="H49" s="421" t="s">
         <v>415</v>
       </c>
-      <c r="I49" s="734" t="s">
+      <c r="I49" s="421" t="s">
         <v>416</v>
       </c>
-      <c r="J49" s="734" t="s">
+      <c r="J49" s="421" t="s">
         <v>417</v>
       </c>
-      <c r="K49" s="734" t="s">
+      <c r="K49" s="421" t="s">
         <v>418</v>
       </c>
-      <c r="L49" s="734" t="s">
+      <c r="L49" s="421" t="s">
         <v>419</v>
       </c>
-      <c r="M49" s="734" t="s">
+      <c r="M49" s="421" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="50" spans="4:13">
-      <c r="D50" s="728" t="s">
+      <c r="D50" s="415" t="s">
         <v>0</v>
       </c>
       <c r="E50" s="406">
@@ -15585,39 +15729,39 @@
       </c>
     </row>
     <row r="51" spans="4:13">
-      <c r="D51" s="729" t="s">
+      <c r="D51" s="416" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="735">
+      <c r="E51" s="422">
         <v>3.08</v>
       </c>
-      <c r="F51" s="735">
+      <c r="F51" s="422">
         <v>3.06</v>
       </c>
-      <c r="G51" s="735">
+      <c r="G51" s="422">
         <v>3.04</v>
       </c>
-      <c r="H51" s="735">
+      <c r="H51" s="422">
         <v>2.23</v>
       </c>
-      <c r="I51" s="735">
+      <c r="I51" s="422">
         <v>1.22</v>
       </c>
-      <c r="J51" s="735">
+      <c r="J51" s="422">
         <v>0.64</v>
       </c>
-      <c r="K51" s="735">
+      <c r="K51" s="422">
         <v>0.43</v>
       </c>
-      <c r="L51" s="735">
+      <c r="L51" s="422">
         <v>0.35</v>
       </c>
-      <c r="M51" s="735">
+      <c r="M51" s="422">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="52" spans="4:13">
-      <c r="D52" s="730" t="s">
+      <c r="D52" s="417" t="s">
         <v>86</v>
       </c>
       <c r="E52" s="407">
@@ -15649,7 +15793,7 @@
       </c>
     </row>
     <row r="53" spans="4:13">
-      <c r="D53" s="731" t="s">
+      <c r="D53" s="418" t="s">
         <v>6</v>
       </c>
       <c r="E53" s="406">
@@ -15681,7 +15825,7 @@
       </c>
     </row>
     <row r="54" spans="4:13">
-      <c r="D54" s="732" t="s">
+      <c r="D54" s="419" t="s">
         <v>7</v>
       </c>
       <c r="E54" s="407">
@@ -15713,7 +15857,7 @@
       </c>
     </row>
     <row r="55" spans="4:13">
-      <c r="D55" s="728" t="s">
+      <c r="D55" s="415" t="s">
         <v>362</v>
       </c>
       <c r="E55" s="406">
@@ -15745,39 +15889,39 @@
       </c>
     </row>
     <row r="56" spans="4:13">
-      <c r="D56" s="729" t="s">
+      <c r="D56" s="416" t="s">
         <v>363</v>
       </c>
-      <c r="E56" s="735">
+      <c r="E56" s="422">
         <v>2.2200000000000002</v>
       </c>
-      <c r="F56" s="735">
+      <c r="F56" s="422">
         <v>2.21</v>
       </c>
-      <c r="G56" s="735">
+      <c r="G56" s="422">
         <v>2.19</v>
       </c>
-      <c r="H56" s="735">
+      <c r="H56" s="422">
         <v>1.6</v>
       </c>
-      <c r="I56" s="735">
+      <c r="I56" s="422">
         <v>0.86</v>
       </c>
-      <c r="J56" s="735">
+      <c r="J56" s="422">
         <v>0.45</v>
       </c>
-      <c r="K56" s="735">
+      <c r="K56" s="422">
         <v>0.3</v>
       </c>
-      <c r="L56" s="735">
+      <c r="L56" s="422">
         <v>0.24</v>
       </c>
-      <c r="M56" s="735">
+      <c r="M56" s="422">
         <v>0.05</v>
       </c>
     </row>
     <row r="57" spans="4:13">
-      <c r="D57" s="730" t="s">
+      <c r="D57" s="417" t="s">
         <v>9</v>
       </c>
       <c r="E57" s="407">
@@ -15809,7 +15953,7 @@
       </c>
     </row>
     <row r="58" spans="4:13">
-      <c r="D58" s="731" t="s">
+      <c r="D58" s="418" t="s">
         <v>14</v>
       </c>
       <c r="E58" s="406">
@@ -15841,7 +15985,7 @@
       </c>
     </row>
     <row r="59" spans="4:13">
-      <c r="D59" s="733" t="s">
+      <c r="D59" s="420" t="s">
         <v>15</v>
       </c>
       <c r="E59" s="407">
@@ -15873,7 +16017,7 @@
       </c>
     </row>
     <row r="60" spans="4:13">
-      <c r="D60" s="728" t="s">
+      <c r="D60" s="415" t="s">
         <v>361</v>
       </c>
       <c r="E60" s="406">
@@ -15905,7 +16049,7 @@
       </c>
     </row>
     <row r="61" spans="4:13">
-      <c r="D61" s="730" t="s">
+      <c r="D61" s="417" t="s">
         <v>31</v>
       </c>
       <c r="E61" s="407">
@@ -15971,54 +16115,54 @@
       <c r="E1" s="106" t="s">
         <v>269</v>
       </c>
-      <c r="S1" s="566" t="s">
+      <c r="S1" s="570" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="567"/>
-      <c r="U1" s="567"/>
-      <c r="V1" s="567"/>
-      <c r="W1" s="568"/>
+      <c r="T1" s="571"/>
+      <c r="U1" s="571"/>
+      <c r="V1" s="571"/>
+      <c r="W1" s="572"/>
     </row>
     <row r="3" spans="2:26">
       <c r="D3" s="219" t="s">
         <v>244</v>
       </c>
-      <c r="E3" s="521" t="s">
+      <c r="E3" s="551" t="s">
         <v>245</v>
       </c>
-      <c r="F3" s="522"/>
-      <c r="G3" s="521" t="s">
+      <c r="F3" s="552"/>
+      <c r="G3" s="551" t="s">
         <v>246</v>
       </c>
-      <c r="H3" s="557"/>
-      <c r="I3" s="522"/>
+      <c r="H3" s="581"/>
+      <c r="I3" s="552"/>
       <c r="J3" s="219" t="s">
         <v>247</v>
       </c>
-      <c r="S3" s="561" t="s">
+      <c r="S3" s="565" t="s">
         <v>145</v>
       </c>
-      <c r="T3" s="562"/>
-      <c r="U3" s="562"/>
-      <c r="V3" s="563"/>
-      <c r="W3" s="561" t="s">
+      <c r="T3" s="566"/>
+      <c r="U3" s="566"/>
+      <c r="V3" s="567"/>
+      <c r="W3" s="565" t="s">
         <v>146</v>
       </c>
-      <c r="X3" s="563"/>
+      <c r="X3" s="567"/>
     </row>
     <row r="4" spans="2:26">
       <c r="D4" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="E4" s="554" t="s">
+      <c r="E4" s="578" t="s">
         <v>249</v>
       </c>
-      <c r="F4" s="556"/>
-      <c r="G4" s="554" t="s">
+      <c r="F4" s="580"/>
+      <c r="G4" s="578" t="s">
         <v>251</v>
       </c>
-      <c r="H4" s="555"/>
-      <c r="I4" s="556"/>
+      <c r="H4" s="579"/>
+      <c r="I4" s="580"/>
       <c r="J4" s="64" t="s">
         <v>250</v>
       </c>
@@ -16146,49 +16290,49 @@
       <c r="B13" s="224" t="s">
         <v>254</v>
       </c>
-      <c r="C13" s="560" t="s">
+      <c r="C13" s="584" t="s">
         <v>256</v>
       </c>
-      <c r="D13" s="560"/>
-      <c r="E13" s="560"/>
-      <c r="F13" s="560"/>
-      <c r="G13" s="560"/>
+      <c r="D13" s="584"/>
+      <c r="E13" s="584"/>
+      <c r="F13" s="584"/>
+      <c r="G13" s="584"/>
       <c r="I13" s="242" t="s">
         <v>254</v>
       </c>
-      <c r="J13" s="551" t="s">
+      <c r="J13" s="575" t="s">
         <v>256</v>
       </c>
-      <c r="K13" s="551"/>
-      <c r="L13" s="551"/>
-      <c r="M13" s="552"/>
-      <c r="N13" s="558" t="s">
+      <c r="K13" s="575"/>
+      <c r="L13" s="575"/>
+      <c r="M13" s="576"/>
+      <c r="N13" s="582" t="s">
         <v>275</v>
       </c>
-      <c r="O13" s="559"/>
+      <c r="O13" s="583"/>
     </row>
     <row r="14" spans="2:26">
       <c r="B14" s="64" t="s">
         <v>255</v>
       </c>
-      <c r="C14" s="553" t="s">
+      <c r="C14" s="577" t="s">
         <v>257</v>
       </c>
-      <c r="D14" s="553"/>
-      <c r="E14" s="553"/>
-      <c r="F14" s="553"/>
-      <c r="G14" s="553"/>
+      <c r="D14" s="577"/>
+      <c r="E14" s="577"/>
+      <c r="F14" s="577"/>
+      <c r="G14" s="577"/>
       <c r="I14" s="64" t="s">
         <v>255</v>
       </c>
-      <c r="J14" s="553"/>
-      <c r="K14" s="553"/>
-      <c r="L14" s="553"/>
-      <c r="M14" s="554"/>
-      <c r="N14" s="569" t="s">
+      <c r="J14" s="577"/>
+      <c r="K14" s="577"/>
+      <c r="L14" s="577"/>
+      <c r="M14" s="578"/>
+      <c r="N14" s="573" t="s">
         <v>249</v>
       </c>
-      <c r="O14" s="570"/>
+      <c r="O14" s="574"/>
     </row>
     <row r="16" spans="2:26" ht="15.75">
       <c r="B16" s="237" t="s">
@@ -16287,7 +16431,7 @@
       <c r="I20" t="s">
         <v>283</v>
       </c>
-      <c r="Q20" s="564" t="s">
+      <c r="Q20" s="568" t="s">
         <v>312</v>
       </c>
     </row>
@@ -16298,7 +16442,7 @@
       <c r="I21" t="s">
         <v>284</v>
       </c>
-      <c r="Q21" s="565"/>
+      <c r="Q21" s="569"/>
     </row>
     <row r="22" spans="2:17" ht="15.75">
       <c r="B22" t="s">
@@ -16444,11 +16588,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="N14:O14"/>
     <mergeCell ref="J13:M13"/>
     <mergeCell ref="J14:M14"/>
     <mergeCell ref="G4:I4"/>
@@ -16458,6 +16597,11 @@
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="N14:O14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16519,64 +16663,64 @@
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:18" ht="18.75">
-      <c r="A3" s="573" t="s">
+      <c r="A3" s="601" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="573" t="s">
+      <c r="B3" s="601" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="573" t="s">
+      <c r="C3" s="601" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="575" t="s">
+      <c r="D3" s="603" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="590" t="s">
+      <c r="E3" s="618" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="591"/>
-      <c r="G3" s="591"/>
-      <c r="H3" s="591"/>
-      <c r="I3" s="591"/>
-      <c r="J3" s="591"/>
-      <c r="K3" s="591"/>
-      <c r="L3" s="591"/>
-      <c r="M3" s="591"/>
-      <c r="N3" s="591"/>
-      <c r="O3" s="591"/>
-      <c r="P3" s="592"/>
-      <c r="Q3" s="573" t="s">
+      <c r="F3" s="619"/>
+      <c r="G3" s="619"/>
+      <c r="H3" s="619"/>
+      <c r="I3" s="619"/>
+      <c r="J3" s="619"/>
+      <c r="K3" s="619"/>
+      <c r="L3" s="619"/>
+      <c r="M3" s="619"/>
+      <c r="N3" s="619"/>
+      <c r="O3" s="619"/>
+      <c r="P3" s="620"/>
+      <c r="Q3" s="601" t="s">
         <v>150</v>
       </c>
-      <c r="R3" s="576" t="s">
+      <c r="R3" s="604" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="19.5" thickBot="1">
-      <c r="A4" s="574"/>
-      <c r="B4" s="574"/>
-      <c r="C4" s="574"/>
-      <c r="D4" s="574"/>
-      <c r="E4" s="579" t="s">
+      <c r="A4" s="602"/>
+      <c r="B4" s="602"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="602"/>
+      <c r="E4" s="607" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="580"/>
+      <c r="F4" s="608"/>
       <c r="G4" s="215"/>
-      <c r="H4" s="578" t="s">
+      <c r="H4" s="606" t="s">
         <v>164</v>
       </c>
-      <c r="I4" s="578"/>
-      <c r="J4" s="578"/>
-      <c r="K4" s="578"/>
-      <c r="L4" s="578"/>
+      <c r="I4" s="606"/>
+      <c r="J4" s="606"/>
+      <c r="K4" s="606"/>
+      <c r="L4" s="606"/>
       <c r="M4" s="216"/>
-      <c r="N4" s="587" t="s">
+      <c r="N4" s="615" t="s">
         <v>151</v>
       </c>
-      <c r="O4" s="588"/>
-      <c r="P4" s="589"/>
-      <c r="Q4" s="574"/>
-      <c r="R4" s="577"/>
+      <c r="O4" s="616"/>
+      <c r="P4" s="617"/>
+      <c r="Q4" s="602"/>
+      <c r="R4" s="605"/>
     </row>
     <row r="5" spans="1:18" ht="30.75" thickBot="1">
       <c r="A5" s="157" t="s">
@@ -16611,13 +16755,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="30">
-      <c r="A6" s="571" t="s">
+      <c r="A6" s="599" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="612" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="584" t="s">
+      <c r="C6" s="612" t="s">
         <v>162</v>
       </c>
       <c r="D6" s="179" t="s">
@@ -16638,14 +16782,14 @@
       <c r="Q6" s="188" t="s">
         <v>159</v>
       </c>
-      <c r="R6" s="581">
+      <c r="R6" s="609">
         <v>2223</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1">
-      <c r="A7" s="572"/>
-      <c r="B7" s="585"/>
-      <c r="C7" s="585"/>
+      <c r="A7" s="600"/>
+      <c r="B7" s="613"/>
+      <c r="C7" s="613"/>
       <c r="D7" s="189" t="s">
         <v>160</v>
       </c>
@@ -16682,12 +16826,12 @@
       <c r="Q7" s="197" t="s">
         <v>167</v>
       </c>
-      <c r="R7" s="582"/>
+      <c r="R7" s="610"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1">
-      <c r="A8" s="572"/>
-      <c r="B8" s="586"/>
-      <c r="C8" s="586"/>
+      <c r="A8" s="600"/>
+      <c r="B8" s="614"/>
+      <c r="C8" s="614"/>
       <c r="D8" s="189" t="s">
         <v>297</v>
       </c>
@@ -16720,10 +16864,10 @@
       <c r="Q8" s="197" t="s">
         <v>168</v>
       </c>
-      <c r="R8" s="583"/>
+      <c r="R8" s="611"/>
     </row>
     <row r="9" spans="1:18" ht="27.75" customHeight="1">
-      <c r="A9" s="572"/>
+      <c r="A9" s="600"/>
       <c r="B9" s="199"/>
       <c r="C9" s="200"/>
       <c r="D9" s="200"/>
@@ -16743,7 +16887,7 @@
       <c r="R9" s="206"/>
     </row>
     <row r="10" spans="1:18" ht="45">
-      <c r="A10" s="572"/>
+      <c r="A10" s="600"/>
       <c r="B10" s="207" t="s">
         <v>171</v>
       </c>
@@ -16779,7 +16923,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="60.75" thickBot="1">
-      <c r="A11" s="572"/>
+      <c r="A11" s="600"/>
       <c r="B11" s="253" t="s">
         <v>173</v>
       </c>
@@ -16813,7 +16957,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="45">
-      <c r="A12" s="596" t="s">
+      <c r="A12" s="588" t="s">
         <v>179</v>
       </c>
       <c r="B12" s="248" t="s">
@@ -16836,12 +16980,12 @@
       <c r="Q12" s="178" t="s">
         <v>181</v>
       </c>
-      <c r="R12" s="602">
+      <c r="R12" s="594">
         <v>2232</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="60">
-      <c r="A13" s="597"/>
+      <c r="A13" s="589"/>
       <c r="B13" s="249" t="s">
         <v>182</v>
       </c>
@@ -16882,10 +17026,10 @@
       <c r="Q13" s="139" t="s">
         <v>185</v>
       </c>
-      <c r="R13" s="594"/>
+      <c r="R13" s="586"/>
     </row>
     <row r="14" spans="1:18" ht="75">
-      <c r="A14" s="597"/>
+      <c r="A14" s="589"/>
       <c r="B14" s="250" t="s">
         <v>183</v>
       </c>
@@ -16924,10 +17068,10 @@
       <c r="Q14" s="138" t="s">
         <v>186</v>
       </c>
-      <c r="R14" s="603"/>
+      <c r="R14" s="595"/>
     </row>
     <row r="15" spans="1:18" ht="60">
-      <c r="A15" s="597"/>
+      <c r="A15" s="589"/>
       <c r="B15" s="249" t="s">
         <v>187</v>
       </c>
@@ -16940,17 +17084,17 @@
       <c r="G15" s="146" t="s">
         <v>165</v>
       </c>
-      <c r="H15" s="604" t="s">
+      <c r="H15" s="596" t="s">
         <v>189</v>
       </c>
-      <c r="I15" s="604"/>
+      <c r="I15" s="596"/>
       <c r="J15" s="233" t="s">
         <v>130</v>
       </c>
-      <c r="K15" s="604" t="s">
+      <c r="K15" s="596" t="s">
         <v>190</v>
       </c>
-      <c r="L15" s="604"/>
+      <c r="L15" s="596"/>
       <c r="M15" s="150" t="s">
         <v>166</v>
       </c>
@@ -16960,12 +17104,12 @@
       <c r="Q15" s="140" t="s">
         <v>191</v>
       </c>
-      <c r="R15" s="593">
+      <c r="R15" s="585">
         <v>2233</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="45">
-      <c r="A16" s="597"/>
+      <c r="A16" s="589"/>
       <c r="B16" s="249" t="s">
         <v>194</v>
       </c>
@@ -16985,17 +17129,17 @@
       <c r="N16" s="153" t="s">
         <v>172</v>
       </c>
-      <c r="O16" s="606" t="s">
+      <c r="O16" s="598" t="s">
         <v>195</v>
       </c>
-      <c r="P16" s="605"/>
+      <c r="P16" s="597"/>
       <c r="Q16" s="139" t="s">
         <v>196</v>
       </c>
-      <c r="R16" s="594"/>
+      <c r="R16" s="586"/>
     </row>
     <row r="17" spans="1:18" ht="75">
-      <c r="A17" s="597"/>
+      <c r="A17" s="589"/>
       <c r="B17" s="250" t="s">
         <v>192</v>
       </c>
@@ -17035,17 +17179,17 @@
       <c r="N17" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="O17" s="604" t="s">
+      <c r="O17" s="596" t="s">
         <v>197</v>
       </c>
-      <c r="P17" s="605"/>
+      <c r="P17" s="597"/>
       <c r="Q17" s="154" t="s">
         <v>198</v>
       </c>
-      <c r="R17" s="603"/>
+      <c r="R17" s="595"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="597"/>
+      <c r="A18" s="589"/>
       <c r="B18" s="155"/>
       <c r="C18" s="155"/>
       <c r="D18" s="155"/>
@@ -17065,8 +17209,8 @@
       <c r="R18" s="277"/>
     </row>
     <row r="19" spans="1:18" ht="45">
-      <c r="A19" s="597"/>
-      <c r="B19" s="599" t="s">
+      <c r="A19" s="589"/>
+      <c r="B19" s="591" t="s">
         <v>206</v>
       </c>
       <c r="C19" s="251"/>
@@ -17091,10 +17235,10 @@
       <c r="J19" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="K19" s="604" t="s">
+      <c r="K19" s="596" t="s">
         <v>180</v>
       </c>
-      <c r="L19" s="604"/>
+      <c r="L19" s="596"/>
       <c r="M19" s="150" t="s">
         <v>166</v>
       </c>
@@ -17104,13 +17248,13 @@
       <c r="Q19" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="R19" s="593">
+      <c r="R19" s="585">
         <v>2234</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="45">
-      <c r="A20" s="597"/>
-      <c r="B20" s="600"/>
+      <c r="A20" s="589"/>
+      <c r="B20" s="592"/>
       <c r="C20" s="252"/>
       <c r="D20" s="142" t="s">
         <v>306</v>
@@ -17133,10 +17277,10 @@
       <c r="J20" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="K20" s="604" t="s">
+      <c r="K20" s="596" t="s">
         <v>290</v>
       </c>
-      <c r="L20" s="604"/>
+      <c r="L20" s="596"/>
       <c r="M20" s="150" t="s">
         <v>166</v>
       </c>
@@ -17146,11 +17290,11 @@
       <c r="Q20" s="139" t="s">
         <v>205</v>
       </c>
-      <c r="R20" s="594"/>
+      <c r="R20" s="586"/>
     </row>
     <row r="21" spans="1:18" ht="60">
-      <c r="A21" s="597"/>
-      <c r="B21" s="600"/>
+      <c r="A21" s="589"/>
+      <c r="B21" s="592"/>
       <c r="C21" s="173"/>
       <c r="D21" s="173"/>
       <c r="E21" s="173"/>
@@ -17168,11 +17312,11 @@
       <c r="Q21" s="172" t="s">
         <v>207</v>
       </c>
-      <c r="R21" s="594"/>
+      <c r="R21" s="586"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="597"/>
-      <c r="B22" s="600"/>
+      <c r="A22" s="589"/>
+      <c r="B22" s="592"/>
       <c r="C22" s="173"/>
       <c r="D22" s="173"/>
       <c r="E22" s="173"/>
@@ -17188,11 +17332,11 @@
       <c r="O22" s="173"/>
       <c r="P22" s="173"/>
       <c r="Q22" s="174"/>
-      <c r="R22" s="594"/>
+      <c r="R22" s="586"/>
     </row>
     <row r="23" spans="1:18" ht="90">
-      <c r="A23" s="597"/>
-      <c r="B23" s="600"/>
+      <c r="A23" s="589"/>
+      <c r="B23" s="592"/>
       <c r="C23" s="173"/>
       <c r="D23" s="173"/>
       <c r="E23" s="173"/>
@@ -17210,11 +17354,11 @@
       <c r="Q23" s="247" t="s">
         <v>209</v>
       </c>
-      <c r="R23" s="594"/>
+      <c r="R23" s="586"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A24" s="598"/>
-      <c r="B24" s="601"/>
+      <c r="A24" s="590"/>
+      <c r="B24" s="593"/>
       <c r="C24" s="266"/>
       <c r="D24" s="267" t="s">
         <v>305</v>
@@ -17238,7 +17382,7 @@
       <c r="Q24" s="275" t="s">
         <v>307</v>
       </c>
-      <c r="R24" s="595"/>
+      <c r="R24" s="587"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="130"/>
@@ -17246,17 +17390,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="R19:R24"/>
-    <mergeCell ref="A12:A24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R15:R17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="O16:P16"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
@@ -17271,6 +17404,17 @@
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="E3:P3"/>
     <mergeCell ref="B6:B8"/>
+    <mergeCell ref="R19:R24"/>
+    <mergeCell ref="A12:A24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R15:R17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="O16:P16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17304,20 +17448,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24" thickBot="1">
-      <c r="A1" s="607" t="s">
+      <c r="A1" s="633" t="s">
         <v>303</v>
       </c>
-      <c r="B1" s="608"/>
-      <c r="C1" s="608"/>
-      <c r="D1" s="608"/>
-      <c r="E1" s="608"/>
-      <c r="F1" s="608"/>
-      <c r="G1" s="608"/>
-      <c r="H1" s="608"/>
-      <c r="I1" s="608"/>
-      <c r="J1" s="608"/>
-      <c r="K1" s="608"/>
-      <c r="L1" s="609"/>
+      <c r="B1" s="634"/>
+      <c r="C1" s="634"/>
+      <c r="D1" s="634"/>
+      <c r="E1" s="634"/>
+      <c r="F1" s="634"/>
+      <c r="G1" s="634"/>
+      <c r="H1" s="634"/>
+      <c r="I1" s="634"/>
+      <c r="J1" s="634"/>
+      <c r="K1" s="634"/>
+      <c r="L1" s="635"/>
     </row>
     <row r="2" spans="1:18">
       <c r="D2" s="98">
@@ -17375,82 +17519,82 @@
         <v>354</v>
       </c>
       <c r="B6" s="96"/>
-      <c r="C6" s="629" t="s">
+      <c r="C6" s="631" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="629"/>
-      <c r="E6" s="629"/>
-      <c r="F6" s="629"/>
-      <c r="G6" s="629"/>
-      <c r="H6" s="629"/>
-      <c r="I6" s="629"/>
-      <c r="J6" s="629"/>
-      <c r="K6" s="629"/>
-      <c r="L6" s="630"/>
-      <c r="M6" s="623" t="s">
+      <c r="D6" s="631"/>
+      <c r="E6" s="631"/>
+      <c r="F6" s="631"/>
+      <c r="G6" s="631"/>
+      <c r="H6" s="631"/>
+      <c r="I6" s="631"/>
+      <c r="J6" s="631"/>
+      <c r="K6" s="631"/>
+      <c r="L6" s="632"/>
+      <c r="M6" s="621" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A7" s="617" t="s">
+      <c r="A7" s="639" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="618"/>
-      <c r="C7" s="613" t="s">
+      <c r="B7" s="640"/>
+      <c r="C7" s="624" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="613" t="s">
+      <c r="D7" s="624" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="613" t="s">
+      <c r="E7" s="624" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="613" t="s">
+      <c r="F7" s="624" t="s">
         <v>210</v>
       </c>
-      <c r="G7" s="541" t="s">
+      <c r="G7" s="525" t="s">
         <v>137</v>
       </c>
-      <c r="H7" s="542"/>
-      <c r="I7" s="542"/>
-      <c r="J7" s="542"/>
-      <c r="K7" s="543"/>
-      <c r="L7" s="613" t="s">
+      <c r="H7" s="526"/>
+      <c r="I7" s="526"/>
+      <c r="J7" s="526"/>
+      <c r="K7" s="527"/>
+      <c r="L7" s="624" t="s">
         <v>117</v>
       </c>
-      <c r="M7" s="624"/>
+      <c r="M7" s="622"/>
       <c r="Q7" s="95"/>
       <c r="R7" s="95"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="619"/>
-      <c r="B8" s="620"/>
-      <c r="C8" s="614"/>
-      <c r="D8" s="614"/>
-      <c r="E8" s="614"/>
-      <c r="F8" s="614"/>
-      <c r="G8" s="610" t="s">
+      <c r="A8" s="641"/>
+      <c r="B8" s="642"/>
+      <c r="C8" s="625"/>
+      <c r="D8" s="625"/>
+      <c r="E8" s="625"/>
+      <c r="F8" s="625"/>
+      <c r="G8" s="627" t="s">
         <v>140</v>
       </c>
-      <c r="H8" s="627" t="s">
+      <c r="H8" s="629" t="s">
         <v>135</v>
       </c>
-      <c r="I8" s="627"/>
-      <c r="J8" s="628"/>
-      <c r="K8" s="610" t="s">
+      <c r="I8" s="629"/>
+      <c r="J8" s="630"/>
+      <c r="K8" s="627" t="s">
         <v>120</v>
       </c>
-      <c r="L8" s="614"/>
-      <c r="M8" s="624"/>
+      <c r="L8" s="625"/>
+      <c r="M8" s="622"/>
     </row>
     <row r="9" spans="1:18" ht="30.75" thickBot="1">
-      <c r="A9" s="619"/>
-      <c r="B9" s="620"/>
+      <c r="A9" s="641"/>
+      <c r="B9" s="642"/>
       <c r="C9" s="626"/>
       <c r="D9" s="626"/>
       <c r="E9" s="626"/>
       <c r="F9" s="626"/>
-      <c r="G9" s="611"/>
+      <c r="G9" s="628"/>
       <c r="H9" s="126" t="s">
         <v>139</v>
       </c>
@@ -17460,13 +17604,13 @@
       <c r="J9" s="126" t="s">
         <v>136</v>
       </c>
-      <c r="K9" s="611"/>
-      <c r="L9" s="615"/>
-      <c r="M9" s="625"/>
+      <c r="K9" s="628"/>
+      <c r="L9" s="637"/>
+      <c r="M9" s="623"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="619"/>
-      <c r="B10" s="620"/>
+      <c r="A10" s="641"/>
+      <c r="B10" s="642"/>
       <c r="C10" s="123">
         <v>60</v>
       </c>
@@ -17509,8 +17653,8 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="621"/>
-      <c r="B11" s="622"/>
+      <c r="A11" s="643"/>
+      <c r="B11" s="644"/>
       <c r="C11" s="108">
         <v>60</v>
       </c>
@@ -17553,8 +17697,8 @@
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="C12" s="612"/>
-      <c r="D12" s="612"/>
+      <c r="C12" s="636"/>
+      <c r="D12" s="636"/>
       <c r="F12" s="94"/>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1"/>
@@ -17562,131 +17706,137 @@
       <c r="A17" t="s">
         <v>313</v>
       </c>
-      <c r="B17" s="616" t="s">
+      <c r="B17" s="638" t="s">
         <v>337</v>
       </c>
-      <c r="C17" s="616"/>
-      <c r="D17" s="616"/>
-      <c r="E17" s="616"/>
+      <c r="C17" s="638"/>
+      <c r="D17" s="638"/>
+      <c r="E17" s="638"/>
       <c r="G17" t="s">
         <v>322</v>
       </c>
       <c r="R17" s="303"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="B18" s="616"/>
-      <c r="C18" s="616"/>
-      <c r="D18" s="616"/>
-      <c r="E18" s="616"/>
+      <c r="B18" s="638"/>
+      <c r="C18" s="638"/>
+      <c r="D18" s="638"/>
+      <c r="E18" s="638"/>
       <c r="G18" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="B19" s="616"/>
-      <c r="C19" s="616"/>
-      <c r="D19" s="616"/>
-      <c r="E19" s="616"/>
+      <c r="B19" s="638"/>
+      <c r="C19" s="638"/>
+      <c r="D19" s="638"/>
+      <c r="E19" s="638"/>
       <c r="G19" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="B20" s="616"/>
-      <c r="C20" s="616"/>
-      <c r="D20" s="616"/>
-      <c r="E20" s="616"/>
+      <c r="B20" s="638"/>
+      <c r="C20" s="638"/>
+      <c r="D20" s="638"/>
+      <c r="E20" s="638"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="B21" s="616"/>
-      <c r="C21" s="616"/>
-      <c r="D21" s="616"/>
-      <c r="E21" s="616"/>
+      <c r="B21" s="638"/>
+      <c r="C21" s="638"/>
+      <c r="D21" s="638"/>
+      <c r="E21" s="638"/>
       <c r="G21" t="s">
         <v>325</v>
       </c>
       <c r="J21" s="239"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="B22" s="616"/>
-      <c r="C22" s="616"/>
-      <c r="D22" s="616"/>
-      <c r="E22" s="616"/>
+      <c r="B22" s="638"/>
+      <c r="C22" s="638"/>
+      <c r="D22" s="638"/>
+      <c r="E22" s="638"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="B23" s="616"/>
-      <c r="C23" s="616"/>
-      <c r="D23" s="616"/>
-      <c r="E23" s="616"/>
+      <c r="B23" s="638"/>
+      <c r="C23" s="638"/>
+      <c r="D23" s="638"/>
+      <c r="E23" s="638"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="B24" s="616"/>
-      <c r="C24" s="616"/>
-      <c r="D24" s="616"/>
-      <c r="E24" s="616"/>
+      <c r="B24" s="638"/>
+      <c r="C24" s="638"/>
+      <c r="D24" s="638"/>
+      <c r="E24" s="638"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="B25" s="616"/>
-      <c r="C25" s="616"/>
-      <c r="D25" s="616"/>
-      <c r="E25" s="616"/>
+      <c r="B25" s="638"/>
+      <c r="C25" s="638"/>
+      <c r="D25" s="638"/>
+      <c r="E25" s="638"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="B26" s="616"/>
-      <c r="C26" s="616"/>
-      <c r="D26" s="616"/>
-      <c r="E26" s="616"/>
+      <c r="B26" s="638"/>
+      <c r="C26" s="638"/>
+      <c r="D26" s="638"/>
+      <c r="E26" s="638"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="B27" s="616"/>
-      <c r="C27" s="616"/>
-      <c r="D27" s="616"/>
-      <c r="E27" s="616"/>
+      <c r="B27" s="638"/>
+      <c r="C27" s="638"/>
+      <c r="D27" s="638"/>
+      <c r="E27" s="638"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="B28" s="616"/>
-      <c r="C28" s="616"/>
-      <c r="D28" s="616"/>
-      <c r="E28" s="616"/>
+      <c r="B28" s="638"/>
+      <c r="C28" s="638"/>
+      <c r="D28" s="638"/>
+      <c r="E28" s="638"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="B29" s="616"/>
-      <c r="C29" s="616"/>
-      <c r="D29" s="616"/>
-      <c r="E29" s="616"/>
+      <c r="B29" s="638"/>
+      <c r="C29" s="638"/>
+      <c r="D29" s="638"/>
+      <c r="E29" s="638"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="B30" s="616"/>
-      <c r="C30" s="616"/>
-      <c r="D30" s="616"/>
-      <c r="E30" s="616"/>
+      <c r="B30" s="638"/>
+      <c r="C30" s="638"/>
+      <c r="D30" s="638"/>
+      <c r="E30" s="638"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="B31" s="616"/>
-      <c r="C31" s="616"/>
-      <c r="D31" s="616"/>
-      <c r="E31" s="616"/>
+      <c r="B31" s="638"/>
+      <c r="C31" s="638"/>
+      <c r="D31" s="638"/>
+      <c r="E31" s="638"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="B32" s="616"/>
-      <c r="C32" s="616"/>
-      <c r="D32" s="616"/>
-      <c r="E32" s="616"/>
+      <c r="B32" s="638"/>
+      <c r="C32" s="638"/>
+      <c r="D32" s="638"/>
+      <c r="E32" s="638"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="616"/>
-      <c r="C33" s="616"/>
-      <c r="D33" s="616"/>
-      <c r="E33" s="616"/>
+      <c r="B33" s="638"/>
+      <c r="C33" s="638"/>
+      <c r="D33" s="638"/>
+      <c r="E33" s="638"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="616"/>
-      <c r="C34" s="616"/>
-      <c r="D34" s="616"/>
-      <c r="E34" s="616"/>
+      <c r="B34" s="638"/>
+      <c r="C34" s="638"/>
+      <c r="D34" s="638"/>
+      <c r="E34" s="638"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="B17:E34"/>
+    <mergeCell ref="A7:B11"/>
     <mergeCell ref="M6:M9"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="C7:C9"/>
@@ -17696,12 +17846,6 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="C6:L6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="B17:E34"/>
-    <mergeCell ref="A7:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -17713,8 +17857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AZ43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AV28" sqref="AV28"/>
+    <sheetView topLeftCell="AW1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BH15" sqref="BH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -17762,30 +17906,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="24" thickBot="1">
-      <c r="A1" s="607" t="s">
+      <c r="A1" s="633" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="608"/>
-      <c r="C1" s="608"/>
-      <c r="D1" s="608"/>
-      <c r="E1" s="608"/>
-      <c r="F1" s="608"/>
-      <c r="G1" s="608"/>
-      <c r="H1" s="608"/>
-      <c r="I1" s="608"/>
-      <c r="J1" s="608"/>
-      <c r="K1" s="608"/>
-      <c r="L1" s="608"/>
-      <c r="M1" s="608"/>
-      <c r="N1" s="608"/>
-      <c r="O1" s="608"/>
-      <c r="P1" s="608"/>
-      <c r="Q1" s="608"/>
-      <c r="R1" s="608"/>
-      <c r="S1" s="608"/>
-      <c r="T1" s="608"/>
-      <c r="U1" s="608"/>
-      <c r="V1" s="609"/>
+      <c r="B1" s="634"/>
+      <c r="C1" s="634"/>
+      <c r="D1" s="634"/>
+      <c r="E1" s="634"/>
+      <c r="F1" s="634"/>
+      <c r="G1" s="634"/>
+      <c r="H1" s="634"/>
+      <c r="I1" s="634"/>
+      <c r="J1" s="634"/>
+      <c r="K1" s="634"/>
+      <c r="L1" s="634"/>
+      <c r="M1" s="634"/>
+      <c r="N1" s="634"/>
+      <c r="O1" s="634"/>
+      <c r="P1" s="634"/>
+      <c r="Q1" s="634"/>
+      <c r="R1" s="634"/>
+      <c r="S1" s="634"/>
+      <c r="T1" s="634"/>
+      <c r="U1" s="634"/>
+      <c r="V1" s="635"/>
     </row>
     <row r="2" spans="1:52">
       <c r="N2" t="s">
@@ -17865,343 +18009,343 @@
     </row>
     <row r="6" spans="1:52" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="7" spans="1:52" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="660" t="s">
+      <c r="A7" s="710" t="s">
         <v>355</v>
       </c>
-      <c r="B7" s="661"/>
-      <c r="C7" s="631" t="s">
+      <c r="B7" s="711"/>
+      <c r="C7" s="716" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="631"/>
-      <c r="E7" s="631"/>
-      <c r="F7" s="631"/>
-      <c r="G7" s="631"/>
-      <c r="H7" s="631"/>
-      <c r="I7" s="631"/>
-      <c r="J7" s="631"/>
-      <c r="K7" s="631"/>
-      <c r="L7" s="631"/>
-      <c r="M7" s="631"/>
-      <c r="N7" s="631"/>
-      <c r="O7" s="631"/>
-      <c r="P7" s="631"/>
-      <c r="Q7" s="631"/>
-      <c r="R7" s="631"/>
-      <c r="S7" s="631"/>
-      <c r="T7" s="631"/>
-      <c r="U7" s="631"/>
-      <c r="V7" s="631"/>
-      <c r="W7" s="631"/>
-      <c r="X7" s="631"/>
-      <c r="Y7" s="631"/>
-      <c r="Z7" s="631"/>
-      <c r="AA7" s="631"/>
-      <c r="AB7" s="631"/>
-      <c r="AC7" s="631"/>
-      <c r="AD7" s="631"/>
-      <c r="AE7" s="631"/>
-      <c r="AF7" s="631"/>
-      <c r="AG7" s="631"/>
-      <c r="AH7" s="631"/>
-      <c r="AI7" s="631"/>
-      <c r="AJ7" s="631"/>
-      <c r="AK7" s="631"/>
-      <c r="AL7" s="631"/>
-      <c r="AM7" s="631"/>
-      <c r="AN7" s="631"/>
-      <c r="AO7" s="631"/>
-      <c r="AP7" s="631"/>
-      <c r="AQ7" s="632"/>
-      <c r="AR7" s="687" t="s">
+      <c r="D7" s="716"/>
+      <c r="E7" s="716"/>
+      <c r="F7" s="716"/>
+      <c r="G7" s="716"/>
+      <c r="H7" s="716"/>
+      <c r="I7" s="716"/>
+      <c r="J7" s="716"/>
+      <c r="K7" s="716"/>
+      <c r="L7" s="716"/>
+      <c r="M7" s="716"/>
+      <c r="N7" s="716"/>
+      <c r="O7" s="716"/>
+      <c r="P7" s="716"/>
+      <c r="Q7" s="716"/>
+      <c r="R7" s="716"/>
+      <c r="S7" s="716"/>
+      <c r="T7" s="716"/>
+      <c r="U7" s="716"/>
+      <c r="V7" s="716"/>
+      <c r="W7" s="716"/>
+      <c r="X7" s="716"/>
+      <c r="Y7" s="716"/>
+      <c r="Z7" s="716"/>
+      <c r="AA7" s="716"/>
+      <c r="AB7" s="716"/>
+      <c r="AC7" s="716"/>
+      <c r="AD7" s="716"/>
+      <c r="AE7" s="716"/>
+      <c r="AF7" s="716"/>
+      <c r="AG7" s="716"/>
+      <c r="AH7" s="716"/>
+      <c r="AI7" s="716"/>
+      <c r="AJ7" s="716"/>
+      <c r="AK7" s="716"/>
+      <c r="AL7" s="716"/>
+      <c r="AM7" s="716"/>
+      <c r="AN7" s="716"/>
+      <c r="AO7" s="716"/>
+      <c r="AP7" s="716"/>
+      <c r="AQ7" s="717"/>
+      <c r="AR7" s="683" t="s">
         <v>371</v>
       </c>
-      <c r="AS7" s="688"/>
-      <c r="AT7" s="689"/>
-      <c r="AU7" s="702" t="s">
+      <c r="AS7" s="684"/>
+      <c r="AT7" s="685"/>
+      <c r="AU7" s="654" t="s">
         <v>333</v>
       </c>
       <c r="AY7" s="95"/>
       <c r="AZ7" s="95"/>
     </row>
     <row r="8" spans="1:52" ht="15" customHeight="1">
-      <c r="A8" s="674" t="s">
+      <c r="A8" s="712" t="s">
         <v>287</v>
       </c>
-      <c r="B8" s="675"/>
-      <c r="C8" s="678" t="s">
+      <c r="B8" s="713"/>
+      <c r="C8" s="657" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="681" t="s">
+      <c r="D8" s="660" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="684" t="s">
+      <c r="E8" s="663" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="642" t="s">
+      <c r="F8" s="666" t="s">
         <v>288</v>
       </c>
-      <c r="G8" s="645" t="s">
+      <c r="G8" s="720" t="s">
         <v>292</v>
       </c>
-      <c r="H8" s="646"/>
-      <c r="I8" s="646"/>
-      <c r="J8" s="646"/>
-      <c r="K8" s="647"/>
-      <c r="L8" s="647"/>
-      <c r="M8" s="647"/>
-      <c r="N8" s="647"/>
-      <c r="O8" s="647"/>
-      <c r="P8" s="648"/>
-      <c r="Q8" s="668" t="s">
+      <c r="H8" s="721"/>
+      <c r="I8" s="721"/>
+      <c r="J8" s="721"/>
+      <c r="K8" s="670"/>
+      <c r="L8" s="670"/>
+      <c r="M8" s="670"/>
+      <c r="N8" s="670"/>
+      <c r="O8" s="670"/>
+      <c r="P8" s="671"/>
+      <c r="Q8" s="695" t="s">
         <v>291</v>
       </c>
-      <c r="R8" s="669"/>
-      <c r="S8" s="669"/>
-      <c r="T8" s="669"/>
-      <c r="U8" s="669"/>
-      <c r="V8" s="669"/>
-      <c r="W8" s="669"/>
-      <c r="X8" s="669"/>
-      <c r="Y8" s="669"/>
-      <c r="Z8" s="669"/>
-      <c r="AA8" s="669"/>
-      <c r="AB8" s="669"/>
-      <c r="AC8" s="669"/>
-      <c r="AD8" s="669"/>
-      <c r="AE8" s="669"/>
-      <c r="AF8" s="669"/>
-      <c r="AG8" s="669"/>
-      <c r="AH8" s="669"/>
-      <c r="AI8" s="669"/>
-      <c r="AJ8" s="669"/>
-      <c r="AK8" s="669"/>
-      <c r="AL8" s="669"/>
-      <c r="AM8" s="669"/>
-      <c r="AN8" s="669"/>
-      <c r="AO8" s="670"/>
-      <c r="AP8" s="705" t="s">
+      <c r="R8" s="696"/>
+      <c r="S8" s="696"/>
+      <c r="T8" s="696"/>
+      <c r="U8" s="696"/>
+      <c r="V8" s="696"/>
+      <c r="W8" s="696"/>
+      <c r="X8" s="696"/>
+      <c r="Y8" s="696"/>
+      <c r="Z8" s="696"/>
+      <c r="AA8" s="696"/>
+      <c r="AB8" s="696"/>
+      <c r="AC8" s="696"/>
+      <c r="AD8" s="696"/>
+      <c r="AE8" s="696"/>
+      <c r="AF8" s="696"/>
+      <c r="AG8" s="696"/>
+      <c r="AH8" s="696"/>
+      <c r="AI8" s="696"/>
+      <c r="AJ8" s="696"/>
+      <c r="AK8" s="696"/>
+      <c r="AL8" s="696"/>
+      <c r="AM8" s="696"/>
+      <c r="AN8" s="696"/>
+      <c r="AO8" s="697"/>
+      <c r="AP8" s="672" t="s">
         <v>331</v>
       </c>
-      <c r="AQ8" s="699" t="s">
+      <c r="AQ8" s="675" t="s">
         <v>332</v>
       </c>
-      <c r="AR8" s="690"/>
-      <c r="AS8" s="691"/>
-      <c r="AT8" s="692"/>
-      <c r="AU8" s="703"/>
+      <c r="AR8" s="686"/>
+      <c r="AS8" s="687"/>
+      <c r="AT8" s="688"/>
+      <c r="AU8" s="655"/>
     </row>
     <row r="9" spans="1:52" ht="15" customHeight="1">
-      <c r="A9" s="619"/>
-      <c r="B9" s="676"/>
-      <c r="C9" s="679"/>
-      <c r="D9" s="682"/>
-      <c r="E9" s="685"/>
-      <c r="F9" s="643"/>
-      <c r="G9" s="649" t="s">
+      <c r="A9" s="641"/>
+      <c r="B9" s="714"/>
+      <c r="C9" s="658"/>
+      <c r="D9" s="661"/>
+      <c r="E9" s="664"/>
+      <c r="F9" s="718"/>
+      <c r="G9" s="678" t="s">
         <v>298</v>
       </c>
       <c r="H9" s="354"/>
-      <c r="I9" s="649" t="s">
+      <c r="I9" s="678" t="s">
         <v>299</v>
       </c>
       <c r="J9" s="354"/>
-      <c r="K9" s="651" t="s">
+      <c r="K9" s="722" t="s">
         <v>300</v>
       </c>
-      <c r="L9" s="654" t="s">
+      <c r="L9" s="645" t="s">
         <v>338</v>
       </c>
-      <c r="M9" s="654" t="s">
+      <c r="M9" s="645" t="s">
         <v>318</v>
       </c>
-      <c r="N9" s="636" t="s">
+      <c r="N9" s="648" t="s">
         <v>339</v>
       </c>
-      <c r="O9" s="657" t="s">
+      <c r="O9" s="680" t="s">
         <v>317</v>
       </c>
-      <c r="P9" s="662" t="s">
+      <c r="P9" s="701" t="s">
         <v>319</v>
       </c>
-      <c r="Q9" s="665" t="s">
+      <c r="Q9" s="704" t="s">
         <v>289</v>
       </c>
-      <c r="R9" s="633" t="s">
+      <c r="R9" s="707" t="s">
         <v>296</v>
       </c>
       <c r="S9" s="244"/>
-      <c r="T9" s="633" t="s">
+      <c r="T9" s="707" t="s">
         <v>302</v>
       </c>
       <c r="U9" s="245"/>
-      <c r="V9" s="633" t="s">
+      <c r="V9" s="707" t="s">
         <v>293</v>
       </c>
       <c r="W9" s="244"/>
-      <c r="X9" s="633" t="s">
+      <c r="X9" s="707" t="s">
         <v>294</v>
       </c>
       <c r="Y9" s="244"/>
-      <c r="Z9" s="633" t="s">
+      <c r="Z9" s="707" t="s">
         <v>295</v>
       </c>
       <c r="AA9" s="245"/>
-      <c r="AB9" s="636" t="s">
+      <c r="AB9" s="648" t="s">
         <v>366</v>
       </c>
       <c r="AC9" s="296"/>
-      <c r="AD9" s="639" t="s">
+      <c r="AD9" s="651" t="s">
         <v>365</v>
       </c>
-      <c r="AE9" s="636" t="s">
+      <c r="AE9" s="648" t="s">
         <v>367</v>
       </c>
       <c r="AF9" s="296"/>
-      <c r="AG9" s="639" t="s">
+      <c r="AG9" s="651" t="s">
         <v>364</v>
       </c>
-      <c r="AH9" s="654" t="s">
+      <c r="AH9" s="645" t="s">
         <v>368</v>
       </c>
-      <c r="AI9" s="654" t="s">
+      <c r="AI9" s="645" t="s">
         <v>320</v>
       </c>
-      <c r="AJ9" s="654" t="s">
+      <c r="AJ9" s="645" t="s">
         <v>321</v>
       </c>
-      <c r="AK9" s="671" t="s">
+      <c r="AK9" s="698" t="s">
         <v>369</v>
       </c>
-      <c r="AL9" s="654" t="s">
+      <c r="AL9" s="645" t="s">
         <v>370</v>
       </c>
-      <c r="AM9" s="654" t="s">
+      <c r="AM9" s="645" t="s">
         <v>342</v>
       </c>
-      <c r="AN9" s="654" t="s">
+      <c r="AN9" s="645" t="s">
         <v>343</v>
       </c>
-      <c r="AO9" s="696" t="s">
+      <c r="AO9" s="692" t="s">
         <v>330</v>
       </c>
-      <c r="AP9" s="706"/>
-      <c r="AQ9" s="700"/>
-      <c r="AR9" s="690"/>
-      <c r="AS9" s="691"/>
-      <c r="AT9" s="692"/>
-      <c r="AU9" s="703"/>
+      <c r="AP9" s="673"/>
+      <c r="AQ9" s="676"/>
+      <c r="AR9" s="686"/>
+      <c r="AS9" s="687"/>
+      <c r="AT9" s="688"/>
+      <c r="AU9" s="655"/>
     </row>
     <row r="10" spans="1:52" ht="15" customHeight="1">
-      <c r="A10" s="619"/>
-      <c r="B10" s="676"/>
-      <c r="C10" s="679"/>
-      <c r="D10" s="682"/>
-      <c r="E10" s="685"/>
-      <c r="F10" s="643"/>
-      <c r="G10" s="650"/>
+      <c r="A10" s="641"/>
+      <c r="B10" s="714"/>
+      <c r="C10" s="658"/>
+      <c r="D10" s="661"/>
+      <c r="E10" s="664"/>
+      <c r="F10" s="718"/>
+      <c r="G10" s="679"/>
       <c r="H10" s="355"/>
-      <c r="I10" s="650"/>
+      <c r="I10" s="679"/>
       <c r="J10" s="355"/>
-      <c r="K10" s="652"/>
-      <c r="L10" s="655"/>
-      <c r="M10" s="655"/>
-      <c r="N10" s="637"/>
-      <c r="O10" s="658"/>
-      <c r="P10" s="663"/>
-      <c r="Q10" s="666"/>
-      <c r="R10" s="634"/>
+      <c r="K10" s="723"/>
+      <c r="L10" s="646"/>
+      <c r="M10" s="646"/>
+      <c r="N10" s="649"/>
+      <c r="O10" s="681"/>
+      <c r="P10" s="702"/>
+      <c r="Q10" s="705"/>
+      <c r="R10" s="708"/>
       <c r="S10" s="287"/>
-      <c r="T10" s="634"/>
+      <c r="T10" s="708"/>
       <c r="U10" s="289"/>
-      <c r="V10" s="634"/>
+      <c r="V10" s="708"/>
       <c r="W10" s="287"/>
-      <c r="X10" s="634"/>
+      <c r="X10" s="708"/>
       <c r="Y10" s="287"/>
-      <c r="Z10" s="634"/>
+      <c r="Z10" s="708"/>
       <c r="AA10" s="289"/>
-      <c r="AB10" s="637"/>
+      <c r="AB10" s="649"/>
       <c r="AC10" s="343"/>
-      <c r="AD10" s="640"/>
-      <c r="AE10" s="637"/>
+      <c r="AD10" s="652"/>
+      <c r="AE10" s="649"/>
       <c r="AF10" s="343"/>
-      <c r="AG10" s="640"/>
-      <c r="AH10" s="655"/>
-      <c r="AI10" s="655"/>
-      <c r="AJ10" s="655"/>
-      <c r="AK10" s="672"/>
-      <c r="AL10" s="655"/>
-      <c r="AM10" s="655"/>
-      <c r="AN10" s="655"/>
-      <c r="AO10" s="697"/>
-      <c r="AP10" s="706"/>
-      <c r="AQ10" s="700"/>
-      <c r="AR10" s="693"/>
-      <c r="AS10" s="694"/>
-      <c r="AT10" s="695"/>
-      <c r="AU10" s="703"/>
+      <c r="AG10" s="652"/>
+      <c r="AH10" s="646"/>
+      <c r="AI10" s="646"/>
+      <c r="AJ10" s="646"/>
+      <c r="AK10" s="699"/>
+      <c r="AL10" s="646"/>
+      <c r="AM10" s="646"/>
+      <c r="AN10" s="646"/>
+      <c r="AO10" s="693"/>
+      <c r="AP10" s="673"/>
+      <c r="AQ10" s="676"/>
+      <c r="AR10" s="689"/>
+      <c r="AS10" s="690"/>
+      <c r="AT10" s="691"/>
+      <c r="AU10" s="655"/>
     </row>
     <row r="11" spans="1:52" ht="15.75" customHeight="1">
-      <c r="A11" s="619"/>
-      <c r="B11" s="676"/>
-      <c r="C11" s="680"/>
-      <c r="D11" s="683"/>
-      <c r="E11" s="686"/>
-      <c r="F11" s="644"/>
-      <c r="G11" s="650"/>
+      <c r="A11" s="641"/>
+      <c r="B11" s="714"/>
+      <c r="C11" s="659"/>
+      <c r="D11" s="662"/>
+      <c r="E11" s="665"/>
+      <c r="F11" s="719"/>
+      <c r="G11" s="679"/>
       <c r="H11" s="355" t="s">
         <v>301</v>
       </c>
-      <c r="I11" s="650"/>
+      <c r="I11" s="679"/>
       <c r="J11" s="355" t="s">
         <v>301</v>
       </c>
-      <c r="K11" s="653"/>
-      <c r="L11" s="656"/>
-      <c r="M11" s="656"/>
-      <c r="N11" s="638"/>
-      <c r="O11" s="659"/>
-      <c r="P11" s="664"/>
-      <c r="Q11" s="667"/>
-      <c r="R11" s="635"/>
+      <c r="K11" s="724"/>
+      <c r="L11" s="647"/>
+      <c r="M11" s="647"/>
+      <c r="N11" s="650"/>
+      <c r="O11" s="682"/>
+      <c r="P11" s="703"/>
+      <c r="Q11" s="706"/>
+      <c r="R11" s="709"/>
       <c r="S11" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="T11" s="635"/>
+      <c r="T11" s="709"/>
       <c r="U11" s="289" t="s">
         <v>301</v>
       </c>
-      <c r="V11" s="635"/>
+      <c r="V11" s="709"/>
       <c r="W11" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="X11" s="635"/>
+      <c r="X11" s="709"/>
       <c r="Y11" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="Z11" s="635"/>
+      <c r="Z11" s="709"/>
       <c r="AA11" s="289" t="s">
         <v>301</v>
       </c>
-      <c r="AB11" s="638"/>
+      <c r="AB11" s="650"/>
       <c r="AC11" s="297" t="s">
         <v>301</v>
       </c>
-      <c r="AD11" s="641"/>
-      <c r="AE11" s="638"/>
+      <c r="AD11" s="653"/>
+      <c r="AE11" s="650"/>
       <c r="AF11" s="297" t="s">
         <v>301</v>
       </c>
-      <c r="AG11" s="641"/>
-      <c r="AH11" s="656"/>
-      <c r="AI11" s="656"/>
-      <c r="AJ11" s="656"/>
-      <c r="AK11" s="673"/>
-      <c r="AL11" s="656"/>
-      <c r="AM11" s="656"/>
-      <c r="AN11" s="656"/>
-      <c r="AO11" s="698"/>
-      <c r="AP11" s="707"/>
-      <c r="AQ11" s="701"/>
+      <c r="AG11" s="653"/>
+      <c r="AH11" s="647"/>
+      <c r="AI11" s="647"/>
+      <c r="AJ11" s="647"/>
+      <c r="AK11" s="700"/>
+      <c r="AL11" s="647"/>
+      <c r="AM11" s="647"/>
+      <c r="AN11" s="647"/>
+      <c r="AO11" s="694"/>
+      <c r="AP11" s="674"/>
+      <c r="AQ11" s="677"/>
       <c r="AR11" s="307" t="s">
         <v>334</v>
       </c>
@@ -18211,14 +18355,14 @@
       <c r="AT11" s="308" t="s">
         <v>336</v>
       </c>
-      <c r="AU11" s="704"/>
+      <c r="AU11" s="656"/>
       <c r="AV11" s="276" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:52">
-      <c r="A12" s="619"/>
-      <c r="B12" s="676"/>
+      <c r="A12" s="641"/>
+      <c r="B12" s="714"/>
       <c r="C12" s="295">
         <v>60</v>
       </c>
@@ -18389,8 +18533,8 @@
       <c r="AV12" s="276"/>
     </row>
     <row r="13" spans="1:52">
-      <c r="A13" s="619"/>
-      <c r="B13" s="676"/>
+      <c r="A13" s="641"/>
+      <c r="B13" s="714"/>
       <c r="C13" s="295">
         <v>60</v>
       </c>
@@ -18564,8 +18708,8 @@
       </c>
     </row>
     <row r="14" spans="1:52">
-      <c r="A14" s="621"/>
-      <c r="B14" s="677"/>
+      <c r="A14" s="643"/>
+      <c r="B14" s="715"/>
       <c r="C14" s="294">
         <v>60</v>
       </c>
@@ -20495,341 +20639,341 @@
       <c r="E32" s="319"/>
     </row>
     <row r="33" spans="1:47" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A33" s="660" t="s">
+      <c r="A33" s="710" t="s">
         <v>375</v>
       </c>
-      <c r="B33" s="661"/>
-      <c r="C33" s="631" t="s">
+      <c r="B33" s="711"/>
+      <c r="C33" s="716" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="631"/>
-      <c r="E33" s="631"/>
-      <c r="F33" s="631"/>
-      <c r="G33" s="631"/>
-      <c r="H33" s="631"/>
-      <c r="I33" s="631"/>
-      <c r="J33" s="631"/>
-      <c r="K33" s="631"/>
-      <c r="L33" s="631"/>
-      <c r="M33" s="631"/>
-      <c r="N33" s="631"/>
-      <c r="O33" s="631"/>
-      <c r="P33" s="631"/>
-      <c r="Q33" s="631"/>
-      <c r="R33" s="631"/>
-      <c r="S33" s="631"/>
-      <c r="T33" s="631"/>
-      <c r="U33" s="631"/>
-      <c r="V33" s="631"/>
-      <c r="W33" s="631"/>
-      <c r="X33" s="631"/>
-      <c r="Y33" s="631"/>
-      <c r="Z33" s="631"/>
-      <c r="AA33" s="631"/>
-      <c r="AB33" s="631"/>
-      <c r="AC33" s="631"/>
-      <c r="AD33" s="631"/>
-      <c r="AE33" s="631"/>
-      <c r="AF33" s="631"/>
-      <c r="AG33" s="631"/>
-      <c r="AH33" s="631"/>
-      <c r="AI33" s="631"/>
-      <c r="AJ33" s="631"/>
-      <c r="AK33" s="631"/>
-      <c r="AL33" s="631"/>
-      <c r="AM33" s="631"/>
-      <c r="AN33" s="631"/>
-      <c r="AO33" s="631"/>
-      <c r="AP33" s="631"/>
-      <c r="AQ33" s="632"/>
-      <c r="AR33" s="687" t="s">
+      <c r="D33" s="716"/>
+      <c r="E33" s="716"/>
+      <c r="F33" s="716"/>
+      <c r="G33" s="716"/>
+      <c r="H33" s="716"/>
+      <c r="I33" s="716"/>
+      <c r="J33" s="716"/>
+      <c r="K33" s="716"/>
+      <c r="L33" s="716"/>
+      <c r="M33" s="716"/>
+      <c r="N33" s="716"/>
+      <c r="O33" s="716"/>
+      <c r="P33" s="716"/>
+      <c r="Q33" s="716"/>
+      <c r="R33" s="716"/>
+      <c r="S33" s="716"/>
+      <c r="T33" s="716"/>
+      <c r="U33" s="716"/>
+      <c r="V33" s="716"/>
+      <c r="W33" s="716"/>
+      <c r="X33" s="716"/>
+      <c r="Y33" s="716"/>
+      <c r="Z33" s="716"/>
+      <c r="AA33" s="716"/>
+      <c r="AB33" s="716"/>
+      <c r="AC33" s="716"/>
+      <c r="AD33" s="716"/>
+      <c r="AE33" s="716"/>
+      <c r="AF33" s="716"/>
+      <c r="AG33" s="716"/>
+      <c r="AH33" s="716"/>
+      <c r="AI33" s="716"/>
+      <c r="AJ33" s="716"/>
+      <c r="AK33" s="716"/>
+      <c r="AL33" s="716"/>
+      <c r="AM33" s="716"/>
+      <c r="AN33" s="716"/>
+      <c r="AO33" s="716"/>
+      <c r="AP33" s="716"/>
+      <c r="AQ33" s="717"/>
+      <c r="AR33" s="683" t="s">
         <v>371</v>
       </c>
-      <c r="AS33" s="688"/>
-      <c r="AT33" s="689"/>
-      <c r="AU33" s="702" t="s">
+      <c r="AS33" s="684"/>
+      <c r="AT33" s="685"/>
+      <c r="AU33" s="654" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:47" ht="15" customHeight="1">
-      <c r="A34" s="674" t="s">
+      <c r="A34" s="712" t="s">
         <v>374</v>
       </c>
-      <c r="B34" s="675"/>
-      <c r="C34" s="678" t="s">
+      <c r="B34" s="713"/>
+      <c r="C34" s="657" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="681" t="s">
+      <c r="D34" s="660" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="684" t="s">
+      <c r="E34" s="663" t="s">
         <v>122</v>
       </c>
-      <c r="F34" s="642" t="s">
+      <c r="F34" s="666" t="s">
         <v>288</v>
       </c>
-      <c r="G34" s="710" t="s">
+      <c r="G34" s="669" t="s">
         <v>292</v>
       </c>
-      <c r="H34" s="647"/>
-      <c r="I34" s="647"/>
-      <c r="J34" s="647"/>
-      <c r="K34" s="647"/>
-      <c r="L34" s="647"/>
-      <c r="M34" s="647"/>
-      <c r="N34" s="647"/>
-      <c r="O34" s="647"/>
-      <c r="P34" s="648"/>
-      <c r="Q34" s="668" t="s">
+      <c r="H34" s="670"/>
+      <c r="I34" s="670"/>
+      <c r="J34" s="670"/>
+      <c r="K34" s="670"/>
+      <c r="L34" s="670"/>
+      <c r="M34" s="670"/>
+      <c r="N34" s="670"/>
+      <c r="O34" s="670"/>
+      <c r="P34" s="671"/>
+      <c r="Q34" s="695" t="s">
         <v>291</v>
       </c>
-      <c r="R34" s="669"/>
-      <c r="S34" s="669"/>
-      <c r="T34" s="669"/>
-      <c r="U34" s="669"/>
-      <c r="V34" s="669"/>
-      <c r="W34" s="669"/>
-      <c r="X34" s="669"/>
-      <c r="Y34" s="669"/>
-      <c r="Z34" s="669"/>
-      <c r="AA34" s="669"/>
-      <c r="AB34" s="669"/>
-      <c r="AC34" s="669"/>
-      <c r="AD34" s="669"/>
-      <c r="AE34" s="669"/>
-      <c r="AF34" s="669"/>
-      <c r="AG34" s="669"/>
-      <c r="AH34" s="669"/>
-      <c r="AI34" s="669"/>
-      <c r="AJ34" s="669"/>
-      <c r="AK34" s="669"/>
-      <c r="AL34" s="669"/>
-      <c r="AM34" s="669"/>
-      <c r="AN34" s="669"/>
-      <c r="AO34" s="670"/>
-      <c r="AP34" s="705" t="s">
+      <c r="R34" s="696"/>
+      <c r="S34" s="696"/>
+      <c r="T34" s="696"/>
+      <c r="U34" s="696"/>
+      <c r="V34" s="696"/>
+      <c r="W34" s="696"/>
+      <c r="X34" s="696"/>
+      <c r="Y34" s="696"/>
+      <c r="Z34" s="696"/>
+      <c r="AA34" s="696"/>
+      <c r="AB34" s="696"/>
+      <c r="AC34" s="696"/>
+      <c r="AD34" s="696"/>
+      <c r="AE34" s="696"/>
+      <c r="AF34" s="696"/>
+      <c r="AG34" s="696"/>
+      <c r="AH34" s="696"/>
+      <c r="AI34" s="696"/>
+      <c r="AJ34" s="696"/>
+      <c r="AK34" s="696"/>
+      <c r="AL34" s="696"/>
+      <c r="AM34" s="696"/>
+      <c r="AN34" s="696"/>
+      <c r="AO34" s="697"/>
+      <c r="AP34" s="672" t="s">
         <v>331</v>
       </c>
-      <c r="AQ34" s="699" t="s">
+      <c r="AQ34" s="675" t="s">
         <v>332</v>
       </c>
-      <c r="AR34" s="690"/>
-      <c r="AS34" s="691"/>
-      <c r="AT34" s="692"/>
-      <c r="AU34" s="703"/>
+      <c r="AR34" s="686"/>
+      <c r="AS34" s="687"/>
+      <c r="AT34" s="688"/>
+      <c r="AU34" s="655"/>
     </row>
     <row r="35" spans="1:47" ht="15" customHeight="1">
-      <c r="A35" s="619"/>
-      <c r="B35" s="676"/>
-      <c r="C35" s="679"/>
-      <c r="D35" s="682"/>
-      <c r="E35" s="685"/>
-      <c r="F35" s="708"/>
-      <c r="G35" s="649" t="s">
+      <c r="A35" s="641"/>
+      <c r="B35" s="714"/>
+      <c r="C35" s="658"/>
+      <c r="D35" s="661"/>
+      <c r="E35" s="664"/>
+      <c r="F35" s="667"/>
+      <c r="G35" s="678" t="s">
         <v>298</v>
       </c>
       <c r="H35" s="354"/>
-      <c r="I35" s="649" t="s">
+      <c r="I35" s="678" t="s">
         <v>299</v>
       </c>
       <c r="J35" s="354"/>
-      <c r="K35" s="657" t="s">
+      <c r="K35" s="680" t="s">
         <v>300</v>
       </c>
-      <c r="L35" s="654" t="s">
+      <c r="L35" s="645" t="s">
         <v>338</v>
       </c>
-      <c r="M35" s="654" t="s">
+      <c r="M35" s="645" t="s">
         <v>318</v>
       </c>
-      <c r="N35" s="636" t="s">
+      <c r="N35" s="648" t="s">
         <v>339</v>
       </c>
-      <c r="O35" s="657" t="s">
+      <c r="O35" s="680" t="s">
         <v>317</v>
       </c>
-      <c r="P35" s="662" t="s">
+      <c r="P35" s="701" t="s">
         <v>319</v>
       </c>
-      <c r="Q35" s="665" t="s">
+      <c r="Q35" s="704" t="s">
         <v>289</v>
       </c>
-      <c r="R35" s="633" t="s">
+      <c r="R35" s="707" t="s">
         <v>296</v>
       </c>
       <c r="S35" s="244"/>
-      <c r="T35" s="633" t="s">
+      <c r="T35" s="707" t="s">
         <v>302</v>
       </c>
       <c r="U35" s="245"/>
-      <c r="V35" s="633" t="s">
+      <c r="V35" s="707" t="s">
         <v>293</v>
       </c>
       <c r="W35" s="244"/>
-      <c r="X35" s="633" t="s">
+      <c r="X35" s="707" t="s">
         <v>294</v>
       </c>
       <c r="Y35" s="244"/>
-      <c r="Z35" s="633" t="s">
+      <c r="Z35" s="707" t="s">
         <v>295</v>
       </c>
       <c r="AA35" s="245"/>
-      <c r="AB35" s="636" t="s">
+      <c r="AB35" s="648" t="s">
         <v>366</v>
       </c>
       <c r="AC35" s="296"/>
-      <c r="AD35" s="639" t="s">
+      <c r="AD35" s="651" t="s">
         <v>365</v>
       </c>
-      <c r="AE35" s="636" t="s">
+      <c r="AE35" s="648" t="s">
         <v>367</v>
       </c>
       <c r="AF35" s="296"/>
-      <c r="AG35" s="639" t="s">
+      <c r="AG35" s="651" t="s">
         <v>364</v>
       </c>
-      <c r="AH35" s="654" t="s">
+      <c r="AH35" s="645" t="s">
         <v>368</v>
       </c>
-      <c r="AI35" s="654" t="s">
+      <c r="AI35" s="645" t="s">
         <v>320</v>
       </c>
-      <c r="AJ35" s="654" t="s">
+      <c r="AJ35" s="645" t="s">
         <v>321</v>
       </c>
-      <c r="AK35" s="671" t="s">
+      <c r="AK35" s="698" t="s">
         <v>369</v>
       </c>
-      <c r="AL35" s="654" t="s">
+      <c r="AL35" s="645" t="s">
         <v>370</v>
       </c>
-      <c r="AM35" s="654" t="s">
+      <c r="AM35" s="645" t="s">
         <v>342</v>
       </c>
-      <c r="AN35" s="654" t="s">
+      <c r="AN35" s="645" t="s">
         <v>343</v>
       </c>
-      <c r="AO35" s="696" t="s">
+      <c r="AO35" s="692" t="s">
         <v>330</v>
       </c>
-      <c r="AP35" s="706"/>
-      <c r="AQ35" s="700"/>
-      <c r="AR35" s="690"/>
-      <c r="AS35" s="691"/>
-      <c r="AT35" s="692"/>
-      <c r="AU35" s="703"/>
+      <c r="AP35" s="673"/>
+      <c r="AQ35" s="676"/>
+      <c r="AR35" s="686"/>
+      <c r="AS35" s="687"/>
+      <c r="AT35" s="688"/>
+      <c r="AU35" s="655"/>
     </row>
     <row r="36" spans="1:47" ht="15" customHeight="1">
-      <c r="A36" s="619"/>
-      <c r="B36" s="676"/>
-      <c r="C36" s="679"/>
-      <c r="D36" s="682"/>
-      <c r="E36" s="685"/>
-      <c r="F36" s="708"/>
-      <c r="G36" s="650"/>
+      <c r="A36" s="641"/>
+      <c r="B36" s="714"/>
+      <c r="C36" s="658"/>
+      <c r="D36" s="661"/>
+      <c r="E36" s="664"/>
+      <c r="F36" s="667"/>
+      <c r="G36" s="679"/>
       <c r="H36" s="355"/>
-      <c r="I36" s="650"/>
+      <c r="I36" s="679"/>
       <c r="J36" s="355"/>
-      <c r="K36" s="658"/>
-      <c r="L36" s="655"/>
-      <c r="M36" s="655"/>
-      <c r="N36" s="637"/>
-      <c r="O36" s="658"/>
-      <c r="P36" s="663"/>
-      <c r="Q36" s="666"/>
-      <c r="R36" s="634"/>
+      <c r="K36" s="681"/>
+      <c r="L36" s="646"/>
+      <c r="M36" s="646"/>
+      <c r="N36" s="649"/>
+      <c r="O36" s="681"/>
+      <c r="P36" s="702"/>
+      <c r="Q36" s="705"/>
+      <c r="R36" s="708"/>
       <c r="S36" s="287"/>
-      <c r="T36" s="634"/>
+      <c r="T36" s="708"/>
       <c r="U36" s="289"/>
-      <c r="V36" s="634"/>
+      <c r="V36" s="708"/>
       <c r="W36" s="287"/>
-      <c r="X36" s="634"/>
+      <c r="X36" s="708"/>
       <c r="Y36" s="287"/>
-      <c r="Z36" s="634"/>
+      <c r="Z36" s="708"/>
       <c r="AA36" s="289"/>
-      <c r="AB36" s="637"/>
+      <c r="AB36" s="649"/>
       <c r="AC36" s="343"/>
-      <c r="AD36" s="640"/>
-      <c r="AE36" s="637"/>
+      <c r="AD36" s="652"/>
+      <c r="AE36" s="649"/>
       <c r="AF36" s="343"/>
-      <c r="AG36" s="640"/>
-      <c r="AH36" s="655"/>
-      <c r="AI36" s="655"/>
-      <c r="AJ36" s="655"/>
-      <c r="AK36" s="672"/>
-      <c r="AL36" s="655"/>
-      <c r="AM36" s="655"/>
-      <c r="AN36" s="655"/>
-      <c r="AO36" s="697"/>
-      <c r="AP36" s="706"/>
-      <c r="AQ36" s="700"/>
-      <c r="AR36" s="693"/>
-      <c r="AS36" s="694"/>
-      <c r="AT36" s="695"/>
-      <c r="AU36" s="703"/>
+      <c r="AG36" s="652"/>
+      <c r="AH36" s="646"/>
+      <c r="AI36" s="646"/>
+      <c r="AJ36" s="646"/>
+      <c r="AK36" s="699"/>
+      <c r="AL36" s="646"/>
+      <c r="AM36" s="646"/>
+      <c r="AN36" s="646"/>
+      <c r="AO36" s="693"/>
+      <c r="AP36" s="673"/>
+      <c r="AQ36" s="676"/>
+      <c r="AR36" s="689"/>
+      <c r="AS36" s="690"/>
+      <c r="AT36" s="691"/>
+      <c r="AU36" s="655"/>
     </row>
     <row r="37" spans="1:47" ht="15.75">
-      <c r="A37" s="619"/>
-      <c r="B37" s="676"/>
-      <c r="C37" s="680"/>
-      <c r="D37" s="683"/>
-      <c r="E37" s="686"/>
-      <c r="F37" s="709"/>
-      <c r="G37" s="650"/>
+      <c r="A37" s="641"/>
+      <c r="B37" s="714"/>
+      <c r="C37" s="659"/>
+      <c r="D37" s="662"/>
+      <c r="E37" s="665"/>
+      <c r="F37" s="668"/>
+      <c r="G37" s="679"/>
       <c r="H37" s="355" t="s">
         <v>301</v>
       </c>
-      <c r="I37" s="650"/>
+      <c r="I37" s="679"/>
       <c r="J37" s="355" t="s">
         <v>301</v>
       </c>
-      <c r="K37" s="659"/>
-      <c r="L37" s="656"/>
-      <c r="M37" s="656"/>
-      <c r="N37" s="638"/>
-      <c r="O37" s="659"/>
-      <c r="P37" s="664"/>
-      <c r="Q37" s="667"/>
-      <c r="R37" s="635"/>
+      <c r="K37" s="682"/>
+      <c r="L37" s="647"/>
+      <c r="M37" s="647"/>
+      <c r="N37" s="650"/>
+      <c r="O37" s="682"/>
+      <c r="P37" s="703"/>
+      <c r="Q37" s="706"/>
+      <c r="R37" s="709"/>
       <c r="S37" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="T37" s="635"/>
+      <c r="T37" s="709"/>
       <c r="U37" s="289" t="s">
         <v>301</v>
       </c>
-      <c r="V37" s="635"/>
+      <c r="V37" s="709"/>
       <c r="W37" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="X37" s="635"/>
+      <c r="X37" s="709"/>
       <c r="Y37" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="Z37" s="635"/>
+      <c r="Z37" s="709"/>
       <c r="AA37" s="289" t="s">
         <v>301</v>
       </c>
-      <c r="AB37" s="638"/>
+      <c r="AB37" s="650"/>
       <c r="AC37" s="297" t="s">
         <v>301</v>
       </c>
-      <c r="AD37" s="641"/>
-      <c r="AE37" s="638"/>
+      <c r="AD37" s="653"/>
+      <c r="AE37" s="650"/>
       <c r="AF37" s="297" t="s">
         <v>301</v>
       </c>
-      <c r="AG37" s="641"/>
-      <c r="AH37" s="656"/>
-      <c r="AI37" s="656"/>
-      <c r="AJ37" s="656"/>
-      <c r="AK37" s="673"/>
-      <c r="AL37" s="656"/>
-      <c r="AM37" s="656"/>
-      <c r="AN37" s="656"/>
-      <c r="AO37" s="698"/>
-      <c r="AP37" s="707"/>
-      <c r="AQ37" s="701"/>
+      <c r="AG37" s="653"/>
+      <c r="AH37" s="647"/>
+      <c r="AI37" s="647"/>
+      <c r="AJ37" s="647"/>
+      <c r="AK37" s="700"/>
+      <c r="AL37" s="647"/>
+      <c r="AM37" s="647"/>
+      <c r="AN37" s="647"/>
+      <c r="AO37" s="694"/>
+      <c r="AP37" s="674"/>
+      <c r="AQ37" s="677"/>
       <c r="AR37" s="307" t="s">
         <v>334</v>
       </c>
@@ -20839,11 +20983,11 @@
       <c r="AT37" s="308" t="s">
         <v>336</v>
       </c>
-      <c r="AU37" s="704"/>
+      <c r="AU37" s="656"/>
     </row>
     <row r="38" spans="1:47">
-      <c r="A38" s="619"/>
-      <c r="B38" s="676"/>
+      <c r="A38" s="641"/>
+      <c r="B38" s="714"/>
       <c r="C38" s="295">
         <v>60</v>
       </c>
@@ -21013,8 +21157,8 @@
       </c>
     </row>
     <row r="39" spans="1:47">
-      <c r="A39" s="619"/>
-      <c r="B39" s="676"/>
+      <c r="A39" s="641"/>
+      <c r="B39" s="714"/>
       <c r="C39" s="345">
         <v>60</v>
       </c>
@@ -21103,8 +21247,8 @@
       <c r="AU39" s="306"/>
     </row>
     <row r="40" spans="1:47">
-      <c r="A40" s="621"/>
-      <c r="B40" s="677"/>
+      <c r="A40" s="643"/>
+      <c r="B40" s="715"/>
       <c r="C40" s="345">
         <v>60</v>
       </c>
@@ -21374,11 +21518,64 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="79">
-    <mergeCell ref="AM35:AM37"/>
-    <mergeCell ref="AN35:AN37"/>
-    <mergeCell ref="AB35:AB37"/>
-    <mergeCell ref="AD35:AD37"/>
-    <mergeCell ref="AE35:AE37"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="C7:AQ7"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="X9:X11"/>
+    <mergeCell ref="Z9:Z11"/>
+    <mergeCell ref="AB9:AB11"/>
+    <mergeCell ref="AD9:AD11"/>
+    <mergeCell ref="AE9:AE11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G8:P8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:AQ33"/>
+    <mergeCell ref="P35:P37"/>
+    <mergeCell ref="Q35:Q37"/>
+    <mergeCell ref="R35:R37"/>
+    <mergeCell ref="T35:T37"/>
+    <mergeCell ref="V35:V37"/>
+    <mergeCell ref="Q34:AO34"/>
+    <mergeCell ref="AG35:AG37"/>
+    <mergeCell ref="AH35:AH37"/>
+    <mergeCell ref="AI35:AI37"/>
+    <mergeCell ref="AJ35:AJ37"/>
+    <mergeCell ref="AK35:AK37"/>
+    <mergeCell ref="X35:X37"/>
+    <mergeCell ref="Z35:Z37"/>
+    <mergeCell ref="A34:B40"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B14"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="Q9:Q11"/>
+    <mergeCell ref="R9:R11"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="AR33:AT36"/>
+    <mergeCell ref="AO35:AO37"/>
+    <mergeCell ref="AQ8:AQ11"/>
+    <mergeCell ref="AU7:AU11"/>
+    <mergeCell ref="Q8:AO8"/>
+    <mergeCell ref="AL9:AL11"/>
+    <mergeCell ref="AM9:AM11"/>
+    <mergeCell ref="AN9:AN11"/>
+    <mergeCell ref="AO9:AO11"/>
+    <mergeCell ref="AP8:AP11"/>
+    <mergeCell ref="AG9:AG11"/>
+    <mergeCell ref="AH9:AH11"/>
+    <mergeCell ref="AI9:AI11"/>
+    <mergeCell ref="AJ9:AJ11"/>
+    <mergeCell ref="AK9:AK11"/>
+    <mergeCell ref="AR7:AT10"/>
     <mergeCell ref="N35:N37"/>
     <mergeCell ref="AU33:AU37"/>
     <mergeCell ref="C34:C37"/>
@@ -21395,64 +21592,11 @@
     <mergeCell ref="M35:M37"/>
     <mergeCell ref="O35:O37"/>
     <mergeCell ref="AL35:AL37"/>
-    <mergeCell ref="AR33:AT36"/>
-    <mergeCell ref="AO35:AO37"/>
-    <mergeCell ref="AQ8:AQ11"/>
-    <mergeCell ref="AU7:AU11"/>
-    <mergeCell ref="Q8:AO8"/>
-    <mergeCell ref="AL9:AL11"/>
-    <mergeCell ref="AM9:AM11"/>
-    <mergeCell ref="AN9:AN11"/>
-    <mergeCell ref="AO9:AO11"/>
-    <mergeCell ref="AP8:AP11"/>
-    <mergeCell ref="AG9:AG11"/>
-    <mergeCell ref="AH9:AH11"/>
-    <mergeCell ref="AI9:AI11"/>
-    <mergeCell ref="AJ9:AJ11"/>
-    <mergeCell ref="AK9:AK11"/>
-    <mergeCell ref="AR7:AT10"/>
-    <mergeCell ref="N9:N11"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="Q9:Q11"/>
-    <mergeCell ref="R9:R11"/>
-    <mergeCell ref="T9:T11"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B14"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:AQ33"/>
-    <mergeCell ref="P35:P37"/>
-    <mergeCell ref="Q35:Q37"/>
-    <mergeCell ref="R35:R37"/>
-    <mergeCell ref="T35:T37"/>
-    <mergeCell ref="V35:V37"/>
-    <mergeCell ref="Q34:AO34"/>
-    <mergeCell ref="AG35:AG37"/>
-    <mergeCell ref="AH35:AH37"/>
-    <mergeCell ref="AI35:AI37"/>
-    <mergeCell ref="AJ35:AJ37"/>
-    <mergeCell ref="AK35:AK37"/>
-    <mergeCell ref="X35:X37"/>
-    <mergeCell ref="Z35:Z37"/>
-    <mergeCell ref="A34:B40"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="C7:AQ7"/>
-    <mergeCell ref="V9:V11"/>
-    <mergeCell ref="X9:X11"/>
-    <mergeCell ref="Z9:Z11"/>
-    <mergeCell ref="AB9:AB11"/>
-    <mergeCell ref="AD9:AD11"/>
-    <mergeCell ref="AE9:AE11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="G8:P8"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="AM35:AM37"/>
+    <mergeCell ref="AN35:AN37"/>
+    <mergeCell ref="AB35:AB37"/>
+    <mergeCell ref="AD35:AD37"/>
+    <mergeCell ref="AE35:AE37"/>
   </mergeCells>
   <conditionalFormatting sqref="M38:M42 M12:M24">
     <cfRule type="expression" dxfId="3" priority="15">
@@ -21565,30 +21709,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="24" thickBot="1">
-      <c r="A1" s="607" t="s">
+      <c r="A1" s="633" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="608"/>
-      <c r="C1" s="608"/>
-      <c r="D1" s="608"/>
-      <c r="E1" s="608"/>
-      <c r="F1" s="608"/>
-      <c r="G1" s="608"/>
-      <c r="H1" s="608"/>
-      <c r="I1" s="608"/>
-      <c r="J1" s="608"/>
-      <c r="K1" s="608"/>
-      <c r="L1" s="608"/>
-      <c r="M1" s="608"/>
-      <c r="N1" s="608"/>
-      <c r="O1" s="608"/>
-      <c r="P1" s="608"/>
-      <c r="Q1" s="608"/>
-      <c r="R1" s="608"/>
-      <c r="S1" s="608"/>
-      <c r="T1" s="608"/>
-      <c r="U1" s="608"/>
-      <c r="V1" s="609"/>
+      <c r="B1" s="634"/>
+      <c r="C1" s="634"/>
+      <c r="D1" s="634"/>
+      <c r="E1" s="634"/>
+      <c r="F1" s="634"/>
+      <c r="G1" s="634"/>
+      <c r="H1" s="634"/>
+      <c r="I1" s="634"/>
+      <c r="J1" s="634"/>
+      <c r="K1" s="634"/>
+      <c r="L1" s="634"/>
+      <c r="M1" s="634"/>
+      <c r="N1" s="634"/>
+      <c r="O1" s="634"/>
+      <c r="P1" s="634"/>
+      <c r="Q1" s="634"/>
+      <c r="R1" s="634"/>
+      <c r="S1" s="634"/>
+      <c r="T1" s="634"/>
+      <c r="U1" s="634"/>
+      <c r="V1" s="635"/>
     </row>
     <row r="2" spans="1:51">
       <c r="N2" t="s">
@@ -21650,343 +21794,343 @@
     </row>
     <row r="6" spans="1:51" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:51" ht="19.5" thickBot="1">
-      <c r="A7" s="660" t="s">
+      <c r="A7" s="710" t="s">
         <v>386</v>
       </c>
-      <c r="B7" s="661"/>
-      <c r="C7" s="631" t="s">
+      <c r="B7" s="711"/>
+      <c r="C7" s="716" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="631"/>
-      <c r="E7" s="631"/>
-      <c r="F7" s="631"/>
-      <c r="G7" s="631"/>
-      <c r="H7" s="631"/>
-      <c r="I7" s="631"/>
-      <c r="J7" s="631"/>
-      <c r="K7" s="631"/>
-      <c r="L7" s="631"/>
-      <c r="M7" s="631"/>
-      <c r="N7" s="631"/>
-      <c r="O7" s="631"/>
-      <c r="P7" s="631"/>
-      <c r="Q7" s="631"/>
-      <c r="R7" s="631"/>
-      <c r="S7" s="631"/>
-      <c r="T7" s="631"/>
-      <c r="U7" s="631"/>
-      <c r="V7" s="631"/>
-      <c r="W7" s="631"/>
-      <c r="X7" s="631"/>
-      <c r="Y7" s="631"/>
-      <c r="Z7" s="631"/>
-      <c r="AA7" s="631"/>
-      <c r="AB7" s="631"/>
-      <c r="AC7" s="631"/>
-      <c r="AD7" s="631"/>
-      <c r="AE7" s="631"/>
-      <c r="AF7" s="631"/>
-      <c r="AG7" s="631"/>
-      <c r="AH7" s="631"/>
-      <c r="AI7" s="631"/>
-      <c r="AJ7" s="631"/>
-      <c r="AK7" s="631"/>
-      <c r="AL7" s="631"/>
-      <c r="AM7" s="631"/>
-      <c r="AN7" s="631"/>
-      <c r="AO7" s="631"/>
-      <c r="AP7" s="631"/>
-      <c r="AQ7" s="632"/>
-      <c r="AR7" s="687" t="s">
+      <c r="D7" s="716"/>
+      <c r="E7" s="716"/>
+      <c r="F7" s="716"/>
+      <c r="G7" s="716"/>
+      <c r="H7" s="716"/>
+      <c r="I7" s="716"/>
+      <c r="J7" s="716"/>
+      <c r="K7" s="716"/>
+      <c r="L7" s="716"/>
+      <c r="M7" s="716"/>
+      <c r="N7" s="716"/>
+      <c r="O7" s="716"/>
+      <c r="P7" s="716"/>
+      <c r="Q7" s="716"/>
+      <c r="R7" s="716"/>
+      <c r="S7" s="716"/>
+      <c r="T7" s="716"/>
+      <c r="U7" s="716"/>
+      <c r="V7" s="716"/>
+      <c r="W7" s="716"/>
+      <c r="X7" s="716"/>
+      <c r="Y7" s="716"/>
+      <c r="Z7" s="716"/>
+      <c r="AA7" s="716"/>
+      <c r="AB7" s="716"/>
+      <c r="AC7" s="716"/>
+      <c r="AD7" s="716"/>
+      <c r="AE7" s="716"/>
+      <c r="AF7" s="716"/>
+      <c r="AG7" s="716"/>
+      <c r="AH7" s="716"/>
+      <c r="AI7" s="716"/>
+      <c r="AJ7" s="716"/>
+      <c r="AK7" s="716"/>
+      <c r="AL7" s="716"/>
+      <c r="AM7" s="716"/>
+      <c r="AN7" s="716"/>
+      <c r="AO7" s="716"/>
+      <c r="AP7" s="716"/>
+      <c r="AQ7" s="717"/>
+      <c r="AR7" s="683" t="s">
         <v>371</v>
       </c>
-      <c r="AS7" s="688"/>
-      <c r="AT7" s="689"/>
-      <c r="AU7" s="702" t="s">
+      <c r="AS7" s="684"/>
+      <c r="AT7" s="685"/>
+      <c r="AU7" s="654" t="s">
         <v>333</v>
       </c>
       <c r="AX7" s="95"/>
       <c r="AY7" s="95"/>
     </row>
     <row r="8" spans="1:51" ht="15" customHeight="1">
-      <c r="A8" s="674" t="s">
+      <c r="A8" s="712" t="s">
         <v>382</v>
       </c>
-      <c r="B8" s="711"/>
-      <c r="C8" s="678" t="s">
+      <c r="B8" s="725"/>
+      <c r="C8" s="657" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="681" t="s">
+      <c r="D8" s="660" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="684" t="s">
+      <c r="E8" s="663" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="642" t="s">
+      <c r="F8" s="666" t="s">
         <v>288</v>
       </c>
-      <c r="G8" s="645" t="s">
+      <c r="G8" s="720" t="s">
         <v>292</v>
       </c>
-      <c r="H8" s="646"/>
-      <c r="I8" s="646"/>
-      <c r="J8" s="646"/>
-      <c r="K8" s="647"/>
-      <c r="L8" s="647"/>
-      <c r="M8" s="647"/>
-      <c r="N8" s="647"/>
-      <c r="O8" s="647"/>
-      <c r="P8" s="648"/>
-      <c r="Q8" s="668" t="s">
+      <c r="H8" s="721"/>
+      <c r="I8" s="721"/>
+      <c r="J8" s="721"/>
+      <c r="K8" s="670"/>
+      <c r="L8" s="670"/>
+      <c r="M8" s="670"/>
+      <c r="N8" s="670"/>
+      <c r="O8" s="670"/>
+      <c r="P8" s="671"/>
+      <c r="Q8" s="695" t="s">
         <v>291</v>
       </c>
-      <c r="R8" s="669"/>
-      <c r="S8" s="669"/>
-      <c r="T8" s="669"/>
-      <c r="U8" s="669"/>
-      <c r="V8" s="669"/>
-      <c r="W8" s="669"/>
-      <c r="X8" s="669"/>
-      <c r="Y8" s="669"/>
-      <c r="Z8" s="669"/>
-      <c r="AA8" s="669"/>
-      <c r="AB8" s="669"/>
-      <c r="AC8" s="669"/>
-      <c r="AD8" s="669"/>
-      <c r="AE8" s="669"/>
-      <c r="AF8" s="669"/>
-      <c r="AG8" s="669"/>
-      <c r="AH8" s="669"/>
-      <c r="AI8" s="669"/>
-      <c r="AJ8" s="669"/>
-      <c r="AK8" s="669"/>
-      <c r="AL8" s="669"/>
-      <c r="AM8" s="669"/>
-      <c r="AN8" s="669"/>
-      <c r="AO8" s="670"/>
-      <c r="AP8" s="705" t="s">
+      <c r="R8" s="696"/>
+      <c r="S8" s="696"/>
+      <c r="T8" s="696"/>
+      <c r="U8" s="696"/>
+      <c r="V8" s="696"/>
+      <c r="W8" s="696"/>
+      <c r="X8" s="696"/>
+      <c r="Y8" s="696"/>
+      <c r="Z8" s="696"/>
+      <c r="AA8" s="696"/>
+      <c r="AB8" s="696"/>
+      <c r="AC8" s="696"/>
+      <c r="AD8" s="696"/>
+      <c r="AE8" s="696"/>
+      <c r="AF8" s="696"/>
+      <c r="AG8" s="696"/>
+      <c r="AH8" s="696"/>
+      <c r="AI8" s="696"/>
+      <c r="AJ8" s="696"/>
+      <c r="AK8" s="696"/>
+      <c r="AL8" s="696"/>
+      <c r="AM8" s="696"/>
+      <c r="AN8" s="696"/>
+      <c r="AO8" s="697"/>
+      <c r="AP8" s="672" t="s">
         <v>331</v>
       </c>
-      <c r="AQ8" s="699" t="s">
+      <c r="AQ8" s="675" t="s">
         <v>332</v>
       </c>
-      <c r="AR8" s="690"/>
-      <c r="AS8" s="691"/>
-      <c r="AT8" s="692"/>
-      <c r="AU8" s="703"/>
+      <c r="AR8" s="686"/>
+      <c r="AS8" s="687"/>
+      <c r="AT8" s="688"/>
+      <c r="AU8" s="655"/>
     </row>
     <row r="9" spans="1:51">
-      <c r="A9" s="619"/>
-      <c r="B9" s="620"/>
-      <c r="C9" s="679"/>
-      <c r="D9" s="682"/>
-      <c r="E9" s="685"/>
-      <c r="F9" s="643"/>
-      <c r="G9" s="649" t="s">
+      <c r="A9" s="641"/>
+      <c r="B9" s="642"/>
+      <c r="C9" s="658"/>
+      <c r="D9" s="661"/>
+      <c r="E9" s="664"/>
+      <c r="F9" s="718"/>
+      <c r="G9" s="678" t="s">
         <v>298</v>
       </c>
       <c r="H9" s="366"/>
-      <c r="I9" s="649" t="s">
+      <c r="I9" s="678" t="s">
         <v>299</v>
       </c>
       <c r="J9" s="366"/>
-      <c r="K9" s="651" t="s">
+      <c r="K9" s="722" t="s">
         <v>300</v>
       </c>
-      <c r="L9" s="654" t="s">
+      <c r="L9" s="645" t="s">
         <v>338</v>
       </c>
-      <c r="M9" s="654" t="s">
+      <c r="M9" s="645" t="s">
         <v>318</v>
       </c>
-      <c r="N9" s="636" t="s">
+      <c r="N9" s="648" t="s">
         <v>339</v>
       </c>
-      <c r="O9" s="657" t="s">
+      <c r="O9" s="680" t="s">
         <v>317</v>
       </c>
-      <c r="P9" s="662" t="s">
+      <c r="P9" s="701" t="s">
         <v>319</v>
       </c>
-      <c r="Q9" s="665" t="s">
+      <c r="Q9" s="704" t="s">
         <v>289</v>
       </c>
-      <c r="R9" s="633" t="s">
+      <c r="R9" s="707" t="s">
         <v>296</v>
       </c>
       <c r="S9" s="244"/>
-      <c r="T9" s="633" t="s">
+      <c r="T9" s="707" t="s">
         <v>302</v>
       </c>
       <c r="U9" s="245"/>
-      <c r="V9" s="633" t="s">
+      <c r="V9" s="707" t="s">
         <v>293</v>
       </c>
       <c r="W9" s="244"/>
-      <c r="X9" s="633" t="s">
+      <c r="X9" s="707" t="s">
         <v>294</v>
       </c>
       <c r="Y9" s="244"/>
-      <c r="Z9" s="633" t="s">
+      <c r="Z9" s="707" t="s">
         <v>295</v>
       </c>
       <c r="AA9" s="245"/>
-      <c r="AB9" s="636" t="s">
+      <c r="AB9" s="648" t="s">
         <v>366</v>
       </c>
       <c r="AC9" s="296"/>
-      <c r="AD9" s="639" t="s">
+      <c r="AD9" s="651" t="s">
         <v>365</v>
       </c>
-      <c r="AE9" s="636" t="s">
+      <c r="AE9" s="648" t="s">
         <v>367</v>
       </c>
       <c r="AF9" s="296"/>
-      <c r="AG9" s="639" t="s">
+      <c r="AG9" s="651" t="s">
         <v>364</v>
       </c>
-      <c r="AH9" s="654" t="s">
+      <c r="AH9" s="645" t="s">
         <v>368</v>
       </c>
-      <c r="AI9" s="654" t="s">
+      <c r="AI9" s="645" t="s">
         <v>320</v>
       </c>
-      <c r="AJ9" s="654" t="s">
+      <c r="AJ9" s="645" t="s">
         <v>321</v>
       </c>
-      <c r="AK9" s="671" t="s">
+      <c r="AK9" s="698" t="s">
         <v>369</v>
       </c>
-      <c r="AL9" s="654" t="s">
+      <c r="AL9" s="645" t="s">
         <v>370</v>
       </c>
-      <c r="AM9" s="654" t="s">
+      <c r="AM9" s="645" t="s">
         <v>342</v>
       </c>
-      <c r="AN9" s="654" t="s">
+      <c r="AN9" s="645" t="s">
         <v>343</v>
       </c>
-      <c r="AO9" s="696" t="s">
+      <c r="AO9" s="692" t="s">
         <v>330</v>
       </c>
-      <c r="AP9" s="706"/>
-      <c r="AQ9" s="700"/>
-      <c r="AR9" s="690"/>
-      <c r="AS9" s="691"/>
-      <c r="AT9" s="692"/>
-      <c r="AU9" s="703"/>
+      <c r="AP9" s="673"/>
+      <c r="AQ9" s="676"/>
+      <c r="AR9" s="686"/>
+      <c r="AS9" s="687"/>
+      <c r="AT9" s="688"/>
+      <c r="AU9" s="655"/>
     </row>
     <row r="10" spans="1:51">
-      <c r="A10" s="619"/>
-      <c r="B10" s="620"/>
-      <c r="C10" s="679"/>
-      <c r="D10" s="682"/>
-      <c r="E10" s="685"/>
-      <c r="F10" s="643"/>
-      <c r="G10" s="650"/>
+      <c r="A10" s="641"/>
+      <c r="B10" s="642"/>
+      <c r="C10" s="658"/>
+      <c r="D10" s="661"/>
+      <c r="E10" s="664"/>
+      <c r="F10" s="718"/>
+      <c r="G10" s="679"/>
       <c r="H10" s="367"/>
-      <c r="I10" s="650"/>
+      <c r="I10" s="679"/>
       <c r="J10" s="367"/>
-      <c r="K10" s="652"/>
-      <c r="L10" s="655"/>
-      <c r="M10" s="655"/>
-      <c r="N10" s="637"/>
-      <c r="O10" s="658"/>
-      <c r="P10" s="663"/>
-      <c r="Q10" s="666"/>
-      <c r="R10" s="634"/>
+      <c r="K10" s="723"/>
+      <c r="L10" s="646"/>
+      <c r="M10" s="646"/>
+      <c r="N10" s="649"/>
+      <c r="O10" s="681"/>
+      <c r="P10" s="702"/>
+      <c r="Q10" s="705"/>
+      <c r="R10" s="708"/>
       <c r="S10" s="287"/>
-      <c r="T10" s="634"/>
+      <c r="T10" s="708"/>
       <c r="U10" s="289"/>
-      <c r="V10" s="634"/>
+      <c r="V10" s="708"/>
       <c r="W10" s="287"/>
-      <c r="X10" s="634"/>
+      <c r="X10" s="708"/>
       <c r="Y10" s="287"/>
-      <c r="Z10" s="634"/>
+      <c r="Z10" s="708"/>
       <c r="AA10" s="289"/>
-      <c r="AB10" s="637"/>
+      <c r="AB10" s="649"/>
       <c r="AC10" s="343"/>
-      <c r="AD10" s="640"/>
-      <c r="AE10" s="637"/>
+      <c r="AD10" s="652"/>
+      <c r="AE10" s="649"/>
       <c r="AF10" s="343"/>
-      <c r="AG10" s="640"/>
-      <c r="AH10" s="655"/>
-      <c r="AI10" s="655"/>
-      <c r="AJ10" s="655"/>
-      <c r="AK10" s="672"/>
-      <c r="AL10" s="655"/>
-      <c r="AM10" s="655"/>
-      <c r="AN10" s="655"/>
-      <c r="AO10" s="697"/>
-      <c r="AP10" s="706"/>
-      <c r="AQ10" s="700"/>
-      <c r="AR10" s="693"/>
-      <c r="AS10" s="694"/>
-      <c r="AT10" s="695"/>
-      <c r="AU10" s="703"/>
+      <c r="AG10" s="652"/>
+      <c r="AH10" s="646"/>
+      <c r="AI10" s="646"/>
+      <c r="AJ10" s="646"/>
+      <c r="AK10" s="699"/>
+      <c r="AL10" s="646"/>
+      <c r="AM10" s="646"/>
+      <c r="AN10" s="646"/>
+      <c r="AO10" s="693"/>
+      <c r="AP10" s="673"/>
+      <c r="AQ10" s="676"/>
+      <c r="AR10" s="689"/>
+      <c r="AS10" s="690"/>
+      <c r="AT10" s="691"/>
+      <c r="AU10" s="655"/>
     </row>
     <row r="11" spans="1:51" ht="15.75">
-      <c r="A11" s="619"/>
-      <c r="B11" s="620"/>
-      <c r="C11" s="680"/>
-      <c r="D11" s="683"/>
-      <c r="E11" s="686"/>
-      <c r="F11" s="644"/>
-      <c r="G11" s="650"/>
+      <c r="A11" s="641"/>
+      <c r="B11" s="642"/>
+      <c r="C11" s="659"/>
+      <c r="D11" s="662"/>
+      <c r="E11" s="665"/>
+      <c r="F11" s="719"/>
+      <c r="G11" s="679"/>
       <c r="H11" s="367" t="s">
         <v>301</v>
       </c>
-      <c r="I11" s="650"/>
+      <c r="I11" s="679"/>
       <c r="J11" s="367" t="s">
         <v>301</v>
       </c>
-      <c r="K11" s="653"/>
-      <c r="L11" s="656"/>
-      <c r="M11" s="656"/>
-      <c r="N11" s="638"/>
-      <c r="O11" s="659"/>
-      <c r="P11" s="664"/>
-      <c r="Q11" s="667"/>
-      <c r="R11" s="635"/>
+      <c r="K11" s="724"/>
+      <c r="L11" s="647"/>
+      <c r="M11" s="647"/>
+      <c r="N11" s="650"/>
+      <c r="O11" s="682"/>
+      <c r="P11" s="703"/>
+      <c r="Q11" s="706"/>
+      <c r="R11" s="709"/>
       <c r="S11" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="T11" s="635"/>
+      <c r="T11" s="709"/>
       <c r="U11" s="289" t="s">
         <v>301</v>
       </c>
-      <c r="V11" s="635"/>
+      <c r="V11" s="709"/>
       <c r="W11" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="X11" s="635"/>
+      <c r="X11" s="709"/>
       <c r="Y11" s="287" t="s">
         <v>301</v>
       </c>
-      <c r="Z11" s="635"/>
+      <c r="Z11" s="709"/>
       <c r="AA11" s="289" t="s">
         <v>301</v>
       </c>
-      <c r="AB11" s="638"/>
+      <c r="AB11" s="650"/>
       <c r="AC11" s="297" t="s">
         <v>301</v>
       </c>
-      <c r="AD11" s="641"/>
-      <c r="AE11" s="638"/>
+      <c r="AD11" s="653"/>
+      <c r="AE11" s="650"/>
       <c r="AF11" s="297" t="s">
         <v>301</v>
       </c>
-      <c r="AG11" s="641"/>
-      <c r="AH11" s="656"/>
-      <c r="AI11" s="656"/>
-      <c r="AJ11" s="656"/>
-      <c r="AK11" s="673"/>
-      <c r="AL11" s="656"/>
-      <c r="AM11" s="656"/>
-      <c r="AN11" s="656"/>
-      <c r="AO11" s="698"/>
-      <c r="AP11" s="707"/>
-      <c r="AQ11" s="701"/>
+      <c r="AG11" s="653"/>
+      <c r="AH11" s="647"/>
+      <c r="AI11" s="647"/>
+      <c r="AJ11" s="647"/>
+      <c r="AK11" s="700"/>
+      <c r="AL11" s="647"/>
+      <c r="AM11" s="647"/>
+      <c r="AN11" s="647"/>
+      <c r="AO11" s="694"/>
+      <c r="AP11" s="674"/>
+      <c r="AQ11" s="677"/>
       <c r="AR11" s="307" t="s">
         <v>334</v>
       </c>
@@ -21996,11 +22140,11 @@
       <c r="AT11" s="308" t="s">
         <v>336</v>
       </c>
-      <c r="AU11" s="704"/>
+      <c r="AU11" s="656"/>
     </row>
     <row r="12" spans="1:51">
-      <c r="A12" s="619"/>
-      <c r="B12" s="620"/>
+      <c r="A12" s="641"/>
+      <c r="B12" s="642"/>
       <c r="C12" s="360">
         <v>300</v>
       </c>
@@ -22171,8 +22315,8 @@
       </c>
     </row>
     <row r="13" spans="1:51">
-      <c r="A13" s="619"/>
-      <c r="B13" s="620"/>
+      <c r="A13" s="641"/>
+      <c r="B13" s="642"/>
       <c r="C13" s="360"/>
       <c r="D13" s="121"/>
       <c r="E13" s="309"/>
@@ -22220,8 +22364,8 @@
       <c r="AU13" s="306"/>
     </row>
     <row r="14" spans="1:51">
-      <c r="A14" s="619"/>
-      <c r="B14" s="620"/>
+      <c r="A14" s="641"/>
+      <c r="B14" s="642"/>
       <c r="C14" s="360"/>
       <c r="D14" s="121"/>
       <c r="E14" s="309"/>
@@ -22269,8 +22413,8 @@
       <c r="AU14" s="306"/>
     </row>
     <row r="15" spans="1:51">
-      <c r="A15" s="621"/>
-      <c r="B15" s="622"/>
+      <c r="A15" s="643"/>
+      <c r="B15" s="644"/>
       <c r="C15" s="360"/>
       <c r="D15" s="121"/>
       <c r="E15" s="309"/>
@@ -22460,6 +22604,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="AO9:AO11"/>
+    <mergeCell ref="AH9:AH11"/>
+    <mergeCell ref="AI9:AI11"/>
+    <mergeCell ref="AJ9:AJ11"/>
+    <mergeCell ref="AK9:AK11"/>
+    <mergeCell ref="AL9:AL11"/>
+    <mergeCell ref="AM9:AM11"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:AQ7"/>
+    <mergeCell ref="AR7:AT10"/>
+    <mergeCell ref="R9:R11"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="A8:B15"/>
+    <mergeCell ref="AN9:AN11"/>
+    <mergeCell ref="X9:X11"/>
+    <mergeCell ref="Z9:Z11"/>
+    <mergeCell ref="AB9:AB11"/>
+    <mergeCell ref="AD9:AD11"/>
+    <mergeCell ref="AE9:AE11"/>
+    <mergeCell ref="AG9:AG11"/>
+    <mergeCell ref="O9:O11"/>
     <mergeCell ref="AU7:AU11"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="D8:D11"/>
@@ -22476,30 +22644,6 @@
     <mergeCell ref="L9:L11"/>
     <mergeCell ref="M9:M11"/>
     <mergeCell ref="N9:N11"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:AQ7"/>
-    <mergeCell ref="AR7:AT10"/>
-    <mergeCell ref="R9:R11"/>
-    <mergeCell ref="T9:T11"/>
-    <mergeCell ref="V9:V11"/>
-    <mergeCell ref="A8:B15"/>
-    <mergeCell ref="AN9:AN11"/>
-    <mergeCell ref="X9:X11"/>
-    <mergeCell ref="Z9:Z11"/>
-    <mergeCell ref="AB9:AB11"/>
-    <mergeCell ref="AD9:AD11"/>
-    <mergeCell ref="AE9:AE11"/>
-    <mergeCell ref="AG9:AG11"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="AO9:AO11"/>
-    <mergeCell ref="AH9:AH11"/>
-    <mergeCell ref="AI9:AI11"/>
-    <mergeCell ref="AJ9:AJ11"/>
-    <mergeCell ref="AK9:AK11"/>
-    <mergeCell ref="AL9:AL11"/>
-    <mergeCell ref="AM9:AM11"/>
   </mergeCells>
   <conditionalFormatting sqref="M12:M18">
     <cfRule type="expression" dxfId="1" priority="6">
@@ -22578,17 +22722,17 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="M2" s="720" t="s">
+      <c r="M2" s="734" t="s">
         <v>212</v>
       </c>
-      <c r="N2" s="721"/>
-      <c r="P2" s="719" t="s">
+      <c r="N2" s="735"/>
+      <c r="P2" s="733" t="s">
         <v>226</v>
       </c>
-      <c r="Q2" s="719"/>
-      <c r="R2" s="719"/>
-      <c r="S2" s="719"/>
-      <c r="T2" s="719"/>
+      <c r="Q2" s="733"/>
+      <c r="R2" s="733"/>
+      <c r="S2" s="733"/>
+      <c r="T2" s="733"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
       <c r="A3" s="222" t="s">
@@ -22609,16 +22753,16 @@
       <c r="G3" s="228" t="s">
         <v>231</v>
       </c>
-      <c r="I3" s="712" t="s">
+      <c r="I3" s="726" t="s">
         <v>124</v>
       </c>
-      <c r="J3" s="712"/>
-      <c r="K3" s="712"/>
-      <c r="P3" s="719"/>
-      <c r="Q3" s="719"/>
-      <c r="R3" s="719"/>
-      <c r="S3" s="719"/>
-      <c r="T3" s="719"/>
+      <c r="J3" s="726"/>
+      <c r="K3" s="726"/>
+      <c r="P3" s="733"/>
+      <c r="Q3" s="733"/>
+      <c r="R3" s="733"/>
+      <c r="S3" s="733"/>
+      <c r="T3" s="733"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1">
       <c r="A4" s="20" t="s">
@@ -22657,11 +22801,11 @@
         <f t="array" ref="N4">IFERROR(INDEX($K$5:$K$14,MATCH(TRUE,EXACT($I$5:$I$14,MID(M4,1,1)),0)),1)</f>
         <v>1000000000</v>
       </c>
-      <c r="P4" s="719"/>
-      <c r="Q4" s="719"/>
-      <c r="R4" s="719"/>
-      <c r="S4" s="719"/>
-      <c r="T4" s="719"/>
+      <c r="P4" s="733"/>
+      <c r="Q4" s="733"/>
+      <c r="R4" s="733"/>
+      <c r="S4" s="733"/>
+      <c r="T4" s="733"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="20" t="s">
@@ -22740,12 +22884,12 @@
         <f t="array" ref="N6">IFERROR(INDEX($K$5:$K$14,MATCH(TRUE,EXACT($I$5:$I$14,MID(M6,1,1)),0)),1)</f>
         <v>1000</v>
       </c>
-      <c r="P6" s="713" t="s">
+      <c r="P6" s="727" t="s">
         <v>123</v>
       </c>
-      <c r="Q6" s="714"/>
-      <c r="R6" s="714"/>
-      <c r="S6" s="715"/>
+      <c r="Q6" s="728"/>
+      <c r="R6" s="728"/>
+      <c r="S6" s="729"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="227" t="s">
@@ -23473,14 +23617,14 @@
         <f t="array" ref="G24">INDEX($K$16:$K$21,MATCH(TRUE,EXACT($I$16:$I$21,E24),0))/INDEX($K$16:$K$21,MATCH(TRUE,EXACT($I$16:$I$21,F24),0))</f>
         <v>9.3132257461547852E-10</v>
       </c>
-      <c r="N24" s="716" t="s">
+      <c r="N24" s="730" t="s">
         <v>241</v>
       </c>
-      <c r="O24" s="717"/>
-      <c r="P24" s="718" t="s">
+      <c r="O24" s="731"/>
+      <c r="P24" s="732" t="s">
         <v>240</v>
       </c>
-      <c r="Q24" s="718"/>
+      <c r="Q24" s="732"/>
       <c r="S24" t="s">
         <v>233</v>
       </c>
